--- a/WppRegpack/TestResource/Regression/DS_MLY_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Regression/DS_MLY_REGRESSION.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Music\IssueFixing\GlobalTestSuiteAutomation\WppRegpack\TestResource\Regression\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Documents\BAU\GlobalTestSuiteAutomation\WppRegpack\TestResource\Regression\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="10" activeTab="17"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="53" activeTab="55"/>
   </bookViews>
   <sheets>
     <sheet name="Server Details" sheetId="1" r:id="rId1"/>
@@ -66,12 +66,14 @@
     <sheet name="InvoiceOnAccount" sheetId="56" r:id="rId52"/>
     <sheet name="InvoicingFromBudget" sheetId="57" r:id="rId53"/>
     <sheet name="JobInvoiceAllocation_WIP" sheetId="58" r:id="rId54"/>
-    <sheet name="Agency Users" sheetId="11" r:id="rId55"/>
-    <sheet name="SSC Users" sheetId="12" r:id="rId56"/>
+    <sheet name="InvoiceMPL" sheetId="59" r:id="rId55"/>
+    <sheet name="QuoteMPL" sheetId="60" r:id="rId56"/>
+    <sheet name="Agency Users" sheetId="11" r:id="rId57"/>
+    <sheet name="SSC Users" sheetId="12" r:id="rId58"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -79,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2180" uniqueCount="1134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2181" uniqueCount="1133">
   <si>
     <t>Description</t>
   </si>
@@ -3477,9 +3479,6 @@
   </si>
   <si>
     <t>MY ZP Input Tax 0%</t>
-  </si>
-  <si>
-    <t>2031700739</t>
   </si>
   <si>
     <t>2031700740</t>
@@ -3489,7 +3488,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4270,8 +4268,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="2" max="9" bestFit="true" customWidth="true" width="40.7109375" collapsed="true"/>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="9" width="40.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4357,16 +4355,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="30" width="31.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="30" width="60.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="30" width="59.42578125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="30" width="51.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="30" width="51.85546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="30" width="58.140625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="30" width="57.7109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="30" width="63.7109375" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="30" width="45.28515625" collapsed="true"/>
-    <col min="10" max="16384" style="30" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="31" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="60.140625" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="59.42578125" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="51" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="51.85546875" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="58.140625" style="30" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="57.7109375" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="63.7109375" style="30" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="45.28515625" style="30" customWidth="1" collapsed="1"/>
+    <col min="10" max="16384" width="9.140625" style="30" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5035,9 +5033,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="30" width="24.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="30" width="23.140625" collapsed="true"/>
-    <col min="3" max="16384" style="30" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="24.140625" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="23.140625" style="30" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" style="30" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5134,11 +5132,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="37.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="68.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="67.42578125" collapsed="true"/>
-    <col min="4" max="9" bestFit="true" customWidth="true" width="87.5703125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="69.42578125" collapsed="true"/>
+    <col min="1" max="1" width="37.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="68.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="67.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="9" width="87.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="69.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5985,8 +5983,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="30" width="31.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="30" width="60.140625" collapsed="true"/>
+    <col min="1" max="1" width="31" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="60.140625" style="30" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6115,7 +6113,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="26.28515625" collapsed="true"/>
+    <col min="2" max="2" width="26.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6207,9 +6205,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:62" x14ac:dyDescent="0.25">
@@ -6518,8 +6516,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -6581,8 +6579,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="45.5703125" collapsed="true"/>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="45.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -6612,14 +6610,14 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="3" max="4" bestFit="true" customWidth="true" width="29.140625" collapsed="true"/>
+    <col min="1" max="2" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="29.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -6663,8 +6661,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="32.140625" collapsed="true"/>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -6699,10 +6697,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="30" width="23.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="30" width="27.85546875" collapsed="true"/>
-    <col min="3" max="155" customWidth="true" style="30" width="32.0" collapsed="true"/>
-    <col min="156" max="16384" style="30" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="23.140625" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.85546875" style="30" customWidth="1" collapsed="1"/>
+    <col min="3" max="155" width="32" style="30" customWidth="1" collapsed="1"/>
+    <col min="156" max="16384" width="9.140625" style="30" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:155" x14ac:dyDescent="0.25">
@@ -6884,7 +6882,7 @@
         <v>195</v>
       </c>
       <c r="B4" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="5" spans="1:155" x14ac:dyDescent="0.25">
@@ -6945,8 +6943,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -6996,8 +6994,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -7047,48 +7045,48 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="37" max="37" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="38" max="38" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="39" max="39" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="40" max="40" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="41" max="41" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="42" max="42" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="40" max="40" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="42" max="42" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="43" max="43" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:43" x14ac:dyDescent="0.25">
@@ -7274,40 +7272,40 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="30" width="15.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="2" max="2" width="15.42578125" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:44" x14ac:dyDescent="0.25">
@@ -7493,8 +7491,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -7548,8 +7546,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -7605,8 +7603,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="24.7109375" collapsed="true"/>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -7692,10 +7690,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="30" width="21.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="30" width="22.5703125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="30" width="12.42578125" collapsed="true"/>
-    <col min="4" max="16384" style="30" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="21.140625" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="22.5703125" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.42578125" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="30" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -7765,8 +7763,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="20.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7836,8 +7834,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -7907,7 +7905,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="30" width="12.0" collapsed="true"/>
+    <col min="2" max="2" width="12" style="30" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -9089,8 +9087,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="20.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -9160,11 +9158,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="5" max="6" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="7" max="15" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="1" max="2" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="15" width="16.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -9284,7 +9282,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -9331,7 +9329,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -9369,8 +9367,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="21.42578125" collapsed="true"/>
+    <col min="1" max="1" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="21.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -9424,9 +9422,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="30" width="11.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="30" width="24.42578125" collapsed="true"/>
-    <col min="3" max="16384" style="30" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="11.7109375" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.42578125" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" style="30" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -9504,9 +9502,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="26.140625" collapsed="true"/>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="26.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9580,8 +9578,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="27.5703125" collapsed="true"/>
+    <col min="1" max="1" width="13" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -9635,13 +9633,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="30" width="16.42578125" collapsed="true"/>
-    <col min="2" max="2" style="30" width="9.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="30" width="11.7109375" collapsed="true"/>
-    <col min="4" max="8" style="30" width="9.140625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="30" width="16.0" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="30" width="27.5703125" collapsed="true"/>
-    <col min="11" max="16384" style="30" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="16.42578125" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="9.140625" style="30" collapsed="1"/>
+    <col min="3" max="3" width="11.7109375" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="8" width="9.140625" style="30" collapsed="1"/>
+    <col min="9" max="9" width="16" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="27.5703125" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="16384" width="9.140625" style="30" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9727,12 +9725,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="23.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9824,7 +9822,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="37.5703125" collapsed="true"/>
+    <col min="1" max="1" width="37.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -11878,9 +11876,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="30" width="14.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="30" width="15.28515625" collapsed="true"/>
-    <col min="3" max="16384" style="30" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="14.28515625" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.28515625" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" style="30" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -11958,8 +11956,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -12029,11 +12027,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="24.85546875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="24.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:44" x14ac:dyDescent="0.25">
@@ -12215,8 +12213,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="35.0" collapsed="true"/>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -12422,7 +12420,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -12496,8 +12494,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="28.7109375" collapsed="true"/>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="28.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -12582,8 +12580,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="30" width="14.140625" collapsed="true"/>
-    <col min="2" max="16384" style="30" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="14.140625" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="16384" width="9.140625" style="30" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -12626,9 +12624,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="30" width="14.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="30" width="10.0" collapsed="true"/>
-    <col min="3" max="16384" style="30" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="14.140625" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" style="30" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -12683,15 +12681,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="15.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
@@ -12802,9 +12800,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="99" width="18.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="99" width="35.0" collapsed="true"/>
-    <col min="3" max="16384" style="99" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="18" style="99" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35" style="99" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" style="99" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -12848,8 +12846,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="20.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="33.5703125" collapsed="true"/>
+    <col min="1" max="1" width="20.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.5703125" style="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -13014,8 +13012,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="30" width="11.0" collapsed="true"/>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11" style="30" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -13058,8 +13056,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="30" width="11.0" collapsed="true"/>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11" style="30" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -13094,41 +13092,41 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="38" max="38" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="39" max="39" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="40" max="40" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="44" max="44" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="45" max="45" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="48" max="48" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="49" max="49" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="50" max="50" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="40" max="40" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="43" max="43" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="44" max="44" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="45" max="45" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="47" max="47" width="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="48" max="48" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="49" max="49" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="50" max="50" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:42" x14ac:dyDescent="0.25">
@@ -13317,8 +13315,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="30" width="11.0" collapsed="true"/>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11" style="30" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -13358,8 +13356,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="30" width="11.0" collapsed="true"/>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11" style="30" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -13393,6 +13391,71 @@
 </file>
 
 <file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2031</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2031</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
@@ -13405,8 +13468,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="21.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -13503,7 +13566,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
@@ -13516,9 +13579,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="36.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="24.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="36.5703125" collapsed="true"/>
+    <col min="1" max="1" width="36.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="36.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13660,10 +13723,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="49" width="30.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="49" width="33.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="43.0" collapsed="true"/>
-    <col min="4" max="16384" style="30" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="30.140625" style="49" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.5703125" style="49" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="43" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="30" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -13869,39 +13932,39 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="37" max="37" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="39" max="39" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="40" max="40" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="41" max="41" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="40" max="40" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:42" x14ac:dyDescent="0.25">
@@ -14093,28 +14156,28 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="22.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="14.5703125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="22.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.5703125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.5703125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
@@ -14281,9 +14344,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="30" width="19.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="1" max="1" width="21" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">

--- a/WppRegpack/TestResource/Regression/DS_MLY_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Regression/DS_MLY_REGRESSION.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Documents\BAU\GlobalTestSuiteAutomation\WppRegpack\TestResource\Regression\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\OneDrive - Cognizant\Documents\GlobalTestSuite Project\GlobalTestSuiteAutomation\WppRegpack\TestResource\Regression\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="53" activeTab="55"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="53" activeTab="57"/>
   </bookViews>
   <sheets>
     <sheet name="Server Details" sheetId="1" r:id="rId1"/>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2181" uniqueCount="1133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2180" uniqueCount="1133">
   <si>
     <t>Description</t>
   </si>
@@ -3376,90 +3376,12 @@
     <t>E1023</t>
   </si>
   <si>
-    <t>2031 Finance (TSTAUTO)</t>
-  </si>
-  <si>
-    <t>CORE@TESTING2031</t>
-  </si>
-  <si>
     <t>2031</t>
   </si>
   <si>
-    <t>2031 Account Director (TSTAUTO)</t>
-  </si>
-  <si>
-    <t>2031 Admin (TSTAUTO)</t>
-  </si>
-  <si>
-    <t>2031 Basic (TSTAUTO)</t>
-  </si>
-  <si>
-    <t>2031 Biller (TSTAUTO)</t>
-  </si>
-  <si>
-    <t>2031 HR (TSTAUTO)</t>
-  </si>
-  <si>
-    <t>2031 Management (TSTAUTO)</t>
-  </si>
-  <si>
-    <t>2031 Production (TSTAUTO)</t>
-  </si>
-  <si>
-    <t>2031 Project Manager (TSTAUTO)</t>
-  </si>
-  <si>
-    <t>2031 Senior Finance (TSTAUTO)</t>
-  </si>
-  <si>
-    <t>MYS Admin (TSTAUTO)</t>
-  </si>
-  <si>
-    <t>MYS AR (TSTAUTO)</t>
-  </si>
-  <si>
-    <t>MYS Biller (TSTAUTO)</t>
-  </si>
-  <si>
-    <t>MYS Cashier (TSTAUTO)</t>
-  </si>
-  <si>
-    <t>MYS CT Clients (TSTAUTO)</t>
-  </si>
-  <si>
-    <t>MYS CT Vendors (TSTAUTO)</t>
-  </si>
-  <si>
-    <t>MYS Intercompany (TSTAUTO)</t>
-  </si>
-  <si>
-    <t>MYS Junior Accountants (TSTAUTO)</t>
-  </si>
-  <si>
-    <t>MYS Junior APs (TSTAUTO)</t>
-  </si>
-  <si>
-    <t>MYS Management (TSTAUTO)</t>
-  </si>
-  <si>
-    <t>MYS Senior Accountant (TSTAUTO)</t>
-  </si>
-  <si>
-    <t>MYS Senior AP (TSTAUTO)</t>
-  </si>
-  <si>
-    <t>MYS SSC Combined Biller ICS (TSTAUTO)</t>
-  </si>
-  <si>
-    <t>MYS Treasury (TSTAUTO)</t>
-  </si>
-  <si>
     <t>203121713</t>
   </si>
   <si>
-    <t>2031-Malaysia</t>
-  </si>
-  <si>
     <t>JIRA Cycle Name</t>
   </si>
   <si>
@@ -3482,6 +3404,84 @@
   </si>
   <si>
     <t>2031700740</t>
+  </si>
+  <si>
+    <t>MYS-2025-Grey Worldwide Sdn Bhd</t>
+  </si>
+  <si>
+    <t>2025 Finance (TST)</t>
+  </si>
+  <si>
+    <t>CORE@WPP123</t>
+  </si>
+  <si>
+    <t>2025 Account Director (TST)</t>
+  </si>
+  <si>
+    <t>2025 Admin (TST)</t>
+  </si>
+  <si>
+    <t>2025 Basic (TST)</t>
+  </si>
+  <si>
+    <t>2025 Biller (TST)</t>
+  </si>
+  <si>
+    <t>2025 HR (TST)</t>
+  </si>
+  <si>
+    <t>2025 Management (TST)</t>
+  </si>
+  <si>
+    <t>2025 Production (TST)</t>
+  </si>
+  <si>
+    <t>2025 Project Manager (TST)</t>
+  </si>
+  <si>
+    <t>2025 Senior Finance (TST)</t>
+  </si>
+  <si>
+    <t>MYS Admin (TST)</t>
+  </si>
+  <si>
+    <t>MYS AR (TST)</t>
+  </si>
+  <si>
+    <t>MYS Biller (TST)</t>
+  </si>
+  <si>
+    <t>MYS Cashier (TST)</t>
+  </si>
+  <si>
+    <t>MYS CT Clients (TST)</t>
+  </si>
+  <si>
+    <t>MYS CT Vendors (TST)</t>
+  </si>
+  <si>
+    <t>MYS Intercompany (TST)</t>
+  </si>
+  <si>
+    <t>MYS Junior Accountants (TST)</t>
+  </si>
+  <si>
+    <t>MYS Junior APs (TST)</t>
+  </si>
+  <si>
+    <t>MYS Management (TST)</t>
+  </si>
+  <si>
+    <t>MYS Senior Accountant (TST)</t>
+  </si>
+  <si>
+    <t>MYS Senior AP (TST)</t>
+  </si>
+  <si>
+    <t>MYS SSC Combined Biller ICS (TST)</t>
+  </si>
+  <si>
+    <t>MYS Treasury (TST)</t>
   </si>
 </sst>
 </file>
@@ -4263,7 +4263,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:B5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4277,7 +4277,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="71">
-        <v>2031</v>
+        <v>2025</v>
       </c>
       <c r="C1" s="70"/>
       <c r="D1" s="70"/>
@@ -4292,7 +4292,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>1097</v>
+        <v>1108</v>
       </c>
       <c r="C2" s="40"/>
       <c r="D2" s="40"/>
@@ -4307,7 +4307,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="104" t="s">
-        <v>1098</v>
+        <v>1109</v>
       </c>
       <c r="C3" s="67"/>
       <c r="D3" s="67"/>
@@ -4319,18 +4319,15 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="41" t="s">
-        <v>1125</v>
+        <v>1099</v>
       </c>
       <c r="B4" t="s">
-        <v>606</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="66" t="s">
-        <v>1126</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1124</v>
+        <v>1100</v>
       </c>
     </row>
   </sheetData>
@@ -6588,7 +6585,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -6639,7 +6636,7 @@
         <v>2031</v>
       </c>
       <c r="C2" t="s">
-        <v>1131</v>
+        <v>1105</v>
       </c>
     </row>
   </sheetData>
@@ -6670,7 +6667,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -6882,7 +6879,7 @@
         <v>195</v>
       </c>
       <c r="B4" t="s">
-        <v>1132</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="5" spans="1:155" x14ac:dyDescent="0.25">
@@ -13021,7 +13018,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -13029,7 +13026,7 @@
         <v>186</v>
       </c>
       <c r="B2" s="60" t="s">
-        <v>1123</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -13065,7 +13062,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -13324,7 +13321,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -13365,7 +13362,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -13428,7 +13425,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -13477,7 +13474,7 @@
         <v>15</v>
       </c>
       <c r="B1" s="39">
-        <v>2031</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -13485,7 +13482,7 @@
         <v>173</v>
       </c>
       <c r="B2" t="s">
-        <v>1100</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -13493,7 +13490,7 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>1101</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -13501,7 +13498,7 @@
         <v>174</v>
       </c>
       <c r="B4" t="s">
-        <v>1102</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -13509,7 +13506,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>1103</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -13517,7 +13514,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>1097</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -13525,7 +13522,7 @@
         <v>175</v>
       </c>
       <c r="B7" t="s">
-        <v>1104</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -13533,7 +13530,7 @@
         <v>176</v>
       </c>
       <c r="B8" t="s">
-        <v>1105</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -13541,7 +13538,7 @@
         <v>177</v>
       </c>
       <c r="B9" t="s">
-        <v>1106</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -13549,7 +13546,7 @@
         <v>178</v>
       </c>
       <c r="B10" t="s">
-        <v>1107</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13557,7 +13554,7 @@
         <v>179</v>
       </c>
       <c r="B11" t="s">
-        <v>1108</v>
+        <v>1118</v>
       </c>
     </row>
   </sheetData>
@@ -13573,8 +13570,8 @@
   </sheetPr>
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13597,7 +13594,7 @@
         <v>157</v>
       </c>
       <c r="B2" t="s">
-        <v>1109</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -13605,7 +13602,7 @@
         <v>158</v>
       </c>
       <c r="B3" t="s">
-        <v>1110</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -13613,7 +13610,7 @@
         <v>160</v>
       </c>
       <c r="B4" t="s">
-        <v>1111</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -13621,7 +13618,7 @@
         <v>161</v>
       </c>
       <c r="B5" t="s">
-        <v>1112</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -13629,7 +13626,7 @@
         <v>162</v>
       </c>
       <c r="B6" t="s">
-        <v>1113</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -13637,7 +13634,7 @@
         <v>163</v>
       </c>
       <c r="B7" t="s">
-        <v>1114</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -13645,7 +13642,7 @@
         <v>164</v>
       </c>
       <c r="B8" t="s">
-        <v>1115</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -13653,7 +13650,7 @@
         <v>165</v>
       </c>
       <c r="B9" t="s">
-        <v>1116</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -13661,7 +13658,7 @@
         <v>166</v>
       </c>
       <c r="B10" t="s">
-        <v>1117</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -13669,7 +13666,7 @@
         <v>167</v>
       </c>
       <c r="B11" t="s">
-        <v>1118</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -13677,7 +13674,7 @@
         <v>168</v>
       </c>
       <c r="B12" t="s">
-        <v>1119</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -13685,7 +13682,7 @@
         <v>169</v>
       </c>
       <c r="B13" t="s">
-        <v>1120</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -13693,7 +13690,7 @@
         <v>170</v>
       </c>
       <c r="B14" t="s">
-        <v>1121</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13701,7 +13698,7 @@
         <v>172</v>
       </c>
       <c r="B15" t="s">
-        <v>1122</v>
+        <v>1132</v>
       </c>
     </row>
   </sheetData>
@@ -14295,10 +14292,10 @@
         <v>20319905</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>1127</v>
+        <v>1101</v>
       </c>
       <c r="E2" t="s">
-        <v>1128</v>
+        <v>1102</v>
       </c>
       <c r="F2" t="s">
         <v>607</v>
@@ -14307,7 +14304,7 @@
         <v>1000</v>
       </c>
       <c r="H2" t="s">
-        <v>1129</v>
+        <v>1103</v>
       </c>
       <c r="I2" t="s">
         <v>607</v>
@@ -14316,7 +14313,7 @@
         <v>200</v>
       </c>
       <c r="K2" t="s">
-        <v>1130</v>
+        <v>1104</v>
       </c>
       <c r="L2" t="s">
         <v>607</v>

--- a/WppRegpack/TestResource/Regression/DS_MLY_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Regression/DS_MLY_REGRESSION.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GlobalTestSuite_BAU\GlobalTestSuiteAutomation\WppRegpack\TestResource\Regression\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="9" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Server Details" sheetId="1" r:id="rId1"/>
@@ -83,7 +83,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -91,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2600" uniqueCount="1427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2600" uniqueCount="1428">
   <si>
     <t>Description</t>
   </si>
@@ -2518,9 +2518,6 @@
     <t>1/31/2020</t>
   </si>
   <si>
-    <t>1307AutomationUser@sudler.com</t>
-  </si>
-  <si>
     <t>130710132</t>
   </si>
   <si>
@@ -3851,12 +3848,6 @@
     <t>2025_AutomationEmpy@gmail.com</t>
   </si>
   <si>
-    <t>2025AutomationUser@sudler.com</t>
-  </si>
-  <si>
-    <t>9/5/2020</t>
-  </si>
-  <si>
     <t>9/30/2020</t>
   </si>
   <si>
@@ -4376,13 +4367,24 @@
   </si>
   <si>
     <t>202519808</t>
+  </si>
+  <si>
+    <t>2025AutomationUser</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>9/20/2020</t>
+  </si>
+  <si>
+    <t>1307AutomationUser</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4660,7 +4662,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4813,9 +4815,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -5143,8 +5142,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="2" max="9" bestFit="true" customWidth="true" width="40.7109375" collapsed="true"/>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="9" width="40.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5167,7 +5166,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="C2" s="30"/>
       <c r="D2" s="30"/>
@@ -5181,8 +5180,8 @@
       <c r="A3" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="90" t="s">
-        <v>1081</v>
+      <c r="B3" s="89" t="s">
+        <v>1080</v>
       </c>
       <c r="C3" s="53"/>
       <c r="D3" s="53"/>
@@ -5194,15 +5193,15 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="B4" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="52" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
   </sheetData>
@@ -5227,39 +5226,39 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="23.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="37" max="37" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="39" max="39" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="40" max="40" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="41" max="41" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="23.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="40" max="40" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:42" x14ac:dyDescent="0.25">
@@ -5399,7 +5398,7 @@
         <v>70</v>
       </c>
       <c r="D2" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E2">
         <v>6</v>
@@ -5408,7 +5407,7 @@
         <v>1000</v>
       </c>
       <c r="G2" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="H2" t="s">
         <v>797</v>
@@ -5420,10 +5419,10 @@
         <v>500</v>
       </c>
       <c r="K2" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="L2" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="M2">
         <v>15</v>
@@ -5438,10 +5437,10 @@
       </c>
       <c r="B3" s="49"/>
       <c r="C3" t="s">
+        <v>1202</v>
+      </c>
+      <c r="D3" t="s">
         <v>1203</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1204</v>
       </c>
       <c r="E3">
         <v>6</v>
@@ -5450,7 +5449,7 @@
         <v>1000</v>
       </c>
       <c r="G3" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="H3" t="s">
         <v>797</v>
@@ -5462,10 +5461,10 @@
         <v>500</v>
       </c>
       <c r="K3" t="s">
+        <v>1204</v>
+      </c>
+      <c r="L3" t="s">
         <v>1205</v>
-      </c>
-      <c r="L3" t="s">
-        <v>1206</v>
       </c>
       <c r="M3">
         <v>15</v>
@@ -5474,10 +5473,10 @@
         <v>1500</v>
       </c>
       <c r="O3" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="P3" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="Q3">
         <v>10</v>
@@ -5505,28 +5504,28 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="22.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="14.5703125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="22.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.5703125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.5703125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
@@ -5644,10 +5643,10 @@
         <v>20319905</v>
       </c>
       <c r="D2" s="11" t="s">
+        <v>1073</v>
+      </c>
+      <c r="E2" t="s">
         <v>1074</v>
-      </c>
-      <c r="E2" t="s">
-        <v>1075</v>
       </c>
       <c r="F2" t="s">
         <v>589</v>
@@ -5656,7 +5655,7 @@
         <v>1000</v>
       </c>
       <c r="H2" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="I2" t="s">
         <v>589</v>
@@ -5665,7 +5664,7 @@
         <v>200</v>
       </c>
       <c r="K2" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="L2" t="s">
         <v>589</v>
@@ -5685,10 +5684,10 @@
         <v>20259905</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="E3" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="F3" t="s">
         <v>589</v>
@@ -5716,9 +5715,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="20" width="19.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="1" max="1" width="21" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19" style="20" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -5729,7 +5728,7 @@
         <v>1307</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D1">
         <v>2025</v>
@@ -5865,7 +5864,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="B13" s="20" t="s">
         <v>95</v>
@@ -5879,7 +5878,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="B14" s="20" t="s">
         <v>96</v>
@@ -5893,7 +5892,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="B15" s="20" t="s">
         <v>97</v>
@@ -5907,7 +5906,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="B16" s="20" t="s">
         <v>98</v>
@@ -5921,7 +5920,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="B17" s="20" t="s">
         <v>99</v>
@@ -5935,7 +5934,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="B18" s="20" t="s">
         <v>100</v>
@@ -5947,7 +5946,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="B19" s="20" t="s">
         <v>101</v>
@@ -5976,9 +5975,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="20" width="31.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="20" width="51.0" collapsed="true"/>
-    <col min="3" max="16384" style="20" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="31" style="20" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="51" style="20" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" style="20" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5986,7 +5985,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -5994,7 +5993,7 @@
         <v>23</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -6010,7 +6009,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -6018,7 +6017,7 @@
         <v>56</v>
       </c>
       <c r="B5" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -6026,7 +6025,7 @@
         <v>27</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -6041,8 +6040,8 @@
       <c r="A8" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="92" t="s">
-        <v>1251</v>
+      <c r="B8" s="91" t="s">
+        <v>1250</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -6082,7 +6081,7 @@
         <v>52</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>1256</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -6090,7 +6089,7 @@
         <v>38</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -6098,7 +6097,7 @@
         <v>53</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -6106,7 +6105,7 @@
         <v>39</v>
       </c>
       <c r="B16" s="49" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -6114,7 +6113,7 @@
         <v>40</v>
       </c>
       <c r="B17" s="49" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -6130,7 +6129,7 @@
         <v>54</v>
       </c>
       <c r="B19" s="47" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -6168,15 +6167,15 @@
   </sheetPr>
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="20" width="24.140625" collapsed="true"/>
-    <col min="2" max="3" customWidth="true" style="20" width="23.140625" collapsed="true"/>
-    <col min="4" max="16384" style="20" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="24.140625" style="20" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="23.140625" style="20" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="20" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6187,51 +6186,49 @@
         <v>1307</v>
       </c>
       <c r="C1" s="40" t="s">
-        <v>1148</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="78" t="s">
-        <v>808</v>
-      </c>
-      <c r="C2" s="41" t="s">
-        <v>1252</v>
+      <c r="B2" t="s">
+        <v>1427</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1424</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="41">
-        <v>1307</v>
+        <v>191</v>
+      </c>
+      <c r="B3" s="41" t="s">
+        <v>808</v>
       </c>
       <c r="C3" s="41" t="s">
-        <v>1148</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="41" t="s">
-        <v>191</v>
+        <v>1425</v>
       </c>
       <c r="B4" s="41" t="s">
-        <v>809</v>
+        <v>72</v>
       </c>
       <c r="C4" s="41" t="s">
-        <v>1246</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="41" t="s">
-        <v>64</v>
-      </c>
+      <c r="B5" s="41"/>
       <c r="C5" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -6250,10 +6247,10 @@
         <v>46</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>1253</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -6261,10 +6258,10 @@
         <v>48</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>1254</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -6275,16 +6272,12 @@
         <v>1307</v>
       </c>
       <c r="C9" s="41" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="C2" r:id="rId2"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6301,11 +6294,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="37.5703125" collapsed="true"/>
-    <col min="2" max="3" bestFit="true" customWidth="true" width="68.42578125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="67.42578125" collapsed="true"/>
-    <col min="5" max="10" bestFit="true" customWidth="true" width="87.5703125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="69.42578125" collapsed="true"/>
+    <col min="1" max="1" width="37.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="68.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="67.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="10" width="87.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="69.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -6313,7 +6306,7 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="C1" t="s">
         <v>72</v>
@@ -6348,7 +6341,7 @@
         <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="C2" t="s">
         <v>184</v>
@@ -6488,7 +6481,7 @@
         <v>56</v>
       </c>
       <c r="B6" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="C6" t="s">
         <v>64</v>
@@ -6522,8 +6515,8 @@
       <c r="A7" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="94" t="s">
-        <v>1258</v>
+      <c r="B7" s="93" t="s">
+        <v>1255</v>
       </c>
       <c r="C7" t="s">
         <v>63</v>
@@ -6593,7 +6586,7 @@
         <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="C9" t="s">
         <v>184</v>
@@ -6768,7 +6761,7 @@
         <v>52</v>
       </c>
       <c r="B14" t="s">
-        <v>1256</v>
+        <v>1253</v>
       </c>
       <c r="C14" t="s">
         <v>66</v>
@@ -6803,7 +6796,7 @@
         <v>38</v>
       </c>
       <c r="B15" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="C15" t="s">
         <v>8</v>
@@ -6838,7 +6831,7 @@
         <v>53</v>
       </c>
       <c r="B16" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="C16" t="s">
         <v>68</v>
@@ -6978,7 +6971,7 @@
         <v>54</v>
       </c>
       <c r="B20" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="C20" t="s">
         <v>188</v>
@@ -7117,8 +7110,8 @@
       <c r="A24" t="s">
         <v>50</v>
       </c>
-      <c r="B24" s="94" t="s">
-        <v>1258</v>
+      <c r="B24" s="93" t="s">
+        <v>1255</v>
       </c>
       <c r="C24" t="s">
         <v>193</v>
@@ -7152,8 +7145,8 @@
       <c r="A25" t="s">
         <v>51</v>
       </c>
-      <c r="B25" s="94" t="s">
-        <v>1257</v>
+      <c r="B25" s="93" t="s">
+        <v>1254</v>
       </c>
       <c r="C25" t="s">
         <v>190</v>
@@ -7188,7 +7181,7 @@
         <v>49</v>
       </c>
       <c r="B26" t="s">
-        <v>1255</v>
+        <v>1252</v>
       </c>
       <c r="C26" t="s">
         <v>210</v>
@@ -7224,8 +7217,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="20" width="31.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="20" width="60.140625" collapsed="true"/>
+    <col min="1" max="1" width="31" style="20" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="60.140625" style="20" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7354,7 +7347,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="26.28515625" collapsed="true"/>
+    <col min="2" max="2" width="26.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7446,9 +7439,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:62" x14ac:dyDescent="0.25">
@@ -7471,10 +7464,10 @@
         <v>114</v>
       </c>
       <c r="G1" s="17" t="s">
+        <v>965</v>
+      </c>
+      <c r="H1" s="17" t="s">
         <v>966</v>
-      </c>
-      <c r="H1" s="17" t="s">
-        <v>967</v>
       </c>
       <c r="I1" s="17" t="s">
         <v>115</v>
@@ -7489,10 +7482,10 @@
         <v>118</v>
       </c>
       <c r="M1" s="17" t="s">
+        <v>967</v>
+      </c>
+      <c r="N1" s="17" t="s">
         <v>968</v>
-      </c>
-      <c r="N1" s="17" t="s">
-        <v>969</v>
       </c>
       <c r="O1" s="17" t="s">
         <v>119</v>
@@ -7507,10 +7500,10 @@
         <v>122</v>
       </c>
       <c r="S1" s="17" t="s">
+        <v>969</v>
+      </c>
+      <c r="T1" s="17" t="s">
         <v>970</v>
-      </c>
-      <c r="T1" s="17" t="s">
-        <v>971</v>
       </c>
       <c r="U1" s="17" t="s">
         <v>123</v>
@@ -7525,10 +7518,10 @@
         <v>126</v>
       </c>
       <c r="Y1" s="17" t="s">
+        <v>971</v>
+      </c>
+      <c r="Z1" s="17" t="s">
         <v>972</v>
-      </c>
-      <c r="Z1" s="17" t="s">
-        <v>973</v>
       </c>
       <c r="AA1" s="17" t="s">
         <v>127</v>
@@ -7543,10 +7536,10 @@
         <v>130</v>
       </c>
       <c r="AE1" s="17" t="s">
+        <v>973</v>
+      </c>
+      <c r="AF1" s="17" t="s">
         <v>974</v>
-      </c>
-      <c r="AF1" s="17" t="s">
-        <v>975</v>
       </c>
       <c r="AG1" s="17" t="s">
         <v>131</v>
@@ -7561,10 +7554,10 @@
         <v>134</v>
       </c>
       <c r="AK1" s="17" t="s">
+        <v>975</v>
+      </c>
+      <c r="AL1" s="17" t="s">
         <v>976</v>
-      </c>
-      <c r="AL1" s="17" t="s">
-        <v>977</v>
       </c>
       <c r="AM1" s="17" t="s">
         <v>135</v>
@@ -7579,10 +7572,10 @@
         <v>138</v>
       </c>
       <c r="AQ1" s="17" t="s">
+        <v>977</v>
+      </c>
+      <c r="AR1" s="17" t="s">
         <v>978</v>
-      </c>
-      <c r="AR1" s="17" t="s">
-        <v>979</v>
       </c>
       <c r="AS1" s="17" t="s">
         <v>139</v>
@@ -7597,10 +7590,10 @@
         <v>142</v>
       </c>
       <c r="AW1" s="17" t="s">
+        <v>979</v>
+      </c>
+      <c r="AX1" s="17" t="s">
         <v>980</v>
-      </c>
-      <c r="AX1" s="17" t="s">
-        <v>981</v>
       </c>
       <c r="AY1" s="17" t="s">
         <v>143</v>
@@ -7615,10 +7608,10 @@
         <v>146</v>
       </c>
       <c r="BC1" s="17" t="s">
+        <v>981</v>
+      </c>
+      <c r="BD1" s="17" t="s">
         <v>982</v>
-      </c>
-      <c r="BD1" s="17" t="s">
-        <v>983</v>
       </c>
       <c r="BE1" s="17" t="s">
         <v>147</v>
@@ -7633,10 +7626,10 @@
         <v>150</v>
       </c>
       <c r="BI1" s="17" t="s">
+        <v>983</v>
+      </c>
+      <c r="BJ1" s="17" t="s">
         <v>984</v>
-      </c>
-      <c r="BJ1" s="17" t="s">
-        <v>985</v>
       </c>
     </row>
     <row r="2" spans="1:62" x14ac:dyDescent="0.25">
@@ -7659,7 +7652,7 @@
         <v>213</v>
       </c>
       <c r="H2" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="I2">
         <v>5</v>
@@ -7685,10 +7678,10 @@
         <v>3000</v>
       </c>
       <c r="G3" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="H3" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="I3">
         <v>10</v>
@@ -7714,10 +7707,10 @@
         <v>1000</v>
       </c>
       <c r="G4" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="H4" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="I4">
         <v>12</v>
@@ -7726,10 +7719,10 @@
         <v>800</v>
       </c>
       <c r="K4" t="s">
+        <v>963</v>
+      </c>
+      <c r="L4" t="s">
         <v>964</v>
-      </c>
-      <c r="L4" t="s">
-        <v>965</v>
       </c>
       <c r="M4">
         <v>5</v>
@@ -7757,16 +7750,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="91" t="s">
-        <v>1208</v>
+      <c r="B1" s="90" t="s">
+        <v>1207</v>
       </c>
       <c r="C1" s="58" t="s">
         <v>183</v>
@@ -7780,7 +7773,7 @@
         <v>1707</v>
       </c>
       <c r="B2" s="58" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="D2" t="s">
         <v>279</v>
@@ -7788,10 +7781,10 @@
     </row>
     <row r="3" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="D3" s="20" t="s">
         <v>279</v>
@@ -7821,16 +7814,16 @@
   </sheetPr>
   <dimension ref="A1:EY85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+    <sheetView topLeftCell="A63" workbookViewId="0">
       <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="20" width="39.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="20" width="27.85546875" collapsed="true"/>
-    <col min="3" max="155" customWidth="true" style="20" width="32.0" collapsed="true"/>
-    <col min="156" max="16384" style="20" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="39.7109375" style="20" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.85546875" style="20" customWidth="1" collapsed="1"/>
+    <col min="3" max="155" width="32" style="20" customWidth="1" collapsed="1"/>
+    <col min="156" max="16384" width="9.140625" style="20" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:155" x14ac:dyDescent="0.25">
@@ -7999,13 +7992,13 @@
         <v>183</v>
       </c>
       <c r="B2" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
       <c r="C2" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="D2" t="s">
-        <v>1403</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="3" spans="1:155" x14ac:dyDescent="0.25">
@@ -8013,7 +8006,7 @@
         <v>191</v>
       </c>
       <c r="B3" t="s">
-        <v>1259</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="4" spans="1:155" x14ac:dyDescent="0.25">
@@ -8021,7 +8014,7 @@
         <v>192</v>
       </c>
       <c r="B4" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="5" spans="1:155" x14ac:dyDescent="0.25">
@@ -8029,7 +8022,7 @@
         <v>277</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="6" spans="1:155" x14ac:dyDescent="0.25">
@@ -8037,7 +8030,7 @@
         <v>789</v>
       </c>
       <c r="B6" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="7" spans="1:155" x14ac:dyDescent="0.25">
@@ -8045,99 +8038,99 @@
         <v>790</v>
       </c>
       <c r="C7" t="s">
-        <v>1265</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="8" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="B8" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="9" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="B9" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="10" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="B10" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="11" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="12" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="13" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="B13" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="14" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="B14" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="15" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="B15" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="16" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="B16" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="B17" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="B18" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -8150,15 +8143,15 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="20" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="B23" t="s">
-        <v>1355</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -8166,20 +8159,20 @@
         <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>1260</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="B25" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="20" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="B26" t="s">
         <v>279</v>
@@ -8187,20 +8180,20 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="B28" t="s">
-        <v>1271</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="B29" t="s">
         <v>69</v>
@@ -8208,166 +8201,166 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="20" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="B41" s="20" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
       <c r="C41" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="D41" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="E41" t="s">
-        <v>1409</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="20" t="s">
-        <v>1323</v>
+        <v>1320</v>
       </c>
       <c r="B42" s="20" t="s">
-        <v>1425</v>
+        <v>1422</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>1324</v>
+        <v>1321</v>
       </c>
       <c r="D42" s="20" t="s">
-        <v>1399</v>
+        <v>1396</v>
       </c>
       <c r="E42" t="s">
-        <v>1403</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="20" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="20" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="20" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="20" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="20" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="20" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -8375,12 +8368,12 @@
         <v>327</v>
       </c>
       <c r="B58" t="s">
-        <v>1263</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="B59" t="s">
         <v>365</v>
@@ -8388,199 +8381,199 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="B60" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="B61" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>1266</v>
+        <v>1263</v>
       </c>
       <c r="B62" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>1267</v>
+        <v>1264</v>
       </c>
       <c r="B63" t="s">
-        <v>1268</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>1269</v>
+        <v>1266</v>
       </c>
       <c r="B64" t="s">
-        <v>1268</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>1272</v>
+        <v>1269</v>
       </c>
       <c r="B65" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>1322</v>
+        <v>1319</v>
       </c>
       <c r="B66" t="s">
-        <v>1406</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>1325</v>
+        <v>1322</v>
       </c>
       <c r="B67" t="s">
-        <v>1401</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>1326</v>
+        <v>1323</v>
       </c>
       <c r="B68" t="s">
-        <v>1418</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>1327</v>
+        <v>1324</v>
       </c>
       <c r="B69" t="s">
-        <v>1403</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>1390</v>
+        <v>1387</v>
       </c>
       <c r="B70" t="s">
-        <v>1382</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>1391</v>
+        <v>1388</v>
       </c>
       <c r="B71" t="s">
-        <v>1392</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>1393</v>
+        <v>1390</v>
       </c>
       <c r="B72" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="B73" t="s">
-        <v>1425</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>1398</v>
+        <v>1395</v>
       </c>
       <c r="B74" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>1400</v>
+        <v>1397</v>
       </c>
       <c r="B75" t="s">
-        <v>1426</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>1407</v>
+        <v>1404</v>
       </c>
       <c r="B76" t="s">
-        <v>1408</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="20" t="s">
-        <v>1410</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="20" t="s">
-        <v>1411</v>
+        <v>1408</v>
       </c>
       <c r="B78"/>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="20" t="s">
-        <v>1412</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="20" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="20" t="s">
-        <v>1414</v>
+        <v>1411</v>
       </c>
       <c r="C81" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="20" t="s">
-        <v>1415</v>
+        <v>1412</v>
       </c>
       <c r="C82" t="s">
-        <v>1392</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>1419</v>
+        <v>1416</v>
       </c>
       <c r="B83" t="s">
-        <v>1399</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="B84" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
       <c r="B85" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
     </row>
   </sheetData>
@@ -8602,8 +8595,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="45.5703125" collapsed="true"/>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="45.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -8611,7 +8604,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="C1">
         <v>2025</v>
@@ -8642,8 +8635,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="3" max="4" bestFit="true" customWidth="true" width="29.140625" collapsed="true"/>
+    <col min="1" max="2" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="29.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -8665,7 +8658,7 @@
         <v>2031</v>
       </c>
       <c r="C2" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -8692,8 +8685,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="32.140625" collapsed="true"/>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -8701,7 +8694,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -8728,8 +8721,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -8785,8 +8778,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -8836,48 +8829,48 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="37" max="37" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="38" max="38" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="39" max="39" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="40" max="40" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="41" max="41" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="42" max="42" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="40" max="40" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="42" max="42" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="43" max="43" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:43" x14ac:dyDescent="0.25">
@@ -9063,40 +9056,40 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="20" width="15.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="22.85546875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="2" max="2" width="15.42578125" style="20" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="22.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:44" x14ac:dyDescent="0.25">
@@ -9110,7 +9103,7 @@
         <v>183</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="E1" s="17" t="s">
         <v>111</v>
@@ -9238,7 +9231,7 @@
         <v>1322</v>
       </c>
       <c r="B2" s="50" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="3" spans="1:44" x14ac:dyDescent="0.25">
@@ -9246,7 +9239,7 @@
         <v>1319</v>
       </c>
       <c r="B3" s="50" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="4" spans="1:44" x14ac:dyDescent="0.25">
@@ -9254,18 +9247,18 @@
         <v>1228</v>
       </c>
       <c r="B4" s="50" t="s">
-        <v>987</v>
-      </c>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
+        <v>986</v>
+      </c>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
     </row>
     <row r="5" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2025</v>
       </c>
-      <c r="C5" s="79"/>
-      <c r="D5" s="93" t="s">
-        <v>1211</v>
+      <c r="C5" s="78"/>
+      <c r="D5" s="92" t="s">
+        <v>1210</v>
       </c>
     </row>
   </sheetData>
@@ -9287,8 +9280,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -9299,16 +9292,16 @@
         <v>1307</v>
       </c>
       <c r="C1" s="21" t="s">
+        <v>817</v>
+      </c>
+      <c r="D1" s="21" t="s">
         <v>818</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="E1" s="21" t="s">
+        <v>959</v>
+      </c>
+      <c r="F1" s="21" t="s">
         <v>819</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>960</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>820</v>
       </c>
       <c r="G1">
         <v>2025</v>
@@ -9323,7 +9316,7 @@
       </c>
       <c r="C2" s="50"/>
       <c r="D2" s="49"/>
-      <c r="E2" s="82"/>
+      <c r="E2" s="81"/>
       <c r="F2" s="49"/>
     </row>
   </sheetData>
@@ -9345,8 +9338,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -9357,16 +9350,16 @@
         <v>1307</v>
       </c>
       <c r="C1" s="21" t="s">
+        <v>817</v>
+      </c>
+      <c r="D1" s="21" t="s">
         <v>818</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="E1" s="21" t="s">
+        <v>959</v>
+      </c>
+      <c r="F1" s="21" t="s">
         <v>819</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>960</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>820</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -9379,7 +9372,7 @@
       <c r="C2" s="50"/>
       <c r="D2" s="49"/>
       <c r="E2" s="49" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="F2" s="49"/>
     </row>
@@ -9402,9 +9395,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="24.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="24" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -9469,8 +9462,8 @@
       <c r="B6" s="74">
         <v>43867</v>
       </c>
-      <c r="C6" s="94" t="s">
-        <v>1262</v>
+      <c r="C6" s="93" t="s">
+        <v>1259</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -9514,7 +9507,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="20" width="12.0" collapsed="true"/>
+    <col min="2" max="2" width="12" style="20" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -9530,7 +9523,7 @@
         <v>368</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -9538,7 +9531,7 @@
         <v>770</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -9546,7 +9539,7 @@
         <v>740</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -9554,7 +9547,7 @@
         <v>771</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -9562,7 +9555,7 @@
         <v>772</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -9570,7 +9563,7 @@
         <v>363</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -9578,7 +9571,7 @@
         <v>337</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -9586,7 +9579,7 @@
         <v>748</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -9594,7 +9587,7 @@
         <v>372</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -9602,7 +9595,7 @@
         <v>385</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -9610,7 +9603,7 @@
         <v>468</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -9618,7 +9611,7 @@
         <v>378</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -9626,7 +9619,7 @@
         <v>383</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -9634,7 +9627,7 @@
         <v>391</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -9642,7 +9635,7 @@
         <v>387</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -9650,7 +9643,7 @@
         <v>394</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -9658,7 +9651,7 @@
         <v>418</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -9666,7 +9659,7 @@
         <v>402</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -9674,7 +9667,7 @@
         <v>400</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -9682,7 +9675,7 @@
         <v>428</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -9690,7 +9683,7 @@
         <v>398</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -9698,7 +9691,7 @@
         <v>431</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -9706,7 +9699,7 @@
         <v>411</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -9722,7 +9715,7 @@
         <v>415</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -9730,7 +9723,7 @@
         <v>422</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -9738,7 +9731,7 @@
         <v>396</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -9746,7 +9739,7 @@
         <v>420</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -9754,7 +9747,7 @@
         <v>774</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -9762,7 +9755,7 @@
         <v>407</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -9778,7 +9771,7 @@
         <v>456</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -9786,7 +9779,7 @@
         <v>579</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -9794,7 +9787,7 @@
         <v>448</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -9810,7 +9803,7 @@
         <v>452</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -9818,7 +9811,7 @@
         <v>461</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -9826,7 +9819,7 @@
         <v>466</v>
       </c>
       <c r="B39" s="20" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -9834,7 +9827,7 @@
         <v>433</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -9842,7 +9835,7 @@
         <v>471</v>
       </c>
       <c r="B41" s="20" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -9850,7 +9843,7 @@
         <v>473</v>
       </c>
       <c r="B42" s="20" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -9858,7 +9851,7 @@
         <v>478</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -9866,7 +9859,7 @@
         <v>374</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -9874,7 +9867,7 @@
         <v>775</v>
       </c>
       <c r="B45" s="20" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -9882,7 +9875,7 @@
         <v>776</v>
       </c>
       <c r="B46" s="20" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -9890,7 +9883,7 @@
         <v>481</v>
       </c>
       <c r="B47" s="20" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -9898,7 +9891,7 @@
         <v>490</v>
       </c>
       <c r="B48" s="20" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -9906,7 +9899,7 @@
         <v>495</v>
       </c>
       <c r="B49" s="20" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -9914,7 +9907,7 @@
         <v>505</v>
       </c>
       <c r="B50" s="20" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -9922,7 +9915,7 @@
         <v>508</v>
       </c>
       <c r="B51" s="20" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -9930,7 +9923,7 @@
         <v>503</v>
       </c>
       <c r="B52" s="20" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -9938,7 +9931,7 @@
         <v>521</v>
       </c>
       <c r="B53" s="20" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -9946,7 +9939,7 @@
         <v>517</v>
       </c>
       <c r="B54" s="20" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -9954,7 +9947,7 @@
         <v>524</v>
       </c>
       <c r="B55" s="20" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -9962,7 +9955,7 @@
         <v>530</v>
       </c>
       <c r="B56" s="20" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -9970,7 +9963,7 @@
         <v>528</v>
       </c>
       <c r="B57" s="20" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -9978,7 +9971,7 @@
         <v>464</v>
       </c>
       <c r="B58" s="20" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -9986,7 +9979,7 @@
         <v>526</v>
       </c>
       <c r="B59" s="20" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -9994,7 +9987,7 @@
         <v>532</v>
       </c>
       <c r="B60" s="20" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -10002,7 +9995,7 @@
         <v>536</v>
       </c>
       <c r="B61" s="20" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -10010,7 +10003,7 @@
         <v>547</v>
       </c>
       <c r="B62" s="20" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -10018,7 +10011,7 @@
         <v>361</v>
       </c>
       <c r="B63" s="20" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -10026,7 +10019,7 @@
         <v>542</v>
       </c>
       <c r="B64" s="20" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -10034,7 +10027,7 @@
         <v>534</v>
       </c>
       <c r="B65" s="20" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -10042,7 +10035,7 @@
         <v>550</v>
       </c>
       <c r="B66" s="20" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -10050,7 +10043,7 @@
         <v>556</v>
       </c>
       <c r="B67" s="20" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -10058,7 +10051,7 @@
         <v>552</v>
       </c>
       <c r="B68" s="20" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -10066,7 +10059,7 @@
         <v>560</v>
       </c>
       <c r="B69" s="20" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -10074,7 +10067,7 @@
         <v>566</v>
       </c>
       <c r="B70" s="20" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -10082,7 +10075,7 @@
         <v>435</v>
       </c>
       <c r="B71" s="20" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -10090,7 +10083,7 @@
         <v>454</v>
       </c>
       <c r="B72" s="20" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -10098,7 +10091,7 @@
         <v>704</v>
       </c>
       <c r="B73" s="20" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -10106,7 +10099,7 @@
         <v>564</v>
       </c>
       <c r="B74" s="20" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -10114,7 +10107,7 @@
         <v>442</v>
       </c>
       <c r="B75" s="20" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -10122,7 +10115,7 @@
         <v>558</v>
       </c>
       <c r="B76" s="20" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -10130,7 +10123,7 @@
         <v>568</v>
       </c>
       <c r="B77" s="20" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -10138,7 +10131,7 @@
         <v>571</v>
       </c>
       <c r="B78" s="20" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -10146,7 +10139,7 @@
         <v>708</v>
       </c>
       <c r="B79" s="20" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -10154,7 +10147,7 @@
         <v>777</v>
       </c>
       <c r="B80" s="20" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -10162,7 +10155,7 @@
         <v>778</v>
       </c>
       <c r="B81" s="20" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -10170,7 +10163,7 @@
         <v>577</v>
       </c>
       <c r="B82" s="20" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -10178,7 +10171,7 @@
         <v>612</v>
       </c>
       <c r="B83" s="20" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -10186,7 +10179,7 @@
         <v>605</v>
       </c>
       <c r="B84" s="20" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -10194,7 +10187,7 @@
         <v>585</v>
       </c>
       <c r="B85" s="20" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -10202,7 +10195,7 @@
         <v>636</v>
       </c>
       <c r="B86" s="20" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -10210,7 +10203,7 @@
         <v>616</v>
       </c>
       <c r="B87" s="20" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -10218,7 +10211,7 @@
         <v>608</v>
       </c>
       <c r="B88" s="20" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -10226,7 +10219,7 @@
         <v>583</v>
       </c>
       <c r="B89" s="20" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -10234,7 +10227,7 @@
         <v>780</v>
       </c>
       <c r="B90" s="20" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -10242,7 +10235,7 @@
         <v>599</v>
       </c>
       <c r="B91" s="20" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -10250,7 +10243,7 @@
         <v>591</v>
       </c>
       <c r="B92" s="20" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -10258,7 +10251,7 @@
         <v>587</v>
       </c>
       <c r="B93" s="20" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -10266,7 +10259,7 @@
         <v>602</v>
       </c>
       <c r="B94" s="20" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -10274,7 +10267,7 @@
         <v>589</v>
       </c>
       <c r="B95" s="20" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -10282,7 +10275,7 @@
         <v>781</v>
       </c>
       <c r="B96" s="20" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -10290,7 +10283,7 @@
         <v>614</v>
       </c>
       <c r="B97" s="20" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -10298,7 +10291,7 @@
         <v>629</v>
       </c>
       <c r="B98" s="20" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -10306,7 +10299,7 @@
         <v>626</v>
       </c>
       <c r="B99" s="20" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -10314,7 +10307,7 @@
         <v>638</v>
       </c>
       <c r="B100" s="20" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -10322,7 +10315,7 @@
         <v>621</v>
       </c>
       <c r="B101" s="20" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -10330,7 +10323,7 @@
         <v>446</v>
       </c>
       <c r="B102" s="20" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -10338,7 +10331,7 @@
         <v>640</v>
       </c>
       <c r="B103" s="20" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -10346,7 +10339,7 @@
         <v>651</v>
       </c>
       <c r="B104" s="20" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -10354,7 +10347,7 @@
         <v>647</v>
       </c>
       <c r="B105" s="20" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -10362,7 +10355,7 @@
         <v>653</v>
       </c>
       <c r="B106" s="20" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -10370,7 +10363,7 @@
         <v>642</v>
       </c>
       <c r="B107" s="20" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -10378,7 +10371,7 @@
         <v>656</v>
       </c>
       <c r="B108" s="20" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -10386,7 +10379,7 @@
         <v>649</v>
       </c>
       <c r="B109" s="20" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -10394,7 +10387,7 @@
         <v>660</v>
       </c>
       <c r="B110" s="20" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
@@ -10402,7 +10395,7 @@
         <v>782</v>
       </c>
       <c r="B111" s="20" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
@@ -10410,7 +10403,7 @@
         <v>663</v>
       </c>
       <c r="B112" s="20" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
@@ -10418,7 +10411,7 @@
         <v>685</v>
       </c>
       <c r="B113" s="20" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
@@ -10426,7 +10419,7 @@
         <v>665</v>
       </c>
       <c r="B114" s="20" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
@@ -10434,7 +10427,7 @@
         <v>667</v>
       </c>
       <c r="B115" s="20" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
@@ -10442,7 +10435,7 @@
         <v>682</v>
       </c>
       <c r="B116" s="20" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
@@ -10458,7 +10451,7 @@
         <v>687</v>
       </c>
       <c r="B118" s="20" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
@@ -10466,7 +10459,7 @@
         <v>715</v>
       </c>
       <c r="B119" s="20" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
@@ -10482,7 +10475,7 @@
         <v>689</v>
       </c>
       <c r="B121" s="20" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
@@ -10490,7 +10483,7 @@
         <v>712</v>
       </c>
       <c r="B122" s="20" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
@@ -10498,7 +10491,7 @@
         <v>784</v>
       </c>
       <c r="B123" s="20" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
@@ -10506,7 +10499,7 @@
         <v>488</v>
       </c>
       <c r="B124" s="20" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
@@ -10514,7 +10507,7 @@
         <v>726</v>
       </c>
       <c r="B125" s="20" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
@@ -10522,7 +10515,7 @@
         <v>722</v>
       </c>
       <c r="B126" s="20" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
@@ -10530,7 +10523,7 @@
         <v>736</v>
       </c>
       <c r="B127" s="20" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
@@ -10538,7 +10531,7 @@
         <v>731</v>
       </c>
       <c r="B128" s="20" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
@@ -10546,7 +10539,7 @@
         <v>738</v>
       </c>
       <c r="B129" s="20" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
@@ -10554,7 +10547,7 @@
         <v>733</v>
       </c>
       <c r="B130" s="20" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
@@ -10562,7 +10555,7 @@
         <v>720</v>
       </c>
       <c r="B131" s="20" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
@@ -10570,7 +10563,7 @@
         <v>724</v>
       </c>
       <c r="B132" s="20" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
@@ -10578,7 +10571,7 @@
         <v>746</v>
       </c>
       <c r="B133" s="20" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
@@ -10586,7 +10579,7 @@
         <v>744</v>
       </c>
       <c r="B134" s="20" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
@@ -10594,7 +10587,7 @@
         <v>750</v>
       </c>
       <c r="B135" s="20" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
@@ -10602,7 +10595,7 @@
         <v>753</v>
       </c>
       <c r="B136" s="20" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
@@ -10610,7 +10603,7 @@
         <v>760</v>
       </c>
       <c r="B137" s="20" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
@@ -10618,7 +10611,7 @@
         <v>755</v>
       </c>
       <c r="B138" s="20" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
@@ -10626,7 +10619,7 @@
         <v>677</v>
       </c>
       <c r="B139" s="20" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
@@ -10634,7 +10627,7 @@
         <v>380</v>
       </c>
       <c r="B140" s="20" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
@@ -10642,7 +10635,7 @@
         <v>409</v>
       </c>
       <c r="B141" s="20" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
@@ -10650,7 +10643,7 @@
         <v>500</v>
       </c>
       <c r="B142" s="20" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
@@ -10658,7 +10651,7 @@
         <v>764</v>
       </c>
       <c r="B143" s="20" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
@@ -10666,7 +10659,7 @@
         <v>701</v>
       </c>
       <c r="B144" s="20" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
@@ -10674,7 +10667,7 @@
         <v>786</v>
       </c>
       <c r="B145" s="20" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
   </sheetData>
@@ -10696,9 +10689,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="20" width="21.140625" collapsed="true"/>
-    <col min="2" max="3" bestFit="true" customWidth="true" style="20" width="22.5703125" collapsed="true"/>
-    <col min="4" max="16384" style="20" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="21.140625" style="20" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="22.5703125" style="20" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="20" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -10783,9 +10776,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="20.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10796,7 +10789,7 @@
         <v>72</v>
       </c>
       <c r="C1" s="66" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -10807,7 +10800,7 @@
         <v>72</v>
       </c>
       <c r="C2" s="72" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -10871,8 +10864,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -10942,9 +10935,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="20.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -10955,7 +10948,7 @@
         <v>72</v>
       </c>
       <c r="C1" s="66" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -10966,7 +10959,7 @@
         <v>72</v>
       </c>
       <c r="C2" s="72" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -11030,11 +11023,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="5" max="6" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="7" max="15" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="1" max="2" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="15" width="16.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -11089,16 +11082,16 @@
         <v>1322</v>
       </c>
       <c r="C2" s="50" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="D2" s="50" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="E2" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="F2" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -11106,16 +11099,16 @@
         <v>1319</v>
       </c>
       <c r="C3" s="50" t="s">
+        <v>990</v>
+      </c>
+      <c r="D3" s="50" t="s">
+        <v>990</v>
+      </c>
+      <c r="E3" t="s">
         <v>991</v>
       </c>
-      <c r="D3" s="50" t="s">
+      <c r="F3" t="s">
         <v>991</v>
-      </c>
-      <c r="E3" t="s">
-        <v>992</v>
-      </c>
-      <c r="F3" t="s">
-        <v>992</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -11123,16 +11116,16 @@
         <v>1228</v>
       </c>
       <c r="C4" s="50" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="D4" s="50" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="E4" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="F4" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -11140,16 +11133,16 @@
         <v>2025</v>
       </c>
       <c r="C5" s="49" t="s">
-        <v>1264</v>
+        <v>1261</v>
       </c>
       <c r="D5" s="49" t="s">
-        <v>1264</v>
+        <v>1261</v>
       </c>
       <c r="E5" t="s">
-        <v>1404</v>
+        <v>1401</v>
       </c>
       <c r="F5" t="s">
-        <v>1405</v>
+        <v>1402</v>
       </c>
     </row>
   </sheetData>
@@ -11171,7 +11164,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -11221,7 +11214,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -11259,8 +11252,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="21.42578125" collapsed="true"/>
+    <col min="1" max="1" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="21.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -11320,10 +11313,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="20" width="11.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="20" width="24.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="20" width="7.0" collapsed="true"/>
-    <col min="4" max="16384" style="20" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="11.7109375" style="20" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.42578125" style="20" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="7" style="20" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="20" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -11331,16 +11324,16 @@
         <v>4</v>
       </c>
       <c r="B1" s="32" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
       <c r="D1" s="20" t="s">
         <v>203</v>
       </c>
       <c r="E1" s="20" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -11353,21 +11346,21 @@
         <v>0</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>1416</v>
+        <v>1413</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>1416</v>
+        <v>1413</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>1416</v>
+        <v>1413</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>1416</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -11389,7 +11382,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
-        <v>1395</v>
+        <v>1392</v>
       </c>
     </row>
   </sheetData>
@@ -11411,9 +11404,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="20" width="20.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="20" width="24.42578125" collapsed="true"/>
-    <col min="3" max="16384" style="20" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="20.42578125" style="20" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.42578125" style="20" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" style="20" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -11421,16 +11414,16 @@
         <v>4</v>
       </c>
       <c r="B1" s="32" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
       <c r="D1" s="20" t="s">
         <v>203</v>
       </c>
       <c r="E1" s="20" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -11438,7 +11431,7 @@
         <v>183</v>
       </c>
       <c r="E2" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -11446,21 +11439,21 @@
         <v>0</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>1417</v>
+        <v>1414</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>1417</v>
+        <v>1414</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>1417</v>
+        <v>1414</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>1417</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -11482,10 +11475,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
-        <v>1395</v>
+        <v>1392</v>
       </c>
       <c r="E6" t="s">
-        <v>1392</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -11515,7 +11508,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="37.5703125" collapsed="true"/>
+    <col min="1" max="1" width="37.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -13569,9 +13562,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="20" width="15.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="20" width="27.5703125" collapsed="true"/>
-    <col min="3" max="16384" style="20" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="15.28515625" style="20" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.5703125" style="20" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" style="20" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -13579,13 +13572,13 @@
         <v>286</v>
       </c>
       <c r="B1" s="32" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="C1" s="20">
         <v>1286</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -13600,7 +13593,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
-        <v>1395</v>
+        <v>1392</v>
       </c>
     </row>
   </sheetData>
@@ -13622,9 +13615,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="20" width="20.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="20" width="15.7109375" collapsed="true"/>
-    <col min="3" max="16384" style="20" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="20.42578125" style="20" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.7109375" style="20" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" style="20" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -13632,7 +13625,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -13645,12 +13638,12 @@
         <v>0</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>1394</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -13663,12 +13656,12 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
-        <v>1395</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="B7" s="20" t="s">
         <v>336</v>
@@ -13698,12 +13691,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="23.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13795,9 +13788,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="20" width="14.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="20" width="15.28515625" collapsed="true"/>
-    <col min="3" max="16384" style="20" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="14.28515625" style="20" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.28515625" style="20" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" style="20" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -13875,8 +13868,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -13946,11 +13939,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="24.85546875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="24.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:44" x14ac:dyDescent="0.25">
@@ -14129,76 +14122,76 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="96">
+      <c r="B1" s="95">
         <v>2025</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="84" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="84" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B3" s="96" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="84" t="s">
+        <v>1364</v>
+      </c>
+      <c r="B4" s="96" t="s">
         <v>1365</v>
       </c>
-      <c r="B3" s="97" t="s">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="84" t="s">
         <v>1366</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="85" t="s">
+      <c r="B5" s="85" t="s">
         <v>1367</v>
       </c>
-      <c r="B4" s="97" t="s">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="84" t="s">
+        <v>334</v>
+      </c>
+      <c r="B6" s="96" t="s">
         <v>1368</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="85" t="s">
-        <v>1369</v>
-      </c>
-      <c r="B5" s="86" t="s">
-        <v>1370</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="85" t="s">
-        <v>334</v>
-      </c>
-      <c r="B6" s="97" t="s">
-        <v>1371</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
         <v>790</v>
       </c>
-      <c r="B7" s="97" t="s">
+      <c r="B7" s="96" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="84" t="s">
+        <v>1370</v>
+      </c>
+      <c r="B8" s="85" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="84" t="s">
         <v>1372</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="85" t="s">
+      <c r="B9" s="97" t="s">
         <v>1373</v>
-      </c>
-      <c r="B8" s="86" t="s">
-        <v>1374</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="85" t="s">
-        <v>1375</v>
-      </c>
-      <c r="B9" s="98" t="s">
-        <v>1376</v>
       </c>
     </row>
   </sheetData>
@@ -14217,29 +14210,29 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="32.5703125" collapsed="true"/>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="96">
+      <c r="B1" s="95">
         <v>2025</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="84" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="85" t="s">
-        <v>1377</v>
-      </c>
-      <c r="B3" s="86" t="s">
-        <v>1379</v>
+      <c r="A3" s="84" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B3" s="85" t="s">
+        <v>1376</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -14247,39 +14240,39 @@
         <v>790</v>
       </c>
       <c r="B4" t="s">
-        <v>1265</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="85" t="s">
+      <c r="A5" s="84" t="s">
+        <v>1375</v>
+      </c>
+      <c r="B5" s="85" t="s">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="84" t="s">
+        <v>1372</v>
+      </c>
+      <c r="B6" s="97" t="s">
         <v>1378</v>
       </c>
-      <c r="B5" s="86" t="s">
-        <v>1380</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="85" t="s">
-        <v>1375</v>
-      </c>
-      <c r="B6" s="98" t="s">
-        <v>1381</v>
-      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="85" t="s">
+      <c r="A7" s="84" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B7" s="96" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="84" t="s">
+        <v>1364</v>
+      </c>
+      <c r="B8" s="96" t="s">
         <v>1365</v>
-      </c>
-      <c r="B7" s="97" t="s">
-        <v>1366</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="85" t="s">
-        <v>1367</v>
-      </c>
-      <c r="B8" s="97" t="s">
-        <v>1368</v>
       </c>
     </row>
   </sheetData>
@@ -14298,85 +14291,85 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="99">
+      <c r="B1" s="98">
         <v>2025</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="84" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="85" t="s">
-        <v>1365</v>
-      </c>
-      <c r="B3" s="97" t="s">
-        <v>1382</v>
+      <c r="A3" s="84" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B3" s="96" t="s">
+        <v>1379</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="85" t="s">
-        <v>1367</v>
-      </c>
-      <c r="B4" s="97" t="s">
-        <v>1192</v>
+      <c r="A4" s="84" t="s">
+        <v>1364</v>
+      </c>
+      <c r="B4" s="96" t="s">
+        <v>1191</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="85" t="s">
-        <v>1383</v>
-      </c>
-      <c r="B5" s="97" t="s">
-        <v>1388</v>
+      <c r="A5" s="84" t="s">
+        <v>1380</v>
+      </c>
+      <c r="B5" s="96" t="s">
+        <v>1385</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="85" t="s">
-        <v>1377</v>
-      </c>
-      <c r="B6" s="86" t="s">
-        <v>1379</v>
+      <c r="A6" s="84" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B6" s="85" t="s">
+        <v>1376</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
         <v>790</v>
       </c>
-      <c r="B7" s="97" t="s">
+      <c r="B7" s="96" t="s">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="84" t="s">
+        <v>1382</v>
+      </c>
+      <c r="B8" s="96" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="84" t="s">
+        <v>334</v>
+      </c>
+      <c r="B9" s="96" t="s">
         <v>1384</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="85" t="s">
-        <v>1385</v>
-      </c>
-      <c r="B8" s="97" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="84" t="s">
+        <v>310</v>
+      </c>
+      <c r="B10" s="97" t="s">
         <v>1386</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="85" t="s">
-        <v>334</v>
-      </c>
-      <c r="B9" s="97" t="s">
-        <v>1387</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="85" t="s">
-        <v>310</v>
-      </c>
-      <c r="B10" s="98" t="s">
-        <v>1389</v>
       </c>
     </row>
   </sheetData>
@@ -14398,19 +14391,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="28.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="35.0" collapsed="true"/>
+    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="28.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="35" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="91" t="s">
-        <v>1148</v>
-      </c>
-      <c r="C1" s="83">
+      <c r="B1" s="90" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C1" s="82">
         <v>1517</v>
       </c>
     </row>
@@ -14419,54 +14412,54 @@
         <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="B3" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="C3" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>993</v>
+      </c>
+      <c r="B4" t="s">
         <v>994</v>
       </c>
-      <c r="B4" t="s">
-        <v>995</v>
-      </c>
       <c r="C4" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>995</v>
+      </c>
+      <c r="B5" s="49" t="s">
         <v>996</v>
       </c>
-      <c r="B5" s="49" t="s">
-        <v>997</v>
-      </c>
       <c r="C5" s="49" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="B6" s="49" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="C6" s="49" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -14485,32 +14478,32 @@
         <v>282</v>
       </c>
       <c r="B8" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="C8" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>999</v>
+      </c>
+      <c r="B9" s="49" t="s">
         <v>1000</v>
       </c>
-      <c r="B9" s="49" t="s">
-        <v>1001</v>
-      </c>
       <c r="C9" s="49" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B10" s="49" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="C10" s="49" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -14526,24 +14519,24 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B12" t="s">
         <v>1003</v>
       </c>
-      <c r="B12" t="s">
-        <v>1004</v>
-      </c>
       <c r="C12" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B13" t="s">
         <v>1005</v>
       </c>
-      <c r="B13" t="s">
-        <v>1006</v>
-      </c>
       <c r="C13" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -14551,48 +14544,48 @@
         <v>284</v>
       </c>
       <c r="B14" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="C14" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="B15" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="C15" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B16" t="s">
         <v>1008</v>
       </c>
-      <c r="B16" t="s">
-        <v>1009</v>
-      </c>
       <c r="C16" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B17" s="49" t="s">
         <v>1010</v>
       </c>
-      <c r="B17" s="49" t="s">
-        <v>1011</v>
-      </c>
       <c r="C17" s="49" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B18">
         <v>20259905</v>
@@ -14606,79 +14599,79 @@
         <v>285</v>
       </c>
       <c r="B19" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="C19" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B20" t="s">
         <v>1014</v>
       </c>
-      <c r="B20" t="s">
-        <v>1015</v>
-      </c>
       <c r="C20" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="B21" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C21" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B22" t="s">
         <v>1017</v>
       </c>
-      <c r="B22" t="s">
-        <v>1018</v>
-      </c>
       <c r="C22" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B23" t="s">
         <v>1019</v>
       </c>
-      <c r="B23" t="s">
-        <v>1020</v>
-      </c>
       <c r="C23" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
   </sheetData>
@@ -14700,8 +14693,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="35.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="33.5703125" collapsed="true"/>
+    <col min="1" max="1" width="35.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.5703125" style="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -14725,7 +14718,7 @@
         <v>56</v>
       </c>
       <c r="B3" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -14746,10 +14739,10 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -14773,7 +14766,7 @@
         <v>19</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -14781,7 +14774,7 @@
         <v>55</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -14789,7 +14782,7 @@
         <v>18</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -14797,7 +14790,7 @@
         <v>17</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -14813,7 +14806,7 @@
         <v>60</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>1402</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -14821,7 +14814,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -14829,7 +14822,7 @@
         <v>11</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -14866,8 +14859,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="24.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="35.0" collapsed="true"/>
+    <col min="1" max="1" width="24.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -14883,28 +14876,28 @@
         <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="B3" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="92" t="s">
-        <v>1166</v>
+      <c r="B4" s="91" t="s">
+        <v>1165</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="B5">
         <v>9683254705</v>
@@ -14920,15 +14913,15 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B7" t="s">
         <v>1167</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1168</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="B8">
         <v>6000056</v>
@@ -14936,10 +14929,10 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="B9" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -14952,90 +14945,90 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="B11" s="49" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B12" s="49" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B13" t="s">
         <v>1173</v>
-      </c>
-      <c r="B13" t="s">
-        <v>1174</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="B14" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B15" t="s">
         <v>1176</v>
-      </c>
-      <c r="B15" t="s">
-        <v>1177</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B16" t="s">
         <v>1178</v>
-      </c>
-      <c r="B16" t="s">
-        <v>1179</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B17" t="s">
         <v>1180</v>
-      </c>
-      <c r="B17" t="s">
-        <v>1181</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="B18" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B19" s="49" t="s">
         <v>1183</v>
-      </c>
-      <c r="B19" s="49" t="s">
-        <v>1184</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="B20" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="B21" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -15043,44 +15036,44 @@
         <v>282</v>
       </c>
       <c r="B22" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="B23" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="B24" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B25" t="s">
         <v>1189</v>
-      </c>
-      <c r="B25" t="s">
-        <v>1190</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B26" t="s">
         <v>1191</v>
-      </c>
-      <c r="B26" t="s">
-        <v>1192</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="B27">
         <v>3000</v>
@@ -15088,7 +15081,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="B28">
         <v>300000</v>
@@ -15116,20 +15109,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="83">
+      <c r="B1" s="82">
         <v>1517</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -15142,33 +15135,33 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B4" t="s">
         <v>1028</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1029</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B8" t="s">
         <v>1008</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1009</v>
       </c>
     </row>
   </sheetData>
@@ -15190,21 +15183,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="28.7109375" collapsed="true"/>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="28.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="83">
+      <c r="B1" s="82">
         <v>1517</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -15217,44 +15210,44 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>822</v>
-      </c>
-      <c r="B4" s="84"/>
+        <v>821</v>
+      </c>
+      <c r="B4" s="83"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="B6" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B10" t="s">
         <v>1008</v>
-      </c>
-      <c r="B10" t="s">
-        <v>1009</v>
       </c>
     </row>
   </sheetData>
@@ -15276,21 +15269,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="20" width="14.140625" collapsed="true"/>
-    <col min="2" max="16384" style="20" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="14.140625" style="20" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="16384" width="9.140625" style="20" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="80" t="s">
-        <v>1027</v>
+      <c r="B1" s="79" t="s">
+        <v>1026</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -15320,22 +15313,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="20" width="14.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="20" width="10.0" collapsed="true"/>
-    <col min="3" max="16384" style="20" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="14.140625" style="20" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10" style="20" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" style="20" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="80" t="s">
-        <v>1027</v>
+      <c r="B1" s="79" t="s">
+        <v>1026</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B2" s="50"/>
     </row>
@@ -15349,13 +15342,13 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
-        <v>822</v>
-      </c>
-      <c r="B4" s="81"/>
+        <v>821</v>
+      </c>
+      <c r="B4" s="80"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
   </sheetData>
@@ -15377,65 +15370,65 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="15.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B1" t="s">
         <v>1033</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1034</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1035</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1036</v>
       </c>
       <c r="E1" t="s">
         <v>340</v>
       </c>
       <c r="F1" t="s">
+        <v>1036</v>
+      </c>
+      <c r="G1" t="s">
         <v>1037</v>
-      </c>
-      <c r="G1" t="s">
-        <v>1038</v>
       </c>
       <c r="H1" t="s">
         <v>111</v>
       </c>
       <c r="I1" t="s">
+        <v>1038</v>
+      </c>
+      <c r="J1" t="s">
         <v>1039</v>
-      </c>
-      <c r="J1" t="s">
-        <v>1040</v>
       </c>
       <c r="K1" t="s">
         <v>341</v>
       </c>
       <c r="L1" t="s">
+        <v>1040</v>
+      </c>
+      <c r="M1" t="s">
         <v>1041</v>
-      </c>
-      <c r="M1" t="s">
-        <v>1042</v>
       </c>
       <c r="N1" t="s">
         <v>115</v>
       </c>
       <c r="O1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="P1" t="s">
         <v>1043</v>
-      </c>
-      <c r="P1" t="s">
-        <v>1044</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -15446,19 +15439,19 @@
         <v>16</v>
       </c>
       <c r="C2" t="s">
+        <v>1048</v>
+      </c>
+      <c r="D2" t="s">
         <v>1049</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1050</v>
       </c>
       <c r="E2" t="s">
         <v>345</v>
       </c>
       <c r="G2" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="H2" s="49" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="I2" s="49"/>
       <c r="J2">
@@ -15468,10 +15461,10 @@
         <v>345</v>
       </c>
       <c r="M2" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="N2" s="49" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="O2">
         <v>500</v>
@@ -15485,19 +15478,19 @@
         <v>16</v>
       </c>
       <c r="C3" t="s">
+        <v>1048</v>
+      </c>
+      <c r="D3" t="s">
         <v>1049</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1050</v>
       </c>
       <c r="E3" t="s">
         <v>345</v>
       </c>
       <c r="G3" t="s">
-        <v>1329</v>
+        <v>1326</v>
       </c>
       <c r="H3" s="49" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="I3" s="49"/>
       <c r="J3">
@@ -15507,10 +15500,10 @@
         <v>345</v>
       </c>
       <c r="M3" t="s">
-        <v>1330</v>
+        <v>1327</v>
       </c>
       <c r="N3" s="49" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="O3">
         <v>500</v>
@@ -15537,177 +15530,177 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
+        <v>1328</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1329</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1330</v>
+      </c>
+      <c r="E1" t="s">
         <v>1331</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>1332</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>1333</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>1334</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>1335</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>1336</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>1337</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>1338</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>1339</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>1340</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>1341</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>1342</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>1343</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>1344</v>
       </c>
-      <c r="P1" t="s">
+      <c r="S1" t="s">
         <v>1345</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="T1" t="s">
         <v>1346</v>
-      </c>
-      <c r="R1" t="s">
-        <v>1347</v>
-      </c>
-      <c r="S1" t="s">
-        <v>1348</v>
-      </c>
-      <c r="T1" t="s">
-        <v>1349</v>
       </c>
       <c r="U1" t="s">
         <v>340</v>
       </c>
       <c r="V1" t="s">
-        <v>1350</v>
+        <v>1347</v>
       </c>
       <c r="W1" t="s">
-        <v>1351</v>
+        <v>1348</v>
       </c>
       <c r="X1" t="s">
         <v>112</v>
       </c>
       <c r="Y1" t="s">
-        <v>1352</v>
+        <v>1349</v>
       </c>
       <c r="Z1" t="s">
-        <v>1353</v>
+        <v>1350</v>
       </c>
       <c r="AA1" t="s">
-        <v>1354</v>
+        <v>1351</v>
       </c>
       <c r="AB1" t="s">
+        <v>1038</v>
+      </c>
+      <c r="AC1" t="s">
         <v>1039</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>1040</v>
       </c>
     </row>
     <row r="2" spans="1:29" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="B2" t="s">
+        <v>1352</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1353</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1097</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1354</v>
+      </c>
+      <c r="F2" t="s">
         <v>1355</v>
       </c>
-      <c r="C2" t="s">
+      <c r="G2" t="s">
+        <v>1251</v>
+      </c>
+      <c r="H2" t="s">
         <v>1356</v>
       </c>
-      <c r="D2" t="s">
-        <v>1098</v>
-      </c>
-      <c r="E2" t="s">
-        <v>1357</v>
-      </c>
-      <c r="F2" t="s">
-        <v>1358</v>
-      </c>
-      <c r="G2" t="s">
-        <v>1254</v>
-      </c>
-      <c r="H2" t="s">
-        <v>1359</v>
-      </c>
       <c r="I2" t="s">
-        <v>1357</v>
+        <v>1354</v>
       </c>
       <c r="J2" t="s">
         <v>345</v>
       </c>
       <c r="K2" t="s">
-        <v>1329</v>
+        <v>1326</v>
       </c>
       <c r="L2" t="s">
+        <v>1357</v>
+      </c>
+      <c r="M2" t="s">
+        <v>1358</v>
+      </c>
+      <c r="N2" t="s">
+        <v>1359</v>
+      </c>
+      <c r="O2" t="s">
+        <v>1048</v>
+      </c>
+      <c r="P2" t="s">
+        <v>1197</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>1223</v>
+      </c>
+      <c r="R2" t="s">
         <v>1360</v>
       </c>
-      <c r="M2" t="s">
-        <v>1361</v>
-      </c>
-      <c r="N2" t="s">
-        <v>1362</v>
-      </c>
-      <c r="O2" t="s">
-        <v>1049</v>
-      </c>
-      <c r="P2" t="s">
-        <v>1198</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>1224</v>
-      </c>
-      <c r="R2" t="s">
-        <v>1363</v>
-      </c>
       <c r="S2" t="s">
-        <v>1359</v>
+        <v>1356</v>
       </c>
       <c r="T2" t="s">
-        <v>1357</v>
+        <v>1354</v>
       </c>
       <c r="U2" t="s">
         <v>345</v>
       </c>
       <c r="V2" t="s">
-        <v>1330</v>
+        <v>1327</v>
       </c>
       <c r="W2" t="s">
-        <v>1364</v>
+        <v>1361</v>
       </c>
       <c r="X2" t="s">
-        <v>1361</v>
+        <v>1358</v>
       </c>
       <c r="Y2" t="s">
-        <v>1362</v>
+        <v>1359</v>
       </c>
       <c r="Z2" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="AA2" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="AB2" t="s">
-        <v>1363</v>
+        <v>1360</v>
       </c>
       <c r="AC2" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="3" spans="1:29" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -15759,11 +15752,11 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="88" t="s">
-        <v>1033</v>
-      </c>
-      <c r="B1" s="95" t="s">
-        <v>1328</v>
+      <c r="A1" s="87" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B1" s="94" t="s">
+        <v>1325</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -15790,31 +15783,31 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="85" width="18.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="85" width="35.0" collapsed="true"/>
-    <col min="3" max="16384" style="85" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="18" style="84" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35" style="84" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" style="84" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="89" t="s">
-        <v>1027</v>
+      <c r="B1" s="88" t="s">
+        <v>1026</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="85" t="s">
-        <v>1053</v>
-      </c>
-      <c r="B2" s="87"/>
+      <c r="A2" s="84" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B2" s="86"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="85" t="s">
-        <v>1052</v>
-      </c>
-      <c r="B3" s="86" t="s">
+      <c r="A3" s="84" t="s">
         <v>1051</v>
+      </c>
+      <c r="B3" s="85" t="s">
+        <v>1050</v>
       </c>
     </row>
   </sheetData>
@@ -15833,9 +15826,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="20" width="11.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11" style="20" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="20" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15843,39 +15836,39 @@
         <v>4</v>
       </c>
       <c r="B1" s="50" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C1" s="50" t="s">
+        <v>1271</v>
+      </c>
+      <c r="D1" s="50" t="s">
+        <v>1272</v>
+      </c>
+      <c r="E1" s="50" t="s">
         <v>1273</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="F1" s="50" t="s">
         <v>1274</v>
       </c>
-      <c r="D1" s="50" t="s">
+      <c r="G1" s="50" t="s">
         <v>1275</v>
       </c>
-      <c r="E1" s="50" t="s">
+      <c r="H1" s="50" t="s">
         <v>1276</v>
       </c>
-      <c r="F1" s="50" t="s">
+      <c r="I1" s="50" t="s">
         <v>1277</v>
-      </c>
-      <c r="G1" s="50" t="s">
-        <v>1278</v>
-      </c>
-      <c r="H1" s="50" t="s">
-        <v>1279</v>
-      </c>
-      <c r="I1" s="50" t="s">
-        <v>1280</v>
       </c>
       <c r="J1" s="58" t="s">
         <v>183</v>
       </c>
       <c r="K1" s="58" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
       <c r="B2" s="50"/>
       <c r="C2" s="50"/>
@@ -15946,8 +15939,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="20" width="11.0" collapsed="true"/>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11" style="20" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -15955,7 +15948,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -15963,7 +15956,7 @@
         <v>288</v>
       </c>
       <c r="B2" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
   </sheetData>
@@ -15982,41 +15975,41 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="38" max="38" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="39" max="39" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="40" max="40" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="44" max="44" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="45" max="45" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="48" max="48" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="49" max="49" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="50" max="50" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="40" max="40" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="43" max="43" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="44" max="44" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="45" max="45" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="47" max="47" width="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="48" max="48" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="49" max="49" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="50" max="50" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:42" x14ac:dyDescent="0.25">
@@ -16156,7 +16149,7 @@
         <v>70</v>
       </c>
       <c r="D2" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E2">
         <v>6</v>
@@ -16165,7 +16158,7 @@
         <v>1000</v>
       </c>
       <c r="G2" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="H2" t="s">
         <v>797</v>
@@ -16177,10 +16170,10 @@
         <v>500</v>
       </c>
       <c r="K2" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="L2" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="M2">
         <v>15</v>
@@ -16205,8 +16198,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="20" width="11.0" collapsed="true"/>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11" style="20" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -16214,7 +16207,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -16222,12 +16215,12 @@
         <v>183</v>
       </c>
       <c r="B2" s="50" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
   </sheetData>
@@ -16246,8 +16239,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="17.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="20" width="11.0" collapsed="true"/>
+    <col min="1" max="1" width="17" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11" style="20" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -16255,7 +16248,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="C1">
         <v>2025</v>
@@ -16266,15 +16259,15 @@
         <v>183</v>
       </c>
       <c r="B2" s="50" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C3">
         <v>20259905</v>
@@ -16296,8 +16289,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -16305,56 +16298,56 @@
         <v>4</v>
       </c>
       <c r="B1" s="50" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C1" s="50" t="s">
+        <v>1271</v>
+      </c>
+      <c r="D1" s="50" t="s">
+        <v>1272</v>
+      </c>
+      <c r="E1" s="50" t="s">
         <v>1273</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="F1" s="50" t="s">
         <v>1274</v>
       </c>
-      <c r="D1" s="50" t="s">
+      <c r="G1" s="50" t="s">
         <v>1275</v>
       </c>
-      <c r="E1" s="50" t="s">
+      <c r="H1" s="50" t="s">
         <v>1276</v>
       </c>
-      <c r="F1" s="50" t="s">
+      <c r="I1" s="50" t="s">
         <v>1277</v>
-      </c>
-      <c r="G1" s="50" t="s">
-        <v>1278</v>
-      </c>
-      <c r="H1" s="50" t="s">
-        <v>1279</v>
-      </c>
-      <c r="I1" s="50" t="s">
-        <v>1280</v>
       </c>
       <c r="J1" s="19" t="s">
         <v>183</v>
       </c>
       <c r="K1" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="49" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B2" s="50" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C2" s="50" t="s">
+        <v>1280</v>
+      </c>
+      <c r="D2" s="50" t="s">
         <v>1281</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="K2" s="49" t="s">
         <v>1282</v>
-      </c>
-      <c r="C2" s="50" t="s">
-        <v>1283</v>
-      </c>
-      <c r="D2" s="50" t="s">
-        <v>1284</v>
-      </c>
-      <c r="K2" s="49" t="s">
-        <v>1285</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="49" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="K3">
         <v>20259905</v>
@@ -16393,22 +16386,22 @@
         <v>266</v>
       </c>
       <c r="E1" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="F1" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="G1" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="H1" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="I1" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="J1" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="K1" t="s">
         <v>116</v>
@@ -16420,22 +16413,22 @@
         <v>267</v>
       </c>
       <c r="N1" t="s">
+        <v>1226</v>
+      </c>
+      <c r="O1" t="s">
         <v>1227</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>1228</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>1229</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>1230</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>1231</v>
-      </c>
-      <c r="S1" t="s">
-        <v>1232</v>
       </c>
       <c r="T1" t="s">
         <v>120</v>
@@ -16447,22 +16440,22 @@
         <v>268</v>
       </c>
       <c r="W1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="X1" t="s">
+        <v>1297</v>
+      </c>
+      <c r="Y1" t="s">
         <v>1298</v>
       </c>
-      <c r="X1" t="s">
-        <v>1300</v>
-      </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
+        <v>1299</v>
+      </c>
+      <c r="AA1" t="s">
         <v>1301</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AB1" t="s">
         <v>1302</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>1304</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>1305</v>
       </c>
       <c r="AC1" t="s">
         <v>124</v>
@@ -16474,28 +16467,28 @@
         <v>269</v>
       </c>
       <c r="AF1" t="s">
+        <v>1306</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>1308</v>
+      </c>
+      <c r="AH1" t="s">
         <v>1309</v>
       </c>
-      <c r="AG1" t="s">
-        <v>1311</v>
-      </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
+        <v>1310</v>
+      </c>
+      <c r="AJ1" t="s">
         <v>1312</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AK1" t="s">
         <v>1313</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AL1" t="s">
         <v>1315</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AM1" t="s">
         <v>1316</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>1318</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>1319</v>
       </c>
       <c r="AN1" t="s">
         <v>285</v>
@@ -16513,124 +16506,124 @@
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="B4" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="C4" t="s">
+        <v>1283</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1284</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1285</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1217</v>
+      </c>
+      <c r="G4" t="s">
+        <v>1219</v>
+      </c>
+      <c r="H4" t="s">
         <v>1286</v>
       </c>
-      <c r="D4" t="s">
+      <c r="I4" t="s">
+        <v>1223</v>
+      </c>
+      <c r="J4" t="s">
         <v>1287</v>
-      </c>
-      <c r="E4" t="s">
-        <v>1288</v>
-      </c>
-      <c r="F4" t="s">
-        <v>1218</v>
-      </c>
-      <c r="G4" t="s">
-        <v>1220</v>
-      </c>
-      <c r="H4" t="s">
-        <v>1289</v>
-      </c>
-      <c r="I4" t="s">
-        <v>1224</v>
-      </c>
-      <c r="J4" t="s">
-        <v>1290</v>
       </c>
       <c r="K4" t="s">
         <v>797</v>
       </c>
       <c r="L4" t="s">
+        <v>1288</v>
+      </c>
+      <c r="M4" t="s">
+        <v>1289</v>
+      </c>
+      <c r="N4" t="s">
+        <v>1290</v>
+      </c>
+      <c r="O4" t="s">
+        <v>1217</v>
+      </c>
+      <c r="P4" t="s">
+        <v>1219</v>
+      </c>
+      <c r="Q4" t="s">
         <v>1291</v>
       </c>
-      <c r="M4" t="s">
+      <c r="R4" t="s">
+        <v>1223</v>
+      </c>
+      <c r="S4" t="s">
         <v>1292</v>
       </c>
-      <c r="N4" t="s">
+      <c r="T4" t="s">
+        <v>1205</v>
+      </c>
+      <c r="U4" t="s">
         <v>1293</v>
       </c>
-      <c r="O4" t="s">
-        <v>1218</v>
-      </c>
-      <c r="P4" t="s">
-        <v>1220</v>
-      </c>
-      <c r="Q4" t="s">
+      <c r="V4" t="s">
         <v>1294</v>
       </c>
-      <c r="R4" t="s">
-        <v>1224</v>
-      </c>
-      <c r="S4" t="s">
-        <v>1295</v>
-      </c>
-      <c r="T4" t="s">
+      <c r="W4" t="s">
+        <v>1296</v>
+      </c>
+      <c r="X4" t="s">
+        <v>1217</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>1219</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>1300</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>1223</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>1303</v>
+      </c>
+      <c r="AC4" t="s">
         <v>1206</v>
       </c>
-      <c r="U4" t="s">
-        <v>1296</v>
-      </c>
-      <c r="V4" t="s">
-        <v>1297</v>
-      </c>
-      <c r="W4" t="s">
-        <v>1299</v>
-      </c>
-      <c r="X4" t="s">
-        <v>1218</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>1220</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>1303</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>1224</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>1306</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>1207</v>
-      </c>
       <c r="AD4" t="s">
+        <v>1304</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>1305</v>
+      </c>
+      <c r="AF4" t="s">
         <v>1307</v>
       </c>
-      <c r="AE4" t="s">
-        <v>1308</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>1310</v>
-      </c>
       <c r="AG4" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="AH4" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="AI4" t="s">
+        <v>1311</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>1223</v>
+      </c>
+      <c r="AK4" t="s">
         <v>1314</v>
       </c>
-      <c r="AJ4" t="s">
-        <v>1224</v>
-      </c>
-      <c r="AK4" t="s">
+      <c r="AL4" t="s">
+        <v>1234</v>
+      </c>
+      <c r="AM4" t="s">
         <v>1317</v>
       </c>
-      <c r="AL4" t="s">
-        <v>1235</v>
-      </c>
-      <c r="AM4" t="s">
-        <v>1320</v>
-      </c>
       <c r="AN4" t="s">
-        <v>1321</v>
+        <v>1318</v>
       </c>
     </row>
   </sheetData>
@@ -16663,22 +16656,22 @@
         <v>266</v>
       </c>
       <c r="E1" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="F1" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="G1" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="H1" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="I1" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="J1" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="K1" t="s">
         <v>116</v>
@@ -16690,28 +16683,28 @@
         <v>267</v>
       </c>
       <c r="N1" t="s">
+        <v>1226</v>
+      </c>
+      <c r="O1" t="s">
         <v>1227</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>1228</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>1229</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>1230</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>1231</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>1232</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>1233</v>
-      </c>
-      <c r="U1" t="s">
-        <v>1234</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -16726,67 +16719,67 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="B4" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C4" t="s">
         <v>1212</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>1213</v>
       </c>
-      <c r="D4" t="s">
-        <v>1214</v>
-      </c>
       <c r="E4" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="F4" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="G4" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="H4" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="I4" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="J4" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="K4" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="L4" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="M4" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="N4" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="O4" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="P4" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="Q4" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="R4" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="S4" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="T4" t="s">
         <v>279</v>
       </c>
       <c r="U4" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
   </sheetData>
@@ -16808,8 +16801,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="21.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="24.5703125" collapsed="true"/>
+    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -16825,7 +16818,7 @@
         <v>170</v>
       </c>
       <c r="B2" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -16833,7 +16826,7 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -16841,7 +16834,7 @@
         <v>171</v>
       </c>
       <c r="B4" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -16849,7 +16842,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -16857,7 +16850,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -16865,7 +16858,7 @@
         <v>172</v>
       </c>
       <c r="B7" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -16873,7 +16866,7 @@
         <v>173</v>
       </c>
       <c r="B8" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -16881,7 +16874,7 @@
         <v>174</v>
       </c>
       <c r="B9" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -16889,7 +16882,7 @@
         <v>175</v>
       </c>
       <c r="B10" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16897,7 +16890,7 @@
         <v>176</v>
       </c>
       <c r="B11" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
   </sheetData>
@@ -16919,9 +16912,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="36.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="24.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="36.5703125" collapsed="true"/>
+    <col min="1" max="1" width="36.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="36.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16937,7 +16930,7 @@
         <v>156</v>
       </c>
       <c r="B2" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -16945,7 +16938,7 @@
         <v>157</v>
       </c>
       <c r="B3" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -16953,7 +16946,7 @@
         <v>158</v>
       </c>
       <c r="B4" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -16961,7 +16954,7 @@
         <v>159</v>
       </c>
       <c r="B5" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -16969,7 +16962,7 @@
         <v>160</v>
       </c>
       <c r="B6" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -16977,7 +16970,7 @@
         <v>161</v>
       </c>
       <c r="B7" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -16985,7 +16978,7 @@
         <v>162</v>
       </c>
       <c r="B8" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -16993,7 +16986,7 @@
         <v>163</v>
       </c>
       <c r="B9" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -17001,7 +16994,7 @@
         <v>164</v>
       </c>
       <c r="B10" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -17009,7 +17002,7 @@
         <v>165</v>
       </c>
       <c r="B11" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -17017,7 +17010,7 @@
         <v>166</v>
       </c>
       <c r="B12" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -17025,7 +17018,7 @@
         <v>167</v>
       </c>
       <c r="B13" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -17033,7 +17026,7 @@
         <v>168</v>
       </c>
       <c r="B14" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17041,7 +17034,7 @@
         <v>169</v>
       </c>
       <c r="B15" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
   </sheetData>
@@ -17095,10 +17088,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="39" width="30.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="39" width="33.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="43.0" collapsed="true"/>
-    <col min="4" max="16384" style="20" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="30.140625" style="39" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.5703125" style="39" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="43" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="20" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -17139,7 +17132,7 @@
         <v>179</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -17161,7 +17154,7 @@
         <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="90" x14ac:dyDescent="0.25">
@@ -17249,7 +17242,7 @@
         <v>69</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -17260,7 +17253,7 @@
         <v>105</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -17279,7 +17272,7 @@
         <v>181</v>
       </c>
       <c r="B17" s="38" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="C17" s="38" t="s">
         <v>182</v>

--- a/WppRegpack/TestResource/Regression/DS_MLY_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Regression/DS_MLY_REGRESSION.xlsx
@@ -6168,7 +6168,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6202,24 +6202,24 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="41" t="s">
-        <v>191</v>
+        <v>1425</v>
       </c>
       <c r="B3" s="41" t="s">
-        <v>808</v>
+        <v>72</v>
       </c>
       <c r="C3" s="41" t="s">
-        <v>1245</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="41" t="s">
-        <v>1425</v>
+        <v>191</v>
       </c>
       <c r="B4" s="41" t="s">
-        <v>72</v>
+        <v>808</v>
       </c>
       <c r="C4" s="41" t="s">
-        <v>1147</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">

--- a/WppRegpack/TestResource/Regression/DS_MLY_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Regression/DS_MLY_REGRESSION.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="9" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="44" activeTab="47"/>
   </bookViews>
   <sheets>
     <sheet name="Server Details" sheetId="1" r:id="rId1"/>
@@ -91,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2600" uniqueCount="1428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2591" uniqueCount="1423">
   <si>
     <t>Description</t>
   </si>
@@ -4184,76 +4184,31 @@
     <t>Payment_Agent</t>
   </si>
   <si>
-    <t>CN ACH Payments</t>
-  </si>
-  <si>
     <t>Paymode_Mode</t>
   </si>
   <si>
-    <t>CN - HSBC - ACH Payments - CNY - 1</t>
-  </si>
-  <si>
     <t>Exchange_Date</t>
   </si>
   <si>
-    <t>8/03/2020</t>
-  </si>
-  <si>
-    <t>WPP Payment China</t>
-  </si>
-  <si>
-    <t>AugReg001</t>
-  </si>
-  <si>
     <t>DueDate</t>
   </si>
   <si>
-    <t>8/30/2020</t>
-  </si>
-  <si>
     <t xml:space="preserve">Amount </t>
   </si>
   <si>
-    <t>7,950.00</t>
-  </si>
-  <si>
     <t>ExchangeDate</t>
   </si>
   <si>
     <t>Due Date</t>
   </si>
   <si>
-    <t>9/06/2020</t>
-  </si>
-  <si>
-    <t>9/31/2020</t>
-  </si>
-  <si>
-    <t>1,950.00</t>
-  </si>
-  <si>
-    <t>Manual - Local</t>
-  </si>
-  <si>
     <t>Payment_Number</t>
   </si>
   <si>
-    <t>AugRegression1</t>
-  </si>
-  <si>
     <t>Payment Date</t>
   </si>
   <si>
-    <t>9/13/2020</t>
-  </si>
-  <si>
     <t>WPP Payment</t>
-  </si>
-  <si>
-    <t>2025505244</t>
-  </si>
-  <si>
-    <t>10,000.00</t>
   </si>
   <si>
     <t>Payment Agent</t>
@@ -4379,6 +4334,36 @@
   </si>
   <si>
     <t>1307AutomationUser</t>
+  </si>
+  <si>
+    <t>Manual - MYR - 1</t>
+  </si>
+  <si>
+    <t>9/21/2020</t>
+  </si>
+  <si>
+    <t>PaymentSelectionMpl</t>
+  </si>
+  <si>
+    <t>Standard</t>
+  </si>
+  <si>
+    <t>C:\GlobalTestSuite_BAU\GlobalTestSuiteAutomation\WppRegPack\MPLReports\Critical_Regression\Malaysia\2025\PaymentSelection-5.pdf</t>
+  </si>
+  <si>
+    <t>Manual</t>
+  </si>
+  <si>
+    <t>Payment Number</t>
+  </si>
+  <si>
+    <t>1319500001</t>
+  </si>
+  <si>
+    <t>PrintPaymentRemittanceMpl</t>
+  </si>
+  <si>
+    <t>C:\GlobalTestSuite_BAU\GlobalTestSuiteAutomation\WppRegPack\MPLReports\Critical_Regression\Malaysia\2025\P_PaymentOrder-2.pdf</t>
   </si>
 </sst>
 </file>
@@ -6167,7 +6152,7 @@
   </sheetPr>
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -6194,15 +6179,15 @@
         <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>1427</v>
+        <v>1412</v>
       </c>
       <c r="C2" t="s">
-        <v>1424</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="41" t="s">
-        <v>1425</v>
+        <v>1410</v>
       </c>
       <c r="B3" s="41" t="s">
         <v>72</v>
@@ -6250,7 +6235,7 @@
         <v>809</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>1426</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -7812,10 +7797,10 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:EY85"/>
+  <dimension ref="A1:EY88"/>
   <sheetViews>
-    <sheetView topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="B74" sqref="B74"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7992,13 +7977,13 @@
         <v>183</v>
       </c>
       <c r="B2" t="s">
-        <v>1420</v>
+        <v>1405</v>
       </c>
       <c r="C2" t="s">
         <v>1201</v>
       </c>
       <c r="D2" t="s">
-        <v>1400</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="3" spans="1:155" x14ac:dyDescent="0.25">
@@ -8037,6 +8022,9 @@
       <c r="A7" s="20" t="s">
         <v>790</v>
       </c>
+      <c r="B7" t="s">
+        <v>1262</v>
+      </c>
       <c r="C7" t="s">
         <v>1262</v>
       </c>
@@ -8167,7 +8155,7 @@
         <v>1116</v>
       </c>
       <c r="B25" t="s">
-        <v>1420</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -8259,7 +8247,7 @@
         <v>1131</v>
       </c>
       <c r="B41" s="20" t="s">
-        <v>1420</v>
+        <v>1405</v>
       </c>
       <c r="C41" t="s">
         <v>1201</v>
@@ -8268,7 +8256,7 @@
         <v>1201</v>
       </c>
       <c r="E41" t="s">
-        <v>1406</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -8276,16 +8264,16 @@
         <v>1320</v>
       </c>
       <c r="B42" s="20" t="s">
-        <v>1422</v>
+        <v>1407</v>
       </c>
       <c r="C42" s="20" t="s">
         <v>1321</v>
       </c>
       <c r="D42" s="20" t="s">
-        <v>1396</v>
+        <v>1381</v>
       </c>
       <c r="E42" t="s">
-        <v>1400</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -8384,7 +8372,7 @@
         <v>1235</v>
       </c>
       <c r="B60" t="s">
-        <v>1421</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -8392,7 +8380,7 @@
         <v>1236</v>
       </c>
       <c r="B61" t="s">
-        <v>1421</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -8400,7 +8388,7 @@
         <v>1263</v>
       </c>
       <c r="B62" t="s">
-        <v>1191</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -8432,7 +8420,7 @@
         <v>1319</v>
       </c>
       <c r="B66" t="s">
-        <v>1403</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -8440,7 +8428,7 @@
         <v>1322</v>
       </c>
       <c r="B67" t="s">
-        <v>1398</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -8448,7 +8436,7 @@
         <v>1323</v>
       </c>
       <c r="B68" t="s">
-        <v>1415</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -8456,28 +8444,28 @@
         <v>1324</v>
       </c>
       <c r="B69" t="s">
-        <v>1400</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>1387</v>
+        <v>1372</v>
       </c>
       <c r="B70" t="s">
-        <v>1379</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>1388</v>
+        <v>1373</v>
       </c>
       <c r="B71" t="s">
-        <v>1389</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>1390</v>
+        <v>1375</v>
       </c>
       <c r="B72" t="s">
         <v>1201</v>
@@ -8485,60 +8473,60 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>1394</v>
+        <v>1379</v>
       </c>
       <c r="B73" t="s">
-        <v>1422</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>1395</v>
+        <v>1380</v>
       </c>
       <c r="B74" t="s">
-        <v>1420</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>1397</v>
+        <v>1382</v>
       </c>
       <c r="B75" t="s">
-        <v>1423</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>1404</v>
+        <v>1389</v>
       </c>
       <c r="B76" t="s">
-        <v>1405</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="20" t="s">
-        <v>1407</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="20" t="s">
-        <v>1408</v>
+        <v>1393</v>
       </c>
       <c r="B78"/>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="20" t="s">
-        <v>1409</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="20" t="s">
-        <v>1410</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="20" t="s">
-        <v>1411</v>
+        <v>1396</v>
       </c>
       <c r="C81" t="s">
         <v>1201</v>
@@ -8546,23 +8534,23 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="20" t="s">
-        <v>1412</v>
+        <v>1397</v>
       </c>
       <c r="C82" t="s">
-        <v>1389</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>1416</v>
+        <v>1401</v>
       </c>
       <c r="B83" t="s">
-        <v>1396</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>1417</v>
+        <v>1402</v>
       </c>
       <c r="B84" t="s">
         <v>1201</v>
@@ -8570,10 +8558,34 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>1418</v>
+        <v>1403</v>
       </c>
       <c r="B85" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>1415</v>
+      </c>
+      <c r="B86" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
         <v>1419</v>
+      </c>
+      <c r="B87" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>1421</v>
+      </c>
+      <c r="B88" t="s">
+        <v>1422</v>
       </c>
     </row>
   </sheetData>
@@ -11139,10 +11151,10 @@
         <v>1261</v>
       </c>
       <c r="E5" t="s">
-        <v>1401</v>
+        <v>1386</v>
       </c>
       <c r="F5" t="s">
-        <v>1402</v>
+        <v>1387</v>
       </c>
     </row>
   </sheetData>
@@ -11346,16 +11358,16 @@
         <v>0</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>1413</v>
+        <v>1398</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>1413</v>
+        <v>1398</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>1413</v>
+        <v>1398</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>1413</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -11382,7 +11394,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
-        <v>1392</v>
+        <v>1377</v>
       </c>
     </row>
   </sheetData>
@@ -11439,16 +11451,16 @@
         <v>0</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>1414</v>
+        <v>1399</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>1414</v>
+        <v>1399</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>1414</v>
+        <v>1399</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>1414</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -11475,10 +11487,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
-        <v>1392</v>
+        <v>1377</v>
       </c>
       <c r="E6" t="s">
-        <v>1389</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -13593,7 +13605,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
-        <v>1392</v>
+        <v>1377</v>
       </c>
     </row>
   </sheetData>
@@ -13638,7 +13650,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>1391</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -13656,12 +13668,12 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
-        <v>1392</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
-        <v>1393</v>
+        <v>1378</v>
       </c>
       <c r="B7" s="20" t="s">
         <v>336</v>
@@ -14117,12 +14129,13 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -14142,24 +14155,20 @@
       <c r="A3" s="84" t="s">
         <v>1362</v>
       </c>
-      <c r="B3" s="96" t="s">
-        <v>1363</v>
-      </c>
+      <c r="B3" s="96"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="84" t="s">
-        <v>1364</v>
-      </c>
-      <c r="B4" s="96" t="s">
-        <v>1365</v>
-      </c>
+        <v>1363</v>
+      </c>
+      <c r="B4" s="96"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="84" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="B5" s="85" t="s">
-        <v>1367</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -14167,32 +14176,26 @@
         <v>334</v>
       </c>
       <c r="B6" s="96" t="s">
-        <v>1368</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
         <v>790</v>
       </c>
-      <c r="B7" s="96" t="s">
-        <v>1369</v>
-      </c>
+      <c r="B7" s="96"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="84" t="s">
-        <v>1370</v>
-      </c>
-      <c r="B8" s="85" t="s">
-        <v>1371</v>
-      </c>
+        <v>1365</v>
+      </c>
+      <c r="B8" s="85"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="84" t="s">
-        <v>1372</v>
-      </c>
-      <c r="B9" s="97" t="s">
-        <v>1373</v>
-      </c>
+        <v>1366</v>
+      </c>
+      <c r="B9" s="97"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14205,12 +14208,12 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="21" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="32.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
@@ -14229,51 +14232,40 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="84" t="s">
-        <v>1374</v>
+        <v>1367</v>
       </c>
       <c r="B3" s="85" t="s">
-        <v>1376</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
         <v>790</v>
       </c>
-      <c r="B4" t="s">
-        <v>1262</v>
-      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="84" t="s">
-        <v>1375</v>
-      </c>
-      <c r="B5" s="85" t="s">
-        <v>1377</v>
-      </c>
+        <v>1368</v>
+      </c>
+      <c r="B5" s="85"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="84" t="s">
-        <v>1372</v>
-      </c>
-      <c r="B6" s="97" t="s">
-        <v>1378</v>
-      </c>
+        <v>1366</v>
+      </c>
+      <c r="B6" s="97"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="84" t="s">
         <v>1362</v>
       </c>
-      <c r="B7" s="96" t="s">
-        <v>1363</v>
-      </c>
+      <c r="B7" s="96"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="84" t="s">
-        <v>1364</v>
-      </c>
-      <c r="B8" s="96" t="s">
-        <v>1365</v>
-      </c>
+        <v>1363</v>
+      </c>
+      <c r="B8" s="96"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14285,13 +14277,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="24.85546875" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="24.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
@@ -14312,65 +14304,53 @@
       <c r="A3" s="84" t="s">
         <v>1362</v>
       </c>
-      <c r="B3" s="96" t="s">
-        <v>1379</v>
-      </c>
+      <c r="B3" s="96"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="84" t="s">
-        <v>1364</v>
-      </c>
-      <c r="B4" s="96" t="s">
-        <v>1191</v>
-      </c>
+        <v>1363</v>
+      </c>
+      <c r="B4" s="96"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="84" t="s">
-        <v>1380</v>
-      </c>
-      <c r="B5" s="96" t="s">
-        <v>1385</v>
-      </c>
+        <v>1369</v>
+      </c>
+      <c r="B5" s="96"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="84" t="s">
-        <v>1374</v>
+        <v>1367</v>
       </c>
       <c r="B6" s="85" t="s">
-        <v>1376</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
         <v>790</v>
       </c>
-      <c r="B7" s="96" t="s">
-        <v>1381</v>
-      </c>
+      <c r="B7" s="96"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="84" t="s">
-        <v>1382</v>
-      </c>
-      <c r="B8" s="96" t="s">
-        <v>1383</v>
-      </c>
+        <v>1370</v>
+      </c>
+      <c r="B8" s="96"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="84" t="s">
         <v>334</v>
       </c>
       <c r="B9" s="96" t="s">
-        <v>1384</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="84" t="s">
         <v>310</v>
       </c>
-      <c r="B10" s="97" t="s">
-        <v>1386</v>
-      </c>
+      <c r="B10" s="97"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14806,7 +14786,7 @@
         <v>60</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>1399</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">

--- a/WppRegpack/TestResource/Regression/DS_MLY_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Regression/DS_MLY_REGRESSION.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GlobalTestSuite_BAU\GlobalTestSuiteAutomation\WppRegpack\TestResource\Regression\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\OneDrive - Cognizant\Documents\GlobalTestSuite Project\GlobalTestSuiteAutomation\WppRegpack\TestResource\Regression\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="44" activeTab="47"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="56" activeTab="58"/>
   </bookViews>
   <sheets>
     <sheet name="Server Details" sheetId="1" r:id="rId1"/>
@@ -70,16 +70,18 @@
     <sheet name="GLMPL" sheetId="67" r:id="rId56"/>
     <sheet name="PostJournalEntries" sheetId="66" r:id="rId57"/>
     <sheet name="ReverseGL" sheetId="53" r:id="rId58"/>
-    <sheet name="InvoicePreparation" sheetId="54" r:id="rId59"/>
-    <sheet name="InvoiceLookups" sheetId="55" r:id="rId60"/>
-    <sheet name="InvoiceOnAccount" sheetId="56" r:id="rId61"/>
-    <sheet name="InvoicingFromBudget" sheetId="57" r:id="rId62"/>
-    <sheet name="JobInvoiceAllocation_WIP" sheetId="58" r:id="rId63"/>
-    <sheet name="Time_Material_Invocing" sheetId="62" r:id="rId64"/>
-    <sheet name="InvoiceMPL" sheetId="59" r:id="rId65"/>
-    <sheet name="QuoteMPL" sheetId="60" r:id="rId66"/>
-    <sheet name="Agency Users" sheetId="11" r:id="rId67"/>
-    <sheet name="SSC Users" sheetId="12" r:id="rId68"/>
+    <sheet name="CreateAnAccrualJobByJob" sheetId="71" r:id="rId59"/>
+    <sheet name="CreateAnAccrualForAGroupOfJobs" sheetId="72" r:id="rId60"/>
+    <sheet name="InvoicePreparation" sheetId="54" r:id="rId61"/>
+    <sheet name="InvoiceLookups" sheetId="55" r:id="rId62"/>
+    <sheet name="InvoiceOnAccount" sheetId="56" r:id="rId63"/>
+    <sheet name="InvoicingFromBudget" sheetId="57" r:id="rId64"/>
+    <sheet name="JobInvoiceAllocation_WIP" sheetId="58" r:id="rId65"/>
+    <sheet name="Time_Material_Invocing" sheetId="62" r:id="rId66"/>
+    <sheet name="InvoiceMPL" sheetId="59" r:id="rId67"/>
+    <sheet name="QuoteMPL" sheetId="60" r:id="rId68"/>
+    <sheet name="Agency Users" sheetId="11" r:id="rId69"/>
+    <sheet name="SSC Users" sheetId="12" r:id="rId70"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -91,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2591" uniqueCount="1423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2640" uniqueCount="1442">
   <si>
     <t>Description</t>
   </si>
@@ -4364,6 +4366,63 @@
   </si>
   <si>
     <t>C:\GlobalTestSuite_BAU\GlobalTestSuiteAutomation\WppRegPack\MPLReports\Critical_Regression\Malaysia\2025\P_PaymentOrder-2.pdf</t>
+  </si>
+  <si>
+    <t>WorkCode</t>
+  </si>
+  <si>
+    <t>NoForAccrual</t>
+  </si>
+  <si>
+    <t>EntryDate</t>
+  </si>
+  <si>
+    <t>JobCreation2</t>
+  </si>
+  <si>
+    <t>JobBudgetCreation2</t>
+  </si>
+  <si>
+    <t>CreateQuote2</t>
+  </si>
+  <si>
+    <t>CreatePurchaseOrder2</t>
+  </si>
+  <si>
+    <t>ApprovePurchaseOrder2</t>
+  </si>
+  <si>
+    <t>10/07/2020</t>
+  </si>
+  <si>
+    <t>Job Sheet_2</t>
+  </si>
+  <si>
+    <t>Budget sheet_2</t>
+  </si>
+  <si>
+    <t>Quote Sheet_2</t>
+  </si>
+  <si>
+    <t>PO Sheet_2</t>
+  </si>
+  <si>
+    <t>Approve PO Sheet_2</t>
+  </si>
+  <si>
+    <t>CreatePurchaseOrder3</t>
+  </si>
+  <si>
+    <t>ApprovePurchaseOrder3</t>
+  </si>
+  <si>
+    <t>E1171</t>
+  </si>
+  <si>
+    <t>E1580</t>
+  </si>
+  <si>
+    <t>10/09/2020</t>
   </si>
 </sst>
 </file>
@@ -14277,7 +14336,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -15798,21 +15857,29 @@
 
 <file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11" style="20" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.28515625" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="17" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="15.140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="20.42578125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="17.140625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="13.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="20" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="50" t="s">
@@ -15830,61 +15897,49 @@
       <c r="F1" s="50" t="s">
         <v>1274</v>
       </c>
-      <c r="G1" s="50" t="s">
-        <v>1275</v>
-      </c>
-      <c r="H1" s="50" t="s">
-        <v>1276</v>
-      </c>
-      <c r="I1" s="50" t="s">
-        <v>1277</v>
-      </c>
-      <c r="J1" s="58" t="s">
+      <c r="G1" s="19" t="s">
         <v>183</v>
       </c>
-      <c r="K1" s="58" t="s">
-        <v>1061</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
-        <v>1278</v>
-      </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="20">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="20">
-        <v>1284</v>
-      </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="K3" s="20">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="20">
-        <v>2025</v>
-      </c>
-      <c r="K4" s="20">
-        <v>100</v>
+      <c r="H1" t="s">
+        <v>277</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1423</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1424</v>
+      </c>
+      <c r="K1" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1319</v>
+      </c>
+      <c r="B2" s="50" t="s">
+        <v>1426</v>
+      </c>
+      <c r="C2" s="50" t="s">
+        <v>1427</v>
+      </c>
+      <c r="D2" s="50" t="s">
+        <v>1428</v>
+      </c>
+      <c r="E2" s="50" t="s">
+        <v>1429</v>
+      </c>
+      <c r="F2" s="50" t="s">
+        <v>1430</v>
+      </c>
+      <c r="I2" t="s">
+        <v>1059</v>
+      </c>
+      <c r="J2" s="49" t="s">
+        <v>279</v>
+      </c>
+      <c r="K2" s="49" t="s">
+        <v>1431</v>
       </c>
     </row>
   </sheetData>
@@ -15911,6 +15966,233 @@
 
 <file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="21.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="21.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="18.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="9.140625" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="50" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C1" s="50" t="s">
+        <v>1271</v>
+      </c>
+      <c r="D1" s="50" t="s">
+        <v>1272</v>
+      </c>
+      <c r="E1" s="50" t="s">
+        <v>1273</v>
+      </c>
+      <c r="F1" s="50" t="s">
+        <v>1274</v>
+      </c>
+      <c r="G1" s="50" t="s">
+        <v>1432</v>
+      </c>
+      <c r="H1" s="50" t="s">
+        <v>1433</v>
+      </c>
+      <c r="I1" s="50" t="s">
+        <v>1434</v>
+      </c>
+      <c r="J1" s="50" t="s">
+        <v>1435</v>
+      </c>
+      <c r="K1" s="50" t="s">
+        <v>1436</v>
+      </c>
+      <c r="L1" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="M1" t="s">
+        <v>1423</v>
+      </c>
+      <c r="N1" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="O1" t="s">
+        <v>1424</v>
+      </c>
+      <c r="P1" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1707</v>
+      </c>
+      <c r="B2" s="50" t="s">
+        <v>1426</v>
+      </c>
+      <c r="C2" s="50" t="s">
+        <v>1427</v>
+      </c>
+      <c r="D2" s="50" t="s">
+        <v>1428</v>
+      </c>
+      <c r="E2" s="50" t="s">
+        <v>1429</v>
+      </c>
+      <c r="F2" s="50" t="s">
+        <v>1430</v>
+      </c>
+      <c r="G2" s="50" t="s">
+        <v>1279</v>
+      </c>
+      <c r="H2" s="50" t="s">
+        <v>1280</v>
+      </c>
+      <c r="I2" s="50" t="s">
+        <v>1281</v>
+      </c>
+      <c r="J2" s="50" t="s">
+        <v>1437</v>
+      </c>
+      <c r="K2" s="50" t="s">
+        <v>1438</v>
+      </c>
+      <c r="M2" t="s">
+        <v>1439</v>
+      </c>
+      <c r="N2" t="s">
+        <v>1440</v>
+      </c>
+      <c r="O2" s="49" t="s">
+        <v>1208</v>
+      </c>
+      <c r="P2" s="49" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11" style="20" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="20" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="50" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C1" s="50" t="s">
+        <v>1271</v>
+      </c>
+      <c r="D1" s="50" t="s">
+        <v>1272</v>
+      </c>
+      <c r="E1" s="50" t="s">
+        <v>1273</v>
+      </c>
+      <c r="F1" s="50" t="s">
+        <v>1274</v>
+      </c>
+      <c r="G1" s="50" t="s">
+        <v>1275</v>
+      </c>
+      <c r="H1" s="50" t="s">
+        <v>1276</v>
+      </c>
+      <c r="I1" s="50" t="s">
+        <v>1277</v>
+      </c>
+      <c r="J1" s="58" t="s">
+        <v>183</v>
+      </c>
+      <c r="K1" s="58" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="20">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="20">
+        <v>1284</v>
+      </c>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="K3" s="20">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="20">
+        <v>2025</v>
+      </c>
+      <c r="K4" s="20">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -15945,7 +16227,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AX2"/>
   <sheetViews>
@@ -16168,7 +16450,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -16209,7 +16491,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -16259,7 +16541,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K3"/>
   <sheetViews>
@@ -16339,7 +16621,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -16612,7 +16894,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U4"/>
   <sheetViews>
@@ -16768,7 +17050,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
@@ -16879,7 +17161,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
@@ -17018,22 +17316,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FF92D050"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/WppRegpack/TestResource/Regression/DS_MLY_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Regression/DS_MLY_REGRESSION.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="13" activeTab="17"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="66" activeTab="69"/>
   </bookViews>
   <sheets>
     <sheet name="Server Details" sheetId="1" r:id="rId1"/>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2660" uniqueCount="1453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2658" uniqueCount="1458">
   <si>
     <t>Description</t>
   </si>
@@ -4457,6 +4457,21 @@
   </si>
   <si>
     <t>20250112</t>
+  </si>
+  <si>
+    <t>UserCreation_UserName</t>
+  </si>
+  <si>
+    <t>testem@test.com</t>
+  </si>
+  <si>
+    <t>TerminationDate</t>
+  </si>
+  <si>
+    <t>11/04/2020</t>
+  </si>
+  <si>
+    <t>GTF Sai Kiran Vemula</t>
   </si>
 </sst>
 </file>
@@ -4740,7 +4755,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4927,6 +4942,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -7450,10 +7466,10 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7479,27 +7495,11 @@
       </c>
     </row>
     <row r="3" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="40" t="s">
-        <v>1386</v>
-      </c>
-      <c r="B3" s="40" t="s">
-        <v>1140</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="40" t="s">
-        <v>189</v>
-      </c>
-      <c r="B4" s="40" t="s">
-        <v>1223</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1146</v>
+      <c r="A3" t="s">
+        <v>1455</v>
+      </c>
+      <c r="B3" s="92" t="s">
+        <v>1456</v>
       </c>
     </row>
   </sheetData>
@@ -7824,10 +7824,10 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:EZ89"/>
+  <dimension ref="A1:EZ90"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="A90" sqref="A90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8728,9 +8728,20 @@
         <v>586</v>
       </c>
     </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="19" t="s">
+        <v>1453</v>
+      </c>
+      <c r="B90" s="98" t="s">
+        <v>1454</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B90" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -17222,7 +17233,7 @@
   </sheetPr>
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -17277,7 +17288,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>1072</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">

--- a/WppRegpack/TestResource/Regression/DS_MLY_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Regression/DS_MLY_REGRESSION.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GlobalTestAutomation1\GlobalTestSuiteAutomation\WppRegpack\TestResource\Regression\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="66" activeTab="69"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="39" activeTab="41"/>
   </bookViews>
   <sheets>
     <sheet name="Server Details" sheetId="1" r:id="rId1"/>
@@ -86,7 +86,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2658" uniqueCount="1458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2710" uniqueCount="1492">
   <si>
     <t>Description</t>
   </si>
@@ -3632,9 +3632,6 @@
     <t>PaymentMode</t>
   </si>
   <si>
-    <t>Manual - Local - 1</t>
-  </si>
-  <si>
     <t>supplier</t>
   </si>
   <si>
@@ -3662,12 +3659,6 @@
     <t>Retainer Time</t>
   </si>
   <si>
-    <t>Other Travel - Domestic</t>
-  </si>
-  <si>
-    <t>Banners-Design and Produce</t>
-  </si>
-  <si>
     <t>Job Serial Order</t>
   </si>
   <si>
@@ -3677,9 +3668,6 @@
     <t>1712</t>
   </si>
   <si>
-    <t>2-2</t>
-  </si>
-  <si>
     <t>Billable Amount (Acc Rev B/S) - B/S Accrual - Advertising &amp; Other / Agent</t>
   </si>
   <si>
@@ -3734,9 +3722,6 @@
     <t>Quote Total</t>
   </si>
   <si>
-    <t>13,012.85</t>
-  </si>
-  <si>
     <t>PDF Quote</t>
   </si>
   <si>
@@ -3782,21 +3767,12 @@
     <t>2025_AutomationEmpy@gmail.com</t>
   </si>
   <si>
-    <t>9/30/2020</t>
-  </si>
-  <si>
     <t>2025 - Employee Categories</t>
   </si>
   <si>
     <t>D111-Creative</t>
   </si>
   <si>
-    <t>09/30/2020</t>
-  </si>
-  <si>
-    <t>09/05/2020</t>
-  </si>
-  <si>
     <t>20250113</t>
   </si>
   <si>
@@ -3809,9 +3785,6 @@
     <t>202510561</t>
   </si>
   <si>
-    <t>09/06/2020</t>
-  </si>
-  <si>
     <t>SeptReg</t>
   </si>
   <si>
@@ -3893,30 +3866,12 @@
     <t>25.00</t>
   </si>
   <si>
-    <t>89.91</t>
-  </si>
-  <si>
-    <t>2,247.75</t>
-  </si>
-  <si>
-    <t>134.87</t>
-  </si>
-  <si>
-    <t>494.87</t>
-  </si>
-  <si>
     <t>15.00</t>
   </si>
   <si>
-    <t>269.72</t>
-  </si>
-  <si>
     <t>TotalBilling_3</t>
   </si>
   <si>
-    <t>4,045.80</t>
-  </si>
-  <si>
     <t>Tax1_3</t>
   </si>
   <si>
@@ -3926,30 +3881,18 @@
     <t>Tax1currency_3</t>
   </si>
   <si>
-    <t>242.74</t>
-  </si>
-  <si>
     <t>Tax2currency_3</t>
   </si>
   <si>
     <t>Total_3</t>
   </si>
   <si>
-    <t>737.61</t>
-  </si>
-  <si>
     <t>10.00</t>
   </si>
   <si>
-    <t>71.93</t>
-  </si>
-  <si>
     <t>TotalBilling_4</t>
   </si>
   <si>
-    <t>719.30</t>
-  </si>
-  <si>
     <t>Tax1_4</t>
   </si>
   <si>
@@ -3959,27 +3902,18 @@
     <t>Tax1currency_4</t>
   </si>
   <si>
-    <t>43.16</t>
-  </si>
-  <si>
     <t>Tax2currency_4</t>
   </si>
   <si>
     <t>Total_4</t>
   </si>
   <si>
-    <t>780.77</t>
-  </si>
-  <si>
     <t>TOTAL EXC. TAX</t>
   </si>
   <si>
     <t>Invoice TOTAL</t>
   </si>
   <si>
-    <t>13,793.62</t>
-  </si>
-  <si>
     <t>20</t>
   </si>
   <si>
@@ -4086,15 +4020,6 @@
   </si>
   <si>
     <t>Grey Worldwide Sdn Bhd</t>
-  </si>
-  <si>
-    <t>9/6/2020</t>
-  </si>
-  <si>
-    <t>9/1/2020</t>
-  </si>
-  <si>
-    <t>2025606571</t>
   </si>
   <si>
     <t>1010000-01 - Billings - Media General</t>
@@ -4185,12 +4110,6 @@
     <t>202522290</t>
   </si>
   <si>
-    <t>SeptReg1</t>
-  </si>
-  <si>
-    <t>SepReg11</t>
-  </si>
-  <si>
     <t>C:\GlobalTestSuite_BAU\GlobalTestSuiteAutomation\WppRegPack\MPLReports\Critical_Regression\Malaysia\2025\Print Invoice Editing-5.pdf</t>
   </si>
   <si>
@@ -4267,9 +4186,6 @@
     <t>Manual - MYR - 1</t>
   </si>
   <si>
-    <t>9/21/2020</t>
-  </si>
-  <si>
     <t>PaymentSelectionMpl</t>
   </si>
   <si>
@@ -4381,9 +4297,6 @@
     <t>AutoGlobalProduct 19October2020 09:52:22</t>
   </si>
   <si>
-    <t>8796504345</t>
-  </si>
-  <si>
     <t>122156</t>
   </si>
   <si>
@@ -4414,25 +4327,238 @@
     <t>Photography - Stock Library</t>
   </si>
   <si>
-    <t>202522340</t>
-  </si>
-  <si>
     <t>62.00</t>
   </si>
   <si>
-    <t>130.55</t>
-  </si>
-  <si>
-    <t>8,094.24</t>
-  </si>
-  <si>
-    <t>485.65</t>
-  </si>
-  <si>
-    <t>8579.89</t>
-  </si>
-  <si>
-    <t>14,094.24</t>
+    <t>MR</t>
+  </si>
+  <si>
+    <t>UserCreation_UserName</t>
+  </si>
+  <si>
+    <t>TerminationDate</t>
+  </si>
+  <si>
+    <t>11/04/2020</t>
+  </si>
+  <si>
+    <t>Freelancer</t>
+  </si>
+  <si>
+    <t>11/06/2020</t>
+  </si>
+  <si>
+    <t>11/30/2020</t>
+  </si>
+  <si>
+    <t>20250114</t>
+  </si>
+  <si>
+    <t>2025AutomationUser 06November2020 12:23:18</t>
+  </si>
+  <si>
+    <t>231315465441</t>
+  </si>
+  <si>
+    <t>354322465053</t>
+  </si>
+  <si>
+    <t>879650434561</t>
+  </si>
+  <si>
+    <t>879650434573</t>
+  </si>
+  <si>
+    <t>108598</t>
+  </si>
+  <si>
+    <t>2025_AutoClient 06November2020 12:56:00</t>
+  </si>
+  <si>
+    <t>108598001</t>
+  </si>
+  <si>
+    <t>AutoGlobalBrand 06November2020 12:56:00</t>
+  </si>
+  <si>
+    <t>108598001001</t>
+  </si>
+  <si>
+    <t>AutoGlobalProduct 06November2020 12:56:00</t>
+  </si>
+  <si>
+    <t>122280</t>
+  </si>
+  <si>
+    <t>5-5</t>
+  </si>
+  <si>
+    <t>202522370</t>
+  </si>
+  <si>
+    <t>131.06</t>
+  </si>
+  <si>
+    <t>8,125.82</t>
+  </si>
+  <si>
+    <t>487.55</t>
+  </si>
+  <si>
+    <t>8613.37</t>
+  </si>
+  <si>
+    <t>14,125.82</t>
+  </si>
+  <si>
+    <t>202512811</t>
+  </si>
+  <si>
+    <t>Nov_BAU_reg</t>
+  </si>
+  <si>
+    <t>NovBAU_Regression</t>
+  </si>
+  <si>
+    <t>4,800.00</t>
+  </si>
+  <si>
+    <t>202520357</t>
+  </si>
+  <si>
+    <t>12/6/2020</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>2025701570</t>
+  </si>
+  <si>
+    <t>92.76</t>
+  </si>
+  <si>
+    <t>2,319.00</t>
+  </si>
+  <si>
+    <t>139.14</t>
+  </si>
+  <si>
+    <t>499.14</t>
+  </si>
+  <si>
+    <t>278.28</t>
+  </si>
+  <si>
+    <t>4,174.20</t>
+  </si>
+  <si>
+    <t>250.45</t>
+  </si>
+  <si>
+    <t>749.59</t>
+  </si>
+  <si>
+    <t>74.21</t>
+  </si>
+  <si>
+    <t>742.10</t>
+  </si>
+  <si>
+    <t>44.53</t>
+  </si>
+  <si>
+    <t>794.12</t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
+    <t>TotalBilling_5</t>
+  </si>
+  <si>
+    <t>890.52</t>
+  </si>
+  <si>
+    <t>Tax1_5</t>
+  </si>
+  <si>
+    <t>Tax2_5</t>
+  </si>
+  <si>
+    <t>Tax1currency_5</t>
+  </si>
+  <si>
+    <t>53.43</t>
+  </si>
+  <si>
+    <t>Tax2currency_5</t>
+  </si>
+  <si>
+    <t>Total_5</t>
+  </si>
+  <si>
+    <t>847.55</t>
+  </si>
+  <si>
+    <t>14,973.37</t>
+  </si>
+  <si>
+    <t>C:\GlobalTestAutomation1\GlobalTestSuiteAutomation\WppRegPack\MPLReports\Critical_Regression\Malaysia\2025\Print Invoice Editing.pdf</t>
+  </si>
+  <si>
+    <t>2025401645</t>
+  </si>
+  <si>
+    <t>202520362</t>
+  </si>
+  <si>
+    <t>11/08/2020</t>
+  </si>
+  <si>
+    <t>202520364</t>
+  </si>
+  <si>
+    <t>11/8/2020</t>
+  </si>
+  <si>
+    <t>11/1/2020</t>
+  </si>
+  <si>
+    <t>2025606822</t>
+  </si>
+  <si>
+    <t>C:\GlobalTestAutomation1\GlobalTestSuiteAutomation\WppRegPack\MPLReports\Critical_Regression\Malaysia\2025\PaymentSelection-5.pdf</t>
+  </si>
+  <si>
+    <t>2001511206</t>
+  </si>
+  <si>
+    <t>C:\GlobalTestAutomation1\GlobalTestSuiteAutomation\WppRegPack\MPLReports\Critical_Regression\Malaysia\2025\P_PaymentOrder.pdf</t>
+  </si>
+  <si>
+    <t>11/09/2020</t>
+  </si>
+  <si>
+    <t>202510571</t>
+  </si>
+  <si>
+    <t>RB109_TM-CP</t>
+  </si>
+  <si>
+    <t>Digital-T&amp;M - CP</t>
+  </si>
+  <si>
+    <t>202522371</t>
+  </si>
+  <si>
+    <t>202520369</t>
+  </si>
+  <si>
+    <t>2025401646</t>
+  </si>
+  <si>
+    <t>202522372</t>
   </si>
   <si>
     <t>C:\GlobalTestAutomation1\GlobalTestSuiteAutomation\WppRegPack\MPLReports\Critical_Regression\Malaysia\2025\Print Job Quote-5.pdf</t>
@@ -4441,43 +4567,21 @@
     <t>C:\GlobalTestAutomation1\GlobalTestSuiteAutomation\WppRegPack\MPLReports\Critical_Regression\Malaysia\2025\Print Job Order Confirmation-2.pdf</t>
   </si>
   <si>
-    <t>MR</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>2025701560</t>
-  </si>
-  <si>
-    <t>10/19/2020</t>
-  </si>
-  <si>
-    <t>10/30/2020</t>
-  </si>
-  <si>
-    <t>20250112</t>
-  </si>
-  <si>
-    <t>UserCreation_UserName</t>
-  </si>
-  <si>
-    <t>testem@test.com</t>
-  </si>
-  <si>
-    <t>TerminationDate</t>
-  </si>
-  <si>
-    <t>11/04/2020</t>
-  </si>
-  <si>
-    <t>GTF Sai Kiran Vemula</t>
+    <t xml:space="preserve">2025401647
+</t>
+  </si>
+  <si>
+    <t>2025401647</t>
+  </si>
+  <si>
+    <t>202520370</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4755,7 +4859,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4942,7 +5046,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -5230,13 +5333,13 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="9" width="40.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="2" max="9" bestFit="true" customWidth="true" width="40.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5313,45 +5416,45 @@
   </sheetPr>
   <dimension ref="A1:AP3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="23.140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="40" max="40" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="41" max="41" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="23.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="39" max="39" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="41" max="41" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:42" x14ac:dyDescent="0.25">
@@ -5530,10 +5633,10 @@
       </c>
       <c r="B3" s="48"/>
       <c r="C3" t="s">
+        <v>1185</v>
+      </c>
+      <c r="D3" t="s">
         <v>1186</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1187</v>
       </c>
       <c r="E3">
         <v>6</v>
@@ -5542,10 +5645,10 @@
         <v>1000</v>
       </c>
       <c r="G3" t="s">
-        <v>1430</v>
+        <v>1401</v>
       </c>
       <c r="H3" t="s">
-        <v>1431</v>
+        <v>1402</v>
       </c>
       <c r="I3">
         <v>25</v>
@@ -5554,10 +5657,10 @@
         <v>500</v>
       </c>
       <c r="K3" t="s">
-        <v>1433</v>
+        <v>1404</v>
       </c>
       <c r="L3" t="s">
-        <v>1432</v>
+        <v>1403</v>
       </c>
       <c r="M3">
         <v>15</v>
@@ -5566,10 +5669,10 @@
         <v>1500</v>
       </c>
       <c r="O3" t="s">
-        <v>1434</v>
+        <v>1405</v>
       </c>
       <c r="P3" t="s">
-        <v>1435</v>
+        <v>1406</v>
       </c>
       <c r="Q3">
         <v>10</v>
@@ -5578,10 +5681,10 @@
         <v>400</v>
       </c>
       <c r="S3" t="s">
-        <v>1436</v>
+        <v>1407</v>
       </c>
       <c r="T3" t="s">
-        <v>1437</v>
+        <v>1408</v>
       </c>
       <c r="U3">
         <v>12</v>
@@ -5604,33 +5707,33 @@
   <dimension ref="A1:AH3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="22.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="14.5703125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.5703125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
@@ -5790,7 +5893,7 @@
         <v>1066</v>
       </c>
       <c r="E3" t="s">
-        <v>1430</v>
+        <v>1401</v>
       </c>
       <c r="F3" t="s">
         <v>586</v>
@@ -5799,7 +5902,7 @@
         <v>100</v>
       </c>
       <c r="H3" t="s">
-        <v>1433</v>
+        <v>1404</v>
       </c>
       <c r="I3" t="s">
         <v>586</v>
@@ -5808,10 +5911,10 @@
         <v>120</v>
       </c>
       <c r="K3" t="s">
-        <v>1434</v>
+        <v>1405</v>
       </c>
       <c r="L3" t="s">
-        <v>1447</v>
+        <v>1410</v>
       </c>
       <c r="M3">
         <v>200</v>
@@ -5831,14 +5934,14 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19" style="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="19" width="19.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -5873,7 +5976,7 @@
         <v>788</v>
       </c>
       <c r="D3">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -5887,7 +5990,7 @@
         <v>68</v>
       </c>
       <c r="D4" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -5991,7 +6094,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1215</v>
+        <v>1210</v>
       </c>
       <c r="B13" s="19" t="s">
         <v>93</v>
@@ -6005,7 +6108,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>1216</v>
+        <v>1211</v>
       </c>
       <c r="B14" s="19" t="s">
         <v>94</v>
@@ -6019,7 +6122,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>1217</v>
+        <v>1212</v>
       </c>
       <c r="B15" s="19" t="s">
         <v>95</v>
@@ -6033,7 +6136,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>1218</v>
+        <v>1213</v>
       </c>
       <c r="B16" s="19" t="s">
         <v>96</v>
@@ -6047,7 +6150,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>1219</v>
+        <v>1214</v>
       </c>
       <c r="B17" s="19" t="s">
         <v>97</v>
@@ -6061,7 +6164,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>1220</v>
+        <v>1215</v>
       </c>
       <c r="B18" s="19" t="s">
         <v>98</v>
@@ -6075,7 +6178,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>1221</v>
+        <v>1216</v>
       </c>
       <c r="B19" s="19" t="s">
         <v>99</v>
@@ -6099,14 +6202,14 @@
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31" style="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="51" style="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="16384" width="9.140625" style="19" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="19" width="31.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="19" width="51.0" collapsed="true"/>
+    <col min="3" max="16384" style="19" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6122,7 +6225,7 @@
         <v>23</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>1226</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -6154,7 +6257,7 @@
         <v>27</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>1450</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -6170,7 +6273,7 @@
         <v>30</v>
       </c>
       <c r="B8" s="90" t="s">
-        <v>1227</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -6186,7 +6289,7 @@
         <v>33</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>34</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -6210,7 +6313,7 @@
         <v>50</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>1230</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -6218,7 +6321,7 @@
         <v>38</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -6226,7 +6329,7 @@
         <v>51</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -6234,7 +6337,7 @@
         <v>39</v>
       </c>
       <c r="B16" s="48" t="s">
-        <v>1223</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -6242,7 +6345,7 @@
         <v>40</v>
       </c>
       <c r="B17" s="48" t="s">
-        <v>1223</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -6258,7 +6361,7 @@
         <v>52</v>
       </c>
       <c r="B19" s="46" t="s">
-        <v>1225</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -6297,14 +6400,14 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C9"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.140625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="23.140625" style="19" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="9.140625" style="19" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="19" width="24.140625" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" style="19" width="23.140625" collapsed="true"/>
+    <col min="4" max="16384" style="19" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6323,15 +6426,15 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>1387</v>
+        <v>1360</v>
       </c>
       <c r="C2" t="s">
-        <v>1385</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="40" t="s">
-        <v>1386</v>
+        <v>1359</v>
       </c>
       <c r="B3" s="40" t="s">
         <v>70</v>
@@ -6348,7 +6451,7 @@
         <v>801</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>1223</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -6379,7 +6482,7 @@
         <v>802</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>1450</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -6390,7 +6493,7 @@
         <v>803</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>1451</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -6417,17 +6520,18 @@
   </sheetPr>
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="68.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="67.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="10" width="87.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="69.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="37.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="52.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="35.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="34.42578125" collapsed="true"/>
+    <col min="5" max="10" bestFit="true" customWidth="true" width="87.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="69.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -6470,7 +6574,7 @@
         <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>1226</v>
+        <v>1221</v>
       </c>
       <c r="C2" t="s">
         <v>182</v>
@@ -6645,7 +6749,7 @@
         <v>27</v>
       </c>
       <c r="B7" s="92" t="s">
-        <v>1450</v>
+        <v>1415</v>
       </c>
       <c r="C7" t="s">
         <v>61</v>
@@ -6715,7 +6819,7 @@
         <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>1226</v>
+        <v>1221</v>
       </c>
       <c r="C9" t="s">
         <v>182</v>
@@ -6784,8 +6888,8 @@
       <c r="A11" t="s">
         <v>33</v>
       </c>
-      <c r="B11" t="s">
-        <v>34</v>
+      <c r="B11" s="13" t="s">
+        <v>1414</v>
       </c>
       <c r="C11" t="s">
         <v>34</v>
@@ -6885,12 +6989,12 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>50</v>
       </c>
       <c r="B14" t="s">
-        <v>1230</v>
+        <v>1224</v>
       </c>
       <c r="C14" t="s">
         <v>64</v>
@@ -6925,7 +7029,7 @@
         <v>38</v>
       </c>
       <c r="B15" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="C15" t="s">
         <v>8</v>
@@ -6960,7 +7064,7 @@
         <v>51</v>
       </c>
       <c r="B16" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="C16" t="s">
         <v>66</v>
@@ -6994,8 +7098,8 @@
       <c r="A17" t="s">
         <v>39</v>
       </c>
-      <c r="B17">
-        <v>20259905</v>
+      <c r="B17" s="48" t="s">
+        <v>1218</v>
       </c>
       <c r="C17" t="s">
         <v>185</v>
@@ -7029,8 +7133,8 @@
       <c r="A18" t="s">
         <v>40</v>
       </c>
-      <c r="B18">
-        <v>20259905</v>
+      <c r="B18" s="48" t="s">
+        <v>1218</v>
       </c>
       <c r="C18" t="s">
         <v>185</v>
@@ -7100,7 +7204,7 @@
         <v>52</v>
       </c>
       <c r="B20" t="s">
-        <v>1225</v>
+        <v>1220</v>
       </c>
       <c r="C20" t="s">
         <v>186</v>
@@ -7240,7 +7344,7 @@
         <v>48</v>
       </c>
       <c r="B24" s="92" t="s">
-        <v>1232</v>
+        <v>1415</v>
       </c>
       <c r="C24" t="s">
         <v>191</v>
@@ -7275,7 +7379,7 @@
         <v>49</v>
       </c>
       <c r="B25" s="92" t="s">
-        <v>1231</v>
+        <v>1416</v>
       </c>
       <c r="C25" t="s">
         <v>188</v>
@@ -7310,7 +7414,7 @@
         <v>47</v>
       </c>
       <c r="B26" t="s">
-        <v>1229</v>
+        <v>1223</v>
       </c>
       <c r="C26" t="s">
         <v>208</v>
@@ -7346,8 +7450,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31" style="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="60.140625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="19" width="31.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="19" width="60.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7375,7 +7479,7 @@
         <v>299</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>1419</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -7383,10 +7487,10 @@
         <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>1227</v>
+        <v>1222</v>
       </c>
       <c r="C4" t="s">
-        <v>1420</v>
+        <v>1392</v>
       </c>
     </row>
   </sheetData>
@@ -7408,7 +7512,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="26.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" width="26.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7427,10 +7531,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>1387</v>
+        <v>1360</v>
       </c>
       <c r="C2" t="s">
-        <v>1385</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -7441,7 +7545,7 @@
         <v>802</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>1417</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -7452,7 +7556,7 @@
         <v>803</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>1418</v>
+        <v>1390</v>
       </c>
     </row>
   </sheetData>
@@ -7474,8 +7578,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="2" width="41.28515625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="41.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7491,15 +7595,15 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>1385</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1455</v>
+        <v>1412</v>
       </c>
       <c r="B3" s="92" t="s">
-        <v>1456</v>
+        <v>1413</v>
       </c>
     </row>
   </sheetData>
@@ -7521,9 +7625,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:62" x14ac:dyDescent="0.25">
@@ -7826,16 +7930,16 @@
   </sheetPr>
   <dimension ref="A1:EZ90"/>
   <sheetViews>
-    <sheetView topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="A90" sqref="A90"/>
+    <sheetView topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="39.7109375" style="19" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="27.85546875" style="19" customWidth="1" collapsed="1"/>
-    <col min="4" max="156" width="32" style="19" customWidth="1" collapsed="1"/>
-    <col min="157" max="16384" width="9.140625" style="19" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" style="19" width="39.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="19" width="27.85546875" collapsed="true"/>
+    <col min="4" max="156" customWidth="true" style="19" width="32.0" collapsed="true"/>
+    <col min="157" max="16384" style="19" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:156" x14ac:dyDescent="0.25">
@@ -7846,7 +7950,7 @@
         <v>2025</v>
       </c>
       <c r="C1" s="10">
-        <v>2025</v>
+        <v>20234</v>
       </c>
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
@@ -8007,16 +8111,16 @@
         <v>181</v>
       </c>
       <c r="B2" t="s">
-        <v>1438</v>
+        <v>1486</v>
       </c>
       <c r="C2" t="s">
-        <v>1381</v>
+        <v>1354</v>
       </c>
       <c r="D2" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="E2" t="s">
-        <v>1361</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="3" spans="1:156" x14ac:dyDescent="0.25">
@@ -8024,10 +8128,10 @@
         <v>189</v>
       </c>
       <c r="B3" t="s">
-        <v>1452</v>
+        <v>1417</v>
       </c>
       <c r="C3" t="s">
-        <v>1233</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="4" spans="1:156" x14ac:dyDescent="0.25">
@@ -8035,37 +8139,46 @@
         <v>190</v>
       </c>
       <c r="B4" t="s">
-        <v>1449</v>
+        <v>1444</v>
       </c>
       <c r="C4" t="s">
-        <v>1235</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="5" spans="1:156" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>275</v>
       </c>
+      <c r="B5" t="s">
+        <v>1437</v>
+      </c>
       <c r="C5" s="19" t="s">
-        <v>1222</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="6" spans="1:156" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
         <v>786</v>
       </c>
+      <c r="B6" t="s">
+        <v>1441</v>
+      </c>
       <c r="C6" t="s">
-        <v>1243</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="7" spans="1:156" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
         <v>787</v>
       </c>
+      <c r="B7" t="s">
+        <v>1438</v>
+      </c>
       <c r="C7" t="s">
-        <v>1238</v>
+        <v>1229</v>
       </c>
       <c r="D7" t="s">
-        <v>1238</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="8" spans="1:156" x14ac:dyDescent="0.25">
@@ -8073,10 +8186,10 @@
         <v>1097</v>
       </c>
       <c r="B8" t="s">
-        <v>1223</v>
+        <v>1218</v>
       </c>
       <c r="C8" t="s">
-        <v>1223</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="9" spans="1:156" x14ac:dyDescent="0.25">
@@ -8095,10 +8208,10 @@
         <v>1099</v>
       </c>
       <c r="B10" t="s">
-        <v>1448</v>
+        <v>1443</v>
       </c>
       <c r="C10" t="s">
-        <v>1224</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="11" spans="1:156" x14ac:dyDescent="0.25">
@@ -8116,10 +8229,10 @@
         <v>1046</v>
       </c>
       <c r="B13" t="s">
-        <v>1421</v>
+        <v>1423</v>
       </c>
       <c r="C13" t="s">
-        <v>1421</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="14" spans="1:156" x14ac:dyDescent="0.25">
@@ -8127,10 +8240,10 @@
         <v>1102</v>
       </c>
       <c r="B14" t="s">
-        <v>1422</v>
+        <v>1424</v>
       </c>
       <c r="C14" t="s">
-        <v>1422</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="15" spans="1:156" x14ac:dyDescent="0.25">
@@ -8138,10 +8251,10 @@
         <v>1047</v>
       </c>
       <c r="B15" t="s">
-        <v>1423</v>
+        <v>1425</v>
       </c>
       <c r="C15" t="s">
-        <v>1423</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="16" spans="1:156" x14ac:dyDescent="0.25">
@@ -8149,10 +8262,10 @@
         <v>1103</v>
       </c>
       <c r="B16" t="s">
-        <v>1424</v>
+        <v>1426</v>
       </c>
       <c r="C16" t="s">
-        <v>1424</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -8160,10 +8273,10 @@
         <v>1048</v>
       </c>
       <c r="B17" t="s">
-        <v>1425</v>
+        <v>1427</v>
       </c>
       <c r="C17" t="s">
-        <v>1425</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -8171,10 +8284,10 @@
         <v>1104</v>
       </c>
       <c r="B18" t="s">
-        <v>1426</v>
+        <v>1428</v>
       </c>
       <c r="C18" t="s">
-        <v>1426</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -8191,11 +8304,11 @@
       <c r="A21" s="19" t="s">
         <v>263</v>
       </c>
-      <c r="B21" s="19" t="s">
-        <v>1428</v>
+      <c r="B21" t="s">
+        <v>1429</v>
       </c>
       <c r="C21" t="s">
-        <v>1428</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -8207,8 +8320,11 @@
       <c r="A23" s="19" t="s">
         <v>1108</v>
       </c>
+      <c r="B23" t="s">
+        <v>1472</v>
+      </c>
       <c r="C23" t="s">
-        <v>1328</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -8216,7 +8332,7 @@
         <v>2</v>
       </c>
       <c r="C24" t="s">
-        <v>1234</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -8224,10 +8340,10 @@
         <v>1109</v>
       </c>
       <c r="B25" t="s">
-        <v>1438</v>
+        <v>1486</v>
       </c>
       <c r="C25" t="s">
-        <v>1381</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -8251,9 +8367,11 @@
       <c r="A28" t="s">
         <v>1112</v>
       </c>
-      <c r="B28"/>
+      <c r="B28" t="s">
+        <v>1442</v>
+      </c>
       <c r="C28" t="s">
-        <v>1244</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -8261,7 +8379,7 @@
         <v>1113</v>
       </c>
       <c r="B29" t="s">
-        <v>67</v>
+        <v>1481</v>
       </c>
       <c r="C29" t="s">
         <v>67</v>
@@ -8337,34 +8455,40 @@
       <c r="A41" s="19" t="s">
         <v>1124</v>
       </c>
+      <c r="B41" s="19" t="s">
+        <v>1431</v>
+      </c>
       <c r="C41" s="19" t="s">
-        <v>1381</v>
+        <v>1354</v>
       </c>
       <c r="D41" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="E41" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="F41" t="s">
-        <v>1367</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="19" t="s">
-        <v>1296</v>
+        <v>1274</v>
+      </c>
+      <c r="B42" s="19" t="s">
+        <v>1469</v>
       </c>
       <c r="C42" s="19" t="s">
-        <v>1383</v>
+        <v>1356</v>
       </c>
       <c r="D42" s="19" t="s">
-        <v>1297</v>
+        <v>1275</v>
       </c>
       <c r="E42" s="19" t="s">
-        <v>1357</v>
+        <v>1332</v>
       </c>
       <c r="F42" t="s">
-        <v>1361</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -8456,292 +8580,333 @@
         <v>324</v>
       </c>
       <c r="B58" t="s">
-        <v>1236</v>
+        <v>1480</v>
       </c>
       <c r="C58" t="s">
-        <v>1236</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>1149</v>
       </c>
-      <c r="B59"/>
+      <c r="B59" t="s">
+        <v>362</v>
+      </c>
       <c r="C59" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>1213</v>
+        <v>1208</v>
       </c>
       <c r="B60" t="s">
-        <v>1445</v>
+        <v>1487</v>
       </c>
       <c r="C60" t="s">
-        <v>1382</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>1214</v>
+        <v>1209</v>
       </c>
       <c r="B61" t="s">
-        <v>1446</v>
+        <v>1488</v>
       </c>
       <c r="C61" t="s">
-        <v>1382</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>1239</v>
-      </c>
-      <c r="B62"/>
+        <v>1230</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1361</v>
+      </c>
       <c r="C62" t="s">
-        <v>1388</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>1240</v>
-      </c>
-      <c r="B63"/>
+        <v>1231</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1440</v>
+      </c>
       <c r="C63" t="s">
-        <v>1241</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>1242</v>
-      </c>
-      <c r="B64"/>
+        <v>1233</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1440</v>
+      </c>
       <c r="C64" t="s">
-        <v>1241</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>1245</v>
-      </c>
-      <c r="B65"/>
+        <v>1236</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1441</v>
+      </c>
       <c r="C65" t="s">
-        <v>1243</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>1295</v>
-      </c>
-      <c r="B66"/>
+        <v>1273</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1468</v>
+      </c>
       <c r="C66" t="s">
-        <v>1364</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>1298</v>
-      </c>
-      <c r="B67"/>
+        <v>1276</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1470</v>
+      </c>
       <c r="C67" t="s">
-        <v>1359</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>1299</v>
-      </c>
-      <c r="B68"/>
+        <v>1277</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1469</v>
+      </c>
       <c r="C68" t="s">
-        <v>1376</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>1300</v>
-      </c>
-      <c r="B69"/>
+        <v>1278</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1431</v>
+      </c>
       <c r="C69" t="s">
-        <v>1361</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>1348</v>
-      </c>
-      <c r="B70"/>
+        <v>1323</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1365</v>
+      </c>
       <c r="C70" t="s">
-        <v>1393</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B71"/>
+        <v>1324</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1489</v>
+      </c>
       <c r="C71" t="s">
-        <v>1350</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>1351</v>
-      </c>
-      <c r="B72"/>
+        <v>1326</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1486</v>
+      </c>
       <c r="C72" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>1355</v>
-      </c>
-      <c r="B73"/>
+        <v>1330</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1490</v>
+      </c>
       <c r="C73" t="s">
-        <v>1383</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>1356</v>
-      </c>
-      <c r="B74"/>
+        <v>1331</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1486</v>
+      </c>
       <c r="C74" t="s">
-        <v>1381</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>1358</v>
-      </c>
-      <c r="B75"/>
+        <v>1333</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1491</v>
+      </c>
       <c r="C75" t="s">
-        <v>1384</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>1365</v>
+        <v>1338</v>
       </c>
       <c r="B76"/>
       <c r="C76" t="s">
-        <v>1366</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="19" t="s">
-        <v>1368</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="19" t="s">
-        <v>1369</v>
+        <v>1342</v>
       </c>
       <c r="C78"/>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="19" t="s">
-        <v>1370</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="19" t="s">
-        <v>1371</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="19" t="s">
-        <v>1372</v>
+        <v>1345</v>
       </c>
       <c r="D81" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="19" t="s">
-        <v>1373</v>
+        <v>1346</v>
       </c>
       <c r="D82" t="s">
-        <v>1350</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>1377</v>
-      </c>
-      <c r="B83"/>
+        <v>1350</v>
+      </c>
+      <c r="B83" t="s">
+        <v>1485</v>
+      </c>
       <c r="C83" t="s">
-        <v>1357</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>1378</v>
-      </c>
-      <c r="B84"/>
+        <v>1351</v>
+      </c>
+      <c r="B84" t="s">
+        <v>1483</v>
+      </c>
       <c r="C84" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>1379</v>
-      </c>
-      <c r="B85"/>
+        <v>1352</v>
+      </c>
+      <c r="B85" t="s">
+        <v>1484</v>
+      </c>
       <c r="C85" t="s">
-        <v>1380</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>1390</v>
-      </c>
-      <c r="B86"/>
+        <v>1362</v>
+      </c>
+      <c r="B86" t="s">
+        <v>1476</v>
+      </c>
       <c r="C86" t="s">
-        <v>1392</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>1394</v>
-      </c>
-      <c r="B87"/>
+        <v>1366</v>
+      </c>
+      <c r="B87" t="s">
+        <v>1477</v>
+      </c>
       <c r="C87" t="s">
-        <v>1395</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>1396</v>
-      </c>
-      <c r="B88"/>
+        <v>1368</v>
+      </c>
+      <c r="B88" t="s">
+        <v>1478</v>
+      </c>
       <c r="C88" t="s">
-        <v>1397</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>1429</v>
-      </c>
-      <c r="B89"/>
+        <v>1400</v>
+      </c>
+      <c r="B89" t="s">
+        <v>586</v>
+      </c>
       <c r="C89" t="s">
         <v>586</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="19" t="s">
-        <v>1453</v>
-      </c>
-      <c r="B90" s="98" t="s">
-        <v>1454</v>
+        <v>1411</v>
+      </c>
+      <c r="B90" t="s">
+        <v>1418</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B90" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8758,8 +8923,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -8767,7 +8932,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="89" t="s">
-        <v>1190</v>
+        <v>1187</v>
       </c>
       <c r="C1" s="57" t="s">
         <v>181</v>
@@ -8781,7 +8946,7 @@
         <v>1707</v>
       </c>
       <c r="B2" s="57" t="s">
-        <v>1191</v>
+        <v>1188</v>
       </c>
       <c r="D2" t="s">
         <v>277</v>
@@ -8789,10 +8954,10 @@
     </row>
     <row r="3" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
-        <v>1192</v>
+        <v>1189</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>1191</v>
+        <v>1188</v>
       </c>
       <c r="D3" s="19" t="s">
         <v>277</v>
@@ -8828,8 +8993,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="45.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="45.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -8868,8 +9033,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="29.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="2" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="3" max="4" bestFit="true" customWidth="true" width="29.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -8918,8 +9083,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="32.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -8954,8 +9119,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -9011,8 +9176,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -9062,48 +9227,48 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="40" max="40" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="41" max="41" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="42" max="42" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="43" max="43" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="39" max="39" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="41" max="41" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="42" max="42" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:43" x14ac:dyDescent="0.25">
@@ -9284,45 +9449,45 @@
   <dimension ref="A1:AR5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.42578125" style="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="22.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="19" width="15.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="22.85546875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:44" x14ac:dyDescent="0.25">
@@ -9491,7 +9656,7 @@
       </c>
       <c r="C5" s="77"/>
       <c r="D5" s="91" t="s">
-        <v>1193</v>
+        <v>1430</v>
       </c>
     </row>
   </sheetData>
@@ -9513,8 +9678,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -9571,8 +9736,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -9628,7 +9793,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="19" width="12.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -10810,9 +10975,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="24" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="24.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="24.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -10878,7 +11043,7 @@
         <v>43867</v>
       </c>
       <c r="C6" s="92" t="s">
-        <v>1450</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -10917,14 +11082,14 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.140625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="22.5703125" style="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="9.140625" style="19" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="19" width="21.140625" collapsed="true"/>
+    <col min="2" max="3" bestFit="true" customWidth="true" style="19" width="22.5703125" collapsed="true"/>
+    <col min="4" max="16384" style="19" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -10976,7 +11141,7 @@
         <v>322</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -11004,14 +11169,14 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="20.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11075,7 +11240,7 @@
         <v>308</v>
       </c>
       <c r="C6" s="69" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
     </row>
   </sheetData>
@@ -11097,8 +11262,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -11168,9 +11333,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="20.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -11251,16 +11416,16 @@
   <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.85546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="6" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="15" width="16.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="2" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="5" max="6" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="7" max="15" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -11366,16 +11531,16 @@
         <v>2025</v>
       </c>
       <c r="C5" s="48" t="s">
-        <v>1237</v>
+        <v>1415</v>
       </c>
       <c r="D5" s="48" t="s">
-        <v>1237</v>
+        <v>1415</v>
       </c>
       <c r="E5" t="s">
-        <v>1362</v>
+        <v>1438</v>
       </c>
       <c r="F5" t="s">
-        <v>1363</v>
+        <v>1439</v>
       </c>
     </row>
   </sheetData>
@@ -11397,7 +11562,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -11447,7 +11612,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -11485,8 +11650,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="21.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="21.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -11546,10 +11711,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" style="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.42578125" style="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="7" style="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="9.140625" style="19" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="19" width="11.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="19" width="24.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="19" width="7.0" collapsed="true"/>
+    <col min="4" max="16384" style="19" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -11560,7 +11725,7 @@
         <v>952</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>1254</v>
+        <v>1245</v>
       </c>
       <c r="D1" s="19" t="s">
         <v>201</v>
@@ -11579,16 +11744,16 @@
         <v>0</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>1374</v>
+        <v>1347</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>1374</v>
+        <v>1347</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>1374</v>
+        <v>1347</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>1374</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -11615,7 +11780,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
-        <v>1353</v>
+        <v>1328</v>
       </c>
     </row>
   </sheetData>
@@ -11637,7 +11802,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="37.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -13686,14 +13851,16 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" style="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.42578125" style="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="16384" width="9.140625" style="19" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="19" width="20.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="19" width="24.42578125" collapsed="true"/>
+    <col min="3" max="4" style="19" width="9.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="19" width="11.0" collapsed="true"/>
+    <col min="6" max="16384" style="19" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -13704,7 +13871,7 @@
         <v>952</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>1254</v>
+        <v>1245</v>
       </c>
       <c r="D1" s="19" t="s">
         <v>201</v>
@@ -13717,8 +13884,8 @@
       <c r="A2" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="E2" t="s">
-        <v>1185</v>
+      <c r="E2">
+        <v>202522371</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -13726,16 +13893,16 @@
         <v>0</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>1375</v>
+        <v>1348</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>1375</v>
+        <v>1348</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>1375</v>
+        <v>1348</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>1375</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -13762,10 +13929,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
-        <v>1353</v>
-      </c>
-      <c r="E6" t="s">
-        <v>1350</v>
+        <v>1328</v>
+      </c>
+      <c r="E6">
+        <v>2025401646</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -13795,9 +13962,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.5703125" style="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="16384" width="9.140625" style="19" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="19" width="15.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="19" width="27.5703125" collapsed="true"/>
+    <col min="3" max="16384" style="19" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -13826,7 +13993,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
-        <v>1353</v>
+        <v>1328</v>
       </c>
     </row>
   </sheetData>
@@ -13842,15 +14009,15 @@
   </sheetPr>
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" style="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.7109375" style="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="16384" width="9.140625" style="19" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="19" width="20.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="19" width="15.7109375" collapsed="true"/>
+    <col min="3" max="16384" style="19" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -13865,13 +14032,16 @@
       <c r="A2" s="19" t="s">
         <v>181</v>
       </c>
+      <c r="B2" s="19" t="s">
+        <v>1486</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>1352</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -13889,12 +14059,15 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
-        <v>1353</v>
+        <v>1328</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>1490</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
-        <v>1354</v>
+        <v>1329</v>
       </c>
       <c r="B7" s="19" t="s">
         <v>333</v>
@@ -13924,12 +14097,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="23.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -14021,9 +14194,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.28515625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="16384" width="9.140625" style="19" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="19" width="14.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="19" width="15.28515625" collapsed="true"/>
+    <col min="3" max="16384" style="19" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -14101,8 +14274,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="15.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -14172,11 +14345,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="24.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="24.85546875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:44" x14ac:dyDescent="0.25">
@@ -14350,13 +14523,13 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="32.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -14374,22 +14547,22 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="83" t="s">
-        <v>1338</v>
+        <v>1313</v>
       </c>
       <c r="B3" s="95"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="83" t="s">
-        <v>1339</v>
+        <v>1314</v>
       </c>
       <c r="B4" s="95"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="83" t="s">
-        <v>1340</v>
+        <v>1315</v>
       </c>
       <c r="B5" s="84" t="s">
-        <v>1389</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -14397,7 +14570,7 @@
         <v>331</v>
       </c>
       <c r="B6" s="95" t="s">
-        <v>1391</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -14408,13 +14581,13 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="83" t="s">
-        <v>1341</v>
+        <v>1316</v>
       </c>
       <c r="B8" s="84"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="83" t="s">
-        <v>1342</v>
+        <v>1317</v>
       </c>
       <c r="B9" s="96"/>
     </row>
@@ -14434,8 +14607,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="32.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -14453,10 +14626,10 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="83" t="s">
-        <v>1343</v>
+        <v>1318</v>
       </c>
       <c r="B3" s="84" t="s">
-        <v>1389</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -14466,25 +14639,25 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="83" t="s">
-        <v>1344</v>
+        <v>1319</v>
       </c>
       <c r="B5" s="84"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="83" t="s">
-        <v>1342</v>
+        <v>1317</v>
       </c>
       <c r="B6" s="96"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="83" t="s">
-        <v>1338</v>
+        <v>1313</v>
       </c>
       <c r="B7" s="95"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="83" t="s">
-        <v>1339</v>
+        <v>1314</v>
       </c>
       <c r="B8" s="95"/>
     </row>
@@ -14499,13 +14672,13 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="24.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="24.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -14523,28 +14696,28 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="83" t="s">
-        <v>1338</v>
+        <v>1313</v>
       </c>
       <c r="B3" s="95"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="83" t="s">
-        <v>1339</v>
+        <v>1314</v>
       </c>
       <c r="B4" s="95"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="83" t="s">
-        <v>1345</v>
+        <v>1320</v>
       </c>
       <c r="B5" s="95"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="83" t="s">
-        <v>1343</v>
+        <v>1318</v>
       </c>
       <c r="B6" s="84" t="s">
-        <v>1389</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -14555,7 +14728,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="83" t="s">
-        <v>1346</v>
+        <v>1321</v>
       </c>
       <c r="B8" s="95"/>
     </row>
@@ -14564,7 +14737,7 @@
         <v>331</v>
       </c>
       <c r="B9" s="95" t="s">
-        <v>1347</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -14584,19 +14757,20 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="35.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="33.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="26.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>4</v>
       </c>
@@ -14604,7 +14778,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
@@ -14612,7 +14786,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>54</v>
       </c>
@@ -14620,7 +14794,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>5</v>
       </c>
@@ -14628,7 +14802,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>7</v>
       </c>
@@ -14636,7 +14810,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>1051</v>
       </c>
@@ -14644,7 +14818,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>56</v>
       </c>
@@ -14652,7 +14826,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>57</v>
       </c>
@@ -14660,7 +14834,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>19</v>
       </c>
@@ -14668,7 +14842,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>53</v>
       </c>
@@ -14676,50 +14850,56 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>1182</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>1183</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>1481</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>58</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>1360</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1482</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B15" s="6"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -14753,15 +14933,15 @@
   </sheetPr>
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="28.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="35" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="28.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="35.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -14857,7 +15037,7 @@
         <v>992</v>
       </c>
       <c r="B9" s="48" t="s">
-        <v>993</v>
+        <v>1419</v>
       </c>
       <c r="C9" s="48" t="s">
         <v>993</v>
@@ -14868,7 +15048,7 @@
         <v>994</v>
       </c>
       <c r="B10" s="48" t="s">
-        <v>1018</v>
+        <v>1420</v>
       </c>
       <c r="C10" s="48" t="s">
         <v>1018</v>
@@ -14955,8 +15135,8 @@
       <c r="A18" t="s">
         <v>1004</v>
       </c>
-      <c r="B18">
-        <v>20259905</v>
+      <c r="B18" s="48" t="s">
+        <v>1218</v>
       </c>
       <c r="C18">
         <v>15179905</v>
@@ -15052,14 +15232,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="24.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="35.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -15131,7 +15311,7 @@
         <v>1156</v>
       </c>
       <c r="B9" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -15147,7 +15327,7 @@
         <v>1157</v>
       </c>
       <c r="B11" s="48" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -15155,7 +15335,7 @@
         <v>1158</v>
       </c>
       <c r="B12" s="48" t="s">
-        <v>1427</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -15267,12 +15447,12 @@
         <v>1177</v>
       </c>
       <c r="B26" t="s">
-        <v>1178</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="B27">
         <v>3000</v>
@@ -15280,7 +15460,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="B28">
         <v>300000</v>
@@ -15308,7 +15488,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -15382,8 +15562,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="28.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="28.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -15468,8 +15648,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.140625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="16384" width="9.140625" style="19" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="19" width="14.140625" collapsed="true"/>
+    <col min="2" max="16384" style="19" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -15512,9 +15692,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.140625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10" style="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="16384" width="9.140625" style="19" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="19" width="14.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="19" width="10.0" collapsed="true"/>
+    <col min="3" max="16384" style="19" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -15569,15 +15749,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
@@ -15686,7 +15866,7 @@
         <v>342</v>
       </c>
       <c r="G3" t="s">
-        <v>1302</v>
+        <v>1280</v>
       </c>
       <c r="H3" s="48" t="s">
         <v>1037</v>
@@ -15699,7 +15879,7 @@
         <v>342</v>
       </c>
       <c r="M3" t="s">
-        <v>1303</v>
+        <v>1281</v>
       </c>
       <c r="N3" s="48" t="s">
         <v>1038</v>
@@ -15729,82 +15909,82 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>1304</v>
+        <v>1282</v>
       </c>
       <c r="C1" t="s">
-        <v>1305</v>
+        <v>1283</v>
       </c>
       <c r="D1" t="s">
-        <v>1306</v>
+        <v>1284</v>
       </c>
       <c r="E1" t="s">
-        <v>1307</v>
+        <v>1285</v>
       </c>
       <c r="F1" t="s">
-        <v>1308</v>
+        <v>1286</v>
       </c>
       <c r="G1" t="s">
-        <v>1309</v>
+        <v>1287</v>
       </c>
       <c r="H1" t="s">
-        <v>1310</v>
+        <v>1288</v>
       </c>
       <c r="I1" t="s">
-        <v>1311</v>
+        <v>1289</v>
       </c>
       <c r="J1" t="s">
-        <v>1312</v>
+        <v>1290</v>
       </c>
       <c r="K1" t="s">
-        <v>1313</v>
+        <v>1291</v>
       </c>
       <c r="L1" t="s">
-        <v>1314</v>
+        <v>1292</v>
       </c>
       <c r="M1" t="s">
-        <v>1315</v>
+        <v>1293</v>
       </c>
       <c r="N1" t="s">
-        <v>1316</v>
+        <v>1294</v>
       </c>
       <c r="O1" t="s">
-        <v>1317</v>
+        <v>1295</v>
       </c>
       <c r="P1" t="s">
-        <v>1318</v>
+        <v>1296</v>
       </c>
       <c r="Q1" t="s">
-        <v>1319</v>
+        <v>1297</v>
       </c>
       <c r="R1" t="s">
-        <v>1320</v>
+        <v>1298</v>
       </c>
       <c r="S1" t="s">
-        <v>1321</v>
+        <v>1299</v>
       </c>
       <c r="T1" t="s">
-        <v>1322</v>
+        <v>1300</v>
       </c>
       <c r="U1" t="s">
         <v>337</v>
       </c>
       <c r="V1" t="s">
-        <v>1323</v>
+        <v>1301</v>
       </c>
       <c r="W1" t="s">
-        <v>1324</v>
+        <v>1302</v>
       </c>
       <c r="X1" t="s">
         <v>110</v>
       </c>
       <c r="Y1" t="s">
-        <v>1325</v>
+        <v>1303</v>
       </c>
       <c r="Z1" t="s">
-        <v>1326</v>
+        <v>1304</v>
       </c>
       <c r="AA1" t="s">
-        <v>1327</v>
+        <v>1305</v>
       </c>
       <c r="AB1" t="s">
         <v>1031</v>
@@ -15818,88 +15998,88 @@
         <v>1140</v>
       </c>
       <c r="B2" t="s">
-        <v>1328</v>
+        <v>1472</v>
       </c>
       <c r="C2" t="s">
-        <v>1329</v>
+        <v>1307</v>
       </c>
       <c r="D2" t="s">
         <v>1090</v>
       </c>
       <c r="E2" t="s">
-        <v>1330</v>
+        <v>1473</v>
       </c>
       <c r="F2" t="s">
-        <v>1331</v>
+        <v>1474</v>
       </c>
       <c r="G2" t="s">
-        <v>1228</v>
+        <v>1416</v>
       </c>
       <c r="H2" t="s">
-        <v>1332</v>
+        <v>1475</v>
       </c>
       <c r="I2" t="s">
-        <v>1330</v>
+        <v>1473</v>
       </c>
       <c r="J2" t="s">
         <v>342</v>
       </c>
       <c r="K2" t="s">
-        <v>1302</v>
+        <v>1280</v>
       </c>
       <c r="L2" t="s">
-        <v>1333</v>
+        <v>1308</v>
       </c>
       <c r="M2" t="s">
-        <v>1334</v>
+        <v>1309</v>
       </c>
       <c r="N2" t="s">
-        <v>1335</v>
+        <v>1310</v>
       </c>
       <c r="O2" t="s">
         <v>1041</v>
       </c>
       <c r="P2" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="Q2" t="s">
-        <v>1202</v>
+        <v>1198</v>
       </c>
       <c r="R2" t="s">
-        <v>1336</v>
+        <v>1311</v>
       </c>
       <c r="S2" t="s">
-        <v>1332</v>
+        <v>1475</v>
       </c>
       <c r="T2" t="s">
-        <v>1330</v>
+        <v>1473</v>
       </c>
       <c r="U2" t="s">
         <v>342</v>
       </c>
       <c r="V2" t="s">
-        <v>1303</v>
+        <v>1281</v>
       </c>
       <c r="W2" t="s">
-        <v>1337</v>
+        <v>1312</v>
       </c>
       <c r="X2" t="s">
-        <v>1334</v>
+        <v>1309</v>
       </c>
       <c r="Y2" t="s">
-        <v>1335</v>
+        <v>1310</v>
       </c>
       <c r="Z2" t="s">
         <v>1041</v>
       </c>
       <c r="AA2" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="AB2" t="s">
-        <v>1336</v>
+        <v>1311</v>
       </c>
       <c r="AC2" t="s">
-        <v>1202</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="3" spans="1:29" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -15955,7 +16135,7 @@
         <v>1025</v>
       </c>
       <c r="B1" s="93" t="s">
-        <v>1301</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -15982,9 +16162,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18" style="83" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35" style="83" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="16384" width="9.140625" style="83" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="83" width="18.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="83" width="35.0" collapsed="true"/>
+    <col min="3" max="16384" style="83" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -16041,17 +16221,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.85546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.5703125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="15.140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="20.42578125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="17.140625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="13.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="22.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="20.42578125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="17.140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -16059,19 +16239,19 @@
         <v>4</v>
       </c>
       <c r="B1" s="49" t="s">
-        <v>1246</v>
+        <v>1237</v>
       </c>
       <c r="C1" s="49" t="s">
-        <v>1247</v>
+        <v>1238</v>
       </c>
       <c r="D1" s="49" t="s">
-        <v>1248</v>
+        <v>1239</v>
       </c>
       <c r="E1" s="49" t="s">
-        <v>1249</v>
+        <v>1240</v>
       </c>
       <c r="F1" s="49" t="s">
-        <v>1250</v>
+        <v>1241</v>
       </c>
       <c r="G1" s="18" t="s">
         <v>181</v>
@@ -16080,13 +16260,13 @@
         <v>275</v>
       </c>
       <c r="I1" t="s">
-        <v>1398</v>
+        <v>1370</v>
       </c>
       <c r="J1" t="s">
-        <v>1399</v>
+        <v>1371</v>
       </c>
       <c r="K1" t="s">
-        <v>1400</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -16094,19 +16274,19 @@
         <v>1319</v>
       </c>
       <c r="B2" s="49" t="s">
-        <v>1401</v>
+        <v>1373</v>
       </c>
       <c r="C2" s="49" t="s">
-        <v>1402</v>
+        <v>1374</v>
       </c>
       <c r="D2" s="49" t="s">
-        <v>1403</v>
+        <v>1375</v>
       </c>
       <c r="E2" s="49" t="s">
-        <v>1404</v>
+        <v>1376</v>
       </c>
       <c r="F2" s="49" t="s">
-        <v>1405</v>
+        <v>1377</v>
       </c>
       <c r="I2" t="s">
         <v>1052</v>
@@ -16115,7 +16295,7 @@
         <v>277</v>
       </c>
       <c r="K2" s="48" t="s">
-        <v>1406</v>
+        <v>1378</v>
       </c>
     </row>
   </sheetData>
@@ -16134,20 +16314,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="21.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="21.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="18.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="9.140625" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="21.42578125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="23.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="21.42578125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="23.140625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="14" max="14" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
@@ -16155,49 +16335,49 @@
         <v>4</v>
       </c>
       <c r="B1" s="49" t="s">
-        <v>1246</v>
+        <v>1237</v>
       </c>
       <c r="C1" s="49" t="s">
-        <v>1247</v>
+        <v>1238</v>
       </c>
       <c r="D1" s="49" t="s">
-        <v>1248</v>
+        <v>1239</v>
       </c>
       <c r="E1" s="49" t="s">
-        <v>1249</v>
+        <v>1240</v>
       </c>
       <c r="F1" s="49" t="s">
-        <v>1250</v>
+        <v>1241</v>
       </c>
       <c r="G1" s="49" t="s">
-        <v>1407</v>
+        <v>1379</v>
       </c>
       <c r="H1" s="49" t="s">
-        <v>1408</v>
+        <v>1380</v>
       </c>
       <c r="I1" s="49" t="s">
-        <v>1409</v>
+        <v>1381</v>
       </c>
       <c r="J1" s="49" t="s">
-        <v>1410</v>
+        <v>1382</v>
       </c>
       <c r="K1" s="49" t="s">
-        <v>1411</v>
+        <v>1383</v>
       </c>
       <c r="L1" s="18" t="s">
         <v>181</v>
       </c>
       <c r="M1" t="s">
-        <v>1398</v>
+        <v>1370</v>
       </c>
       <c r="N1" s="19" t="s">
         <v>113</v>
       </c>
       <c r="O1" t="s">
-        <v>1399</v>
+        <v>1371</v>
       </c>
       <c r="P1" t="s">
-        <v>1400</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -16205,46 +16385,46 @@
         <v>1707</v>
       </c>
       <c r="B2" s="49" t="s">
-        <v>1401</v>
+        <v>1373</v>
       </c>
       <c r="C2" s="49" t="s">
-        <v>1402</v>
+        <v>1374</v>
       </c>
       <c r="D2" s="49" t="s">
-        <v>1403</v>
+        <v>1375</v>
       </c>
       <c r="E2" s="49" t="s">
-        <v>1404</v>
+        <v>1376</v>
       </c>
       <c r="F2" s="49" t="s">
-        <v>1405</v>
+        <v>1377</v>
       </c>
       <c r="G2" s="49" t="s">
-        <v>1255</v>
+        <v>1246</v>
       </c>
       <c r="H2" s="49" t="s">
-        <v>1256</v>
+        <v>1247</v>
       </c>
       <c r="I2" s="49" t="s">
-        <v>1257</v>
+        <v>1248</v>
       </c>
       <c r="J2" s="49" t="s">
-        <v>1412</v>
+        <v>1384</v>
       </c>
       <c r="K2" s="49" t="s">
-        <v>1413</v>
+        <v>1385</v>
       </c>
       <c r="M2" t="s">
-        <v>1414</v>
+        <v>1386</v>
       </c>
       <c r="N2" t="s">
-        <v>1415</v>
+        <v>1387</v>
       </c>
       <c r="O2" s="48" t="s">
-        <v>1191</v>
+        <v>1188</v>
       </c>
       <c r="P2" s="48" t="s">
-        <v>1416</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -16264,9 +16444,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11" style="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="19" width="11.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="19" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16274,28 +16454,28 @@
         <v>4</v>
       </c>
       <c r="B1" s="49" t="s">
-        <v>1246</v>
+        <v>1237</v>
       </c>
       <c r="C1" s="49" t="s">
-        <v>1247</v>
+        <v>1238</v>
       </c>
       <c r="D1" s="49" t="s">
-        <v>1248</v>
+        <v>1239</v>
       </c>
       <c r="E1" s="49" t="s">
-        <v>1249</v>
+        <v>1240</v>
       </c>
       <c r="F1" s="49" t="s">
-        <v>1250</v>
+        <v>1241</v>
       </c>
       <c r="G1" s="49" t="s">
-        <v>1251</v>
+        <v>1242</v>
       </c>
       <c r="H1" s="49" t="s">
-        <v>1252</v>
+        <v>1243</v>
       </c>
       <c r="I1" s="49" t="s">
-        <v>1253</v>
+        <v>1244</v>
       </c>
       <c r="J1" s="57" t="s">
         <v>181</v>
@@ -16306,7 +16486,7 @@
     </row>
     <row r="2" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
-        <v>1254</v>
+        <v>1245</v>
       </c>
       <c r="B2" s="49"/>
       <c r="C2" s="49"/>
@@ -16361,8 +16541,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="19" width="11.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -16397,41 +16577,41 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="40" max="40" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="43" max="43" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="44" max="44" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="45" max="45" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="47" max="47" width="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="48" max="48" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="49" max="49" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="50" max="50" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="39" max="39" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:42" x14ac:dyDescent="0.25">
@@ -16620,8 +16800,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="19" width="11.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -16661,8 +16841,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="19" width="11.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -16711,8 +16891,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -16720,28 +16900,28 @@
         <v>4</v>
       </c>
       <c r="B1" s="49" t="s">
-        <v>1246</v>
+        <v>1237</v>
       </c>
       <c r="C1" s="49" t="s">
-        <v>1247</v>
+        <v>1238</v>
       </c>
       <c r="D1" s="49" t="s">
-        <v>1248</v>
+        <v>1239</v>
       </c>
       <c r="E1" s="49" t="s">
-        <v>1249</v>
+        <v>1240</v>
       </c>
       <c r="F1" s="49" t="s">
-        <v>1250</v>
+        <v>1241</v>
       </c>
       <c r="G1" s="49" t="s">
-        <v>1251</v>
+        <v>1242</v>
       </c>
       <c r="H1" s="49" t="s">
-        <v>1252</v>
+        <v>1243</v>
       </c>
       <c r="I1" s="49" t="s">
-        <v>1253</v>
+        <v>1244</v>
       </c>
       <c r="J1" s="18" t="s">
         <v>181</v>
@@ -16752,19 +16932,19 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="48" t="s">
-        <v>1254</v>
+        <v>1245</v>
       </c>
       <c r="B2" s="49" t="s">
-        <v>1255</v>
+        <v>1246</v>
       </c>
       <c r="C2" s="49" t="s">
-        <v>1256</v>
+        <v>1247</v>
       </c>
       <c r="D2" s="49" t="s">
-        <v>1257</v>
+        <v>1248</v>
       </c>
       <c r="K2" s="48" t="s">
-        <v>1258</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -16786,7 +16966,7 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:AN4"/>
+  <dimension ref="A1:AW4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
@@ -16794,7 +16974,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -16808,22 +16988,22 @@
         <v>264</v>
       </c>
       <c r="E1" t="s">
-        <v>1195</v>
+        <v>1191</v>
       </c>
       <c r="F1" t="s">
+        <v>1192</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1194</v>
+      </c>
+      <c r="H1" t="s">
         <v>1196</v>
       </c>
-      <c r="G1" t="s">
-        <v>1198</v>
-      </c>
-      <c r="H1" t="s">
-        <v>1200</v>
-      </c>
       <c r="I1" t="s">
-        <v>1201</v>
+        <v>1197</v>
       </c>
       <c r="J1" t="s">
-        <v>1203</v>
+        <v>1199</v>
       </c>
       <c r="K1" t="s">
         <v>114</v>
@@ -16835,22 +17015,22 @@
         <v>265</v>
       </c>
       <c r="N1" t="s">
+        <v>1200</v>
+      </c>
+      <c r="O1" t="s">
+        <v>1201</v>
+      </c>
+      <c r="P1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>1203</v>
+      </c>
+      <c r="R1" t="s">
         <v>1204</v>
       </c>
-      <c r="O1" t="s">
+      <c r="S1" t="s">
         <v>1205</v>
-      </c>
-      <c r="P1" t="s">
-        <v>1206</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>1207</v>
-      </c>
-      <c r="R1" t="s">
-        <v>1208</v>
-      </c>
-      <c r="S1" t="s">
-        <v>1209</v>
       </c>
       <c r="T1" t="s">
         <v>118</v>
@@ -16862,22 +17042,22 @@
         <v>266</v>
       </c>
       <c r="W1" t="s">
-        <v>1271</v>
+        <v>1257</v>
       </c>
       <c r="X1" t="s">
-        <v>1273</v>
+        <v>1258</v>
       </c>
       <c r="Y1" t="s">
-        <v>1274</v>
+        <v>1259</v>
       </c>
       <c r="Z1" t="s">
-        <v>1275</v>
+        <v>1260</v>
       </c>
       <c r="AA1" t="s">
-        <v>1277</v>
+        <v>1261</v>
       </c>
       <c r="AB1" t="s">
-        <v>1278</v>
+        <v>1262</v>
       </c>
       <c r="AC1" t="s">
         <v>122</v>
@@ -16889,163 +17069,217 @@
         <v>267</v>
       </c>
       <c r="AF1" t="s">
-        <v>1282</v>
+        <v>1264</v>
       </c>
       <c r="AG1" t="s">
-        <v>1284</v>
+        <v>1265</v>
       </c>
       <c r="AH1" t="s">
-        <v>1285</v>
+        <v>1266</v>
       </c>
       <c r="AI1" t="s">
-        <v>1286</v>
+        <v>1267</v>
       </c>
       <c r="AJ1" t="s">
-        <v>1288</v>
+        <v>1268</v>
       </c>
       <c r="AK1" t="s">
-        <v>1289</v>
+        <v>1269</v>
       </c>
       <c r="AL1" t="s">
-        <v>1291</v>
+        <v>1270</v>
       </c>
       <c r="AM1" t="s">
-        <v>1292</v>
+        <v>1271</v>
       </c>
       <c r="AN1" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>268</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>1458</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>1460</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>1461</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>1462</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>1464</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="2" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2011</v>
       </c>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2031</v>
       </c>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1140</v>
       </c>
       <c r="B4" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="C4" t="s">
-        <v>1259</v>
+        <v>1250</v>
       </c>
       <c r="D4" t="s">
-        <v>1260</v>
+        <v>1251</v>
       </c>
       <c r="E4" t="s">
-        <v>1261</v>
+        <v>1252</v>
       </c>
       <c r="F4" t="s">
-        <v>1197</v>
+        <v>1193</v>
       </c>
       <c r="G4" t="s">
-        <v>1199</v>
+        <v>1195</v>
       </c>
       <c r="H4" t="s">
-        <v>1262</v>
+        <v>1253</v>
       </c>
       <c r="I4" t="s">
-        <v>1202</v>
+        <v>1198</v>
       </c>
       <c r="J4" t="s">
+        <v>1254</v>
+      </c>
+      <c r="K4" t="s">
+        <v>1402</v>
+      </c>
+      <c r="L4" t="s">
+        <v>1255</v>
+      </c>
+      <c r="M4" t="s">
+        <v>1445</v>
+      </c>
+      <c r="N4" t="s">
+        <v>1446</v>
+      </c>
+      <c r="O4" t="s">
+        <v>1193</v>
+      </c>
+      <c r="P4" t="s">
+        <v>1195</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>1447</v>
+      </c>
+      <c r="R4" t="s">
+        <v>1198</v>
+      </c>
+      <c r="S4" t="s">
+        <v>1448</v>
+      </c>
+      <c r="T4" t="s">
+        <v>1403</v>
+      </c>
+      <c r="U4" t="s">
+        <v>1256</v>
+      </c>
+      <c r="V4" t="s">
+        <v>1449</v>
+      </c>
+      <c r="W4" t="s">
+        <v>1450</v>
+      </c>
+      <c r="X4" t="s">
+        <v>1193</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>1195</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>1451</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>1198</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>1452</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>1406</v>
+      </c>
+      <c r="AD4" t="s">
         <v>1263</v>
       </c>
-      <c r="K4" t="s">
-        <v>793</v>
-      </c>
-      <c r="L4" t="s">
-        <v>1264</v>
-      </c>
-      <c r="M4" t="s">
-        <v>1265</v>
-      </c>
-      <c r="N4" t="s">
-        <v>1266</v>
-      </c>
-      <c r="O4" t="s">
-        <v>1197</v>
-      </c>
-      <c r="P4" t="s">
-        <v>1199</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>1267</v>
-      </c>
-      <c r="R4" t="s">
-        <v>1202</v>
-      </c>
-      <c r="S4" t="s">
-        <v>1268</v>
-      </c>
-      <c r="T4" t="s">
-        <v>1188</v>
-      </c>
-      <c r="U4" t="s">
-        <v>1269</v>
-      </c>
-      <c r="V4" t="s">
-        <v>1270</v>
-      </c>
-      <c r="W4" t="s">
+      <c r="AE4" t="s">
+        <v>1453</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>1454</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>1193</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>1195</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>1455</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>1198</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>1456</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>1436</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>1467</v>
+      </c>
+      <c r="AN4" t="s">
         <v>1272</v>
       </c>
-      <c r="X4" t="s">
-        <v>1197</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>1199</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>1276</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>1202</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>1279</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>1189</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>1280</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>1281</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>1283</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>1197</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>1199</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>1287</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>1202</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>1290</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>1212</v>
-      </c>
-      <c r="AM4" t="s">
-        <v>1293</v>
-      </c>
-      <c r="AN4" t="s">
-        <v>1294</v>
+      <c r="AO4" t="s">
+        <v>1408</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>1457</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>1453</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>1459</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>1193</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>1195</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>1463</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>1198</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>1466</v>
       </c>
     </row>
   </sheetData>
@@ -17078,22 +17312,22 @@
         <v>264</v>
       </c>
       <c r="E1" t="s">
-        <v>1195</v>
+        <v>1191</v>
       </c>
       <c r="F1" t="s">
+        <v>1192</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1194</v>
+      </c>
+      <c r="H1" t="s">
         <v>1196</v>
       </c>
-      <c r="G1" t="s">
-        <v>1198</v>
-      </c>
-      <c r="H1" t="s">
-        <v>1200</v>
-      </c>
       <c r="I1" t="s">
-        <v>1201</v>
+        <v>1197</v>
       </c>
       <c r="J1" t="s">
-        <v>1203</v>
+        <v>1199</v>
       </c>
       <c r="K1" t="s">
         <v>114</v>
@@ -17105,28 +17339,28 @@
         <v>265</v>
       </c>
       <c r="N1" t="s">
+        <v>1200</v>
+      </c>
+      <c r="O1" t="s">
+        <v>1201</v>
+      </c>
+      <c r="P1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>1203</v>
+      </c>
+      <c r="R1" t="s">
         <v>1204</v>
       </c>
-      <c r="O1" t="s">
+      <c r="S1" t="s">
         <v>1205</v>
       </c>
-      <c r="P1" t="s">
+      <c r="T1" t="s">
         <v>1206</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="U1" t="s">
         <v>1207</v>
-      </c>
-      <c r="R1" t="s">
-        <v>1208</v>
-      </c>
-      <c r="S1" t="s">
-        <v>1209</v>
-      </c>
-      <c r="T1" t="s">
-        <v>1210</v>
-      </c>
-      <c r="U1" t="s">
-        <v>1211</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -17144,64 +17378,64 @@
         <v>1140</v>
       </c>
       <c r="B4" t="s">
-        <v>1194</v>
+        <v>1190</v>
       </c>
       <c r="C4" t="s">
-        <v>1439</v>
+        <v>1409</v>
       </c>
       <c r="D4" t="s">
-        <v>1440</v>
+        <v>1432</v>
       </c>
       <c r="E4" t="s">
-        <v>1441</v>
+        <v>1433</v>
       </c>
       <c r="F4" t="s">
-        <v>1197</v>
+        <v>1193</v>
       </c>
       <c r="G4" t="s">
-        <v>1199</v>
+        <v>1195</v>
       </c>
       <c r="H4" t="s">
-        <v>1442</v>
+        <v>1434</v>
       </c>
       <c r="I4" t="s">
-        <v>1202</v>
+        <v>1198</v>
       </c>
       <c r="J4" t="s">
-        <v>1443</v>
+        <v>1435</v>
       </c>
       <c r="K4" t="s">
-        <v>1199</v>
+        <v>1195</v>
       </c>
       <c r="L4" t="s">
-        <v>1199</v>
+        <v>1195</v>
       </c>
       <c r="M4" t="s">
-        <v>1199</v>
+        <v>1195</v>
       </c>
       <c r="N4" t="s">
-        <v>1199</v>
+        <v>1195</v>
       </c>
       <c r="O4" t="s">
-        <v>1199</v>
+        <v>1195</v>
       </c>
       <c r="P4" t="s">
-        <v>1199</v>
+        <v>1195</v>
       </c>
       <c r="Q4" t="s">
-        <v>1199</v>
+        <v>1195</v>
       </c>
       <c r="R4" t="s">
-        <v>1199</v>
+        <v>1195</v>
       </c>
       <c r="S4" t="s">
-        <v>1199</v>
+        <v>1195</v>
       </c>
       <c r="T4" t="s">
         <v>277</v>
       </c>
       <c r="U4" t="s">
-        <v>1444</v>
+        <v>1436</v>
       </c>
     </row>
   </sheetData>
@@ -17233,14 +17467,14 @@
   </sheetPr>
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="21.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="24.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -17288,7 +17522,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>1457</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -17350,9 +17584,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="36.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="36.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="36.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17510,10 +17744,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.140625" style="38" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.5703125" style="38" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="43" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="9.140625" style="19" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="38" width="30.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="38" width="33.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="43.0" collapsed="true"/>
+    <col min="4" max="16384" style="19" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">

--- a/WppRegpack/TestResource/Regression/DS_MLY_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Regression/DS_MLY_REGRESSION.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GlobalTestAutomation1\GlobalTestSuiteAutomation\WppRegpack\TestResource\Regression\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\OneDrive - Cognizant\Documents\GlobalTestSuite Project\GlobalTestSuiteAutomation\WppRegpack\TestResource\Regression\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="39" activeTab="41"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="64" activeTab="67"/>
   </bookViews>
   <sheets>
     <sheet name="Server Details" sheetId="1" r:id="rId1"/>
@@ -79,14 +79,15 @@
     <sheet name="InvoicingFromBudget" sheetId="57" r:id="rId65"/>
     <sheet name="JobInvoiceAllocation_WIP" sheetId="58" r:id="rId66"/>
     <sheet name="Time_Material_Invocing" sheetId="62" r:id="rId67"/>
-    <sheet name="InvoiceMPL" sheetId="59" r:id="rId68"/>
-    <sheet name="QuoteMPL" sheetId="60" r:id="rId69"/>
-    <sheet name="Agency Users" sheetId="11" r:id="rId70"/>
-    <sheet name="SSC Users" sheetId="12" r:id="rId71"/>
+    <sheet name="CombinedInvoice" sheetId="74" r:id="rId68"/>
+    <sheet name="InvoiceMPL" sheetId="59" r:id="rId69"/>
+    <sheet name="QuoteMPL" sheetId="60" r:id="rId70"/>
+    <sheet name="Agency Users" sheetId="11" r:id="rId71"/>
+    <sheet name="SSC Users" sheetId="12" r:id="rId72"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -94,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2710" uniqueCount="1492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2721" uniqueCount="1497">
   <si>
     <t>Description</t>
   </si>
@@ -4575,13 +4576,27 @@
   </si>
   <si>
     <t>202520370</t>
+  </si>
+  <si>
+    <t>JobCreation5</t>
+  </si>
+  <si>
+    <t>JobBudgetCreation5</t>
+  </si>
+  <si>
+    <t>CreateQuote5</t>
+  </si>
+  <si>
+    <t>12849905</t>
+  </si>
+  <si>
+    <t>12219905</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -5338,8 +5353,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="2" max="9" bestFit="true" customWidth="true" width="40.7109375" collapsed="true"/>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="9" width="40.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5422,39 +5437,39 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="23.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="37" max="37" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="39" max="39" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="40" max="40" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="41" max="41" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="23.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="40" max="40" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:42" x14ac:dyDescent="0.25">
@@ -5712,28 +5727,28 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="22.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="14.5703125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="22.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.5703125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.5703125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
@@ -5939,9 +5954,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="19" width="19.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="1" max="1" width="21" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -6207,9 +6222,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="19" width="31.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="19" width="51.0" collapsed="true"/>
-    <col min="3" max="16384" style="19" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="31" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="51" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" style="19" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6405,9 +6420,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="19" width="24.140625" collapsed="true"/>
-    <col min="2" max="3" customWidth="true" style="19" width="23.140625" collapsed="true"/>
-    <col min="4" max="16384" style="19" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="24.140625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="23.140625" style="19" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="19" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6526,12 +6541,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="37.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="52.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="35.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="34.42578125" collapsed="true"/>
-    <col min="5" max="10" bestFit="true" customWidth="true" width="87.5703125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="69.42578125" collapsed="true"/>
+    <col min="1" max="1" width="37.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="52.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="35" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="34.42578125" customWidth="1" collapsed="1"/>
+    <col min="5" max="10" width="87.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="69.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -7450,8 +7465,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="19" width="31.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="19" width="60.140625" collapsed="true"/>
+    <col min="1" max="1" width="31" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="60.140625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7512,7 +7527,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="26.28515625" collapsed="true"/>
+    <col min="2" max="2" width="26.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7578,8 +7593,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="24.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="41.28515625" collapsed="true"/>
+    <col min="1" max="1" width="24" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="41.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7625,9 +7640,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:62" x14ac:dyDescent="0.25">
@@ -7936,10 +7951,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" customWidth="true" style="19" width="39.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="19" width="27.85546875" collapsed="true"/>
-    <col min="4" max="156" customWidth="true" style="19" width="32.0" collapsed="true"/>
-    <col min="157" max="16384" style="19" width="9.140625" collapsed="true"/>
+    <col min="1" max="2" width="39.7109375" style="19" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="27.85546875" style="19" customWidth="1" collapsed="1"/>
+    <col min="4" max="156" width="32" style="19" customWidth="1" collapsed="1"/>
+    <col min="157" max="16384" width="9.140625" style="19" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:156" x14ac:dyDescent="0.25">
@@ -8923,8 +8938,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -8993,8 +9008,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="45.5703125" collapsed="true"/>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="45.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -9033,8 +9048,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="3" max="4" bestFit="true" customWidth="true" width="29.140625" collapsed="true"/>
+    <col min="1" max="2" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="29.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -9083,8 +9098,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="32.140625" collapsed="true"/>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -9119,8 +9134,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -9176,8 +9191,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -9227,48 +9242,48 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="37" max="37" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="38" max="38" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="39" max="39" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="40" max="40" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="41" max="41" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="42" max="42" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="40" max="40" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="42" max="42" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="43" max="43" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:43" x14ac:dyDescent="0.25">
@@ -9454,40 +9469,40 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="19" width="15.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="22.85546875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="2" max="2" width="15.42578125" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="22.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:44" x14ac:dyDescent="0.25">
@@ -9678,8 +9693,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -9736,8 +9751,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -9793,7 +9808,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="19" width="12.0" collapsed="true"/>
+    <col min="2" max="2" width="12" style="19" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -10975,9 +10990,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="24.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="24" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -11087,9 +11102,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="19" width="21.140625" collapsed="true"/>
-    <col min="2" max="3" bestFit="true" customWidth="true" style="19" width="22.5703125" collapsed="true"/>
-    <col min="4" max="16384" style="19" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="21.140625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="22.5703125" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="19" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -11174,9 +11189,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="20.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11262,8 +11277,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -11333,9 +11348,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="20.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -11421,11 +11436,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="5" max="6" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="7" max="15" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="1" max="2" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="15" width="16.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -11562,7 +11577,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -11612,7 +11627,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -11650,8 +11665,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="21.42578125" collapsed="true"/>
+    <col min="1" max="1" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="21.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -11711,10 +11726,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="19" width="11.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="19" width="24.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="19" width="7.0" collapsed="true"/>
-    <col min="4" max="16384" style="19" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="11.7109375" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.42578125" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="7" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="19" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -11802,7 +11817,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="37.5703125" collapsed="true"/>
+    <col min="1" max="1" width="37.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -13856,11 +13871,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="19" width="20.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="19" width="24.42578125" collapsed="true"/>
-    <col min="3" max="4" style="19" width="9.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="19" width="11.0" collapsed="true"/>
-    <col min="6" max="16384" style="19" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="20.42578125" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.42578125" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="9.140625" style="19" collapsed="1"/>
+    <col min="5" max="5" width="11" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.140625" style="19" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -13962,9 +13977,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="19" width="15.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="19" width="27.5703125" collapsed="true"/>
-    <col min="3" max="16384" style="19" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="15.28515625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.5703125" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" style="19" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -14009,15 +14024,15 @@
   </sheetPr>
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="19" width="20.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="19" width="15.7109375" collapsed="true"/>
-    <col min="3" max="16384" style="19" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="20.42578125" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.7109375" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" style="19" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -14097,12 +14112,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="23.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -14194,9 +14209,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="19" width="14.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="19" width="15.28515625" collapsed="true"/>
-    <col min="3" max="16384" style="19" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="14.28515625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.28515625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" style="19" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -14274,8 +14289,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -14345,11 +14360,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="24.85546875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="24.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:44" x14ac:dyDescent="0.25">
@@ -14528,8 +14543,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="32.5703125" collapsed="true"/>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -14607,8 +14622,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="32.5703125" collapsed="true"/>
+    <col min="1" max="1" width="21" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -14677,8 +14692,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="24.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="1" max="1" width="24.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -14765,9 +14780,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="35.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="33.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="26.0" collapsed="true"/>
+    <col min="1" max="1" width="35.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="26" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -14939,9 +14954,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="28.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="35.0" collapsed="true"/>
+    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="28.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="35" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -15238,8 +15253,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="24.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="35.0" collapsed="true"/>
+    <col min="1" max="1" width="24.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -15488,7 +15503,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -15562,8 +15577,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="28.7109375" collapsed="true"/>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="28.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -15648,8 +15663,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="19" width="14.140625" collapsed="true"/>
-    <col min="2" max="16384" style="19" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="14.140625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="16384" width="9.140625" style="19" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -15692,9 +15707,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="19" width="14.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="19" width="10.0" collapsed="true"/>
-    <col min="3" max="16384" style="19" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="14.140625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" style="19" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -15749,15 +15764,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="15.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
@@ -16162,9 +16177,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="83" width="18.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="83" width="35.0" collapsed="true"/>
-    <col min="3" max="16384" style="83" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="18" style="83" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35" style="83" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" style="83" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -16221,17 +16236,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="22.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="20.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="16.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="17.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="20.42578125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="17.140625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="15.28515625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="15.140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="20.42578125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="17.140625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="13.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -16314,20 +16329,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="23.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="21.42578125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="23.140625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="21.42578125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="23.140625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="18.85546875" collapsed="true"/>
-    <col min="14" max="14" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="23.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="21.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="21.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="18.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="9.140625" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
@@ -16444,9 +16459,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="19" width="11.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="19" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16541,8 +16556,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="19" width="11.0" collapsed="true"/>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11" style="19" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -16577,41 +16592,41 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="38" max="38" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="39" max="39" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="40" max="40" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="44" max="44" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="45" max="45" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="48" max="48" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="49" max="49" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="50" max="50" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="40" max="40" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="43" max="43" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="44" max="44" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="45" max="45" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="47" max="47" width="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="48" max="48" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="49" max="49" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="50" max="50" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:42" x14ac:dyDescent="0.25">
@@ -16800,8 +16815,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="19" width="11.0" collapsed="true"/>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11" style="19" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -16841,8 +16856,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="17.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="19" width="11.0" collapsed="true"/>
+    <col min="1" max="1" width="17" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11" style="19" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -16891,8 +16906,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -16962,6 +16977,78 @@
 </file>
 
 <file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" collapsed="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="9.140625" collapsed="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="16384" width="9.140625" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="49" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C1" s="49" t="s">
+        <v>1238</v>
+      </c>
+      <c r="D1" s="49" t="s">
+        <v>1239</v>
+      </c>
+      <c r="E1" s="57" t="s">
+        <v>181</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1284</v>
+      </c>
+      <c r="B2" s="49" t="s">
+        <v>1492</v>
+      </c>
+      <c r="C2" s="49" t="s">
+        <v>1493</v>
+      </c>
+      <c r="D2" s="49" t="s">
+        <v>1494</v>
+      </c>
+      <c r="F2" s="48" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1221</v>
+      </c>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="F3" s="48" t="s">
+        <v>1496</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -17280,162 +17367,6 @@
       </c>
       <c r="AW4" t="s">
         <v>1466</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D1" t="s">
-        <v>264</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1191</v>
-      </c>
-      <c r="F1" t="s">
-        <v>1192</v>
-      </c>
-      <c r="G1" t="s">
-        <v>1194</v>
-      </c>
-      <c r="H1" t="s">
-        <v>1196</v>
-      </c>
-      <c r="I1" t="s">
-        <v>1197</v>
-      </c>
-      <c r="J1" t="s">
-        <v>1199</v>
-      </c>
-      <c r="K1" t="s">
-        <v>114</v>
-      </c>
-      <c r="L1" t="s">
-        <v>115</v>
-      </c>
-      <c r="M1" t="s">
-        <v>265</v>
-      </c>
-      <c r="N1" t="s">
-        <v>1200</v>
-      </c>
-      <c r="O1" t="s">
-        <v>1201</v>
-      </c>
-      <c r="P1" t="s">
-        <v>1202</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>1203</v>
-      </c>
-      <c r="R1" t="s">
-        <v>1204</v>
-      </c>
-      <c r="S1" t="s">
-        <v>1205</v>
-      </c>
-      <c r="T1" t="s">
-        <v>1206</v>
-      </c>
-      <c r="U1" t="s">
-        <v>1207</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2031</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>1140</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1190</v>
-      </c>
-      <c r="C4" t="s">
-        <v>1409</v>
-      </c>
-      <c r="D4" t="s">
-        <v>1432</v>
-      </c>
-      <c r="E4" t="s">
-        <v>1433</v>
-      </c>
-      <c r="F4" t="s">
-        <v>1193</v>
-      </c>
-      <c r="G4" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H4" t="s">
-        <v>1434</v>
-      </c>
-      <c r="I4" t="s">
-        <v>1198</v>
-      </c>
-      <c r="J4" t="s">
-        <v>1435</v>
-      </c>
-      <c r="K4" t="s">
-        <v>1195</v>
-      </c>
-      <c r="L4" t="s">
-        <v>1195</v>
-      </c>
-      <c r="M4" t="s">
-        <v>1195</v>
-      </c>
-      <c r="N4" t="s">
-        <v>1195</v>
-      </c>
-      <c r="O4" t="s">
-        <v>1195</v>
-      </c>
-      <c r="P4" t="s">
-        <v>1195</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>1195</v>
-      </c>
-      <c r="R4" t="s">
-        <v>1195</v>
-      </c>
-      <c r="S4" t="s">
-        <v>1195</v>
-      </c>
-      <c r="T4" t="s">
-        <v>277</v>
-      </c>
-      <c r="U4" t="s">
-        <v>1436</v>
       </c>
     </row>
   </sheetData>
@@ -17462,6 +17393,162 @@
 
 <file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D1" t="s">
+        <v>264</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1191</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1192</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1194</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1196</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1197</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1199</v>
+      </c>
+      <c r="K1" t="s">
+        <v>114</v>
+      </c>
+      <c r="L1" t="s">
+        <v>115</v>
+      </c>
+      <c r="M1" t="s">
+        <v>265</v>
+      </c>
+      <c r="N1" t="s">
+        <v>1200</v>
+      </c>
+      <c r="O1" t="s">
+        <v>1201</v>
+      </c>
+      <c r="P1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>1203</v>
+      </c>
+      <c r="R1" t="s">
+        <v>1204</v>
+      </c>
+      <c r="S1" t="s">
+        <v>1205</v>
+      </c>
+      <c r="T1" t="s">
+        <v>1206</v>
+      </c>
+      <c r="U1" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1409</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1432</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1433</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1193</v>
+      </c>
+      <c r="G4" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H4" t="s">
+        <v>1434</v>
+      </c>
+      <c r="I4" t="s">
+        <v>1198</v>
+      </c>
+      <c r="J4" t="s">
+        <v>1435</v>
+      </c>
+      <c r="K4" t="s">
+        <v>1195</v>
+      </c>
+      <c r="L4" t="s">
+        <v>1195</v>
+      </c>
+      <c r="M4" t="s">
+        <v>1195</v>
+      </c>
+      <c r="N4" t="s">
+        <v>1195</v>
+      </c>
+      <c r="O4" t="s">
+        <v>1195</v>
+      </c>
+      <c r="P4" t="s">
+        <v>1195</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>1195</v>
+      </c>
+      <c r="R4" t="s">
+        <v>1195</v>
+      </c>
+      <c r="S4" t="s">
+        <v>1195</v>
+      </c>
+      <c r="T4" t="s">
+        <v>277</v>
+      </c>
+      <c r="U4" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
@@ -17473,8 +17560,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="21.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="24.5703125" collapsed="true"/>
+    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -17571,7 +17658,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
@@ -17584,9 +17671,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="36.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="24.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="36.5703125" collapsed="true"/>
+    <col min="1" max="1" width="36.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="36.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17744,10 +17831,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="38" width="30.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="38" width="33.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="43.0" collapsed="true"/>
-    <col min="4" max="16384" style="19" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="30.140625" style="38" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.5703125" style="38" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="43" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="19" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">

--- a/WppRegpack/TestResource/Regression/DS_MLY_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Regression/DS_MLY_REGRESSION.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\OneDrive - Cognizant\Documents\GlobalTestSuite Project\GlobalTestSuiteAutomation\WppRegpack\TestResource\Regression\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GlobalTestAutomation2\GlobalTestSuiteAutomation\WppRegpack\TestResource\Regression\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="64" activeTab="67"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Server Details" sheetId="1" r:id="rId1"/>
@@ -17,11 +17,11 @@
     <sheet name="ExchangeRate" sheetId="45" r:id="rId3"/>
     <sheet name="CountryCurrency" sheetId="46" r:id="rId4"/>
     <sheet name="JobCreation" sheetId="3" r:id="rId5"/>
-    <sheet name="JobCreation3" sheetId="63" r:id="rId6"/>
-    <sheet name="JobBudgetCreation3" sheetId="64" r:id="rId7"/>
-    <sheet name="CreateQuote3" sheetId="65" r:id="rId8"/>
-    <sheet name="SubJobs" sheetId="14" r:id="rId9"/>
-    <sheet name="JobBudgetCreation" sheetId="10" r:id="rId10"/>
+    <sheet name="JobBudgetCreation" sheetId="10" r:id="rId6"/>
+    <sheet name="JobCreation3" sheetId="63" r:id="rId7"/>
+    <sheet name="JobBudgetCreation3" sheetId="64" r:id="rId8"/>
+    <sheet name="CreateQuote3" sheetId="65" r:id="rId9"/>
+    <sheet name="SubJobs" sheetId="14" r:id="rId10"/>
     <sheet name="CreateExpense" sheetId="4" r:id="rId11"/>
     <sheet name="CreateTimesheet" sheetId="9" r:id="rId12"/>
     <sheet name="EmployeeCreation" sheetId="5" r:id="rId13"/>
@@ -87,7 +87,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2721" uniqueCount="1497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2969" uniqueCount="1582">
   <si>
     <t>Description</t>
   </si>
@@ -3312,9 +3312,6 @@
     <t>MY ZP Input Tax 0%</t>
   </si>
   <si>
-    <t>MYS-2025-Grey Worldwide Sdn Bhd</t>
-  </si>
-  <si>
     <t>2025 Finance (TST)</t>
   </si>
   <si>
@@ -4591,12 +4588,271 @@
   </si>
   <si>
     <t>12219905</t>
+  </si>
+  <si>
+    <t>2001_TestAutomationJob</t>
+  </si>
+  <si>
+    <t>2001-Financeplus Malaysia</t>
+  </si>
+  <si>
+    <t>RB117</t>
+  </si>
+  <si>
+    <t>RB117-Recharges</t>
+  </si>
+  <si>
+    <t>D143</t>
+  </si>
+  <si>
+    <t>D143-SSC Collections</t>
+  </si>
+  <si>
+    <t>B100-Malaysia</t>
+  </si>
+  <si>
+    <t>RB117_TM-CP</t>
+  </si>
+  <si>
+    <t>Recharges-T&amp;M - CP</t>
+  </si>
+  <si>
+    <t>2001_AutoClient</t>
+  </si>
+  <si>
+    <t>2001 Finance</t>
+  </si>
+  <si>
+    <t>2001_MYR_Billable_Price_List</t>
+  </si>
+  <si>
+    <t>20019933</t>
+  </si>
+  <si>
+    <t>2001_AutoClient 08March2021 11:28:55</t>
+  </si>
+  <si>
+    <t>110522</t>
+  </si>
+  <si>
+    <t>110522001</t>
+  </si>
+  <si>
+    <t>AutoBrand08Mar</t>
+  </si>
+  <si>
+    <t>110522001001</t>
+  </si>
+  <si>
+    <t>AutoProduct08Mar</t>
+  </si>
+  <si>
+    <t>126491</t>
+  </si>
+  <si>
+    <t>2001 Account Director (TST)</t>
+  </si>
+  <si>
+    <t>2001 Admin (TST)</t>
+  </si>
+  <si>
+    <t>2001 Basic (TST)</t>
+  </si>
+  <si>
+    <t>2001 Biller (TST)</t>
+  </si>
+  <si>
+    <t>2001 Finance (TST)</t>
+  </si>
+  <si>
+    <t>2001 HR (TST)</t>
+  </si>
+  <si>
+    <t>2001 Management (TST)</t>
+  </si>
+  <si>
+    <t>2001 Production (TST)</t>
+  </si>
+  <si>
+    <t>2001 Project Manager (TST)</t>
+  </si>
+  <si>
+    <t>2001 Senior Finance (TST)</t>
+  </si>
+  <si>
+    <t>Project Manager</t>
+  </si>
+  <si>
+    <t>Global Regression</t>
+  </si>
+  <si>
+    <t>Global Regerssion</t>
+  </si>
+  <si>
+    <t>APAC - MYS - 2001-Financeplus Malaysia</t>
+  </si>
+  <si>
+    <t>1099050-02</t>
+  </si>
+  <si>
+    <t>Recharges I/Group - Staff Costs - Implanted Employees - Salaries</t>
+  </si>
+  <si>
+    <t>1099050-03</t>
+  </si>
+  <si>
+    <t>Recharges I/Group - Staff Costs - Implanted Employees - Social Security</t>
+  </si>
+  <si>
+    <t>1099050-04</t>
+  </si>
+  <si>
+    <t>Recharges I/Group - Staff Costs - Implanted Employees - Bonus</t>
+  </si>
+  <si>
+    <t>200120271</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>Staff Salaries</t>
+  </si>
+  <si>
+    <t>177.58</t>
+  </si>
+  <si>
+    <t>1,065.48</t>
+  </si>
+  <si>
+    <t>63.93</t>
+  </si>
+  <si>
+    <t>1129.41</t>
+  </si>
+  <si>
+    <t>Employer Social Taxes</t>
+  </si>
+  <si>
+    <t>88.79</t>
+  </si>
+  <si>
+    <t>2,219.75</t>
+  </si>
+  <si>
+    <t>133.19</t>
+  </si>
+  <si>
+    <t>2352.94</t>
+  </si>
+  <si>
+    <t>200120272</t>
+  </si>
+  <si>
+    <t>2-2</t>
+  </si>
+  <si>
+    <t>03/08/2021</t>
+  </si>
+  <si>
+    <t>2001_MarReg</t>
+  </si>
+  <si>
+    <t>March BAU Regression</t>
+  </si>
+  <si>
+    <t>4533000-07</t>
+  </si>
+  <si>
+    <t>Data communication costs - Colt</t>
+  </si>
+  <si>
+    <t>4533000-08</t>
+  </si>
+  <si>
+    <t>Data communication costs - Sprint</t>
+  </si>
+  <si>
+    <t>4533000-09</t>
+  </si>
+  <si>
+    <t>Data communication costs - Verizon</t>
+  </si>
+  <si>
+    <t>200120273</t>
+  </si>
+  <si>
+    <t>200110917</t>
+  </si>
+  <si>
+    <t>200118179</t>
+  </si>
+  <si>
+    <t>2001_BAU_Reg</t>
+  </si>
+  <si>
+    <t>3/29/2021</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>T2018</t>
+  </si>
+  <si>
+    <t>2001701567</t>
+  </si>
+  <si>
+    <t>20019938</t>
+  </si>
+  <si>
+    <t>2001401494</t>
+  </si>
+  <si>
+    <t>2001401495</t>
+  </si>
+  <si>
+    <t>200118182</t>
+  </si>
+  <si>
+    <t>200118183</t>
+  </si>
+  <si>
+    <t>200120274</t>
+  </si>
+  <si>
+    <t>7,280.78</t>
+  </si>
+  <si>
+    <t>2001401496</t>
+  </si>
+  <si>
+    <t>200118185</t>
+  </si>
+  <si>
+    <t>200111066</t>
+  </si>
+  <si>
+    <t>2001P</t>
+  </si>
+  <si>
+    <t>2001B</t>
+  </si>
+  <si>
+    <t>03/09/2021</t>
+  </si>
+  <si>
+    <t>200118190</t>
+  </si>
+  <si>
+    <t>2001512338</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4874,7 +5130,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -5059,6 +5315,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -5348,13 +5607,13 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="9" width="40.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="2" max="9" bestFit="true" customWidth="true" width="40.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5364,7 +5623,9 @@
       <c r="B1" s="56">
         <v>2025</v>
       </c>
-      <c r="C1" s="55"/>
+      <c r="C1" s="55">
+        <v>2001</v>
+      </c>
       <c r="D1" s="55"/>
       <c r="E1" s="55"/>
       <c r="F1" s="55"/>
@@ -5377,9 +5638,11 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>1072</v>
-      </c>
-      <c r="C2" s="29"/>
+        <v>1071</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>1520</v>
+      </c>
       <c r="D2" s="29"/>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -5392,9 +5655,11 @@
         <v>3</v>
       </c>
       <c r="B3" s="88" t="s">
-        <v>1073</v>
-      </c>
-      <c r="C3" s="52"/>
+        <v>1072</v>
+      </c>
+      <c r="C3" s="88" t="s">
+        <v>1072</v>
+      </c>
       <c r="D3" s="52"/>
       <c r="E3" s="52"/>
       <c r="F3" s="52"/>
@@ -5407,20 +5672,27 @@
         <v>1064</v>
       </c>
       <c r="B4" t="s">
-        <v>1071</v>
+        <v>1528</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1527</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="51" t="s">
         <v>1065</v>
       </c>
+      <c r="C5" t="s">
+        <v>1529</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -5429,283 +5701,202 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:AP3"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="23.140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="40" max="40" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="41" max="41" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="38" width="30.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="38" width="33.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="43.0" collapsed="true"/>
+    <col min="4" max="16384" style="19" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>181</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="H1" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="I1" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="J1" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="K1" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="L1" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="M1" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="N1" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="O1" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="P1" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q1" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="R1" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="S1" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="T1" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="U1" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="V1" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="W1" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="X1" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="Y1" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="Z1" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="AA1" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="AB1" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="AC1" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="AD1" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="AE1" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="AF1" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="AG1" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="AH1" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="AI1" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="AJ1" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="AK1" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="AL1" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="AM1" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="AN1" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="AO1" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="AP1" s="16" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A2" s="76">
-        <v>1517</v>
-      </c>
-      <c r="B2" s="48"/>
-      <c r="C2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1056</v>
-      </c>
-      <c r="E2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="20">
+        <v>1307</v>
+      </c>
+      <c r="C1" s="2">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11">
+        <v>1307</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="32" t="s">
+        <v>177</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F2">
-        <v>1000</v>
-      </c>
-      <c r="G2" t="s">
-        <v>1052</v>
-      </c>
-      <c r="H2" t="s">
-        <v>793</v>
-      </c>
-      <c r="I2">
-        <v>25</v>
-      </c>
-      <c r="J2">
-        <v>500</v>
-      </c>
-      <c r="K2" t="s">
-        <v>1062</v>
-      </c>
-      <c r="L2" t="s">
-        <v>1057</v>
-      </c>
-      <c r="M2">
-        <v>15</v>
-      </c>
-      <c r="N2">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A3" s="76">
-        <v>2025</v>
-      </c>
-      <c r="B3" s="48"/>
-      <c r="C3" t="s">
-        <v>1185</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1186</v>
-      </c>
-      <c r="E3">
+      <c r="C5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F3">
-        <v>1000</v>
-      </c>
-      <c r="G3" t="s">
-        <v>1401</v>
-      </c>
-      <c r="H3" t="s">
-        <v>1402</v>
-      </c>
-      <c r="I3">
-        <v>25</v>
-      </c>
-      <c r="J3">
-        <v>500</v>
-      </c>
-      <c r="K3" t="s">
-        <v>1404</v>
-      </c>
-      <c r="L3" t="s">
-        <v>1403</v>
-      </c>
-      <c r="M3">
-        <v>15</v>
-      </c>
-      <c r="N3">
-        <v>1500</v>
-      </c>
-      <c r="O3" t="s">
-        <v>1405</v>
-      </c>
-      <c r="P3" t="s">
-        <v>1406</v>
-      </c>
-      <c r="Q3">
-        <v>10</v>
-      </c>
-      <c r="R3">
-        <v>400</v>
-      </c>
-      <c r="S3" t="s">
-        <v>1407</v>
-      </c>
-      <c r="T3" t="s">
-        <v>1408</v>
-      </c>
-      <c r="U3">
-        <v>12</v>
-      </c>
-      <c r="V3">
-        <v>400</v>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A7" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A11" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A13" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="36" t="s">
+        <v>178</v>
+      </c>
+      <c r="C16" s="36" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="32" t="s">
+        <v>179</v>
+      </c>
+      <c r="B17" s="37" t="s">
+        <v>808</v>
+      </c>
+      <c r="C17" s="37" t="s">
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -5719,36 +5910,36 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:AH3"/>
+  <dimension ref="A1:AH4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="22.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="14.5703125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.5703125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
@@ -5908,7 +6099,7 @@
         <v>1066</v>
       </c>
       <c r="E3" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="F3" t="s">
         <v>586</v>
@@ -5917,7 +6108,7 @@
         <v>100</v>
       </c>
       <c r="H3" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="I3" t="s">
         <v>586</v>
@@ -5926,13 +6117,33 @@
         <v>120</v>
       </c>
       <c r="K3" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="L3" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="M3">
         <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2001</v>
+      </c>
+      <c r="C4">
+        <v>20019905</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1553</v>
+      </c>
+      <c r="F4" t="s">
+        <v>586</v>
+      </c>
+      <c r="G4">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -5946,20 +6157,20 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19" style="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="19" width="19.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>4</v>
       </c>
@@ -5972,15 +6183,18 @@
       <c r="D1">
         <v>2025</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>181</v>
       </c>
       <c r="B2" s="48"/>
       <c r="C2" s="48"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>100</v>
       </c>
@@ -5993,8 +6207,11 @@
       <c r="D3">
         <v>46</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="48" t="s">
+        <v>1564</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>101</v>
       </c>
@@ -6005,10 +6222,13 @@
         <v>68</v>
       </c>
       <c r="D4" t="s">
-        <v>1185</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1184</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>0</v>
       </c>
@@ -6021,8 +6241,11 @@
       <c r="D5" s="19" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="19" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>93</v>
       </c>
@@ -6035,8 +6258,11 @@
       <c r="D6">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>94</v>
       </c>
@@ -6049,8 +6275,11 @@
       <c r="D7">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>95</v>
       </c>
@@ -6063,8 +6292,11 @@
       <c r="D8">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>96</v>
       </c>
@@ -6077,8 +6309,11 @@
       <c r="D9">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>97</v>
       </c>
@@ -6091,8 +6326,11 @@
       <c r="D10">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
         <v>98</v>
       </c>
@@ -6100,16 +6338,19 @@
       <c r="D11">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
         <v>99</v>
       </c>
       <c r="C12" s="19"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="B13" s="19" t="s">
         <v>93</v>
@@ -6120,10 +6361,13 @@
       <c r="D13" s="19" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" s="19" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="B14" s="19" t="s">
         <v>94</v>
@@ -6134,10 +6378,13 @@
       <c r="D14" s="19" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" s="19" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="B15" s="19" t="s">
         <v>95</v>
@@ -6148,10 +6395,13 @@
       <c r="D15" s="19" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" s="19" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="B16" s="19" t="s">
         <v>96</v>
@@ -6162,10 +6412,13 @@
       <c r="D16" s="19" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" s="19" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="B17" s="19" t="s">
         <v>97</v>
@@ -6176,10 +6429,13 @@
       <c r="D17" s="19" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" s="19" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="B18" s="19" t="s">
         <v>98</v>
@@ -6190,10 +6446,13 @@
       <c r="D18" s="19" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" s="19" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="B19" s="19" t="s">
         <v>99</v>
@@ -6202,6 +6461,7 @@
         <v>99</v>
       </c>
       <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6222,9 +6482,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31" style="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="51" style="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="16384" width="9.140625" style="19" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="19" width="31.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="19" width="51.0" collapsed="true"/>
+    <col min="3" max="16384" style="19" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6232,7 +6492,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -6240,7 +6500,7 @@
         <v>23</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -6256,7 +6516,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -6264,7 +6524,7 @@
         <v>54</v>
       </c>
       <c r="B5" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -6272,7 +6532,7 @@
         <v>27</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -6288,7 +6548,7 @@
         <v>30</v>
       </c>
       <c r="B8" s="90" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -6304,7 +6564,7 @@
         <v>33</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -6328,7 +6588,7 @@
         <v>50</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -6336,7 +6596,7 @@
         <v>38</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -6344,7 +6604,7 @@
         <v>51</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -6352,7 +6612,7 @@
         <v>39</v>
       </c>
       <c r="B16" s="48" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -6360,7 +6620,7 @@
         <v>40</v>
       </c>
       <c r="B17" s="48" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -6376,7 +6636,7 @@
         <v>52</v>
       </c>
       <c r="B19" s="46" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -6420,9 +6680,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.140625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="23.140625" style="19" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="9.140625" style="19" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="19" width="24.140625" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" style="19" width="23.140625" collapsed="true"/>
+    <col min="4" max="16384" style="19" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6433,7 +6693,7 @@
         <v>1307</v>
       </c>
       <c r="C1" s="39" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -6441,21 +6701,21 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="C2" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="40" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="B3" s="40" t="s">
         <v>70</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -6466,7 +6726,7 @@
         <v>801</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -6475,7 +6735,7 @@
       </c>
       <c r="B5" s="40"/>
       <c r="C5" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -6497,7 +6757,7 @@
         <v>802</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -6508,7 +6768,7 @@
         <v>803</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -6519,7 +6779,7 @@
         <v>1307</v>
       </c>
       <c r="C9" s="40" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
   </sheetData>
@@ -6541,12 +6801,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="52.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="35" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="34.42578125" customWidth="1" collapsed="1"/>
-    <col min="5" max="10" width="87.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="69.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="37.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="52.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="35.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="34.42578125" collapsed="true"/>
+    <col min="5" max="10" bestFit="true" customWidth="true" width="87.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="69.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -6554,7 +6814,7 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="C1" t="s">
         <v>70</v>
@@ -6589,7 +6849,7 @@
         <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="C2" t="s">
         <v>182</v>
@@ -6694,7 +6954,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="48" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="C5">
         <v>1307</v>
@@ -6729,7 +6989,7 @@
         <v>54</v>
       </c>
       <c r="B6" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="C6" t="s">
         <v>62</v>
@@ -6764,7 +7024,7 @@
         <v>27</v>
       </c>
       <c r="B7" s="92" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="C7" t="s">
         <v>61</v>
@@ -6834,7 +7094,7 @@
         <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="C9" t="s">
         <v>182</v>
@@ -6904,7 +7164,7 @@
         <v>33</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="C11" t="s">
         <v>34</v>
@@ -7009,7 +7269,7 @@
         <v>50</v>
       </c>
       <c r="B14" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="C14" t="s">
         <v>64</v>
@@ -7044,7 +7304,7 @@
         <v>38</v>
       </c>
       <c r="B15" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="C15" t="s">
         <v>8</v>
@@ -7079,7 +7339,7 @@
         <v>51</v>
       </c>
       <c r="B16" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="C16" t="s">
         <v>66</v>
@@ -7114,7 +7374,7 @@
         <v>39</v>
       </c>
       <c r="B17" s="48" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="C17" t="s">
         <v>185</v>
@@ -7149,7 +7409,7 @@
         <v>40</v>
       </c>
       <c r="B18" s="48" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="C18" t="s">
         <v>185</v>
@@ -7219,7 +7479,7 @@
         <v>52</v>
       </c>
       <c r="B20" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="C20" t="s">
         <v>186</v>
@@ -7359,7 +7619,7 @@
         <v>48</v>
       </c>
       <c r="B24" s="92" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="C24" t="s">
         <v>191</v>
@@ -7394,7 +7654,7 @@
         <v>49</v>
       </c>
       <c r="B25" s="92" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="C25" t="s">
         <v>188</v>
@@ -7429,7 +7689,7 @@
         <v>47</v>
       </c>
       <c r="B26" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="C26" t="s">
         <v>208</v>
@@ -7465,8 +7725,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31" style="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="60.140625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="19" width="31.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="19" width="60.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7494,7 +7754,7 @@
         <v>299</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -7502,10 +7762,10 @@
         <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="C4" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
     </row>
   </sheetData>
@@ -7527,7 +7787,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="26.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" width="26.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7538,7 +7798,7 @@
         <v>1307</v>
       </c>
       <c r="C1" s="39" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -7546,10 +7806,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="C2" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -7560,7 +7820,7 @@
         <v>802</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -7571,7 +7831,7 @@
         <v>803</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
     </row>
   </sheetData>
@@ -7593,8 +7853,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="41.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="41.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7602,7 +7862,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="39" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -7610,15 +7870,15 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>1411</v>
+      </c>
+      <c r="B3" s="92" t="s">
         <v>1412</v>
-      </c>
-      <c r="B3" s="92" t="s">
-        <v>1413</v>
       </c>
     </row>
   </sheetData>
@@ -7640,9 +7900,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:62" x14ac:dyDescent="0.25">
@@ -7943,32 +8203,34 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:EZ90"/>
+  <dimension ref="A1:FB90"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="39.7109375" style="19" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="27.85546875" style="19" customWidth="1" collapsed="1"/>
-    <col min="4" max="156" width="32" style="19" customWidth="1" collapsed="1"/>
-    <col min="157" max="16384" width="9.140625" style="19" collapsed="1"/>
+    <col min="1" max="4" customWidth="true" style="19" width="39.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="19" width="27.85546875" collapsed="true"/>
+    <col min="6" max="158" customWidth="true" style="19" width="32.0" collapsed="true"/>
+    <col min="159" max="16384" style="19" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:156" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:158" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>176</v>
       </c>
       <c r="B1" s="10">
+        <v>2001</v>
+      </c>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10">
         <v>2025</v>
       </c>
-      <c r="C1" s="10">
+      <c r="E1" s="10">
         <v>20234</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
       <c r="F1" s="10"/>
       <c r="G1" s="10"/>
       <c r="H1" s="10"/>
@@ -8120,803 +8382,1020 @@
       <c r="EX1" s="10"/>
       <c r="EY1" s="10"/>
       <c r="EZ1" s="10"/>
-    </row>
-    <row r="2" spans="1:156" x14ac:dyDescent="0.25">
+      <c r="FA1" s="10"/>
+      <c r="FB1" s="10"/>
+    </row>
+    <row r="2" spans="1:158" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>181</v>
       </c>
       <c r="B2" t="s">
-        <v>1486</v>
+        <v>1536</v>
       </c>
       <c r="C2" t="s">
-        <v>1354</v>
+        <v>1536</v>
       </c>
       <c r="D2" t="s">
-        <v>1184</v>
+        <v>1485</v>
       </c>
       <c r="E2" t="s">
-        <v>1336</v>
-      </c>
-    </row>
-    <row r="3" spans="1:156" x14ac:dyDescent="0.25">
+        <v>1353</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1183</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="3" spans="1:158" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="B3" t="s">
-        <v>1417</v>
-      </c>
       <c r="C3" t="s">
-        <v>1225</v>
-      </c>
-    </row>
-    <row r="4" spans="1:156" x14ac:dyDescent="0.25">
+        <v>1548</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1416</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="4" spans="1:158" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>190</v>
       </c>
       <c r="B4" t="s">
-        <v>1444</v>
-      </c>
-      <c r="C4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="5" spans="1:156" x14ac:dyDescent="0.25">
+        <v>1566</v>
+      </c>
+      <c r="C4" s="48" t="s">
+        <v>1559</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1443</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="5" spans="1:158" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>275</v>
       </c>
       <c r="B5" t="s">
-        <v>1437</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>1217</v>
-      </c>
-    </row>
-    <row r="6" spans="1:156" x14ac:dyDescent="0.25">
+        <v>1560</v>
+      </c>
+      <c r="C5">
+        <v>200120274</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1436</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="6" spans="1:158" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
         <v>786</v>
       </c>
-      <c r="B6" t="s">
-        <v>1441</v>
-      </c>
-      <c r="C6" t="s">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="7" spans="1:156" x14ac:dyDescent="0.25">
+      <c r="B6" s="19" t="s">
+        <v>1561</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1440</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="7" spans="1:158" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
         <v>787</v>
       </c>
-      <c r="B7" t="s">
-        <v>1438</v>
-      </c>
-      <c r="C7" t="s">
-        <v>1229</v>
+      <c r="B7" s="19" t="s">
+        <v>1562</v>
       </c>
       <c r="D7" t="s">
-        <v>1229</v>
-      </c>
-    </row>
-    <row r="8" spans="1:156" x14ac:dyDescent="0.25">
+        <v>1437</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1228</v>
+      </c>
+      <c r="F7" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="8" spans="1:158" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1508</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1217</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="9" spans="1:158" x14ac:dyDescent="0.25">
+      <c r="A9" s="19" t="s">
         <v>1097</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1071</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="10" spans="1:158" x14ac:dyDescent="0.25">
+      <c r="A10" s="19" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1442</v>
+      </c>
+      <c r="E10" t="s">
         <v>1218</v>
       </c>
-      <c r="C8" t="s">
-        <v>1218</v>
-      </c>
-    </row>
-    <row r="9" spans="1:156" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
-        <v>1098</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1072</v>
-      </c>
-      <c r="C9" t="s">
-        <v>1072</v>
-      </c>
-    </row>
-    <row r="10" spans="1:156" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
+    </row>
+    <row r="11" spans="1:158" x14ac:dyDescent="0.25">
+      <c r="A11" s="19" t="s">
         <v>1099</v>
       </c>
-      <c r="B10" t="s">
-        <v>1443</v>
-      </c>
-      <c r="C10" t="s">
-        <v>1219</v>
-      </c>
-    </row>
-    <row r="11" spans="1:156" x14ac:dyDescent="0.25">
-      <c r="A11" s="19" t="s">
+    </row>
+    <row r="12" spans="1:158" x14ac:dyDescent="0.25">
+      <c r="A12" s="19" t="s">
         <v>1100</v>
       </c>
     </row>
-    <row r="12" spans="1:156" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
-        <v>1101</v>
-      </c>
-    </row>
-    <row r="13" spans="1:156" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:158" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
         <v>1046</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="19" t="s">
+        <v>1510</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1422</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="14" spans="1:158" x14ac:dyDescent="0.25">
+      <c r="A14" s="19" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>1509</v>
+      </c>
+      <c r="D14" t="s">
         <v>1423</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E14" t="s">
         <v>1393</v>
       </c>
     </row>
-    <row r="14" spans="1:156" x14ac:dyDescent="0.25">
-      <c r="A14" s="19" t="s">
-        <v>1102</v>
-      </c>
-      <c r="B14" t="s">
-        <v>1424</v>
-      </c>
-      <c r="C14" t="s">
-        <v>1394</v>
-      </c>
-    </row>
-    <row r="15" spans="1:156" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:158" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
         <v>1047</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="19" t="s">
+        <v>1511</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1424</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="16" spans="1:158" x14ac:dyDescent="0.25">
+      <c r="A16" s="19" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>1512</v>
+      </c>
+      <c r="D16" t="s">
         <v>1425</v>
       </c>
-      <c r="C15" t="s">
+      <c r="E16" t="s">
         <v>1395</v>
       </c>
     </row>
-    <row r="16" spans="1:156" x14ac:dyDescent="0.25">
-      <c r="A16" s="19" t="s">
-        <v>1103</v>
-      </c>
-      <c r="B16" t="s">
-        <v>1426</v>
-      </c>
-      <c r="C16" t="s">
-        <v>1396</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
         <v>1048</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="19" t="s">
+        <v>1513</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1426</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="19" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>1514</v>
+      </c>
+      <c r="D18" t="s">
         <v>1427</v>
       </c>
-      <c r="C17" t="s">
+      <c r="E18" t="s">
         <v>1397</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="19" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="19" t="s">
         <v>1104</v>
       </c>
-      <c r="B18" t="s">
-        <v>1428</v>
-      </c>
-      <c r="C18" t="s">
-        <v>1398</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="19" t="s">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="19" t="s">
         <v>1105</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="19" t="s">
-        <v>1106</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="19" t="s">
         <v>263</v>
       </c>
       <c r="B21" t="s">
-        <v>1429</v>
-      </c>
-      <c r="C21" t="s">
-        <v>1399</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1515</v>
+      </c>
+      <c r="C21"/>
+      <c r="D21" t="s">
+        <v>1428</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="19" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="19" t="s">
         <v>1107</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="19" t="s">
-        <v>1108</v>
-      </c>
       <c r="B23" t="s">
-        <v>1472</v>
-      </c>
-      <c r="C23" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1580</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1471</v>
+      </c>
+      <c r="E23" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C24" t="s">
-        <v>1226</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="19" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1572</v>
+      </c>
+      <c r="C25"/>
+      <c r="D25" t="s">
+        <v>1485</v>
+      </c>
+      <c r="E25" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="19" t="s">
         <v>1109</v>
-      </c>
-      <c r="B25" t="s">
-        <v>1486</v>
-      </c>
-      <c r="C25" t="s">
-        <v>1354</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="19" t="s">
-        <v>1110</v>
       </c>
       <c r="B26" t="s">
         <v>277</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26"/>
+      <c r="D26" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>1111</v>
       </c>
-      <c r="B27"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="B28" s="48" t="s">
+        <v>1563</v>
+      </c>
+      <c r="C28"/>
+      <c r="D28" t="s">
+        <v>1441</v>
+      </c>
+      <c r="E28" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>1112</v>
       </c>
-      <c r="B28" t="s">
-        <v>1442</v>
-      </c>
-      <c r="C28" t="s">
-        <v>1235</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>1113</v>
-      </c>
       <c r="B29" t="s">
-        <v>1481</v>
-      </c>
-      <c r="C29" t="s">
+        <v>1503</v>
+      </c>
+      <c r="C29"/>
+      <c r="D29" t="s">
+        <v>1480</v>
+      </c>
+      <c r="E29" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>1034</v>
       </c>
       <c r="B30"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C30"/>
+      <c r="D30"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>1114</v>
       </c>
-      <c r="B31"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="B32"/>
+      <c r="C32"/>
+      <c r="D32"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>1115</v>
       </c>
-      <c r="B32"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="B33"/>
+      <c r="C33"/>
+      <c r="D33"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>1116</v>
       </c>
-      <c r="B33"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="B34"/>
+      <c r="C34"/>
+      <c r="D34"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>1117</v>
       </c>
-      <c r="B34"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="B35"/>
+      <c r="C35"/>
+      <c r="D35"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>1118</v>
       </c>
-      <c r="B35"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="B36"/>
+      <c r="C36"/>
+      <c r="D36"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>1119</v>
       </c>
-      <c r="B36"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="B37"/>
+      <c r="C37"/>
+      <c r="D37"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>1120</v>
       </c>
-      <c r="B37"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="B38"/>
+      <c r="C38"/>
+      <c r="D38"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>1121</v>
       </c>
-      <c r="B38"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="B39"/>
+      <c r="C39"/>
+      <c r="D39"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>1122</v>
       </c>
-      <c r="B39"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="B40"/>
+      <c r="C40"/>
+      <c r="D40"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="19" t="s">
         <v>1123</v>
       </c>
-      <c r="B40"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="19" t="s">
+      <c r="D41" s="19" t="s">
+        <v>1430</v>
+      </c>
+      <c r="E41" s="19" t="s">
+        <v>1353</v>
+      </c>
+      <c r="F41" t="s">
+        <v>1183</v>
+      </c>
+      <c r="G41" t="s">
+        <v>1183</v>
+      </c>
+      <c r="H41" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="19" t="s">
+        <v>1273</v>
+      </c>
+      <c r="D42" s="19" t="s">
+        <v>1468</v>
+      </c>
+      <c r="E42" s="19" t="s">
+        <v>1355</v>
+      </c>
+      <c r="F42" s="19" t="s">
+        <v>1274</v>
+      </c>
+      <c r="G42" s="19" t="s">
+        <v>1331</v>
+      </c>
+      <c r="H42" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>1124</v>
       </c>
-      <c r="B41" s="19" t="s">
-        <v>1431</v>
-      </c>
-      <c r="C41" s="19" t="s">
-        <v>1354</v>
-      </c>
-      <c r="D41" t="s">
-        <v>1184</v>
-      </c>
-      <c r="E41" t="s">
-        <v>1184</v>
-      </c>
-      <c r="F41" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="19" t="s">
-        <v>1274</v>
-      </c>
-      <c r="B42" s="19" t="s">
-        <v>1469</v>
-      </c>
-      <c r="C42" s="19" t="s">
-        <v>1356</v>
-      </c>
-      <c r="D42" s="19" t="s">
-        <v>1275</v>
-      </c>
-      <c r="E42" s="19" t="s">
-        <v>1332</v>
-      </c>
-      <c r="F42" t="s">
-        <v>1336</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="B43"/>
+      <c r="C43"/>
+      <c r="D43"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>1125</v>
       </c>
-      <c r="B43"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="B44"/>
+      <c r="C44"/>
+      <c r="D44"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="19" t="s">
         <v>1126</v>
       </c>
-      <c r="B44"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="19" t="s">
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="19" t="s">
         <v>1127</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="19" t="s">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="19" t="s">
         <v>1128</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="19" t="s">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="19" t="s">
         <v>1129</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="19" t="s">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="19" t="s">
         <v>1130</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="19" t="s">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="19" t="s">
         <v>1131</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="19" t="s">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>1132</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="B51"/>
+      <c r="C51"/>
+      <c r="D51"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>1133</v>
       </c>
-      <c r="B51"/>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="B52"/>
+      <c r="C52"/>
+      <c r="D52"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>1134</v>
       </c>
-      <c r="B52"/>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="B53"/>
+      <c r="C53"/>
+      <c r="D53"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>1135</v>
       </c>
-      <c r="B53"/>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="B54"/>
+      <c r="C54"/>
+      <c r="D54"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>1136</v>
       </c>
-      <c r="B54"/>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+      <c r="B55"/>
+      <c r="C55"/>
+      <c r="D55"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>1137</v>
       </c>
-      <c r="B55"/>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="B56"/>
+      <c r="C56"/>
+      <c r="D56"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>1138</v>
       </c>
-      <c r="B56"/>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>1139</v>
-      </c>
       <c r="B57"/>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C57"/>
+      <c r="D57"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>324</v>
       </c>
       <c r="B58" t="s">
-        <v>1480</v>
-      </c>
-      <c r="C58" t="s">
-        <v>1228</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1576</v>
+      </c>
+      <c r="C58"/>
+      <c r="D58" t="s">
+        <v>1479</v>
+      </c>
+      <c r="E58" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="B59" t="s">
         <v>362</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59"/>
+      <c r="D59" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E59" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1354</v>
+      </c>
+      <c r="C60"/>
+      <c r="D60" t="s">
+        <v>1486</v>
+      </c>
+      <c r="E60" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>1208</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B61" t="s">
+        <v>1354</v>
+      </c>
+      <c r="C61"/>
+      <c r="D61" t="s">
         <v>1487</v>
       </c>
-      <c r="C60" t="s">
+      <c r="E61" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1360</v>
+      </c>
+      <c r="C62"/>
+      <c r="D62" t="s">
+        <v>1360</v>
+      </c>
+      <c r="E62" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B63" s="96" t="s">
+        <v>1231</v>
+      </c>
+      <c r="C63"/>
+      <c r="D63" t="s">
+        <v>1439</v>
+      </c>
+      <c r="E63" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B64" s="96" t="s">
+        <v>1231</v>
+      </c>
+      <c r="C64"/>
+      <c r="D64" t="s">
+        <v>1439</v>
+      </c>
+      <c r="E64" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>1235</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1561</v>
+      </c>
+      <c r="C65"/>
+      <c r="D65" t="s">
+        <v>1440</v>
+      </c>
+      <c r="E65" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B66"/>
+      <c r="C66"/>
+      <c r="D66" t="s">
+        <v>1467</v>
+      </c>
+      <c r="E66" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1570</v>
+      </c>
+      <c r="C67"/>
+      <c r="D67" t="s">
+        <v>1469</v>
+      </c>
+      <c r="E67" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1568</v>
+      </c>
+      <c r="C68"/>
+      <c r="D68" t="s">
+        <v>1468</v>
+      </c>
+      <c r="E68" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1536</v>
+      </c>
+      <c r="C69"/>
+      <c r="D69" t="s">
+        <v>1430</v>
+      </c>
+      <c r="E69" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C70"/>
+      <c r="D70" t="s">
+        <v>1364</v>
+      </c>
+      <c r="E70" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>1323</v>
+      </c>
+      <c r="B71"/>
+      <c r="C71"/>
+      <c r="D71" t="s">
+        <v>1488</v>
+      </c>
+      <c r="E71" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B72"/>
+      <c r="C72"/>
+      <c r="D72" t="s">
+        <v>1485</v>
+      </c>
+      <c r="E72" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>1329</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1574</v>
+      </c>
+      <c r="C73"/>
+      <c r="D73" t="s">
+        <v>1489</v>
+      </c>
+      <c r="E73" t="s">
         <v>1355</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>1209</v>
-      </c>
-      <c r="B61" t="s">
-        <v>1488</v>
-      </c>
-      <c r="C61" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>1230</v>
-      </c>
-      <c r="B62" t="s">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1572</v>
+      </c>
+      <c r="C74"/>
+      <c r="D74" t="s">
+        <v>1485</v>
+      </c>
+      <c r="E74" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>1332</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1575</v>
+      </c>
+      <c r="C75"/>
+      <c r="D75" t="s">
+        <v>1490</v>
+      </c>
+      <c r="E75" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B76"/>
+      <c r="C76"/>
+      <c r="D76"/>
+      <c r="E76" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="19" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="19" t="s">
+        <v>1341</v>
+      </c>
+      <c r="E78"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="19" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="19" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="19" t="s">
+        <v>1344</v>
+      </c>
+      <c r="F81" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="19" t="s">
+        <v>1345</v>
+      </c>
+      <c r="F82" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B83" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C83"/>
+      <c r="D83" t="s">
+        <v>1484</v>
+      </c>
+      <c r="E83" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B84" t="s">
+        <v>1548</v>
+      </c>
+      <c r="C84"/>
+      <c r="D84" t="s">
+        <v>1482</v>
+      </c>
+      <c r="E84" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>1351</v>
+      </c>
+      <c r="B85" t="s">
+        <v>1571</v>
+      </c>
+      <c r="C85"/>
+      <c r="D85" t="s">
+        <v>1483</v>
+      </c>
+      <c r="E85" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
         <v>1361</v>
       </c>
-      <c r="C62" t="s">
-        <v>1361</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>1231</v>
-      </c>
-      <c r="B63" t="s">
-        <v>1440</v>
-      </c>
-      <c r="C63" t="s">
-        <v>1232</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>1233</v>
-      </c>
-      <c r="B64" t="s">
-        <v>1440</v>
-      </c>
-      <c r="C64" t="s">
-        <v>1232</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>1236</v>
-      </c>
-      <c r="B65" t="s">
-        <v>1441</v>
-      </c>
-      <c r="C65" t="s">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>1273</v>
-      </c>
-      <c r="B66" t="s">
-        <v>1468</v>
-      </c>
-      <c r="C66" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>1276</v>
-      </c>
-      <c r="B67" t="s">
-        <v>1470</v>
-      </c>
-      <c r="C67" t="s">
-        <v>1334</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>1277</v>
-      </c>
-      <c r="B68" t="s">
-        <v>1469</v>
-      </c>
-      <c r="C68" t="s">
-        <v>1349</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>1278</v>
-      </c>
-      <c r="B69" t="s">
-        <v>1431</v>
-      </c>
-      <c r="C69" t="s">
-        <v>1336</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>1323</v>
-      </c>
-      <c r="B70" t="s">
+      <c r="B86" t="s">
+        <v>1354</v>
+      </c>
+      <c r="C86"/>
+      <c r="D86" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E86" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
         <v>1365</v>
       </c>
-      <c r="C70" t="s">
-        <v>1365</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>1324</v>
-      </c>
-      <c r="B71" t="s">
-        <v>1489</v>
-      </c>
-      <c r="C71" t="s">
-        <v>1325</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>1326</v>
-      </c>
-      <c r="B72" t="s">
-        <v>1486</v>
-      </c>
-      <c r="C72" t="s">
-        <v>1184</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>1330</v>
-      </c>
-      <c r="B73" t="s">
-        <v>1490</v>
-      </c>
-      <c r="C73" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>1331</v>
-      </c>
-      <c r="B74" t="s">
-        <v>1486</v>
-      </c>
-      <c r="C74" t="s">
+      <c r="B87" t="s">
+        <v>1581</v>
+      </c>
+      <c r="C87"/>
+      <c r="D87" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E87" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B88" t="s">
         <v>1354</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>1333</v>
-      </c>
-      <c r="B75" t="s">
-        <v>1491</v>
-      </c>
-      <c r="C75" t="s">
-        <v>1357</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>1338</v>
-      </c>
-      <c r="B76"/>
-      <c r="C76" t="s">
-        <v>1339</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="19" t="s">
-        <v>1341</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="19" t="s">
-        <v>1342</v>
-      </c>
-      <c r="C78"/>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="19" t="s">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="19" t="s">
-        <v>1344</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="19" t="s">
-        <v>1345</v>
-      </c>
-      <c r="D81" t="s">
-        <v>1184</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="19" t="s">
-        <v>1346</v>
-      </c>
-      <c r="D82" t="s">
-        <v>1325</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>1350</v>
-      </c>
-      <c r="B83" t="s">
-        <v>1485</v>
-      </c>
-      <c r="C83" t="s">
-        <v>1332</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>1351</v>
-      </c>
-      <c r="B84" t="s">
-        <v>1483</v>
-      </c>
-      <c r="C84" t="s">
-        <v>1184</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>1352</v>
-      </c>
-      <c r="B85" t="s">
-        <v>1484</v>
-      </c>
-      <c r="C85" t="s">
-        <v>1353</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>1362</v>
-      </c>
-      <c r="B86" t="s">
-        <v>1476</v>
-      </c>
-      <c r="C86" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>1366</v>
-      </c>
-      <c r="B87" t="s">
+      <c r="C88"/>
+      <c r="D88" t="s">
         <v>1477</v>
       </c>
-      <c r="C87" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+      <c r="E88" t="s">
         <v>1368</v>
       </c>
-      <c r="B88" t="s">
-        <v>1478</v>
-      </c>
-      <c r="C88" t="s">
-        <v>1369</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="B89" t="s">
         <v>586</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C89"/>
+      <c r="D89" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E89" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="19" t="s">
-        <v>1411</v>
-      </c>
-      <c r="B90" t="s">
-        <v>1418</v>
+        <v>1410</v>
+      </c>
+      <c r="D90" t="s">
+        <v>1417</v>
       </c>
     </row>
   </sheetData>
@@ -8933,13 +9412,13 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -8947,7 +9426,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="89" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="C1" s="57" t="s">
         <v>181</v>
@@ -8961,7 +9440,7 @@
         <v>1707</v>
       </c>
       <c r="B2" s="57" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="D2" t="s">
         <v>277</v>
@@ -8969,10 +9448,10 @@
     </row>
     <row r="3" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="D3" s="19" t="s">
         <v>277</v>
@@ -8987,7 +9466,12 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D5" s="19"/>
+      <c r="A5" s="48" t="s">
+        <v>1537</v>
+      </c>
+      <c r="D5" t="s">
+        <v>277</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9000,19 +9484,19 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="45.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="45.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="31" t="s">
         <v>4</v>
       </c>
@@ -9022,8 +9506,11 @@
       <c r="C1">
         <v>2025</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>317</v>
       </c>
@@ -9040,16 +9527,16 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="29.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="2" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="3" max="4" bestFit="true" customWidth="true" width="29.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -9077,6 +9564,11 @@
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2025</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2001</v>
       </c>
     </row>
   </sheetData>
@@ -9098,8 +9590,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="32.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -9126,19 +9618,19 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="31" t="s">
         <v>4</v>
       </c>
@@ -9148,20 +9640,23 @@
       <c r="C1">
         <v>2025</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="57" t="s">
         <v>278</v>
       </c>
       <c r="B2" s="19"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="57" t="s">
         <v>100</v>
       </c>
       <c r="B3" s="19"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="57" t="s">
         <v>279</v>
       </c>
@@ -9170,6 +9665,9 @@
       </c>
       <c r="C4">
         <v>2020</v>
+      </c>
+      <c r="E4">
+        <v>2021</v>
       </c>
     </row>
   </sheetData>
@@ -9191,8 +9689,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -9242,48 +9740,48 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="40" max="40" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="41" max="41" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="42" max="42" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="43" max="43" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="39" max="39" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="41" max="41" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="42" max="42" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:43" x14ac:dyDescent="0.25">
@@ -9461,48 +9959,48 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:AR5"/>
+  <dimension ref="A1:AR6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.42578125" style="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="22.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="19" width="15.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="22.85546875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:44" x14ac:dyDescent="0.25">
@@ -9671,7 +10169,15 @@
       </c>
       <c r="C5" s="77"/>
       <c r="D5" s="91" t="s">
-        <v>1430</v>
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="6" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2001</v>
+      </c>
+      <c r="D6" s="91" t="s">
+        <v>1549</v>
       </c>
     </row>
   </sheetData>
@@ -9685,19 +10191,19 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="31" t="s">
         <v>4</v>
       </c>
@@ -9719,8 +10225,11 @@
       <c r="G1">
         <v>2025</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="57" t="s">
         <v>275</v>
       </c>
@@ -9751,8 +10260,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -9808,7 +10317,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="19" width="12.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -10982,20 +11491,20 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="24" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="24.7109375" collapsed="true"/>
+    <col min="3" max="4" customWidth="true" width="24.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>284</v>
       </c>
@@ -11005,8 +11514,11 @@
       <c r="C1">
         <v>2025</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>327</v>
       </c>
@@ -11016,8 +11528,11 @@
       <c r="C2" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -11027,8 +11542,11 @@
       <c r="C3" t="s">
         <v>795</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -11038,8 +11556,11 @@
       <c r="C4">
         <v>2025</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>47</v>
       </c>
@@ -11049,8 +11570,11 @@
       <c r="C5">
         <v>2025</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
         <v>329</v>
       </c>
@@ -11058,10 +11582,13 @@
         <v>43867</v>
       </c>
       <c r="C6" s="92" t="s">
-        <v>1479</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1478</v>
+      </c>
+      <c r="D6" s="92" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>330</v>
       </c>
@@ -11071,8 +11598,11 @@
       <c r="C7">
         <v>100</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>331</v>
       </c>
@@ -11080,6 +11610,9 @@
         <v>332</v>
       </c>
       <c r="C8" t="s">
+        <v>332</v>
+      </c>
+      <c r="D8" t="s">
         <v>332</v>
       </c>
     </row>
@@ -11094,20 +11627,21 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.140625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="22.5703125" style="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="9.140625" style="19" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="19" width="21.140625" collapsed="true"/>
+    <col min="2" max="3" bestFit="true" customWidth="true" style="19" width="22.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="19" width="12.42578125" collapsed="true"/>
+    <col min="5" max="16384" style="19" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="72" t="s">
         <v>71</v>
       </c>
@@ -11117,8 +11651,11 @@
       <c r="C1">
         <v>2025</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>323</v>
       </c>
@@ -11128,8 +11665,11 @@
       <c r="C2" s="19" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" s="19" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>324</v>
       </c>
@@ -11137,7 +11677,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>325</v>
       </c>
@@ -11147,8 +11687,11 @@
       <c r="C4" s="19" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="19" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>307</v>
       </c>
@@ -11158,8 +11701,11 @@
       <c r="C5" s="19" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" s="19" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -11168,6 +11714,9 @@
       </c>
       <c r="C6">
         <v>2025</v>
+      </c>
+      <c r="D6">
+        <v>2001</v>
       </c>
     </row>
   </sheetData>
@@ -11181,20 +11730,21 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="20.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="61" t="s">
         <v>4</v>
       </c>
@@ -11202,10 +11752,13 @@
         <v>70</v>
       </c>
       <c r="C1" s="65" t="s">
-        <v>1140</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1139</v>
+      </c>
+      <c r="D1" s="65">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>300</v>
       </c>
@@ -11213,10 +11766,13 @@
         <v>70</v>
       </c>
       <c r="C2" s="71" t="s">
-        <v>1140</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1139</v>
+      </c>
+      <c r="D2" s="71">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>301</v>
       </c>
@@ -11226,8 +11782,11 @@
       <c r="C3" s="71" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" s="71" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>303</v>
       </c>
@@ -11235,8 +11794,9 @@
         <v>304</v>
       </c>
       <c r="C4" s="66"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="66"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="60" t="s">
         <v>305</v>
       </c>
@@ -11246,8 +11806,11 @@
       <c r="C5" s="62" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="62" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="60" t="s">
         <v>307</v>
       </c>
@@ -11255,6 +11818,9 @@
         <v>308</v>
       </c>
       <c r="C6" s="69" t="s">
+        <v>322</v>
+      </c>
+      <c r="D6" s="69" t="s">
         <v>322</v>
       </c>
     </row>
@@ -11277,8 +11843,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -11348,9 +11914,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="20.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -11361,7 +11927,7 @@
         <v>70</v>
       </c>
       <c r="C1" s="65" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -11372,7 +11938,7 @@
         <v>70</v>
       </c>
       <c r="C2" s="71" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -11428,19 +11994,19 @@
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.85546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="6" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="15" width="16.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="2" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="5" max="6" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="7" max="15" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -11546,16 +12112,33 @@
         <v>2025</v>
       </c>
       <c r="C5" s="48" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="D5" s="48" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="E5" t="s">
+        <v>1437</v>
+      </c>
+      <c r="F5" t="s">
         <v>1438</v>
       </c>
-      <c r="F5" t="s">
-        <v>1439</v>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2001</v>
+      </c>
+      <c r="C6" s="49" t="s">
+        <v>1550</v>
+      </c>
+      <c r="D6" s="49" t="s">
+        <v>1550</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1551</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1552</v>
       </c>
     </row>
   </sheetData>
@@ -11569,18 +12152,18 @@
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="31" t="s">
         <v>4</v>
       </c>
@@ -11599,8 +12182,11 @@
       <c r="F1">
         <v>2025</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="57" t="s">
         <v>297</v>
       </c>
@@ -11627,7 +12213,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -11657,19 +12243,19 @@
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="21.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="21.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>4</v>
       </c>
@@ -11679,8 +12265,11 @@
       <c r="C1">
         <v>2025</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
@@ -11690,8 +12279,11 @@
       <c r="C2">
         <v>2025</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>335</v>
       </c>
@@ -11699,7 +12291,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>356</v>
       </c>
@@ -11718,21 +12310,21 @@
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" style="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.42578125" style="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="7" style="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="9.140625" style="19" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="19" width="11.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="19" width="24.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="19" width="7.0" collapsed="true"/>
+    <col min="4" max="16384" style="19" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="31" t="s">
         <v>4</v>
       </c>
@@ -11740,43 +12332,52 @@
         <v>952</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="D1" s="19" t="s">
         <v>201</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>1140</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1139</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" s="19" t="s">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>1347</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1346</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>1046</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>281</v>
       </c>
@@ -11792,10 +12393,16 @@
       <c r="E5" s="19" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" s="19" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
-        <v>1328</v>
+        <v>1327</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>1568</v>
       </c>
     </row>
   </sheetData>
@@ -11817,7 +12424,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="37.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -13866,16 +14473,16 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" style="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.42578125" style="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="9.140625" style="19" collapsed="1"/>
-    <col min="5" max="5" width="11" style="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="9.140625" style="19" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="19" width="20.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="19" width="24.42578125" collapsed="true"/>
+    <col min="3" max="4" style="19" width="9.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="19" width="11.0" collapsed="true"/>
+    <col min="6" max="16384" style="19" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -13886,13 +14493,16 @@
         <v>952</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="D1" s="19" t="s">
         <v>201</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>1140</v>
+        <v>1139</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>1537</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -13902,22 +14512,28 @@
       <c r="E2">
         <v>202522371</v>
       </c>
+      <c r="F2" t="s">
+        <v>1548</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>1348</v>
+        <v>1347</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>1347</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -13941,13 +14557,19 @@
       <c r="E5" s="19" t="s">
         <v>586</v>
       </c>
+      <c r="F5" s="19" t="s">
+        <v>586</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="E6">
         <v>2025401646</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>1569</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -13969,20 +14591,20 @@
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.5703125" style="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="16384" width="9.140625" style="19" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="19" width="15.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="19" width="27.5703125" collapsed="true"/>
+    <col min="3" max="16384" style="19" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="31" t="s">
         <v>284</v>
       </c>
@@ -13993,22 +14615,25 @@
         <v>1286</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>1140</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1139</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
     </row>
   </sheetData>
@@ -14022,73 +14647,88 @@
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" style="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.7109375" style="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="16384" width="9.140625" style="19" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="19" width="20.42578125" collapsed="true"/>
+    <col min="2" max="3" bestFit="true" customWidth="true" style="19" width="15.7109375" collapsed="true"/>
+    <col min="4" max="16384" style="19" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="31" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>1140</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1139</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>181</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>1486</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1485</v>
+      </c>
+      <c r="C2" s="48" t="s">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>1327</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1326</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>1046</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>281</v>
       </c>
       <c r="B5" s="19" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" s="19" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
+        <v>1327</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>1489</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
         <v>1328</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>1490</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
-        <v>1329</v>
       </c>
       <c r="B7" s="19" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
         <v>307</v>
       </c>
@@ -14112,12 +14752,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="23.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -14209,9 +14849,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.28515625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="16384" width="9.140625" style="19" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="19" width="14.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="19" width="15.28515625" collapsed="true"/>
+    <col min="3" max="16384" style="19" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -14289,8 +14929,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="15.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -14360,11 +15000,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="24.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="24.85546875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:44" x14ac:dyDescent="0.25">
@@ -14535,76 +15175,90 @@
 
 <file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="2" max="3" bestFit="true" customWidth="true" width="32.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="86" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="94">
         <v>2025</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="94">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="83" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="83" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="83" t="s">
         <v>1313</v>
       </c>
-      <c r="B3" s="95"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="83" t="s">
         <v>1314</v>
       </c>
-      <c r="B4" s="95"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="83" t="s">
-        <v>1315</v>
-      </c>
       <c r="B5" s="84" t="s">
-        <v>1471</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1470</v>
+      </c>
+      <c r="C5" s="84" t="s">
+        <v>1579</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="83" t="s">
         <v>331</v>
       </c>
       <c r="B6" s="95" t="s">
-        <v>1363</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+      <c r="C6" s="95" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
         <v>787</v>
       </c>
       <c r="B7" s="95"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7" s="95"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="83" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B8" s="84"/>
+      <c r="C8" s="84"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="83" t="s">
         <v>1316</v>
       </c>
-      <c r="B8" s="84"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="83" t="s">
-        <v>1317</v>
-      </c>
       <c r="B9" s="96"/>
+      <c r="C9" s="96"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14614,67 +15268,77 @@
 
 <file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="2" max="3" bestFit="true" customWidth="true" width="32.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="86" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="94">
         <v>2025</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="94">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="83" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="83" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="B3" s="84" t="s">
-        <v>1471</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1470</v>
+      </c>
+      <c r="C3" s="84" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="83" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="B5" s="84"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" s="84"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="83" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="B6" s="96"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" s="96"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="83" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B7" s="95"/>
+      <c r="C7" s="95"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="83" t="s">
         <v>1313</v>
       </c>
-      <c r="B7" s="95"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="83" t="s">
-        <v>1314</v>
-      </c>
       <c r="B8" s="95"/>
+      <c r="C8" s="95"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14692,8 +15356,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="24.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="24.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -14711,28 +15375,28 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="83" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="B3" s="95"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="83" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="B4" s="95"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="83" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="B5" s="95"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="83" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="B6" s="84" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -14743,7 +15407,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="83" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="B8" s="95"/>
     </row>
@@ -14752,7 +15416,7 @@
         <v>331</v>
       </c>
       <c r="B9" s="95" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -14772,168 +15436,226 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="26" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="35.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="33.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="26.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="33.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="2">
         <v>2025</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="2">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="4">
         <v>2025</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" s="4">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>54</v>
       </c>
       <c r="B3" t="s">
-        <v>1146</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1145</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" s="4" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>1051</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>1049</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D6" s="5" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>56</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D7" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>57</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>1041</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" s="4" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>53</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>1050</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" s="5" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>1181</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1180</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>1182</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1181</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D13" s="4" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>58</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>1335</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1334</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B15" s="6"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15" s="6"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>1183</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1182</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>280</v>
       </c>
       <c r="B17" s="58"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D17" s="58"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>282</v>
       </c>
       <c r="B18" s="58"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D18" s="58"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>283</v>
       </c>
       <c r="B19" s="58"/>
+      <c r="D19" s="58"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>1526</v>
+      </c>
+      <c r="D20" s="1">
+        <v>20019938</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14946,53 +15668,63 @@
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="28.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="35" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="30.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="28.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="35.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="89" t="s">
-        <v>1140</v>
-      </c>
-      <c r="C1" s="81">
+      <c r="B1" s="89">
+        <v>2001</v>
+      </c>
+      <c r="C1" s="89" t="s">
+        <v>1139</v>
+      </c>
+      <c r="D1" s="81">
         <v>1517</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>54</v>
       </c>
       <c r="B2" t="s">
-        <v>1146</v>
-      </c>
-      <c r="C2" s="4" t="s">
+        <v>1497</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1145</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>1014</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>985</v>
       </c>
       <c r="B3" t="s">
-        <v>1147</v>
+        <v>1505</v>
       </c>
       <c r="C3" t="s">
+        <v>1146</v>
+      </c>
+      <c r="D3" t="s">
         <v>1013</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>986</v>
       </c>
@@ -15002,8 +15734,11 @@
       <c r="C4" t="s">
         <v>987</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>988</v>
       </c>
@@ -15013,8 +15748,11 @@
       <c r="C5" s="48" t="s">
         <v>989</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" s="48" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>990</v>
       </c>
@@ -15024,8 +15762,11 @@
       <c r="C6" s="48" t="s">
         <v>989</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" s="48" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -15033,10 +15774,13 @@
         <v>361</v>
       </c>
       <c r="C7" t="s">
+        <v>361</v>
+      </c>
+      <c r="D7" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>280</v>
       </c>
@@ -15046,30 +15790,39 @@
       <c r="C8" t="s">
         <v>991</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>992</v>
       </c>
       <c r="B9" s="48" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="C9" s="48" t="s">
+        <v>1418</v>
+      </c>
+      <c r="D9" s="48" t="s">
         <v>993</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>994</v>
       </c>
       <c r="B10" s="48" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="C10" s="48" t="s">
+        <v>1419</v>
+      </c>
+      <c r="D10" s="48" t="s">
         <v>1018</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>281</v>
       </c>
@@ -15077,10 +15830,13 @@
         <v>362</v>
       </c>
       <c r="C11" t="s">
+        <v>362</v>
+      </c>
+      <c r="D11" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>995</v>
       </c>
@@ -15090,8 +15846,11 @@
       <c r="C12" t="s">
         <v>996</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>997</v>
       </c>
@@ -15101,8 +15860,11 @@
       <c r="C13" t="s">
         <v>998</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>282</v>
       </c>
@@ -15112,19 +15874,25 @@
       <c r="C14" t="s">
         <v>1015</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>999</v>
       </c>
       <c r="B15" t="s">
-        <v>1148</v>
+        <v>1506</v>
       </c>
       <c r="C15" t="s">
+        <v>1147</v>
+      </c>
+      <c r="D15" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>1000</v>
       </c>
@@ -15134,8 +15902,11 @@
       <c r="C16" t="s">
         <v>1001</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>1002</v>
       </c>
@@ -15145,19 +15916,25 @@
       <c r="C17" s="48" t="s">
         <v>1003</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" s="48" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>1004</v>
       </c>
       <c r="B18" s="48" t="s">
-        <v>1218</v>
-      </c>
-      <c r="C18">
+        <v>1508</v>
+      </c>
+      <c r="C18" s="48" t="s">
+        <v>1217</v>
+      </c>
+      <c r="D18">
         <v>15179905</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>283</v>
       </c>
@@ -15167,8 +15944,11 @@
       <c r="C19" t="s">
         <v>1005</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>1006</v>
       </c>
@@ -15178,19 +15958,25 @@
       <c r="C20" t="s">
         <v>1007</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>1008</v>
       </c>
       <c r="B21" t="s">
-        <v>1150</v>
+        <v>1507</v>
       </c>
       <c r="C21" t="s">
+        <v>1149</v>
+      </c>
+      <c r="D21" t="s">
         <v>1017</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>1009</v>
       </c>
@@ -15200,8 +15986,11 @@
       <c r="C22" t="s">
         <v>1010</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>1011</v>
       </c>
@@ -15211,30 +16000,33 @@
       <c r="C23" t="s">
         <v>1012</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>1141</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>1142</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>1143</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>1144</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>1145</v>
       </c>
     </row>
   </sheetData>
@@ -15245,248 +16037,333 @@
 
 <file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="24.85546875" collapsed="true"/>
+    <col min="2" max="3" bestFit="true" customWidth="true" width="35.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>284</v>
       </c>
       <c r="B1">
+        <v>2001</v>
+      </c>
+      <c r="C1">
         <v>2025</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>54</v>
       </c>
       <c r="B2" t="s">
-        <v>1146</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1497</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>986</v>
       </c>
       <c r="B3" t="s">
-        <v>1151</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1150</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>30</v>
       </c>
       <c r="B4" s="90" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+      <c r="C4" s="90" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1002</v>
       </c>
       <c r="B5">
         <v>9683254705</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>9683254705</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>281</v>
       </c>
       <c r="B6" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B7" t="s">
         <v>1153</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>1154</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>1155</v>
       </c>
       <c r="B8">
         <v>6000056</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>6000056</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="B9" t="s">
-        <v>1180</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1179</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>26</v>
       </c>
       <c r="B10" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B11" s="48" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C11" s="48" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>1157</v>
       </c>
-      <c r="B11" s="48" t="s">
+      <c r="B12" s="48" t="s">
         <v>1421</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="C12" s="48" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>1158</v>
       </c>
-      <c r="B12" s="48" t="s">
-        <v>1422</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="B13" t="s">
         <v>1159</v>
       </c>
-      <c r="B13" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>997</v>
       </c>
       <c r="B14" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>1161</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="B15" t="s">
         <v>1162</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>1163</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="B16" t="s">
         <v>1164</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>1165</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="B17" t="s">
         <v>1166</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>1167</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="B18" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>1168</v>
       </c>
-      <c r="B18" t="s">
-        <v>1163</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="B19" s="48" t="s">
         <v>1169</v>
       </c>
-      <c r="B19" s="48" t="s">
+      <c r="C19" s="48" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>1170</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="B20" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>1171</v>
       </c>
-      <c r="B20" t="s">
-        <v>1163</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>1172</v>
-      </c>
       <c r="B21" t="s">
-        <v>1163</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1162</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>280</v>
       </c>
       <c r="B22" t="s">
         <v>991</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B23" t="s">
         <v>1007</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>1174</v>
       </c>
-      <c r="B24" t="s">
-        <v>1163</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="B25" t="s">
         <v>1175</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>1176</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="B26" t="s">
+        <v>1360</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>1177</v>
-      </c>
-      <c r="B26" t="s">
-        <v>1361</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>1178</v>
       </c>
       <c r="B27">
         <v>3000</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="B28">
         <v>300000</v>
       </c>
+      <c r="C28">
+        <v>300000</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1"/>
+    <hyperlink ref="C4" r:id="rId1"/>
+    <hyperlink ref="B4" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -15503,7 +16380,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -15577,8 +16454,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="28.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="28.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -15663,8 +16540,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.140625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="16384" width="9.140625" style="19" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="19" width="14.140625" collapsed="true"/>
+    <col min="2" max="16384" style="19" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -15707,9 +16584,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.140625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10" style="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="16384" width="9.140625" style="19" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="19" width="14.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="19" width="10.0" collapsed="true"/>
+    <col min="3" max="16384" style="19" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -15756,23 +16633,23 @@
   <sheetPr>
     <tabColor theme="3" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
@@ -15881,7 +16758,7 @@
         <v>342</v>
       </c>
       <c r="G3" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="H3" s="48" t="s">
         <v>1037</v>
@@ -15894,12 +16771,51 @@
         <v>342</v>
       </c>
       <c r="M3" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="N3" s="48" t="s">
         <v>1038</v>
       </c>
       <c r="O3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2001</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1042</v>
+      </c>
+      <c r="E4" t="s">
+        <v>342</v>
+      </c>
+      <c r="G4" t="s">
+        <v>1577</v>
+      </c>
+      <c r="H4" s="48" t="s">
+        <v>1037</v>
+      </c>
+      <c r="I4" s="48"/>
+      <c r="J4">
+        <v>500</v>
+      </c>
+      <c r="K4" t="s">
+        <v>342</v>
+      </c>
+      <c r="M4" t="s">
+        <v>1578</v>
+      </c>
+      <c r="N4" s="48" t="s">
+        <v>1038</v>
+      </c>
+      <c r="O4">
         <v>500</v>
       </c>
     </row>
@@ -15911,7 +16827,7 @@
 
 <file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC4"/>
+  <dimension ref="A1:AC5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="P6" sqref="P6"/>
@@ -15924,82 +16840,82 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C1" t="s">
         <v>1282</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1283</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>1284</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>1285</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>1286</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>1287</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>1288</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>1289</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>1290</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>1291</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>1292</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>1293</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>1294</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>1295</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>1296</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>1297</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>1298</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>1299</v>
-      </c>
-      <c r="T1" t="s">
-        <v>1300</v>
       </c>
       <c r="U1" t="s">
         <v>337</v>
       </c>
       <c r="V1" t="s">
+        <v>1300</v>
+      </c>
+      <c r="W1" t="s">
         <v>1301</v>
-      </c>
-      <c r="W1" t="s">
-        <v>1302</v>
       </c>
       <c r="X1" t="s">
         <v>110</v>
       </c>
       <c r="Y1" t="s">
+        <v>1302</v>
+      </c>
+      <c r="Z1" t="s">
         <v>1303</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>1304</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>1305</v>
       </c>
       <c r="AB1" t="s">
         <v>1031</v>
@@ -16010,91 +16926,91 @@
     </row>
     <row r="2" spans="1:29" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="B2" t="s">
+        <v>1471</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1306</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E2" t="s">
         <v>1472</v>
       </c>
-      <c r="C2" t="s">
-        <v>1307</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1090</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>1473</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
+        <v>1415</v>
+      </c>
+      <c r="H2" t="s">
         <v>1474</v>
       </c>
-      <c r="G2" t="s">
-        <v>1416</v>
-      </c>
-      <c r="H2" t="s">
-        <v>1475</v>
-      </c>
       <c r="I2" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="J2" t="s">
         <v>342</v>
       </c>
       <c r="K2" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="L2" t="s">
+        <v>1307</v>
+      </c>
+      <c r="M2" t="s">
         <v>1308</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>1309</v>
-      </c>
-      <c r="N2" t="s">
-        <v>1310</v>
       </c>
       <c r="O2" t="s">
         <v>1041</v>
       </c>
       <c r="P2" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="Q2" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="R2" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="S2" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="T2" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="U2" t="s">
         <v>342</v>
       </c>
       <c r="V2" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="W2" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="X2" t="s">
+        <v>1308</v>
+      </c>
+      <c r="Y2" t="s">
         <v>1309</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>1310</v>
       </c>
       <c r="Z2" t="s">
         <v>1041</v>
       </c>
       <c r="AA2" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="AB2" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="AC2" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="3" spans="1:29" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -16129,6 +17045,14 @@
       <c r="AC3"/>
     </row>
     <row r="4" spans="1:29" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1537</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1580</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -16137,10 +17061,10 @@
 
 <file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16150,12 +17074,17 @@
         <v>1025</v>
       </c>
       <c r="B1" s="93" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2025</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2001</v>
       </c>
     </row>
   </sheetData>
@@ -16177,9 +17106,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18" style="83" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35" style="83" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="16384" width="9.140625" style="83" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="83" width="18.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="83" width="35.0" collapsed="true"/>
+    <col min="3" max="16384" style="83" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -16215,12 +17144,368 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:AP5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="23.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="39" max="39" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="41" max="41" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="K1" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="L1" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="M1" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="N1" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="O1" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="P1" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q1" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="R1" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="S1" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="T1" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="U1" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="V1" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="W1" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="X1" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y1" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="Z1" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA1" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="AB1" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="AC1" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD1" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="AE1" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="AF1" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="AG1" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="AH1" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="AI1" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="AJ1" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="AK1" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="AL1" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="AM1" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="AN1" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="AO1" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="AP1" s="16" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A2" s="76">
+        <v>1517</v>
+      </c>
+      <c r="B2" s="48"/>
+      <c r="C2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1056</v>
+      </c>
+      <c r="E2">
+        <v>6</v>
+      </c>
+      <c r="F2">
+        <v>1000</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1052</v>
+      </c>
+      <c r="H2" t="s">
+        <v>793</v>
+      </c>
+      <c r="I2">
+        <v>25</v>
+      </c>
+      <c r="J2">
+        <v>500</v>
+      </c>
+      <c r="K2" t="s">
+        <v>1062</v>
+      </c>
+      <c r="L2" t="s">
+        <v>1057</v>
+      </c>
+      <c r="M2">
+        <v>15</v>
+      </c>
+      <c r="N2">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A3" s="76">
+        <v>2025</v>
+      </c>
+      <c r="B3" s="48"/>
+      <c r="C3" t="s">
+        <v>1184</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1185</v>
+      </c>
+      <c r="E3">
+        <v>6</v>
+      </c>
+      <c r="F3">
+        <v>1000</v>
+      </c>
+      <c r="G3" t="s">
+        <v>1400</v>
+      </c>
+      <c r="H3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="I3">
+        <v>25</v>
+      </c>
+      <c r="J3">
+        <v>500</v>
+      </c>
+      <c r="K3" t="s">
+        <v>1403</v>
+      </c>
+      <c r="L3" t="s">
+        <v>1402</v>
+      </c>
+      <c r="M3">
+        <v>15</v>
+      </c>
+      <c r="N3">
+        <v>1500</v>
+      </c>
+      <c r="O3" t="s">
+        <v>1404</v>
+      </c>
+      <c r="P3" t="s">
+        <v>1405</v>
+      </c>
+      <c r="Q3">
+        <v>10</v>
+      </c>
+      <c r="R3">
+        <v>400</v>
+      </c>
+      <c r="S3" t="s">
+        <v>1406</v>
+      </c>
+      <c r="T3" t="s">
+        <v>1407</v>
+      </c>
+      <c r="U3">
+        <v>12</v>
+      </c>
+      <c r="V3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2001</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1530</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1531</v>
+      </c>
+      <c r="E4">
+        <v>6</v>
+      </c>
+      <c r="F4">
+        <v>1000</v>
+      </c>
+      <c r="G4" t="s">
+        <v>1532</v>
+      </c>
+      <c r="H4" t="s">
+        <v>1533</v>
+      </c>
+      <c r="I4">
+        <v>25</v>
+      </c>
+      <c r="J4">
+        <v>500</v>
+      </c>
+      <c r="K4" t="s">
+        <v>1534</v>
+      </c>
+      <c r="L4" t="s">
+        <v>1535</v>
+      </c>
+      <c r="M4">
+        <v>15</v>
+      </c>
+      <c r="N4">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2011</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1553</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1554</v>
+      </c>
+      <c r="E5">
+        <v>6</v>
+      </c>
+      <c r="F5">
+        <v>1000</v>
+      </c>
+      <c r="G5" t="s">
+        <v>1555</v>
+      </c>
+      <c r="H5" t="s">
+        <v>1556</v>
+      </c>
+      <c r="I5">
+        <v>25</v>
+      </c>
+      <c r="J5">
+        <v>500</v>
+      </c>
+      <c r="K5" t="s">
+        <v>1557</v>
+      </c>
+      <c r="L5" t="s">
+        <v>1558</v>
+      </c>
+      <c r="M5">
+        <v>10</v>
+      </c>
+      <c r="N5">
+        <v>400</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -16236,17 +17521,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.85546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.5703125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="15.140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="20.42578125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="17.140625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="13.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="22.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="20.42578125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="17.140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -16254,19 +17539,19 @@
         <v>4</v>
       </c>
       <c r="B1" s="49" t="s">
+        <v>1236</v>
+      </c>
+      <c r="C1" s="49" t="s">
         <v>1237</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="D1" s="49" t="s">
         <v>1238</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="E1" s="49" t="s">
         <v>1239</v>
       </c>
-      <c r="E1" s="49" t="s">
+      <c r="F1" s="49" t="s">
         <v>1240</v>
-      </c>
-      <c r="F1" s="49" t="s">
-        <v>1241</v>
       </c>
       <c r="G1" s="18" t="s">
         <v>181</v>
@@ -16275,13 +17560,13 @@
         <v>275</v>
       </c>
       <c r="I1" t="s">
+        <v>1369</v>
+      </c>
+      <c r="J1" t="s">
         <v>1370</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>1371</v>
-      </c>
-      <c r="K1" t="s">
-        <v>1372</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -16289,19 +17574,19 @@
         <v>1319</v>
       </c>
       <c r="B2" s="49" t="s">
+        <v>1372</v>
+      </c>
+      <c r="C2" s="49" t="s">
         <v>1373</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="D2" s="49" t="s">
         <v>1374</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="E2" s="49" t="s">
         <v>1375</v>
       </c>
-      <c r="E2" s="49" t="s">
+      <c r="F2" s="49" t="s">
         <v>1376</v>
-      </c>
-      <c r="F2" s="49" t="s">
-        <v>1377</v>
       </c>
       <c r="I2" t="s">
         <v>1052</v>
@@ -16310,7 +17595,7 @@
         <v>277</v>
       </c>
       <c r="K2" s="48" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
     </row>
   </sheetData>
@@ -16329,20 +17614,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="21.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="21.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="18.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="9.140625" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="21.42578125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="23.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="21.42578125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="23.140625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="14" max="14" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
@@ -16350,49 +17635,49 @@
         <v>4</v>
       </c>
       <c r="B1" s="49" t="s">
+        <v>1236</v>
+      </c>
+      <c r="C1" s="49" t="s">
         <v>1237</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="D1" s="49" t="s">
         <v>1238</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="E1" s="49" t="s">
         <v>1239</v>
       </c>
-      <c r="E1" s="49" t="s">
+      <c r="F1" s="49" t="s">
         <v>1240</v>
       </c>
-      <c r="F1" s="49" t="s">
-        <v>1241</v>
-      </c>
       <c r="G1" s="49" t="s">
+        <v>1378</v>
+      </c>
+      <c r="H1" s="49" t="s">
         <v>1379</v>
       </c>
-      <c r="H1" s="49" t="s">
+      <c r="I1" s="49" t="s">
         <v>1380</v>
       </c>
-      <c r="I1" s="49" t="s">
+      <c r="J1" s="49" t="s">
         <v>1381</v>
       </c>
-      <c r="J1" s="49" t="s">
+      <c r="K1" s="49" t="s">
         <v>1382</v>
-      </c>
-      <c r="K1" s="49" t="s">
-        <v>1383</v>
       </c>
       <c r="L1" s="18" t="s">
         <v>181</v>
       </c>
       <c r="M1" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="N1" s="19" t="s">
         <v>113</v>
       </c>
       <c r="O1" t="s">
+        <v>1370</v>
+      </c>
+      <c r="P1" t="s">
         <v>1371</v>
-      </c>
-      <c r="P1" t="s">
-        <v>1372</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -16400,46 +17685,46 @@
         <v>1707</v>
       </c>
       <c r="B2" s="49" t="s">
+        <v>1372</v>
+      </c>
+      <c r="C2" s="49" t="s">
         <v>1373</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="D2" s="49" t="s">
         <v>1374</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="E2" s="49" t="s">
         <v>1375</v>
       </c>
-      <c r="E2" s="49" t="s">
+      <c r="F2" s="49" t="s">
         <v>1376</v>
       </c>
-      <c r="F2" s="49" t="s">
-        <v>1377</v>
-      </c>
       <c r="G2" s="49" t="s">
+        <v>1245</v>
+      </c>
+      <c r="H2" s="49" t="s">
         <v>1246</v>
       </c>
-      <c r="H2" s="49" t="s">
+      <c r="I2" s="49" t="s">
         <v>1247</v>
       </c>
-      <c r="I2" s="49" t="s">
-        <v>1248</v>
-      </c>
       <c r="J2" s="49" t="s">
+        <v>1383</v>
+      </c>
+      <c r="K2" s="49" t="s">
         <v>1384</v>
       </c>
-      <c r="K2" s="49" t="s">
+      <c r="M2" t="s">
         <v>1385</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>1386</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" s="48" t="s">
+        <v>1187</v>
+      </c>
+      <c r="P2" s="48" t="s">
         <v>1387</v>
-      </c>
-      <c r="O2" s="48" t="s">
-        <v>1188</v>
-      </c>
-      <c r="P2" s="48" t="s">
-        <v>1388</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -16459,9 +17744,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11" style="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="19" width="11.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="19" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16469,28 +17754,28 @@
         <v>4</v>
       </c>
       <c r="B1" s="49" t="s">
+        <v>1236</v>
+      </c>
+      <c r="C1" s="49" t="s">
         <v>1237</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="D1" s="49" t="s">
         <v>1238</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="E1" s="49" t="s">
         <v>1239</v>
       </c>
-      <c r="E1" s="49" t="s">
+      <c r="F1" s="49" t="s">
         <v>1240</v>
       </c>
-      <c r="F1" s="49" t="s">
+      <c r="G1" s="49" t="s">
         <v>1241</v>
       </c>
-      <c r="G1" s="49" t="s">
+      <c r="H1" s="49" t="s">
         <v>1242</v>
       </c>
-      <c r="H1" s="49" t="s">
+      <c r="I1" s="49" t="s">
         <v>1243</v>
-      </c>
-      <c r="I1" s="49" t="s">
-        <v>1244</v>
       </c>
       <c r="J1" s="57" t="s">
         <v>181</v>
@@ -16501,7 +17786,7 @@
     </row>
     <row r="2" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="B2" s="49"/>
       <c r="C2" s="49"/>
@@ -16556,8 +17841,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="19" width="11.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -16592,41 +17877,41 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="40" max="40" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="43" max="43" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="44" max="44" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="45" max="45" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="47" max="47" width="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="48" max="48" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="49" max="49" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="50" max="50" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="39" max="39" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:42" x14ac:dyDescent="0.25">
@@ -16815,8 +18100,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="19" width="11.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -16856,8 +18141,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="19" width="11.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -16898,16 +18183,16 @@
 
 <file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -16915,28 +18200,28 @@
         <v>4</v>
       </c>
       <c r="B1" s="49" t="s">
+        <v>1236</v>
+      </c>
+      <c r="C1" s="49" t="s">
         <v>1237</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="D1" s="49" t="s">
         <v>1238</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="E1" s="49" t="s">
         <v>1239</v>
       </c>
-      <c r="E1" s="49" t="s">
+      <c r="F1" s="49" t="s">
         <v>1240</v>
       </c>
-      <c r="F1" s="49" t="s">
+      <c r="G1" s="49" t="s">
         <v>1241</v>
       </c>
-      <c r="G1" s="49" t="s">
+      <c r="H1" s="49" t="s">
         <v>1242</v>
       </c>
-      <c r="H1" s="49" t="s">
+      <c r="I1" s="49" t="s">
         <v>1243</v>
-      </c>
-      <c r="I1" s="49" t="s">
-        <v>1244</v>
       </c>
       <c r="J1" s="18" t="s">
         <v>181</v>
@@ -16947,27 +18232,35 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="48" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B2" s="49" t="s">
         <v>1245</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="C2" s="49" t="s">
         <v>1246</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="D2" s="49" t="s">
         <v>1247</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="K2" s="48" t="s">
         <v>1248</v>
-      </c>
-      <c r="K2" s="48" t="s">
-        <v>1249</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="48" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="K3">
         <v>20259905</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="48" t="s">
+        <v>1537</v>
+      </c>
+      <c r="K4" s="98" t="s">
+        <v>1567</v>
       </c>
     </row>
   </sheetData>
@@ -16980,19 +18273,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" collapsed="1"/>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="9.140625" collapsed="1"/>
-    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="16384" width="9.140625" collapsed="1"/>
+    <col min="1" max="1" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="5" max="5" width="9.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="7" max="16384" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -17000,13 +18293,13 @@
         <v>4</v>
       </c>
       <c r="B1" s="49" t="s">
+        <v>1236</v>
+      </c>
+      <c r="C1" s="49" t="s">
         <v>1237</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="D1" s="49" t="s">
         <v>1238</v>
-      </c>
-      <c r="D1" s="49" t="s">
-        <v>1239</v>
       </c>
       <c r="E1" s="57" t="s">
         <v>181</v>
@@ -17020,16 +18313,16 @@
         <v>1284</v>
       </c>
       <c r="B2" s="49" t="s">
+        <v>1491</v>
+      </c>
+      <c r="C2" s="49" t="s">
         <v>1492</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="D2" s="49" t="s">
         <v>1493</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="F2" s="48" t="s">
         <v>1494</v>
-      </c>
-      <c r="F2" s="48" t="s">
-        <v>1495</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -17040,7 +18333,7 @@
       <c r="C3" s="49"/>
       <c r="D3" s="49"/>
       <c r="F3" s="48" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
     </row>
   </sheetData>
@@ -17075,22 +18368,22 @@
         <v>264</v>
       </c>
       <c r="E1" t="s">
+        <v>1190</v>
+      </c>
+      <c r="F1" t="s">
         <v>1191</v>
       </c>
-      <c r="F1" t="s">
-        <v>1192</v>
-      </c>
       <c r="G1" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="H1" t="s">
+        <v>1195</v>
+      </c>
+      <c r="I1" t="s">
         <v>1196</v>
       </c>
-      <c r="I1" t="s">
-        <v>1197</v>
-      </c>
       <c r="J1" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="K1" t="s">
         <v>114</v>
@@ -17102,22 +18395,22 @@
         <v>265</v>
       </c>
       <c r="N1" t="s">
+        <v>1199</v>
+      </c>
+      <c r="O1" t="s">
         <v>1200</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>1201</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>1202</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>1203</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>1204</v>
-      </c>
-      <c r="S1" t="s">
-        <v>1205</v>
       </c>
       <c r="T1" t="s">
         <v>118</v>
@@ -17129,22 +18422,22 @@
         <v>266</v>
       </c>
       <c r="W1" t="s">
+        <v>1256</v>
+      </c>
+      <c r="X1" t="s">
         <v>1257</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>1258</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>1259</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>1260</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>1261</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>1262</v>
       </c>
       <c r="AC1" t="s">
         <v>122</v>
@@ -17156,28 +18449,28 @@
         <v>267</v>
       </c>
       <c r="AF1" t="s">
+        <v>1263</v>
+      </c>
+      <c r="AG1" t="s">
         <v>1264</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>1265</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>1266</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>1267</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>1268</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>1269</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>1270</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>1271</v>
       </c>
       <c r="AN1" t="s">
         <v>283</v>
@@ -17192,22 +18485,22 @@
         <v>268</v>
       </c>
       <c r="AR1" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="AS1" t="s">
+        <v>1459</v>
+      </c>
+      <c r="AT1" t="s">
         <v>1460</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
         <v>1461</v>
       </c>
-      <c r="AU1" t="s">
-        <v>1462</v>
-      </c>
       <c r="AV1" t="s">
+        <v>1463</v>
+      </c>
+      <c r="AW1" t="s">
         <v>1464</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>1465</v>
       </c>
     </row>
     <row r="2" spans="1:49" x14ac:dyDescent="0.25">
@@ -17222,151 +18515,151 @@
     </row>
     <row r="4" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="B4" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="C4" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D4" t="s">
         <v>1250</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>1251</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
+        <v>1192</v>
+      </c>
+      <c r="G4" t="s">
+        <v>1194</v>
+      </c>
+      <c r="H4" t="s">
         <v>1252</v>
       </c>
-      <c r="F4" t="s">
-        <v>1193</v>
-      </c>
-      <c r="G4" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
+        <v>1197</v>
+      </c>
+      <c r="J4" t="s">
         <v>1253</v>
       </c>
-      <c r="I4" t="s">
-        <v>1198</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
+        <v>1401</v>
+      </c>
+      <c r="L4" t="s">
         <v>1254</v>
       </c>
-      <c r="K4" t="s">
+      <c r="M4" t="s">
+        <v>1444</v>
+      </c>
+      <c r="N4" t="s">
+        <v>1445</v>
+      </c>
+      <c r="O4" t="s">
+        <v>1192</v>
+      </c>
+      <c r="P4" t="s">
+        <v>1194</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>1446</v>
+      </c>
+      <c r="R4" t="s">
+        <v>1197</v>
+      </c>
+      <c r="S4" t="s">
+        <v>1447</v>
+      </c>
+      <c r="T4" t="s">
         <v>1402</v>
       </c>
-      <c r="L4" t="s">
+      <c r="U4" t="s">
         <v>1255</v>
       </c>
-      <c r="M4" t="s">
-        <v>1445</v>
-      </c>
-      <c r="N4" t="s">
-        <v>1446</v>
-      </c>
-      <c r="O4" t="s">
-        <v>1193</v>
-      </c>
-      <c r="P4" t="s">
-        <v>1195</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>1447</v>
-      </c>
-      <c r="R4" t="s">
-        <v>1198</v>
-      </c>
-      <c r="S4" t="s">
+      <c r="V4" t="s">
         <v>1448</v>
       </c>
-      <c r="T4" t="s">
-        <v>1403</v>
-      </c>
-      <c r="U4" t="s">
-        <v>1256</v>
-      </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>1449</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
+        <v>1192</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>1194</v>
+      </c>
+      <c r="Z4" t="s">
         <v>1450</v>
       </c>
-      <c r="X4" t="s">
-        <v>1193</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>1195</v>
-      </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
+        <v>1197</v>
+      </c>
+      <c r="AB4" t="s">
         <v>1451</v>
       </c>
-      <c r="AA4" t="s">
-        <v>1198</v>
-      </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
+        <v>1405</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>1262</v>
+      </c>
+      <c r="AE4" t="s">
         <v>1452</v>
       </c>
-      <c r="AC4" t="s">
-        <v>1406</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>1263</v>
-      </c>
-      <c r="AE4" t="s">
+      <c r="AF4" t="s">
         <v>1453</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="AG4" t="s">
+        <v>1192</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>1194</v>
+      </c>
+      <c r="AI4" t="s">
         <v>1454</v>
       </c>
-      <c r="AG4" t="s">
-        <v>1193</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>1195</v>
-      </c>
-      <c r="AI4" t="s">
+      <c r="AJ4" t="s">
+        <v>1197</v>
+      </c>
+      <c r="AK4" t="s">
         <v>1455</v>
       </c>
-      <c r="AJ4" t="s">
-        <v>1198</v>
-      </c>
-      <c r="AK4" t="s">
+      <c r="AL4" t="s">
+        <v>1435</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>1466</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>1271</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>1407</v>
+      </c>
+      <c r="AP4" t="s">
         <v>1456</v>
       </c>
-      <c r="AL4" t="s">
-        <v>1436</v>
-      </c>
-      <c r="AM4" t="s">
-        <v>1467</v>
-      </c>
-      <c r="AN4" t="s">
-        <v>1272</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>1408</v>
-      </c>
-      <c r="AP4" t="s">
-        <v>1457</v>
-      </c>
       <c r="AQ4" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AR4" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="AS4" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="AT4" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="AU4" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="AV4" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="AW4" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
     </row>
   </sheetData>
@@ -17393,7 +18686,7 @@
 
 <file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U4"/>
+  <dimension ref="A1:AM5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
@@ -17401,7 +18694,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -17415,22 +18708,22 @@
         <v>264</v>
       </c>
       <c r="E1" t="s">
+        <v>1190</v>
+      </c>
+      <c r="F1" t="s">
         <v>1191</v>
       </c>
-      <c r="F1" t="s">
-        <v>1192</v>
-      </c>
       <c r="G1" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="H1" t="s">
+        <v>1195</v>
+      </c>
+      <c r="I1" t="s">
         <v>1196</v>
       </c>
-      <c r="I1" t="s">
-        <v>1197</v>
-      </c>
       <c r="J1" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="K1" t="s">
         <v>114</v>
@@ -17442,103 +18735,276 @@
         <v>265</v>
       </c>
       <c r="N1" t="s">
+        <v>1199</v>
+      </c>
+      <c r="O1" t="s">
         <v>1200</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>1201</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>1202</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>1203</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>1204</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>1205</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>1206</v>
       </c>
-      <c r="U1" t="s">
-        <v>1207</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V1" t="s">
+        <v>118</v>
+      </c>
+      <c r="W1" t="s">
+        <v>119</v>
+      </c>
+      <c r="X1" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>1256</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>1257</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>1258</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>1259</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>1260</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>1261</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>267</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>1263</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>1264</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>1265</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>1266</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>1267</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2011</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2031</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="B4" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="C4" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="D4" t="s">
+        <v>1431</v>
+      </c>
+      <c r="E4" t="s">
         <v>1432</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
+        <v>1192</v>
+      </c>
+      <c r="G4" t="s">
+        <v>1194</v>
+      </c>
+      <c r="H4" t="s">
         <v>1433</v>
       </c>
-      <c r="F4" t="s">
-        <v>1193</v>
-      </c>
-      <c r="G4" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
+        <v>1197</v>
+      </c>
+      <c r="J4" t="s">
         <v>1434</v>
       </c>
-      <c r="I4" t="s">
-        <v>1198</v>
-      </c>
-      <c r="J4" t="s">
-        <v>1435</v>
-      </c>
       <c r="K4" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="L4" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="M4" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="N4" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="O4" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="P4" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="Q4" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="R4" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="S4" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="T4" t="s">
         <v>277</v>
       </c>
       <c r="U4" t="s">
-        <v>1436</v>
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1537</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1538</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1539</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1540</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1192</v>
+      </c>
+      <c r="G5" t="s">
+        <v>1194</v>
+      </c>
+      <c r="H5" t="s">
+        <v>1541</v>
+      </c>
+      <c r="I5" t="s">
+        <v>1197</v>
+      </c>
+      <c r="J5" t="s">
+        <v>1542</v>
+      </c>
+      <c r="K5" t="s">
+        <v>1543</v>
+      </c>
+      <c r="L5" t="s">
+        <v>1254</v>
+      </c>
+      <c r="M5" t="s">
+        <v>1544</v>
+      </c>
+      <c r="N5" t="s">
+        <v>1545</v>
+      </c>
+      <c r="O5" t="s">
+        <v>1192</v>
+      </c>
+      <c r="P5" t="s">
+        <v>1194</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>1546</v>
+      </c>
+      <c r="R5" t="s">
+        <v>1197</v>
+      </c>
+      <c r="S5" t="s">
+        <v>1547</v>
+      </c>
+      <c r="T5" t="s">
+        <v>277</v>
+      </c>
+      <c r="U5" t="s">
+        <v>1573</v>
+      </c>
+      <c r="V5" t="s">
+        <v>1194</v>
+      </c>
+      <c r="W5" t="s">
+        <v>1194</v>
+      </c>
+      <c r="X5" t="s">
+        <v>1194</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>1194</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>1194</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>1194</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>1194</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>1194</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>1194</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>1194</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>1194</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>1194</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>1194</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>1194</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>1194</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>1194</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>1194</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>1194</v>
       </c>
     </row>
   </sheetData>
@@ -17552,104 +19018,137 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="21.42578125" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" width="24.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
         <v>15</v>
       </c>
       <c r="B1" s="28">
         <v>2025</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="28">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>168</v>
       </c>
       <c r="B2" t="s">
-        <v>1074</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1073</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>1075</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1074</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
         <v>169</v>
       </c>
       <c r="B4" t="s">
-        <v>1076</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1075</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>1077</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1076</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>1072</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1071</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="25" t="s">
         <v>170</v>
       </c>
       <c r="B7" t="s">
-        <v>1078</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1077</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
         <v>171</v>
       </c>
       <c r="B8" t="s">
-        <v>1079</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1078</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
         <v>172</v>
       </c>
       <c r="B9" t="s">
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1079</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
         <v>173</v>
       </c>
       <c r="B10" t="s">
-        <v>1081</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1080</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="26" t="s">
         <v>174</v>
       </c>
       <c r="B11" t="s">
-        <v>1082</v>
+        <v>1081</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1525</v>
       </c>
     </row>
   </sheetData>
@@ -17666,14 +19165,14 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="36.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="36.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="36.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17689,7 +19188,7 @@
         <v>154</v>
       </c>
       <c r="B2" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -17697,7 +19196,7 @@
         <v>155</v>
       </c>
       <c r="B3" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -17705,7 +19204,7 @@
         <v>156</v>
       </c>
       <c r="B4" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -17713,7 +19212,7 @@
         <v>157</v>
       </c>
       <c r="B5" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -17721,7 +19220,7 @@
         <v>158</v>
       </c>
       <c r="B6" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -17729,7 +19228,7 @@
         <v>159</v>
       </c>
       <c r="B7" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -17737,7 +19236,7 @@
         <v>160</v>
       </c>
       <c r="B8" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -17745,7 +19244,7 @@
         <v>161</v>
       </c>
       <c r="B9" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -17753,7 +19252,7 @@
         <v>162</v>
       </c>
       <c r="B10" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -17761,7 +19260,7 @@
         <v>163</v>
       </c>
       <c r="B11" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -17769,7 +19268,7 @@
         <v>164</v>
       </c>
       <c r="B12" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -17777,7 +19276,7 @@
         <v>165</v>
       </c>
       <c r="B13" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -17785,7 +19284,7 @@
         <v>166</v>
       </c>
       <c r="B14" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17793,7 +19292,7 @@
         <v>167</v>
       </c>
       <c r="B15" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
     </row>
   </sheetData>
@@ -17823,205 +19322,12 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="30.140625" style="38" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.5703125" style="38" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="43" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="9.140625" style="19" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="20">
-        <v>1307</v>
-      </c>
-      <c r="C1" s="2">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="11">
-        <v>1307</v>
-      </c>
-      <c r="C2" s="4">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="32" t="s">
-        <v>177</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A7" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="B7" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="B8" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="B9" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A11" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="B11" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="C11" s="34" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="135" x14ac:dyDescent="0.25">
-      <c r="A13" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="B15" s="36" t="s">
-        <v>103</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="36" t="s">
-        <v>178</v>
-      </c>
-      <c r="C16" s="36" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="32" t="s">
-        <v>179</v>
-      </c>
-      <c r="B17" s="37" t="s">
-        <v>808</v>
-      </c>
-      <c r="C17" s="37" t="s">
-        <v>180</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/WppRegpack/TestResource/Regression/DS_MLY_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Regression/DS_MLY_REGRESSION.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GlobalTestAutomation2\GlobalTestSuiteAutomation\WppRegpack\TestResource\Regression\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="10" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Server Details" sheetId="1" r:id="rId1"/>
@@ -87,7 +87,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2800" uniqueCount="1512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2806" uniqueCount="1516">
   <si>
     <t>Description</t>
   </si>
@@ -4635,12 +4635,25 @@
   </si>
   <si>
     <t>2001 - Employee Categories</t>
+  </si>
+  <si>
+    <t>200111067</t>
+  </si>
+  <si>
+    <t>200110919</t>
+  </si>
+  <si>
+    <t>200110920</t>
+  </si>
+  <si>
+    <t>126499</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -5400,8 +5413,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="9" width="40.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="2" max="9" bestFit="true" customWidth="true" width="40.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5497,10 +5510,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.140625" style="38" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.5703125" style="38" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="43" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="9.140625" style="19" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="38" width="30.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="38" width="33.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="43.0" collapsed="true"/>
+    <col min="4" max="16384" style="19" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -5706,28 +5719,28 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="22.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="14.5703125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.5703125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
@@ -5948,14 +5961,15 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19" style="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="19" width="19.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -5996,7 +6010,7 @@
         <v>46</v>
       </c>
       <c r="E3" s="48" t="s">
-        <v>1488</v>
+        <v>232</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -6270,9 +6284,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31" style="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="51" style="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="9.140625" style="19" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="19" width="31.0" collapsed="true"/>
+    <col min="2" max="3" bestFit="true" customWidth="true" style="19" width="51.0" collapsed="true"/>
+    <col min="4" max="16384" style="19" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6533,9 +6547,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.140625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="23.140625" style="19" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="9.140625" style="19" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="19" width="24.140625" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" style="19" width="23.140625" collapsed="true"/>
+    <col min="4" max="16384" style="19" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6648,14 +6662,14 @@
   </sheetPr>
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="52.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="37.5703125" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" width="52.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -6967,8 +6981,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31" style="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="60.140625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="19" width="31.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="19" width="60.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7029,7 +7043,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="26.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" width="26.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7095,8 +7109,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="41.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="41.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7142,9 +7156,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:62" x14ac:dyDescent="0.25">
@@ -7445,35 +7459,37 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:FB90"/>
+  <dimension ref="A1:FC90"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="39.7109375" style="19" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="27.85546875" style="19" customWidth="1" collapsed="1"/>
-    <col min="6" max="158" width="32" style="19" customWidth="1" collapsed="1"/>
-    <col min="159" max="16384" width="9.140625" style="19" collapsed="1"/>
+    <col min="1" max="5" customWidth="true" style="19" width="39.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="19" width="27.85546875" collapsed="true"/>
+    <col min="7" max="159" customWidth="true" style="19" width="32.0" collapsed="true"/>
+    <col min="160" max="16384" style="19" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:158" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:159" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>175</v>
       </c>
       <c r="B1" s="10">
         <v>2001</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10">
+      <c r="C1" s="10">
+        <v>2011</v>
+      </c>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10">
         <v>2025</v>
       </c>
-      <c r="E1" s="10">
+      <c r="F1" s="10">
         <v>20234</v>
       </c>
-      <c r="F1" s="10"/>
       <c r="G1" s="10"/>
       <c r="H1" s="10"/>
       <c r="I1" s="10"/>
@@ -7626,1017 +7642,1078 @@
       <c r="EZ1" s="10"/>
       <c r="FA1" s="10"/>
       <c r="FB1" s="10"/>
-    </row>
-    <row r="2" spans="1:158" x14ac:dyDescent="0.25">
+      <c r="FC1" s="10"/>
+    </row>
+    <row r="2" spans="1:159" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="B2" t="s">
-        <v>1460</v>
+      <c r="B2" s="48" t="s">
+        <v>1472</v>
       </c>
       <c r="C2" t="s">
         <v>1460</v>
       </c>
       <c r="D2" t="s">
+        <v>1460</v>
+      </c>
+      <c r="E2" t="s">
         <v>1409</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>1277</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>1107</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>1259</v>
       </c>
     </row>
-    <row r="3" spans="1:158" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:159" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>1472</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>1340</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>1148</v>
       </c>
     </row>
-    <row r="4" spans="1:158" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:159" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>183</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>1490</v>
       </c>
-      <c r="C4" s="48" t="s">
+      <c r="D4" s="48" t="s">
         <v>1483</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>1367</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>1150</v>
       </c>
     </row>
-    <row r="5" spans="1:158" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:159" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>199</v>
       </c>
       <c r="B5" t="s">
+        <v>1514</v>
+      </c>
+      <c r="C5" t="s">
         <v>1484</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>200120274</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>1360</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="F5" s="19" t="s">
         <v>1140</v>
       </c>
     </row>
-    <row r="6" spans="1:158" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:159" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
         <v>710</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="C6" s="19" t="s">
         <v>1485</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>1364</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>1157</v>
       </c>
     </row>
-    <row r="7" spans="1:158" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:159" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
         <v>711</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="C7" s="19" t="s">
         <v>1486</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>1361</v>
-      </c>
-      <c r="E7" t="s">
-        <v>1152</v>
       </c>
       <c r="F7" t="s">
         <v>1152</v>
       </c>
-    </row>
-    <row r="8" spans="1:158" x14ac:dyDescent="0.25">
+      <c r="G7" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="8" spans="1:159" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
         <v>1020</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>1432</v>
-      </c>
-      <c r="D8" t="s">
-        <v>1141</v>
       </c>
       <c r="E8" t="s">
         <v>1141</v>
       </c>
-    </row>
-    <row r="9" spans="1:158" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:159" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
         <v>1021</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>1444</v>
-      </c>
-      <c r="D9" t="s">
-        <v>995</v>
       </c>
       <c r="E9" t="s">
         <v>995</v>
       </c>
-    </row>
-    <row r="10" spans="1:158" x14ac:dyDescent="0.25">
+      <c r="F9" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="10" spans="1:159" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
         <v>1022</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>1488</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>1366</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>1142</v>
       </c>
     </row>
-    <row r="11" spans="1:158" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:159" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
         <v>1023</v>
       </c>
     </row>
-    <row r="12" spans="1:158" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:159" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
         <v>1024</v>
       </c>
     </row>
-    <row r="13" spans="1:158" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:159" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
         <v>970</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="C13" s="19" t="s">
         <v>1434</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>1346</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>1316</v>
       </c>
     </row>
-    <row r="14" spans="1:158" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:159" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
         <v>1025</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="C14" s="19" t="s">
         <v>1433</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>1347</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>1317</v>
       </c>
     </row>
-    <row r="15" spans="1:158" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:159" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
         <v>971</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="C15" s="19" t="s">
         <v>1435</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>1348</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>1318</v>
       </c>
     </row>
-    <row r="16" spans="1:158" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:159" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
         <v>1026</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="C16" s="19" t="s">
         <v>1436</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>1349</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>1319</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
         <v>972</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="C17" s="19" t="s">
         <v>1437</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>1350</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>1320</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="s">
         <v>1027</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="C18" s="19" t="s">
         <v>1438</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>1351</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>1321</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
         <v>1028</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="19" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="19" t="s">
         <v>187</v>
       </c>
       <c r="B21" t="s">
+        <v>1515</v>
+      </c>
+      <c r="C21" t="s">
         <v>1439</v>
       </c>
-      <c r="C21"/>
-      <c r="D21" t="s">
+      <c r="D21"/>
+      <c r="E21" t="s">
         <v>1352</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>1322</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="19" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="19" t="s">
         <v>1031</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>1504</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>1395</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>1229</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>1149</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="19" t="s">
         <v>1032</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>1496</v>
       </c>
-      <c r="C25"/>
-      <c r="D25" t="s">
+      <c r="D25"/>
+      <c r="E25" t="s">
         <v>1409</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>1277</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="19" t="s">
         <v>1033</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>201</v>
       </c>
-      <c r="C26"/>
-      <c r="D26" t="s">
-        <v>201</v>
-      </c>
+      <c r="D26"/>
       <c r="E26" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>1034</v>
       </c>
       <c r="B27"/>
       <c r="C27"/>
       <c r="D27"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E27"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>1035</v>
       </c>
-      <c r="B28" s="48" t="s">
+      <c r="B28"/>
+      <c r="C28" s="48" t="s">
         <v>1487</v>
       </c>
-      <c r="C28"/>
-      <c r="D28" t="s">
+      <c r="D28"/>
+      <c r="E28" t="s">
         <v>1365</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>1158</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>1036</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29"/>
+      <c r="C29" t="s">
         <v>1427</v>
       </c>
-      <c r="C29"/>
-      <c r="D29" t="s">
+      <c r="D29"/>
+      <c r="E29" t="s">
         <v>1404</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>958</v>
       </c>
       <c r="B30"/>
       <c r="C30"/>
       <c r="D30"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E30"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>1037</v>
       </c>
       <c r="B31"/>
       <c r="C31"/>
       <c r="D31"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E31"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>1038</v>
       </c>
       <c r="B32"/>
       <c r="C32"/>
       <c r="D32"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E32"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>1039</v>
       </c>
       <c r="B33"/>
       <c r="C33"/>
       <c r="D33"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E33"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>1040</v>
       </c>
       <c r="B34"/>
       <c r="C34"/>
       <c r="D34"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E34"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>1041</v>
       </c>
       <c r="B35"/>
       <c r="C35"/>
       <c r="D35"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E35"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>1042</v>
       </c>
       <c r="B36"/>
       <c r="C36"/>
       <c r="D36"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E36"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>1043</v>
       </c>
       <c r="B37"/>
       <c r="C37"/>
       <c r="D37"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E37"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>1044</v>
       </c>
       <c r="B38"/>
       <c r="C38"/>
       <c r="D38"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E38"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>1045</v>
       </c>
       <c r="B39"/>
       <c r="C39"/>
       <c r="D39"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E39"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>1046</v>
       </c>
       <c r="B40"/>
       <c r="C40"/>
       <c r="D40"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E40"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="19" t="s">
         <v>1047</v>
       </c>
-      <c r="D41" s="19" t="s">
+      <c r="E41" s="19" t="s">
         <v>1354</v>
       </c>
-      <c r="E41" s="19" t="s">
+      <c r="F41" s="19" t="s">
         <v>1277</v>
-      </c>
-      <c r="F41" t="s">
-        <v>1107</v>
       </c>
       <c r="G41" t="s">
         <v>1107</v>
       </c>
       <c r="H41" t="s">
+        <v>1107</v>
+      </c>
+      <c r="I41" t="s">
         <v>1263</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="19" t="s">
         <v>1197</v>
       </c>
-      <c r="D42" s="19" t="s">
+      <c r="E42" s="19" t="s">
         <v>1392</v>
       </c>
-      <c r="E42" s="19" t="s">
+      <c r="F42" s="19" t="s">
         <v>1279</v>
       </c>
-      <c r="F42" s="19" t="s">
+      <c r="G42" s="19" t="s">
         <v>1198</v>
       </c>
-      <c r="G42" s="19" t="s">
+      <c r="H42" s="19" t="s">
         <v>1255</v>
       </c>
-      <c r="H42" t="s">
+      <c r="I42" t="s">
         <v>1259</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>1048</v>
       </c>
       <c r="B43"/>
       <c r="C43"/>
       <c r="D43"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E43"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>1049</v>
       </c>
       <c r="B44"/>
       <c r="C44"/>
       <c r="D44"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E44"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="19" t="s">
         <v>1050</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="19" t="s">
         <v>1051</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="19" t="s">
         <v>1052</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="19" t="s">
         <v>1053</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="19" t="s">
         <v>1054</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="19" t="s">
         <v>1055</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>1056</v>
       </c>
       <c r="B51"/>
       <c r="C51"/>
       <c r="D51"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E51"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>1057</v>
       </c>
       <c r="B52"/>
       <c r="C52"/>
       <c r="D52"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E52"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>1058</v>
       </c>
       <c r="B53"/>
       <c r="C53"/>
       <c r="D53"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E53"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>1059</v>
       </c>
       <c r="B54"/>
       <c r="C54"/>
       <c r="D54"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E54"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>1060</v>
       </c>
       <c r="B55"/>
       <c r="C55"/>
       <c r="D55"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E55"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>1061</v>
       </c>
       <c r="B56"/>
       <c r="C56"/>
       <c r="D56"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E56"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>1062</v>
       </c>
       <c r="B57"/>
       <c r="C57"/>
       <c r="D57"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E57"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>248</v>
       </c>
       <c r="B58" t="s">
+        <v>1512</v>
+      </c>
+      <c r="C58" t="s">
         <v>1500</v>
       </c>
-      <c r="C58"/>
-      <c r="D58" t="s">
+      <c r="D58"/>
+      <c r="E58" t="s">
         <v>1403</v>
       </c>
-      <c r="E58" t="s">
+      <c r="F58" t="s">
         <v>1151</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>1072</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59"/>
+      <c r="C59" t="s">
         <v>286</v>
       </c>
-      <c r="C59"/>
-      <c r="D59" t="s">
-        <v>286</v>
-      </c>
+      <c r="D59"/>
       <c r="E59" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F59" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>1131</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60"/>
+      <c r="C60" t="s">
         <v>1278</v>
       </c>
-      <c r="C60"/>
-      <c r="D60" t="s">
+      <c r="D60"/>
+      <c r="E60" t="s">
         <v>1410</v>
       </c>
-      <c r="E60" t="s">
+      <c r="F60" t="s">
         <v>1278</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>1132</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61"/>
+      <c r="C61" t="s">
         <v>1278</v>
       </c>
-      <c r="C61"/>
-      <c r="D61" t="s">
+      <c r="D61"/>
+      <c r="E61" t="s">
         <v>1411</v>
       </c>
-      <c r="E61" t="s">
+      <c r="F61" t="s">
         <v>1278</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>1153</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62"/>
+      <c r="C62" t="s">
         <v>1284</v>
       </c>
-      <c r="C62"/>
-      <c r="D62" t="s">
-        <v>1284</v>
-      </c>
+      <c r="D62"/>
       <c r="E62" t="s">
         <v>1284</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F62" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>1154</v>
       </c>
-      <c r="B63" s="96" t="s">
+      <c r="B63"/>
+      <c r="C63" s="96" t="s">
         <v>1155</v>
       </c>
-      <c r="C63"/>
-      <c r="D63" t="s">
+      <c r="D63"/>
+      <c r="E63" t="s">
         <v>1363</v>
       </c>
-      <c r="E63" t="s">
+      <c r="F63" t="s">
         <v>1155</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>1156</v>
       </c>
-      <c r="B64" s="96" t="s">
+      <c r="B64"/>
+      <c r="C64" s="96" t="s">
         <v>1155</v>
       </c>
-      <c r="C64"/>
-      <c r="D64" t="s">
+      <c r="D64"/>
+      <c r="E64" t="s">
         <v>1363</v>
       </c>
-      <c r="E64" t="s">
+      <c r="F64" t="s">
         <v>1155</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>1159</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65"/>
+      <c r="C65" t="s">
         <v>1485</v>
       </c>
-      <c r="C65"/>
-      <c r="D65" t="s">
+      <c r="D65"/>
+      <c r="E65" t="s">
         <v>1364</v>
       </c>
-      <c r="E65" t="s">
+      <c r="F65" t="s">
         <v>1157</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>1196</v>
       </c>
       <c r="B66"/>
       <c r="C66"/>
-      <c r="D66" t="s">
+      <c r="D66"/>
+      <c r="E66" t="s">
         <v>1391</v>
       </c>
-      <c r="E66" t="s">
+      <c r="F66" t="s">
         <v>1260</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>1199</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67"/>
+      <c r="C67" t="s">
         <v>1494</v>
       </c>
-      <c r="C67"/>
-      <c r="D67" t="s">
+      <c r="D67"/>
+      <c r="E67" t="s">
         <v>1393</v>
       </c>
-      <c r="E67" t="s">
+      <c r="F67" t="s">
         <v>1257</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>1200</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68"/>
+      <c r="C68" t="s">
         <v>1492</v>
       </c>
-      <c r="C68"/>
-      <c r="D68" t="s">
+      <c r="D68"/>
+      <c r="E68" t="s">
         <v>1392</v>
       </c>
-      <c r="E68" t="s">
+      <c r="F68" t="s">
         <v>1272</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>1201</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69"/>
+      <c r="C69" t="s">
         <v>1460</v>
       </c>
-      <c r="C69"/>
-      <c r="D69" t="s">
+      <c r="D69"/>
+      <c r="E69" t="s">
         <v>1354</v>
       </c>
-      <c r="E69" t="s">
+      <c r="F69" t="s">
         <v>1259</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>1246</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70"/>
+      <c r="C70" t="s">
         <v>1288</v>
       </c>
-      <c r="C70"/>
-      <c r="D70" t="s">
-        <v>1288</v>
-      </c>
+      <c r="D70"/>
       <c r="E70" t="s">
         <v>1288</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F70" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>1247</v>
       </c>
       <c r="B71"/>
       <c r="C71"/>
-      <c r="D71" t="s">
+      <c r="D71"/>
+      <c r="E71" t="s">
         <v>1412</v>
       </c>
-      <c r="E71" t="s">
+      <c r="F71" t="s">
         <v>1248</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>1249</v>
       </c>
       <c r="B72"/>
       <c r="C72"/>
-      <c r="D72" t="s">
+      <c r="D72"/>
+      <c r="E72" t="s">
         <v>1409</v>
       </c>
-      <c r="E72" t="s">
+      <c r="F72" t="s">
         <v>1107</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>1253</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73"/>
+      <c r="C73" t="s">
         <v>1498</v>
       </c>
-      <c r="C73"/>
-      <c r="D73" t="s">
+      <c r="D73"/>
+      <c r="E73" t="s">
         <v>1413</v>
       </c>
-      <c r="E73" t="s">
+      <c r="F73" t="s">
         <v>1279</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>1254</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74"/>
+      <c r="C74" t="s">
         <v>1496</v>
       </c>
-      <c r="C74"/>
-      <c r="D74" t="s">
+      <c r="D74"/>
+      <c r="E74" t="s">
         <v>1409</v>
       </c>
-      <c r="E74" t="s">
+      <c r="F74" t="s">
         <v>1277</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>1256</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75"/>
+      <c r="C75" t="s">
         <v>1499</v>
       </c>
-      <c r="C75"/>
-      <c r="D75" t="s">
+      <c r="D75"/>
+      <c r="E75" t="s">
         <v>1414</v>
       </c>
-      <c r="E75" t="s">
+      <c r="F75" t="s">
         <v>1280</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>1261</v>
       </c>
       <c r="B76"/>
       <c r="C76"/>
       <c r="D76"/>
-      <c r="E76" t="s">
+      <c r="E76"/>
+      <c r="F76" t="s">
         <v>1262</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="19" t="s">
         <v>1264</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="19" t="s">
         <v>1265</v>
       </c>
-      <c r="E78"/>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F78"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="19" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="19" t="s">
         <v>1267</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="19" t="s">
         <v>1268</v>
       </c>
-      <c r="F81" t="s">
+      <c r="G81" t="s">
         <v>1107</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="19" t="s">
         <v>1269</v>
       </c>
-      <c r="F82" t="s">
+      <c r="G82" t="s">
         <v>1248</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>1273</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83"/>
+      <c r="C83" t="s">
         <v>1493</v>
       </c>
-      <c r="C83"/>
-      <c r="D83" t="s">
+      <c r="D83"/>
+      <c r="E83" t="s">
         <v>1408</v>
       </c>
-      <c r="E83" t="s">
+      <c r="F83" t="s">
         <v>1255</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>1274</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84"/>
+      <c r="C84" t="s">
         <v>1472</v>
       </c>
-      <c r="C84"/>
-      <c r="D84" t="s">
+      <c r="D84"/>
+      <c r="E84" t="s">
         <v>1406</v>
       </c>
-      <c r="E84" t="s">
+      <c r="F84" t="s">
         <v>1107</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>1275</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85"/>
+      <c r="C85" t="s">
         <v>1495</v>
       </c>
-      <c r="C85"/>
-      <c r="D85" t="s">
+      <c r="D85"/>
+      <c r="E85" t="s">
         <v>1407</v>
       </c>
-      <c r="E85" t="s">
+      <c r="F85" t="s">
         <v>1276</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>1285</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86"/>
+      <c r="C86" t="s">
         <v>1278</v>
       </c>
-      <c r="C86"/>
-      <c r="D86" t="s">
+      <c r="D86"/>
+      <c r="E86" t="s">
         <v>1399</v>
       </c>
-      <c r="E86" t="s">
+      <c r="F86" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>1289</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87"/>
+      <c r="C87" t="s">
         <v>1505</v>
       </c>
-      <c r="C87"/>
-      <c r="D87" t="s">
+      <c r="D87"/>
+      <c r="E87" t="s">
         <v>1400</v>
       </c>
-      <c r="E87" t="s">
+      <c r="F87" t="s">
         <v>1290</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>1291</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88"/>
+      <c r="C88" t="s">
         <v>1278</v>
       </c>
-      <c r="C88"/>
-      <c r="D88" t="s">
+      <c r="D88"/>
+      <c r="E88" t="s">
         <v>1401</v>
       </c>
-      <c r="E88" t="s">
+      <c r="F88" t="s">
         <v>1292</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>1323</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89"/>
+      <c r="C89" t="s">
         <v>510</v>
       </c>
-      <c r="C89"/>
-      <c r="D89" t="s">
-        <v>510</v>
-      </c>
+      <c r="D89"/>
       <c r="E89" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F89" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="19" t="s">
         <v>1334</v>
       </c>
-      <c r="D90" t="s">
+      <c r="E90" t="s">
         <v>1341</v>
       </c>
     </row>
@@ -8659,8 +8736,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -8734,8 +8811,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="45.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="45.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -8777,8 +8854,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="29.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="2" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="3" max="4" bestFit="true" customWidth="true" width="29.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -8832,8 +8909,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="32.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -8868,8 +8945,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -8931,8 +9008,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -8982,48 +9059,48 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="40" max="40" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="41" max="41" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="42" max="42" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="43" max="43" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="39" max="39" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="41" max="41" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="42" max="42" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:43" x14ac:dyDescent="0.25">
@@ -9209,40 +9286,40 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.42578125" style="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="22.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="19" width="15.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="22.85546875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:44" x14ac:dyDescent="0.25">
@@ -9441,8 +9518,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -9502,8 +9579,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -9559,7 +9636,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="19" width="12.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -10741,9 +10818,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="24" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="24.7109375" collapsed="true"/>
+    <col min="3" max="4" customWidth="true" width="24.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -10877,10 +10954,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.140625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="22.5703125" style="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.42578125" style="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="16384" width="9.140625" style="19" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="19" width="21.140625" collapsed="true"/>
+    <col min="2" max="3" bestFit="true" customWidth="true" style="19" width="22.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="19" width="12.42578125" collapsed="true"/>
+    <col min="5" max="16384" style="19" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -10980,10 +11057,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="20.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11085,8 +11162,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -11156,9 +11233,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="20.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -11244,11 +11321,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.85546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="6" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="15" width="16.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="2" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="5" max="6" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="7" max="15" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -11402,7 +11479,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -11455,7 +11532,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -11493,8 +11570,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="21.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="21.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -11560,10 +11637,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" style="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.42578125" style="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="7" style="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="9.140625" style="19" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="19" width="11.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="19" width="24.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="19" width="7.0" collapsed="true"/>
+    <col min="4" max="16384" style="19" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -11666,7 +11743,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="37.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -13720,11 +13797,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" style="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.42578125" style="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="9.140625" style="19" collapsed="1"/>
-    <col min="5" max="5" width="11" style="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="9.140625" style="19" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="19" width="20.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="19" width="24.42578125" collapsed="true"/>
+    <col min="3" max="4" style="19" width="9.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="19" width="11.0" collapsed="true"/>
+    <col min="6" max="16384" style="19" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -13841,9 +13918,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.5703125" style="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="16384" width="9.140625" style="19" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="19" width="15.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="19" width="27.5703125" collapsed="true"/>
+    <col min="3" max="16384" style="19" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -13897,9 +13974,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" style="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="15.7109375" style="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="9.140625" style="19" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="19" width="20.42578125" collapsed="true"/>
+    <col min="2" max="3" bestFit="true" customWidth="true" style="19" width="15.7109375" collapsed="true"/>
+    <col min="4" max="16384" style="19" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -13994,12 +14071,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="23.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -14091,9 +14168,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.28515625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="16384" width="9.140625" style="19" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="19" width="14.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="19" width="15.28515625" collapsed="true"/>
+    <col min="3" max="16384" style="19" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -14171,8 +14248,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="15.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -14242,11 +14319,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="24.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="24.85546875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:44" x14ac:dyDescent="0.25">
@@ -14425,8 +14502,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="32.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="2" max="3" bestFit="true" customWidth="true" width="32.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -14518,8 +14595,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="32.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="2" max="3" bestFit="true" customWidth="true" width="32.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -14598,8 +14675,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="24.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="24.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -14686,10 +14763,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="26" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="33.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="35.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="33.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="26.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="33.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -14918,10 +14995,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="28.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="35" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="30.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="28.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="35.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -15287,8 +15364,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="35" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="24.85546875" collapsed="true"/>
+    <col min="2" max="3" bestFit="true" customWidth="true" width="35.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -15622,7 +15699,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -15696,8 +15773,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="28.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="28.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -15782,8 +15859,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.140625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="16384" width="9.140625" style="19" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="19" width="14.140625" collapsed="true"/>
+    <col min="2" max="16384" style="19" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -15826,9 +15903,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.140625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10" style="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="16384" width="9.140625" style="19" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="19" width="14.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="19" width="10.0" collapsed="true"/>
+    <col min="3" max="16384" style="19" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -15883,15 +15960,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
@@ -16348,9 +16425,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18" style="83" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35" style="83" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="16384" width="9.140625" style="83" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="83" width="18.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="83" width="35.0" collapsed="true"/>
+    <col min="3" max="16384" style="83" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -16389,44 +16466,44 @@
   <dimension ref="A1:AP5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="23.140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="40" max="40" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="41" max="41" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="23.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="39" max="39" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="41" max="41" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:42" x14ac:dyDescent="0.25">
@@ -16763,17 +16840,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.85546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.5703125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="15.140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="20.42578125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="17.140625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="13.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="22.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="20.42578125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="17.140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -16856,20 +16933,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="21.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="21.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="18.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="9.140625" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="21.42578125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="23.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="21.42578125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="23.140625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="14" max="14" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
@@ -16986,9 +17063,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11" style="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="19" width="11.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="19" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17083,8 +17160,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="19" width="11.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -17119,41 +17196,41 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="40" max="40" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="43" max="43" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="44" max="44" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="45" max="45" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="47" max="47" width="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="48" max="48" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="49" max="49" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="50" max="50" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="39" max="39" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:42" x14ac:dyDescent="0.25">
@@ -17342,8 +17419,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="19" width="11.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -17383,8 +17460,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="19" width="11.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -17433,8 +17510,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -17521,13 +17598,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" collapsed="1"/>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="9.140625" collapsed="1"/>
-    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="16384" width="9.140625" collapsed="1"/>
+    <col min="1" max="1" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="5" max="5" width="9.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="7" max="16384" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -18268,8 +18345,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="24.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="21.42578125" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" width="24.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -18412,9 +18489,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="36.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="36.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="36.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">

--- a/WppRegpack/TestResource/Regression/DS_MLY_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Regression/DS_MLY_REGRESSION.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="39" activeTab="39"/>
   </bookViews>
   <sheets>
     <sheet name="Server Details" sheetId="1" r:id="rId1"/>
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2806" uniqueCount="1516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2857" uniqueCount="1549">
   <si>
     <t>Description</t>
   </si>
@@ -4490,66 +4490,21 @@
     <t>Staff Salaries</t>
   </si>
   <si>
-    <t>177.58</t>
-  </si>
-  <si>
-    <t>1,065.48</t>
-  </si>
-  <si>
-    <t>63.93</t>
-  </si>
-  <si>
-    <t>1129.41</t>
-  </si>
-  <si>
     <t>Employer Social Taxes</t>
   </si>
   <si>
-    <t>88.79</t>
-  </si>
-  <si>
-    <t>2,219.75</t>
-  </si>
-  <si>
-    <t>133.19</t>
-  </si>
-  <si>
-    <t>2352.94</t>
-  </si>
-  <si>
     <t>200120272</t>
   </si>
   <si>
     <t>2-2</t>
   </si>
   <si>
-    <t>03/08/2021</t>
-  </si>
-  <si>
     <t>2001_MarReg</t>
   </si>
   <si>
     <t>March BAU Regression</t>
   </si>
   <si>
-    <t>4533000-07</t>
-  </si>
-  <si>
-    <t>Data communication costs - Colt</t>
-  </si>
-  <si>
-    <t>4533000-08</t>
-  </si>
-  <si>
-    <t>Data communication costs - Sprint</t>
-  </si>
-  <si>
-    <t>4533000-09</t>
-  </si>
-  <si>
-    <t>Data communication costs - Verizon</t>
-  </si>
-  <si>
     <t>200120273</t>
   </si>
   <si>
@@ -4592,9 +4547,6 @@
     <t>200120274</t>
   </si>
   <si>
-    <t>7,280.78</t>
-  </si>
-  <si>
     <t>2001401496</t>
   </si>
   <si>
@@ -4610,9 +4562,6 @@
     <t>2001B</t>
   </si>
   <si>
-    <t>03/09/2021</t>
-  </si>
-  <si>
     <t>200118190</t>
   </si>
   <si>
@@ -4637,16 +4586,167 @@
     <t>2001 - Employee Categories</t>
   </si>
   <si>
-    <t>200111067</t>
-  </si>
-  <si>
-    <t>200110919</t>
-  </si>
-  <si>
-    <t>200110920</t>
-  </si>
-  <si>
-    <t>126499</t>
+    <t>03/29/2021</t>
+  </si>
+  <si>
+    <t>2313154654411</t>
+  </si>
+  <si>
+    <t>3543224650531</t>
+  </si>
+  <si>
+    <t>110613</t>
+  </si>
+  <si>
+    <t>2001_AutoClient 29March2021 09:50:20</t>
+  </si>
+  <si>
+    <t>Invoice Specific Address</t>
+  </si>
+  <si>
+    <t>Address 1</t>
+  </si>
+  <si>
+    <t>Zip Code</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>ABC pvt ltd</t>
+  </si>
+  <si>
+    <t>st1</t>
+  </si>
+  <si>
+    <t>110613001</t>
+  </si>
+  <si>
+    <t>AutoGlobalBrand 29March2021 09:50:20</t>
+  </si>
+  <si>
+    <t>110613001001</t>
+  </si>
+  <si>
+    <t>AutoGlobalProduct 29March2021 09:50:20</t>
+  </si>
+  <si>
+    <t>126686</t>
+  </si>
+  <si>
+    <t>Global Vendor Name</t>
+  </si>
+  <si>
+    <t>GlobalVendor 29March2021 10:49:09</t>
+  </si>
+  <si>
+    <t>176.80</t>
+  </si>
+  <si>
+    <t>1,060.80</t>
+  </si>
+  <si>
+    <t>63.65</t>
+  </si>
+  <si>
+    <t>1124.45</t>
+  </si>
+  <si>
+    <t>88.40</t>
+  </si>
+  <si>
+    <t>2,210.00</t>
+  </si>
+  <si>
+    <t>132.60</t>
+  </si>
+  <si>
+    <t>2342.6</t>
+  </si>
+  <si>
+    <t>7,248.80</t>
+  </si>
+  <si>
+    <t>4210000-01</t>
+  </si>
+  <si>
+    <t>4210000-02</t>
+  </si>
+  <si>
+    <t>4210000-03</t>
+  </si>
+  <si>
+    <t>Air / Train Costs - Internal Meetings</t>
+  </si>
+  <si>
+    <t>Air / Train Costs - Client Meetings</t>
+  </si>
+  <si>
+    <t>Air / Train Costs - Other Meetings</t>
+  </si>
+  <si>
+    <t>200110928</t>
+  </si>
+  <si>
+    <t>2001_VendorInvoice</t>
+  </si>
+  <si>
+    <t>200118287</t>
+  </si>
+  <si>
+    <t>4/28/2021</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>2001701606</t>
+  </si>
+  <si>
+    <t>C:\GlobalTestAutomation2\GlobalTestSuiteAutomation\WppRegPack\MPLReports\Critical_Regression\Malaysia\2001\PaymentSelection.pdf</t>
+  </si>
+  <si>
+    <t>1319500314</t>
+  </si>
+  <si>
+    <t>C:\GlobalTestAutomation2\GlobalTestSuiteAutomation\WppRegPack\MPLReports\Critical_Regression\Malaysia\2001\P_PaymentOrder.pdf</t>
+  </si>
+  <si>
+    <t>20010344</t>
+  </si>
+  <si>
+    <t>2001401532</t>
+  </si>
+  <si>
+    <t>200118295</t>
+  </si>
+  <si>
+    <t>200118297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2001401534
+</t>
+  </si>
+  <si>
+    <t>2001401534</t>
+  </si>
+  <si>
+    <t>200118298</t>
+  </si>
+  <si>
+    <t>C:\GlobalTestAutomation2\GlobalTestSuiteAutomation\WppRegPack\MPLReports\Critical_Regression\Malaysia\2001\Print Job Quote-5.pdf</t>
+  </si>
+  <si>
+    <t>C:\GlobalTestAutomation2\GlobalTestSuiteAutomation\WppRegPack\MPLReports\Critical_Regression\Malaysia\2001\Print Job Order Confirmation-2.pdf</t>
+  </si>
+  <si>
+    <t>2001401535</t>
+  </si>
+  <si>
+    <t>200118299</t>
+  </si>
+  <si>
+    <t>200118300</t>
   </si>
 </sst>
 </file>
@@ -5714,7 +5814,7 @@
   <dimension ref="A1:AH4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5938,7 +6038,7 @@
         <v>990</v>
       </c>
       <c r="E4" t="s">
-        <v>1477</v>
+        <v>1524</v>
       </c>
       <c r="F4" t="s">
         <v>510</v>
@@ -5961,7 +6061,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E16" sqref="E16:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6009,8 +6109,8 @@
       <c r="D3">
         <v>46</v>
       </c>
-      <c r="E3" s="48" t="s">
-        <v>232</v>
+      <c r="E3" s="48">
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -6027,7 +6127,7 @@
         <v>1108</v>
       </c>
       <c r="E4" t="s">
-        <v>1489</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -6111,9 +6211,6 @@
       <c r="D9">
         <v>8</v>
       </c>
-      <c r="E9">
-        <v>8</v>
-      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
@@ -6128,9 +6225,6 @@
       <c r="D10">
         <v>8</v>
       </c>
-      <c r="E10">
-        <v>8</v>
-      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
@@ -6140,9 +6234,6 @@
       <c r="D11">
         <v>8</v>
       </c>
-      <c r="E11">
-        <v>8</v>
-      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
@@ -6214,9 +6305,7 @@
       <c r="D16" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="E16" s="19" t="s">
-        <v>95</v>
-      </c>
+      <c r="E16" s="19"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -6231,9 +6320,7 @@
       <c r="D17" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="E17" s="19" t="s">
-        <v>96</v>
-      </c>
+      <c r="E17" s="19"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -6248,9 +6335,7 @@
       <c r="D18" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="E18" s="19" t="s">
-        <v>97</v>
-      </c>
+      <c r="E18" s="19"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -6308,7 +6393,7 @@
         <v>1144</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>1506</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -6341,7 +6426,7 @@
         <v>1069</v>
       </c>
       <c r="C5" t="s">
-        <v>1507</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -6349,10 +6434,10 @@
         <v>27</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>1510</v>
+        <v>1493</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>1510</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -6374,7 +6459,7 @@
         <v>1145</v>
       </c>
       <c r="C8" s="90" t="s">
-        <v>1508</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -6462,7 +6547,7 @@
         <v>1141</v>
       </c>
       <c r="C16" s="48" t="s">
-        <v>1509</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -6473,7 +6558,7 @@
         <v>1141</v>
       </c>
       <c r="C17" s="48" t="s">
-        <v>1509</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -6621,10 +6706,10 @@
         <v>45</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>1510</v>
+        <v>1493</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>1510</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -6632,10 +6717,10 @@
         <v>46</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>1510</v>
+        <v>1493</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>1510</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -6691,7 +6776,7 @@
         <v>1144</v>
       </c>
       <c r="C2" t="s">
-        <v>1506</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -6735,7 +6820,7 @@
         <v>1069</v>
       </c>
       <c r="C6" t="s">
-        <v>1507</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -6746,7 +6831,7 @@
         <v>1338</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>1510</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -6768,7 +6853,7 @@
         <v>1144</v>
       </c>
       <c r="C9" t="s">
-        <v>1506</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -6856,7 +6941,7 @@
         <v>1141</v>
       </c>
       <c r="C17" s="48" t="s">
-        <v>1509</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -6867,7 +6952,7 @@
         <v>1141</v>
       </c>
       <c r="C18" s="48" t="s">
-        <v>1509</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -6933,7 +7018,7 @@
         <v>1338</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>1510</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -6944,7 +7029,7 @@
         <v>1339</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>1510</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -6955,7 +7040,7 @@
         <v>1146</v>
       </c>
       <c r="C26" t="s">
-        <v>1511</v>
+        <v>1494</v>
       </c>
     </row>
   </sheetData>
@@ -7459,10 +7544,10 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:FC90"/>
+  <dimension ref="A1:FC91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7648,8 +7733,8 @@
       <c r="A2" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="B2" s="48" t="s">
-        <v>1472</v>
+      <c r="B2" t="s">
+        <v>1481</v>
       </c>
       <c r="C2" t="s">
         <v>1460</v>
@@ -7674,8 +7759,11 @@
       <c r="A3" s="19" t="s">
         <v>182</v>
       </c>
+      <c r="B3" t="s">
+        <v>1537</v>
+      </c>
       <c r="D3" t="s">
-        <v>1472</v>
+        <v>1464</v>
       </c>
       <c r="E3" t="s">
         <v>1340</v>
@@ -7688,11 +7776,14 @@
       <c r="A4" s="19" t="s">
         <v>183</v>
       </c>
+      <c r="B4" t="s">
+        <v>1533</v>
+      </c>
       <c r="C4" t="s">
-        <v>1490</v>
+        <v>1475</v>
       </c>
       <c r="D4" s="48" t="s">
-        <v>1483</v>
+        <v>1468</v>
       </c>
       <c r="E4" t="s">
         <v>1367</v>
@@ -7706,10 +7797,10 @@
         <v>199</v>
       </c>
       <c r="B5" t="s">
-        <v>1514</v>
+        <v>1528</v>
       </c>
       <c r="C5" t="s">
-        <v>1484</v>
+        <v>1469</v>
       </c>
       <c r="D5">
         <v>200120274</v>
@@ -7725,8 +7816,11 @@
       <c r="A6" s="19" t="s">
         <v>710</v>
       </c>
+      <c r="B6" s="19" t="s">
+        <v>1530</v>
+      </c>
       <c r="C6" s="19" t="s">
-        <v>1485</v>
+        <v>1470</v>
       </c>
       <c r="E6" t="s">
         <v>1364</v>
@@ -7739,8 +7833,11 @@
       <c r="A7" s="19" t="s">
         <v>711</v>
       </c>
+      <c r="B7" s="19" t="s">
+        <v>1529</v>
+      </c>
       <c r="C7" s="19" t="s">
-        <v>1486</v>
+        <v>1471</v>
       </c>
       <c r="E7" t="s">
         <v>1361</v>
@@ -7756,6 +7853,9 @@
       <c r="A8" s="19" t="s">
         <v>1020</v>
       </c>
+      <c r="B8" t="s">
+        <v>1432</v>
+      </c>
       <c r="C8" t="s">
         <v>1432</v>
       </c>
@@ -7770,6 +7870,9 @@
       <c r="A9" s="19" t="s">
         <v>1021</v>
       </c>
+      <c r="B9" t="s">
+        <v>1444</v>
+      </c>
       <c r="C9" t="s">
         <v>1444</v>
       </c>
@@ -7784,8 +7887,11 @@
       <c r="A10" s="19" t="s">
         <v>1022</v>
       </c>
+      <c r="B10" s="19" t="s">
+        <v>1532</v>
+      </c>
       <c r="C10" t="s">
-        <v>1488</v>
+        <v>1473</v>
       </c>
       <c r="E10" t="s">
         <v>1366</v>
@@ -7808,6 +7914,9 @@
       <c r="A13" s="19" t="s">
         <v>970</v>
       </c>
+      <c r="B13" s="19" t="s">
+        <v>1498</v>
+      </c>
       <c r="C13" s="19" t="s">
         <v>1434</v>
       </c>
@@ -7822,6 +7931,9 @@
       <c r="A14" s="19" t="s">
         <v>1025</v>
       </c>
+      <c r="B14" s="19" t="s">
+        <v>1499</v>
+      </c>
       <c r="C14" s="19" t="s">
         <v>1433</v>
       </c>
@@ -7836,6 +7948,9 @@
       <c r="A15" s="19" t="s">
         <v>971</v>
       </c>
+      <c r="B15" s="19" t="s">
+        <v>1506</v>
+      </c>
       <c r="C15" s="19" t="s">
         <v>1435</v>
       </c>
@@ -7850,6 +7965,9 @@
       <c r="A16" s="19" t="s">
         <v>1026</v>
       </c>
+      <c r="B16" s="19" t="s">
+        <v>1507</v>
+      </c>
       <c r="C16" s="19" t="s">
         <v>1436</v>
       </c>
@@ -7864,6 +7982,9 @@
       <c r="A17" s="19" t="s">
         <v>972</v>
       </c>
+      <c r="B17" s="19" t="s">
+        <v>1508</v>
+      </c>
       <c r="C17" s="19" t="s">
         <v>1437</v>
       </c>
@@ -7878,6 +7999,9 @@
       <c r="A18" s="19" t="s">
         <v>1027</v>
       </c>
+      <c r="B18" s="19" t="s">
+        <v>1509</v>
+      </c>
       <c r="C18" s="19" t="s">
         <v>1438</v>
       </c>
@@ -7903,7 +8027,7 @@
         <v>187</v>
       </c>
       <c r="B21" t="s">
-        <v>1515</v>
+        <v>1510</v>
       </c>
       <c r="C21" t="s">
         <v>1439</v>
@@ -7925,8 +8049,11 @@
       <c r="A23" s="19" t="s">
         <v>1031</v>
       </c>
+      <c r="B23" t="s">
+        <v>1548</v>
+      </c>
       <c r="C23" t="s">
-        <v>1504</v>
+        <v>1487</v>
       </c>
       <c r="E23" t="s">
         <v>1395</v>
@@ -7947,8 +8074,11 @@
       <c r="A25" s="19" t="s">
         <v>1032</v>
       </c>
+      <c r="B25" t="s">
+        <v>1481</v>
+      </c>
       <c r="C25" t="s">
-        <v>1496</v>
+        <v>1481</v>
       </c>
       <c r="D25"/>
       <c r="E25" t="s">
@@ -7961,6 +8091,9 @@
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="19" t="s">
         <v>1033</v>
+      </c>
+      <c r="B26" t="s">
+        <v>201</v>
       </c>
       <c r="C26" t="s">
         <v>201</v>
@@ -7986,9 +8119,11 @@
       <c r="A28" t="s">
         <v>1035</v>
       </c>
-      <c r="B28"/>
+      <c r="B28" s="48" t="s">
+        <v>1531</v>
+      </c>
       <c r="C28" s="48" t="s">
-        <v>1487</v>
+        <v>1472</v>
       </c>
       <c r="D28"/>
       <c r="E28" t="s">
@@ -8002,7 +8137,9 @@
       <c r="A29" t="s">
         <v>1036</v>
       </c>
-      <c r="B29"/>
+      <c r="B29" t="s">
+        <v>1427</v>
+      </c>
       <c r="C29" t="s">
         <v>1427</v>
       </c>
@@ -8269,10 +8406,10 @@
         <v>248</v>
       </c>
       <c r="B58" t="s">
-        <v>1512</v>
+        <v>1484</v>
       </c>
       <c r="C58" t="s">
-        <v>1500</v>
+        <v>1484</v>
       </c>
       <c r="D58"/>
       <c r="E58" t="s">
@@ -8286,7 +8423,9 @@
       <c r="A59" t="s">
         <v>1072</v>
       </c>
-      <c r="B59"/>
+      <c r="B59" t="s">
+        <v>286</v>
+      </c>
       <c r="C59" t="s">
         <v>286</v>
       </c>
@@ -8302,7 +8441,9 @@
       <c r="A60" t="s">
         <v>1131</v>
       </c>
-      <c r="B60"/>
+      <c r="B60" t="s">
+        <v>1544</v>
+      </c>
       <c r="C60" t="s">
         <v>1278</v>
       </c>
@@ -8318,7 +8459,9 @@
       <c r="A61" t="s">
         <v>1132</v>
       </c>
-      <c r="B61"/>
+      <c r="B61" t="s">
+        <v>1545</v>
+      </c>
       <c r="C61" t="s">
         <v>1278</v>
       </c>
@@ -8334,7 +8477,9 @@
       <c r="A62" t="s">
         <v>1153</v>
       </c>
-      <c r="B62"/>
+      <c r="B62" t="s">
+        <v>1284</v>
+      </c>
       <c r="C62" t="s">
         <v>1284</v>
       </c>
@@ -8350,7 +8495,9 @@
       <c r="A63" t="s">
         <v>1154</v>
       </c>
-      <c r="B63"/>
+      <c r="B63" s="96" t="s">
+        <v>1155</v>
+      </c>
       <c r="C63" s="96" t="s">
         <v>1155</v>
       </c>
@@ -8366,7 +8513,9 @@
       <c r="A64" t="s">
         <v>1156</v>
       </c>
-      <c r="B64"/>
+      <c r="B64" s="96" t="s">
+        <v>1155</v>
+      </c>
       <c r="C64" s="96" t="s">
         <v>1155</v>
       </c>
@@ -8382,9 +8531,11 @@
       <c r="A65" t="s">
         <v>1159</v>
       </c>
-      <c r="B65"/>
+      <c r="B65" t="s">
+        <v>1530</v>
+      </c>
       <c r="C65" t="s">
-        <v>1485</v>
+        <v>1470</v>
       </c>
       <c r="D65"/>
       <c r="E65" t="s">
@@ -8412,9 +8563,11 @@
       <c r="A67" t="s">
         <v>1199</v>
       </c>
-      <c r="B67"/>
+      <c r="B67" t="s">
+        <v>1539</v>
+      </c>
       <c r="C67" t="s">
-        <v>1494</v>
+        <v>1479</v>
       </c>
       <c r="D67"/>
       <c r="E67" t="s">
@@ -8428,9 +8581,11 @@
       <c r="A68" t="s">
         <v>1200</v>
       </c>
-      <c r="B68"/>
+      <c r="B68" t="s">
+        <v>1538</v>
+      </c>
       <c r="C68" t="s">
-        <v>1492</v>
+        <v>1477</v>
       </c>
       <c r="D68"/>
       <c r="E68" t="s">
@@ -8444,7 +8599,9 @@
       <c r="A69" t="s">
         <v>1201</v>
       </c>
-      <c r="B69"/>
+      <c r="B69" t="s">
+        <v>1460</v>
+      </c>
       <c r="C69" t="s">
         <v>1460</v>
       </c>
@@ -8460,7 +8617,9 @@
       <c r="A70" t="s">
         <v>1246</v>
       </c>
-      <c r="B70"/>
+      <c r="B70" t="s">
+        <v>1288</v>
+      </c>
       <c r="C70" t="s">
         <v>1288</v>
       </c>
@@ -8476,7 +8635,9 @@
       <c r="A71" t="s">
         <v>1247</v>
       </c>
-      <c r="B71"/>
+      <c r="B71" t="s">
+        <v>1541</v>
+      </c>
       <c r="C71"/>
       <c r="D71"/>
       <c r="E71" t="s">
@@ -8490,7 +8651,9 @@
       <c r="A72" t="s">
         <v>1249</v>
       </c>
-      <c r="B72"/>
+      <c r="B72" t="s">
+        <v>1468</v>
+      </c>
       <c r="C72"/>
       <c r="D72"/>
       <c r="E72" t="s">
@@ -8504,9 +8667,11 @@
       <c r="A73" t="s">
         <v>1253</v>
       </c>
-      <c r="B73"/>
+      <c r="B73" t="s">
+        <v>1542</v>
+      </c>
       <c r="C73" t="s">
-        <v>1498</v>
+        <v>1482</v>
       </c>
       <c r="D73"/>
       <c r="E73" t="s">
@@ -8520,9 +8685,11 @@
       <c r="A74" t="s">
         <v>1254</v>
       </c>
-      <c r="B74"/>
+      <c r="B74" t="s">
+        <v>1468</v>
+      </c>
       <c r="C74" t="s">
-        <v>1496</v>
+        <v>1481</v>
       </c>
       <c r="D74"/>
       <c r="E74" t="s">
@@ -8536,9 +8703,11 @@
       <c r="A75" t="s">
         <v>1256</v>
       </c>
-      <c r="B75"/>
+      <c r="B75" t="s">
+        <v>1543</v>
+      </c>
       <c r="C75" t="s">
-        <v>1499</v>
+        <v>1483</v>
       </c>
       <c r="D75"/>
       <c r="E75" t="s">
@@ -8601,9 +8770,11 @@
       <c r="A83" t="s">
         <v>1273</v>
       </c>
-      <c r="B83"/>
+      <c r="B83" t="s">
+        <v>1546</v>
+      </c>
       <c r="C83" t="s">
-        <v>1493</v>
+        <v>1478</v>
       </c>
       <c r="D83"/>
       <c r="E83" t="s">
@@ -8617,9 +8788,11 @@
       <c r="A84" t="s">
         <v>1274</v>
       </c>
-      <c r="B84"/>
+      <c r="B84" t="s">
+        <v>1481</v>
+      </c>
       <c r="C84" t="s">
-        <v>1472</v>
+        <v>1464</v>
       </c>
       <c r="D84"/>
       <c r="E84" t="s">
@@ -8633,9 +8806,11 @@
       <c r="A85" t="s">
         <v>1275</v>
       </c>
-      <c r="B85"/>
+      <c r="B85" t="s">
+        <v>1547</v>
+      </c>
       <c r="C85" t="s">
-        <v>1495</v>
+        <v>1480</v>
       </c>
       <c r="D85"/>
       <c r="E85" t="s">
@@ -8649,7 +8824,9 @@
       <c r="A86" t="s">
         <v>1285</v>
       </c>
-      <c r="B86"/>
+      <c r="B86" t="s">
+        <v>1534</v>
+      </c>
       <c r="C86" t="s">
         <v>1278</v>
       </c>
@@ -8665,9 +8842,11 @@
       <c r="A87" t="s">
         <v>1289</v>
       </c>
-      <c r="B87"/>
+      <c r="B87" t="s">
+        <v>1535</v>
+      </c>
       <c r="C87" t="s">
-        <v>1505</v>
+        <v>1488</v>
       </c>
       <c r="D87"/>
       <c r="E87" t="s">
@@ -8681,7 +8860,9 @@
       <c r="A88" t="s">
         <v>1291</v>
       </c>
-      <c r="B88"/>
+      <c r="B88" t="s">
+        <v>1536</v>
+      </c>
       <c r="C88" t="s">
         <v>1278</v>
       </c>
@@ -8697,7 +8878,9 @@
       <c r="A89" t="s">
         <v>1323</v>
       </c>
-      <c r="B89"/>
+      <c r="B89" t="s">
+        <v>510</v>
+      </c>
       <c r="C89" t="s">
         <v>510</v>
       </c>
@@ -8715,6 +8898,14 @@
       </c>
       <c r="E90" t="s">
         <v>1341</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>1511</v>
+      </c>
+      <c r="B91" t="s">
+        <v>1512</v>
       </c>
     </row>
   </sheetData>
@@ -8937,10 +9128,10 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8949,7 +9140,7 @@
     <col min="2" max="2" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="31" t="s">
         <v>4</v>
       </c>
@@ -8959,23 +9150,23 @@
       <c r="C1">
         <v>2025</v>
       </c>
-      <c r="E1">
+      <c r="D1">
         <v>2001</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="57" t="s">
         <v>202</v>
       </c>
       <c r="B2" s="19"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="57" t="s">
         <v>99</v>
       </c>
       <c r="B3" s="19"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="57" t="s">
         <v>203</v>
       </c>
@@ -8985,7 +9176,7 @@
       <c r="C4">
         <v>2020</v>
       </c>
-      <c r="E4">
+      <c r="D4">
         <v>2021</v>
       </c>
     </row>
@@ -9496,7 +9687,7 @@
         <v>2001</v>
       </c>
       <c r="D6" s="91" t="s">
-        <v>1473</v>
+        <v>1465</v>
       </c>
     </row>
   </sheetData>
@@ -10813,7 +11004,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10904,7 +11095,7 @@
         <v>1402</v>
       </c>
       <c r="D6" s="92" t="s">
-        <v>1474</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -10918,7 +11109,7 @@
         <v>100</v>
       </c>
       <c r="D7">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -11052,7 +11243,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11316,7 +11507,7 @@
   <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11324,7 +11515,8 @@
     <col min="1" max="2" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
     <col min="4" max="4" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="5" max="6" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
     <col min="7" max="15" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
   </cols>
   <sheetData>
@@ -11448,16 +11640,16 @@
         <v>2001</v>
       </c>
       <c r="C6" s="49" t="s">
-        <v>1474</v>
+        <v>1495</v>
       </c>
       <c r="D6" s="49" t="s">
-        <v>1474</v>
+        <v>1495</v>
       </c>
       <c r="E6" t="s">
-        <v>1475</v>
+        <v>1466</v>
       </c>
       <c r="F6" t="s">
-        <v>1476</v>
+        <v>1467</v>
       </c>
     </row>
   </sheetData>
@@ -11565,7 +11757,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11632,7 +11824,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11667,7 +11859,7 @@
       <c r="A2" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="48" t="s">
         <v>1460</v>
       </c>
     </row>
@@ -11721,7 +11913,7 @@
         <v>1251</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>1492</v>
+        <v>1538</v>
       </c>
     </row>
   </sheetData>
@@ -13791,8 +13983,8 @@
   </sheetPr>
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13801,7 +13993,8 @@
     <col min="2" max="2" bestFit="true" customWidth="true" style="19" width="24.42578125" collapsed="true"/>
     <col min="3" max="4" style="19" width="9.140625" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" style="19" width="11.0" collapsed="true"/>
-    <col min="6" max="16384" style="19" width="9.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="19" width="10.0" collapsed="true"/>
+    <col min="7" max="16384" style="19" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -13831,8 +14024,8 @@
       <c r="E2">
         <v>202522371</v>
       </c>
-      <c r="F2" t="s">
-        <v>1472</v>
+      <c r="F2" s="48" t="s">
+        <v>1481</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -13888,7 +14081,7 @@
         <v>2025401646</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>1493</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -13998,7 +14191,7 @@
         <v>1409</v>
       </c>
       <c r="C2" s="48" t="s">
-        <v>1496</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -14036,7 +14229,7 @@
         <v>1413</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>1498</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -14497,7 +14690,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14544,7 +14737,7 @@
         <v>1394</v>
       </c>
       <c r="C5" s="84" t="s">
-        <v>1503</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -14590,7 +14783,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14623,7 +14816,7 @@
         <v>1394</v>
       </c>
       <c r="C3" s="84" t="s">
-        <v>1394</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -14667,10 +14860,10 @@
 
 <file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14679,66 +14872,75 @@
     <col min="2" max="2" customWidth="true" width="24.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="86" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="97">
         <v>2025</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="83" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="83" t="s">
         <v>1236</v>
       </c>
       <c r="B3" s="95"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="83" t="s">
         <v>1237</v>
       </c>
       <c r="B4" s="95"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="83" t="s">
         <v>1243</v>
       </c>
       <c r="B5" s="95"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="83" t="s">
         <v>1241</v>
       </c>
       <c r="B6" s="84" t="s">
         <v>1394</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" s="48" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
         <v>711</v>
       </c>
       <c r="B7" s="95"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="83" t="s">
         <v>1244</v>
       </c>
       <c r="B8" s="95"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="83" t="s">
         <v>255</v>
       </c>
       <c r="B9" s="95" t="s">
         <v>1245</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="83" t="s">
         <v>231</v>
       </c>
@@ -14757,7 +14959,7 @@
   </sheetPr>
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
@@ -14987,10 +15189,10 @@
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15118,7 +15320,7 @@
         <v>916</v>
       </c>
       <c r="B9" s="48" t="s">
-        <v>1342</v>
+        <v>1496</v>
       </c>
       <c r="C9" s="48" t="s">
         <v>1342</v>
@@ -15132,7 +15334,7 @@
         <v>918</v>
       </c>
       <c r="B10" s="48" t="s">
-        <v>1343</v>
+        <v>1497</v>
       </c>
       <c r="C10" s="48" t="s">
         <v>1343</v>
@@ -15346,6 +15548,38 @@
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>1068</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>1501</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>1502</v>
+      </c>
+      <c r="B32" t="s">
+        <v>509</v>
       </c>
     </row>
   </sheetData>
@@ -16116,7 +16350,7 @@
         <v>266</v>
       </c>
       <c r="G4" t="s">
-        <v>1501</v>
+        <v>1485</v>
       </c>
       <c r="H4" s="48" t="s">
         <v>961</v>
@@ -16129,7 +16363,7 @@
         <v>266</v>
       </c>
       <c r="M4" t="s">
-        <v>1502</v>
+        <v>1486</v>
       </c>
       <c r="N4" s="48" t="s">
         <v>962</v>
@@ -16369,7 +16603,7 @@
         <v>1461</v>
       </c>
       <c r="B5" t="s">
-        <v>1504</v>
+        <v>1548</v>
       </c>
     </row>
   </sheetData>
@@ -16466,7 +16700,7 @@
   <dimension ref="A1:AP5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16788,10 +17022,10 @@
         <v>2011</v>
       </c>
       <c r="C5" t="s">
-        <v>1477</v>
+        <v>1522</v>
       </c>
       <c r="D5" t="s">
-        <v>1478</v>
+        <v>1525</v>
       </c>
       <c r="E5">
         <v>6</v>
@@ -16800,10 +17034,10 @@
         <v>1000</v>
       </c>
       <c r="G5" t="s">
-        <v>1479</v>
+        <v>1523</v>
       </c>
       <c r="H5" t="s">
-        <v>1480</v>
+        <v>1526</v>
       </c>
       <c r="I5">
         <v>25</v>
@@ -16812,10 +17046,10 @@
         <v>500</v>
       </c>
       <c r="K5" t="s">
-        <v>1481</v>
+        <v>1524</v>
       </c>
       <c r="L5" t="s">
-        <v>1482</v>
+        <v>1527</v>
       </c>
       <c r="M5">
         <v>10</v>
@@ -17579,7 +17813,7 @@
         <v>1461</v>
       </c>
       <c r="K4" s="98" t="s">
-        <v>1491</v>
+        <v>1476</v>
       </c>
     </row>
   </sheetData>
@@ -18218,10 +18452,10 @@
         <v>1173</v>
       </c>
       <c r="D5" t="s">
-        <v>1463</v>
+        <v>1513</v>
       </c>
       <c r="E5" t="s">
-        <v>1464</v>
+        <v>1514</v>
       </c>
       <c r="F5" t="s">
         <v>1116</v>
@@ -18230,25 +18464,25 @@
         <v>1118</v>
       </c>
       <c r="H5" t="s">
-        <v>1465</v>
+        <v>1515</v>
       </c>
       <c r="I5" t="s">
         <v>1121</v>
       </c>
       <c r="J5" t="s">
-        <v>1466</v>
+        <v>1516</v>
       </c>
       <c r="K5" t="s">
-        <v>1467</v>
+        <v>1463</v>
       </c>
       <c r="L5" t="s">
         <v>1178</v>
       </c>
       <c r="M5" t="s">
-        <v>1468</v>
+        <v>1517</v>
       </c>
       <c r="N5" t="s">
-        <v>1469</v>
+        <v>1518</v>
       </c>
       <c r="O5" t="s">
         <v>1116</v>
@@ -18257,19 +18491,19 @@
         <v>1118</v>
       </c>
       <c r="Q5" t="s">
-        <v>1470</v>
+        <v>1519</v>
       </c>
       <c r="R5" t="s">
         <v>1121</v>
       </c>
       <c r="S5" t="s">
-        <v>1471</v>
+        <v>1520</v>
       </c>
       <c r="T5" t="s">
         <v>201</v>
       </c>
       <c r="U5" t="s">
-        <v>1497</v>
+        <v>1521</v>
       </c>
       <c r="V5" t="s">
         <v>1118</v>

--- a/WppRegpack/TestResource/Regression/DS_MLY_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Regression/DS_MLY_REGRESSION.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="39" activeTab="39"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="67" activeTab="70"/>
   </bookViews>
   <sheets>
     <sheet name="Server Details" sheetId="1" r:id="rId1"/>
@@ -82,8 +82,9 @@
     <sheet name="CombinedInvoice" sheetId="74" r:id="rId68"/>
     <sheet name="InvoiceMPL" sheetId="59" r:id="rId69"/>
     <sheet name="QuoteMPL" sheetId="60" r:id="rId70"/>
-    <sheet name="Agency Users" sheetId="11" r:id="rId71"/>
-    <sheet name="SSC Users" sheetId="12" r:id="rId72"/>
+    <sheet name="PurchaseOrderMPL" sheetId="75" r:id="rId71"/>
+    <sheet name="Agency Users" sheetId="11" r:id="rId72"/>
+    <sheet name="SSC Users" sheetId="12" r:id="rId73"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -95,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2857" uniqueCount="1549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3013" uniqueCount="1590">
   <si>
     <t>Description</t>
   </si>
@@ -4499,12 +4500,6 @@
     <t>2-2</t>
   </si>
   <si>
-    <t>2001_MarReg</t>
-  </si>
-  <si>
-    <t>March BAU Regression</t>
-  </si>
-  <si>
     <t>200120273</t>
   </si>
   <si>
@@ -4529,9 +4524,6 @@
     <t>2001701567</t>
   </si>
   <si>
-    <t>20019938</t>
-  </si>
-  <si>
     <t>2001401494</t>
   </si>
   <si>
@@ -4577,9 +4569,6 @@
     <t>2001_AutomationEmpy@gmail.com</t>
   </si>
   <si>
-    <t>20019905</t>
-  </si>
-  <si>
     <t>AUTOFILL</t>
   </si>
   <si>
@@ -4640,33 +4629,6 @@
     <t>GlobalVendor 29March2021 10:49:09</t>
   </si>
   <si>
-    <t>176.80</t>
-  </si>
-  <si>
-    <t>1,060.80</t>
-  </si>
-  <si>
-    <t>63.65</t>
-  </si>
-  <si>
-    <t>1124.45</t>
-  </si>
-  <si>
-    <t>88.40</t>
-  </si>
-  <si>
-    <t>2,210.00</t>
-  </si>
-  <si>
-    <t>132.60</t>
-  </si>
-  <si>
-    <t>2342.6</t>
-  </si>
-  <si>
-    <t>7,248.80</t>
-  </si>
-  <si>
     <t>4210000-01</t>
   </si>
   <si>
@@ -4719,9 +4681,6 @@
   </si>
   <si>
     <t>200118295</t>
-  </si>
-  <si>
-    <t>200118297</t>
   </si>
   <si>
     <t xml:space="preserve">2001401534
@@ -4747,6 +4706,171 @@
   </si>
   <si>
     <t>200118300</t>
+  </si>
+  <si>
+    <t>EC1008</t>
+  </si>
+  <si>
+    <t>EC1008-Senior Finance Executive</t>
+  </si>
+  <si>
+    <t>2001AutomationUser</t>
+  </si>
+  <si>
+    <t>20010351</t>
+  </si>
+  <si>
+    <t>2001_AutoClient 18April2021 17:54:17</t>
+  </si>
+  <si>
+    <t>110706</t>
+  </si>
+  <si>
+    <t>110706001</t>
+  </si>
+  <si>
+    <t>110706001001</t>
+  </si>
+  <si>
+    <t>AutoGlobalBrand 18April2021 17:54:17</t>
+  </si>
+  <si>
+    <t>AutoGlobalProduct 18April2021 17:54:17</t>
+  </si>
+  <si>
+    <t>126904</t>
+  </si>
+  <si>
+    <t>GlobalVendor 18April2021 18:56:58</t>
+  </si>
+  <si>
+    <t>175.64</t>
+  </si>
+  <si>
+    <t>1,053.84</t>
+  </si>
+  <si>
+    <t>63.23</t>
+  </si>
+  <si>
+    <t>1117.07</t>
+  </si>
+  <si>
+    <t>87.82</t>
+  </si>
+  <si>
+    <t>2,195.50</t>
+  </si>
+  <si>
+    <t>131.73</t>
+  </si>
+  <si>
+    <t>2327.23</t>
+  </si>
+  <si>
+    <t>7,201.24</t>
+  </si>
+  <si>
+    <t>C:\GlobalTestAutomation2\GlobalTestSuiteAutomation\WppRegPack\MPLReports\Critical_Regression\Malaysia\2001\Print Job Order Confirmation-1.pdf</t>
+  </si>
+  <si>
+    <t>200110935</t>
+  </si>
+  <si>
+    <t>April BAU Regression</t>
+  </si>
+  <si>
+    <t>2001_APR Reg</t>
+  </si>
+  <si>
+    <t>200118410</t>
+  </si>
+  <si>
+    <t>5/19/2021</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>2001701659</t>
+  </si>
+  <si>
+    <t>2001401561</t>
+  </si>
+  <si>
+    <t>2001401562</t>
+  </si>
+  <si>
+    <t>2001401563</t>
+  </si>
+  <si>
+    <t>Single Payment Trans No</t>
+  </si>
+  <si>
+    <t>2001450992</t>
+  </si>
+  <si>
+    <t>Account Number</t>
+  </si>
+  <si>
+    <t>105723563101</t>
+  </si>
+  <si>
+    <t>200118414</t>
+  </si>
+  <si>
+    <t>Multiple Payment Trans No</t>
+  </si>
+  <si>
+    <t>2001450993</t>
+  </si>
+  <si>
+    <t>200118415</t>
+  </si>
+  <si>
+    <t>Foreign Payment Trans No</t>
+  </si>
+  <si>
+    <t>2001450994</t>
+  </si>
+  <si>
+    <t>200118416</t>
+  </si>
+  <si>
+    <t>200118417</t>
+  </si>
+  <si>
+    <t>Financeplus Malaysia (2001)</t>
+  </si>
+  <si>
+    <t>4/19/2021</t>
+  </si>
+  <si>
+    <t>4/1/2021</t>
+  </si>
+  <si>
+    <t>4/30/2021</t>
+  </si>
+  <si>
+    <t>2001607335</t>
+  </si>
+  <si>
+    <t>2001512726</t>
+  </si>
+  <si>
+    <t>JobNumber</t>
+  </si>
+  <si>
+    <t>1753101755</t>
+  </si>
+  <si>
+    <t>3rd Party Resource</t>
+  </si>
+  <si>
+    <t>PurchaseOrderMPL</t>
+  </si>
+  <si>
+    <t>C:\GlobalTestAutomation2\GlobalTestSuiteAutomation\WppRegPack\MPLReports\Critical_Regression\Malaysia\2001\P_PurchaseOrder-4.pdf</t>
   </si>
 </sst>
 </file>
@@ -5031,7 +5155,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -5216,9 +5340,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -5508,7 +5629,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5814,7 +5935,7 @@
   <dimension ref="A1:AH4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6032,13 +6153,13 @@
         <v>2001</v>
       </c>
       <c r="C4">
-        <v>20019905</v>
+        <v>20019933</v>
       </c>
       <c r="D4" t="s">
         <v>990</v>
       </c>
       <c r="E4" t="s">
-        <v>1524</v>
+        <v>1511</v>
       </c>
       <c r="F4" t="s">
         <v>510</v>
@@ -6061,7 +6182,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16:E18"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6110,7 +6231,7 @@
         <v>46</v>
       </c>
       <c r="E3" s="48">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -6127,7 +6248,7 @@
         <v>1108</v>
       </c>
       <c r="E4" t="s">
-        <v>1474</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -6211,6 +6332,9 @@
       <c r="D9">
         <v>8</v>
       </c>
+      <c r="E9">
+        <v>8</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
@@ -6225,6 +6349,9 @@
       <c r="D10">
         <v>8</v>
       </c>
+      <c r="E10">
+        <v>8</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
@@ -6234,6 +6361,9 @@
       <c r="D11">
         <v>8</v>
       </c>
+      <c r="E11">
+        <v>8</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
@@ -6305,7 +6435,9 @@
       <c r="D16" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="E16" s="19"/>
+      <c r="E16" s="19" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -6320,7 +6452,9 @@
       <c r="D17" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="E17" s="19"/>
+      <c r="E17" s="19" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -6335,7 +6469,9 @@
       <c r="D18" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="E18" s="19"/>
+      <c r="E18" s="19" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -6364,7 +6500,7 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6393,7 +6529,7 @@
         <v>1144</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>1489</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -6426,7 +6562,7 @@
         <v>1069</v>
       </c>
       <c r="C5" t="s">
-        <v>1490</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -6434,10 +6570,10 @@
         <v>27</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>1493</v>
+        <v>1489</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>1493</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -6459,7 +6595,7 @@
         <v>1145</v>
       </c>
       <c r="C8" s="90" t="s">
-        <v>1491</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -6547,7 +6683,7 @@
         <v>1141</v>
       </c>
       <c r="C16" s="48" t="s">
-        <v>1492</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -6558,7 +6694,7 @@
         <v>1141</v>
       </c>
       <c r="C17" s="48" t="s">
-        <v>1492</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -6569,7 +6705,7 @@
         <v>186</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>186</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -6580,7 +6716,7 @@
         <v>1143</v>
       </c>
       <c r="C19" s="46" t="s">
-        <v>1143</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -6624,20 +6760,21 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" style="19" width="24.140625" collapsed="true"/>
     <col min="2" max="3" customWidth="true" style="19" width="23.140625" collapsed="true"/>
-    <col min="4" max="16384" style="19" width="9.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="19" width="28.7109375" collapsed="true"/>
+    <col min="5" max="16384" style="19" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="39" t="s">
         <v>4</v>
       </c>
@@ -6647,8 +6784,11 @@
       <c r="C1" s="39" t="s">
         <v>1063</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="39">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
         <v>2</v>
       </c>
@@ -6658,8 +6798,11 @@
       <c r="C2" t="s">
         <v>1281</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="40" t="s">
         <v>1282</v>
       </c>
@@ -6669,8 +6812,11 @@
       <c r="C3" s="40" t="s">
         <v>1063</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" s="40">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="40" t="s">
         <v>182</v>
       </c>
@@ -6680,8 +6826,11 @@
       <c r="C4" s="40" t="s">
         <v>1141</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="48" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="40" t="s">
         <v>54</v>
       </c>
@@ -6689,8 +6838,11 @@
       <c r="C5" t="s">
         <v>1069</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="40" t="s">
         <v>15</v>
       </c>
@@ -6700,30 +6852,39 @@
       <c r="C6" s="40" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" s="40" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="40" t="s">
         <v>45</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>1493</v>
+        <v>1489</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>1493</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1489</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="40" t="s">
         <v>46</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>1493</v>
+        <v>1489</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>1493</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1489</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="40" t="s">
         <v>47</v>
       </c>
@@ -6732,6 +6893,9 @@
       </c>
       <c r="C9" s="40" t="s">
         <v>1063</v>
+      </c>
+      <c r="D9" s="40">
+        <v>2001</v>
       </c>
     </row>
   </sheetData>
@@ -6747,8 +6911,8 @@
   </sheetPr>
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6764,8 +6928,8 @@
       <c r="B1" t="s">
         <v>1063</v>
       </c>
-      <c r="C1">
-        <v>2001</v>
+      <c r="C1" s="48" t="s">
+        <v>1461</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -6776,7 +6940,7 @@
         <v>1144</v>
       </c>
       <c r="C2" t="s">
-        <v>1489</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -6820,7 +6984,7 @@
         <v>1069</v>
       </c>
       <c r="C6" t="s">
-        <v>1490</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -6831,7 +6995,7 @@
         <v>1338</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>1493</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -6853,7 +7017,7 @@
         <v>1144</v>
       </c>
       <c r="C9" t="s">
-        <v>1489</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -6941,7 +7105,7 @@
         <v>1141</v>
       </c>
       <c r="C17" s="48" t="s">
-        <v>1492</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -6952,7 +7116,7 @@
         <v>1141</v>
       </c>
       <c r="C18" s="48" t="s">
-        <v>1492</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -6962,8 +7126,8 @@
       <c r="B19" s="48" t="s">
         <v>186</v>
       </c>
-      <c r="C19" s="48" t="s">
-        <v>186</v>
+      <c r="C19" s="13" t="s">
+        <v>1535</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -6973,8 +7137,8 @@
       <c r="B20" t="s">
         <v>1143</v>
       </c>
-      <c r="C20" t="s">
-        <v>1143</v>
+      <c r="C20" s="46" t="s">
+        <v>1536</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -7018,7 +7182,7 @@
         <v>1338</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>1493</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -7029,7 +7193,7 @@
         <v>1339</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>1493</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -7040,7 +7204,7 @@
         <v>1146</v>
       </c>
       <c r="C26" t="s">
-        <v>1494</v>
+        <v>1490</v>
       </c>
     </row>
   </sheetData>
@@ -7544,39 +7708,41 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:FC91"/>
+  <dimension ref="A1:FE95"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" customWidth="true" style="19" width="39.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="19" width="27.85546875" collapsed="true"/>
-    <col min="7" max="159" customWidth="true" style="19" width="32.0" collapsed="true"/>
-    <col min="160" max="16384" style="19" width="9.140625" collapsed="true"/>
+    <col min="1" max="7" customWidth="true" style="19" width="39.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="19" width="27.85546875" collapsed="true"/>
+    <col min="9" max="161" customWidth="true" style="19" width="32.0" collapsed="true"/>
+    <col min="162" max="16384" style="19" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:159" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:161" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>175</v>
       </c>
       <c r="B1" s="10">
         <v>2001</v>
       </c>
-      <c r="C1" s="10">
+      <c r="C1" s="10"/>
+      <c r="D1" s="10">
+        <v>2001</v>
+      </c>
+      <c r="E1" s="10">
         <v>2011</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10">
+      <c r="F1" s="10"/>
+      <c r="G1" s="10">
         <v>2025</v>
       </c>
-      <c r="F1" s="10">
+      <c r="H1" s="10">
         <v>20234</v>
       </c>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
       <c r="I1" s="10"/>
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
@@ -7728,385 +7894,456 @@
       <c r="FA1" s="10"/>
       <c r="FB1" s="10"/>
       <c r="FC1" s="10"/>
-    </row>
-    <row r="2" spans="1:159" x14ac:dyDescent="0.25">
+      <c r="FD1" s="10"/>
+      <c r="FE1" s="10"/>
+    </row>
+    <row r="2" spans="1:161" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>180</v>
       </c>
       <c r="B2" t="s">
-        <v>1481</v>
+        <v>1466</v>
       </c>
       <c r="C2" t="s">
+        <v>1466</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1478</v>
+      </c>
+      <c r="E2" t="s">
         <v>1460</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>1460</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>1409</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>1277</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>1107</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>1259</v>
       </c>
     </row>
-    <row r="3" spans="1:159" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:161" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>182</v>
       </c>
       <c r="B3" t="s">
-        <v>1537</v>
+        <v>1538</v>
+      </c>
+      <c r="C3" s="48" t="s">
+        <v>1478</v>
       </c>
       <c r="D3" t="s">
+        <v>1524</v>
+      </c>
+      <c r="F3" t="s">
         <v>1464</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>1340</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
         <v>1148</v>
       </c>
     </row>
-    <row r="4" spans="1:159" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:161" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>183</v>
       </c>
       <c r="B4" t="s">
-        <v>1533</v>
-      </c>
-      <c r="C4" t="s">
-        <v>1475</v>
-      </c>
-      <c r="D4" s="48" t="s">
-        <v>1468</v>
+        <v>1563</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1520</v>
       </c>
       <c r="E4" t="s">
+        <v>1473</v>
+      </c>
+      <c r="F4" s="48" t="s">
+        <v>1466</v>
+      </c>
+      <c r="G4" t="s">
         <v>1367</v>
       </c>
-      <c r="F4" t="s">
+      <c r="H4" t="s">
         <v>1150</v>
       </c>
     </row>
-    <row r="5" spans="1:159" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:161" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>199</v>
       </c>
       <c r="B5" t="s">
-        <v>1528</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1469</v>
-      </c>
-      <c r="D5">
+        <v>1557</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1515</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1467</v>
+      </c>
+      <c r="F5">
         <v>200120274</v>
       </c>
-      <c r="E5" t="s">
+      <c r="G5" t="s">
         <v>1360</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="H5" s="19" t="s">
         <v>1140</v>
       </c>
     </row>
-    <row r="6" spans="1:159" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:161" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
         <v>710</v>
       </c>
-      <c r="B6" s="19" t="s">
-        <v>1530</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>1470</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="B6" t="s">
+        <v>1560</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>1517</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>1468</v>
+      </c>
+      <c r="G6" t="s">
         <v>1364</v>
       </c>
-      <c r="F6" t="s">
+      <c r="H6" t="s">
         <v>1157</v>
       </c>
     </row>
-    <row r="7" spans="1:159" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:161" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
         <v>711</v>
       </c>
-      <c r="B7" s="19" t="s">
-        <v>1529</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>1471</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="B7" t="s">
+        <v>1559</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>1516</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>1469</v>
+      </c>
+      <c r="G7" t="s">
         <v>1361</v>
       </c>
-      <c r="F7" t="s">
+      <c r="H7" t="s">
         <v>1152</v>
       </c>
-      <c r="G7" t="s">
+      <c r="I7" t="s">
         <v>1152</v>
       </c>
     </row>
-    <row r="8" spans="1:159" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:161" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
         <v>1020</v>
       </c>
       <c r="B8" t="s">
         <v>1432</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>1432</v>
       </c>
       <c r="E8" t="s">
+        <v>1432</v>
+      </c>
+      <c r="G8" t="s">
         <v>1141</v>
       </c>
-      <c r="F8" t="s">
+      <c r="H8" t="s">
         <v>1141</v>
       </c>
     </row>
-    <row r="9" spans="1:159" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:161" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
         <v>1021</v>
       </c>
       <c r="B9" t="s">
         <v>1444</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>1444</v>
       </c>
       <c r="E9" t="s">
+        <v>1444</v>
+      </c>
+      <c r="G9" t="s">
         <v>995</v>
       </c>
-      <c r="F9" t="s">
+      <c r="H9" t="s">
         <v>995</v>
       </c>
     </row>
-    <row r="10" spans="1:159" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:161" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
         <v>1022</v>
       </c>
-      <c r="B10" s="19" t="s">
-        <v>1532</v>
-      </c>
-      <c r="C10" t="s">
-        <v>1473</v>
+      <c r="B10" t="s">
+        <v>1562</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>1519</v>
       </c>
       <c r="E10" t="s">
+        <v>1471</v>
+      </c>
+      <c r="G10" t="s">
         <v>1366</v>
       </c>
-      <c r="F10" t="s">
+      <c r="H10" t="s">
         <v>1142</v>
       </c>
     </row>
-    <row r="11" spans="1:159" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:161" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
         <v>1023</v>
       </c>
     </row>
-    <row r="12" spans="1:159" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:161" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
         <v>1024</v>
       </c>
     </row>
-    <row r="13" spans="1:159" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:161" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
         <v>970</v>
       </c>
-      <c r="B13" s="19" t="s">
-        <v>1498</v>
-      </c>
-      <c r="C13" s="19" t="s">
+      <c r="B13" s="49" t="s">
+        <v>1540</v>
+      </c>
+      <c r="C13" s="49"/>
+      <c r="D13" s="19" t="s">
+        <v>1494</v>
+      </c>
+      <c r="E13" s="19" t="s">
         <v>1434</v>
       </c>
-      <c r="E13" t="s">
+      <c r="G13" t="s">
         <v>1346</v>
       </c>
-      <c r="F13" t="s">
+      <c r="H13" t="s">
         <v>1316</v>
       </c>
     </row>
-    <row r="14" spans="1:159" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:161" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
         <v>1025</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>1499</v>
-      </c>
-      <c r="C14" s="19" t="s">
+        <v>1539</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>1495</v>
+      </c>
+      <c r="E14" s="19" t="s">
         <v>1433</v>
       </c>
-      <c r="E14" t="s">
+      <c r="G14" t="s">
         <v>1347</v>
       </c>
-      <c r="F14" t="s">
+      <c r="H14" t="s">
         <v>1317</v>
       </c>
     </row>
-    <row r="15" spans="1:159" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:161" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
         <v>971</v>
       </c>
-      <c r="B15" s="19" t="s">
-        <v>1506</v>
-      </c>
-      <c r="C15" s="19" t="s">
+      <c r="B15" s="49" t="s">
+        <v>1541</v>
+      </c>
+      <c r="C15" s="49"/>
+      <c r="D15" s="19" t="s">
+        <v>1502</v>
+      </c>
+      <c r="E15" s="19" t="s">
         <v>1435</v>
       </c>
-      <c r="E15" t="s">
+      <c r="G15" t="s">
         <v>1348</v>
       </c>
-      <c r="F15" t="s">
+      <c r="H15" t="s">
         <v>1318</v>
       </c>
     </row>
-    <row r="16" spans="1:159" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:161" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
         <v>1026</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>1507</v>
-      </c>
-      <c r="C16" s="19" t="s">
+        <v>1543</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>1503</v>
+      </c>
+      <c r="E16" s="19" t="s">
         <v>1436</v>
       </c>
-      <c r="E16" t="s">
+      <c r="G16" t="s">
         <v>1349</v>
       </c>
-      <c r="F16" t="s">
+      <c r="H16" t="s">
         <v>1319</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
         <v>972</v>
       </c>
-      <c r="B17" s="19" t="s">
-        <v>1508</v>
-      </c>
-      <c r="C17" s="19" t="s">
+      <c r="B17" s="49" t="s">
+        <v>1542</v>
+      </c>
+      <c r="C17" s="49"/>
+      <c r="D17" s="19" t="s">
+        <v>1504</v>
+      </c>
+      <c r="E17" s="19" t="s">
         <v>1437</v>
       </c>
-      <c r="E17" t="s">
+      <c r="G17" t="s">
         <v>1350</v>
       </c>
-      <c r="F17" t="s">
+      <c r="H17" t="s">
         <v>1320</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="s">
         <v>1027</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>1509</v>
-      </c>
-      <c r="C18" s="19" t="s">
+        <v>1544</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>1505</v>
+      </c>
+      <c r="E18" s="19" t="s">
         <v>1438</v>
       </c>
-      <c r="E18" t="s">
+      <c r="G18" t="s">
         <v>1351</v>
       </c>
-      <c r="F18" t="s">
+      <c r="H18" t="s">
         <v>1321</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
         <v>1028</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="19" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="19" t="s">
         <v>187</v>
       </c>
       <c r="B21" t="s">
-        <v>1510</v>
-      </c>
-      <c r="C21" t="s">
+        <v>1545</v>
+      </c>
+      <c r="C21"/>
+      <c r="D21" t="s">
+        <v>1506</v>
+      </c>
+      <c r="E21" t="s">
         <v>1439</v>
       </c>
-      <c r="D21"/>
-      <c r="E21" t="s">
+      <c r="F21"/>
+      <c r="G21" t="s">
         <v>1352</v>
       </c>
-      <c r="F21" t="s">
+      <c r="H21" t="s">
         <v>1322</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="19" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="19" t="s">
         <v>1031</v>
       </c>
       <c r="B23" t="s">
-        <v>1548</v>
-      </c>
-      <c r="C23" t="s">
-        <v>1487</v>
+        <v>1578</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1534</v>
       </c>
       <c r="E23" t="s">
+        <v>1484</v>
+      </c>
+      <c r="G23" t="s">
         <v>1395</v>
       </c>
-      <c r="F23" t="s">
+      <c r="H23" t="s">
         <v>1229</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="F24" t="s">
+      <c r="H24" t="s">
         <v>1149</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="19" t="s">
         <v>1032</v>
       </c>
       <c r="B25" t="s">
-        <v>1481</v>
-      </c>
-      <c r="C25" t="s">
-        <v>1481</v>
-      </c>
-      <c r="D25"/>
+        <v>1478</v>
+      </c>
+      <c r="C25"/>
+      <c r="D25" t="s">
+        <v>1478</v>
+      </c>
       <c r="E25" t="s">
+        <v>1478</v>
+      </c>
+      <c r="F25"/>
+      <c r="G25" t="s">
         <v>1409</v>
       </c>
-      <c r="F25" t="s">
+      <c r="H25" t="s">
         <v>1277</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="19" t="s">
         <v>1033</v>
       </c>
       <c r="B26" t="s">
         <v>201</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26"/>
+      <c r="D26" t="s">
         <v>201</v>
       </c>
-      <c r="D26"/>
       <c r="E26" t="s">
         <v>201</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26"/>
+      <c r="G26" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H26" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>1034</v>
       </c>
@@ -8114,44 +8351,54 @@
       <c r="C27"/>
       <c r="D27"/>
       <c r="E27"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F27"/>
+      <c r="G27"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>1035</v>
       </c>
-      <c r="B28" s="48" t="s">
-        <v>1531</v>
-      </c>
-      <c r="C28" s="48" t="s">
-        <v>1472</v>
-      </c>
-      <c r="D28"/>
-      <c r="E28" t="s">
+      <c r="B28" t="s">
+        <v>1561</v>
+      </c>
+      <c r="C28"/>
+      <c r="D28" s="48" t="s">
+        <v>1518</v>
+      </c>
+      <c r="E28" s="48" t="s">
+        <v>1470</v>
+      </c>
+      <c r="F28"/>
+      <c r="G28" t="s">
         <v>1365</v>
       </c>
-      <c r="F28" t="s">
+      <c r="H28" t="s">
         <v>1158</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>1036</v>
       </c>
       <c r="B29" t="s">
         <v>1427</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29"/>
+      <c r="D29" t="s">
         <v>1427</v>
       </c>
-      <c r="D29"/>
       <c r="E29" t="s">
+        <v>1427</v>
+      </c>
+      <c r="F29"/>
+      <c r="G29" t="s">
         <v>1404</v>
       </c>
-      <c r="F29" t="s">
+      <c r="H29" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>958</v>
       </c>
@@ -8159,8 +8406,10 @@
       <c r="C30"/>
       <c r="D30"/>
       <c r="E30"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F30"/>
+      <c r="G30"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>1037</v>
       </c>
@@ -8168,8 +8417,10 @@
       <c r="C31"/>
       <c r="D31"/>
       <c r="E31"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F31"/>
+      <c r="G31"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>1038</v>
       </c>
@@ -8177,8 +8428,10 @@
       <c r="C32"/>
       <c r="D32"/>
       <c r="E32"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F32"/>
+      <c r="G32"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>1039</v>
       </c>
@@ -8186,8 +8439,10 @@
       <c r="C33"/>
       <c r="D33"/>
       <c r="E33"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F33"/>
+      <c r="G33"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>1040</v>
       </c>
@@ -8195,8 +8450,10 @@
       <c r="C34"/>
       <c r="D34"/>
       <c r="E34"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F34"/>
+      <c r="G34"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>1041</v>
       </c>
@@ -8204,8 +8461,10 @@
       <c r="C35"/>
       <c r="D35"/>
       <c r="E35"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F35"/>
+      <c r="G35"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>1042</v>
       </c>
@@ -8213,8 +8472,10 @@
       <c r="C36"/>
       <c r="D36"/>
       <c r="E36"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F36"/>
+      <c r="G36"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>1043</v>
       </c>
@@ -8222,8 +8483,10 @@
       <c r="C37"/>
       <c r="D37"/>
       <c r="E37"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F37"/>
+      <c r="G37"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>1044</v>
       </c>
@@ -8231,8 +8494,10 @@
       <c r="C38"/>
       <c r="D38"/>
       <c r="E38"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F38"/>
+      <c r="G38"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>1045</v>
       </c>
@@ -8240,8 +8505,10 @@
       <c r="C39"/>
       <c r="D39"/>
       <c r="E39"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F39"/>
+      <c r="G39"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>1046</v>
       </c>
@@ -8249,48 +8516,50 @@
       <c r="C40"/>
       <c r="D40"/>
       <c r="E40"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F40"/>
+      <c r="G40"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="19" t="s">
         <v>1047</v>
       </c>
-      <c r="E41" s="19" t="s">
+      <c r="G41" s="19" t="s">
         <v>1354</v>
       </c>
-      <c r="F41" s="19" t="s">
+      <c r="H41" s="19" t="s">
         <v>1277</v>
       </c>
-      <c r="G41" t="s">
+      <c r="I41" t="s">
         <v>1107</v>
       </c>
-      <c r="H41" t="s">
+      <c r="J41" t="s">
         <v>1107</v>
       </c>
-      <c r="I41" t="s">
+      <c r="K41" t="s">
         <v>1263</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="19" t="s">
         <v>1197</v>
       </c>
-      <c r="E42" s="19" t="s">
+      <c r="G42" s="19" t="s">
         <v>1392</v>
       </c>
-      <c r="F42" s="19" t="s">
+      <c r="H42" s="19" t="s">
         <v>1279</v>
       </c>
-      <c r="G42" s="19" t="s">
+      <c r="I42" s="19" t="s">
         <v>1198</v>
       </c>
-      <c r="H42" s="19" t="s">
+      <c r="J42" s="19" t="s">
         <v>1255</v>
       </c>
-      <c r="I42" t="s">
+      <c r="K42" t="s">
         <v>1259</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>1048</v>
       </c>
@@ -8298,8 +8567,10 @@
       <c r="C43"/>
       <c r="D43"/>
       <c r="E43"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F43"/>
+      <c r="G43"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>1049</v>
       </c>
@@ -8307,38 +8578,40 @@
       <c r="C44"/>
       <c r="D44"/>
       <c r="E44"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F44"/>
+      <c r="G44"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="19" t="s">
         <v>1050</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="19" t="s">
         <v>1051</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="19" t="s">
         <v>1052</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="19" t="s">
         <v>1053</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="19" t="s">
         <v>1054</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="19" t="s">
         <v>1055</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>1056</v>
       </c>
@@ -8346,8 +8619,10 @@
       <c r="C51"/>
       <c r="D51"/>
       <c r="E51"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F51"/>
+      <c r="G51"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>1057</v>
       </c>
@@ -8355,8 +8630,10 @@
       <c r="C52"/>
       <c r="D52"/>
       <c r="E52"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F52"/>
+      <c r="G52"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>1058</v>
       </c>
@@ -8364,8 +8641,10 @@
       <c r="C53"/>
       <c r="D53"/>
       <c r="E53"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F53"/>
+      <c r="G53"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>1059</v>
       </c>
@@ -8373,8 +8652,10 @@
       <c r="C54"/>
       <c r="D54"/>
       <c r="E54"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F54"/>
+      <c r="G54"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>1060</v>
       </c>
@@ -8382,8 +8663,10 @@
       <c r="C55"/>
       <c r="D55"/>
       <c r="E55"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F55"/>
+      <c r="G55"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>1061</v>
       </c>
@@ -8391,8 +8674,10 @@
       <c r="C56"/>
       <c r="D56"/>
       <c r="E56"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F56"/>
+      <c r="G56"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>1062</v>
       </c>
@@ -8400,324 +8685,396 @@
       <c r="C57"/>
       <c r="D57"/>
       <c r="E57"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F57"/>
+      <c r="G57"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>248</v>
       </c>
       <c r="B58" t="s">
-        <v>1484</v>
-      </c>
-      <c r="C58" t="s">
-        <v>1484</v>
-      </c>
-      <c r="D58"/>
+        <v>1481</v>
+      </c>
+      <c r="C58"/>
+      <c r="D58" t="s">
+        <v>1481</v>
+      </c>
       <c r="E58" t="s">
+        <v>1481</v>
+      </c>
+      <c r="F58"/>
+      <c r="G58" t="s">
         <v>1403</v>
       </c>
-      <c r="F58" t="s">
+      <c r="H58" t="s">
         <v>1151</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>1072</v>
       </c>
       <c r="B59" t="s">
         <v>286</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59"/>
+      <c r="D59" t="s">
         <v>286</v>
       </c>
-      <c r="D59"/>
       <c r="E59" t="s">
         <v>286</v>
       </c>
-      <c r="F59" t="s">
+      <c r="F59"/>
+      <c r="G59" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H59" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>1131</v>
       </c>
       <c r="B60" t="s">
-        <v>1544</v>
-      </c>
-      <c r="C60" t="s">
         <v>1278</v>
       </c>
-      <c r="D60"/>
+      <c r="C60"/>
+      <c r="D60" t="s">
+        <v>1530</v>
+      </c>
       <c r="E60" t="s">
+        <v>1278</v>
+      </c>
+      <c r="F60"/>
+      <c r="G60" t="s">
         <v>1410</v>
       </c>
-      <c r="F60" t="s">
+      <c r="H60" t="s">
         <v>1278</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>1132</v>
       </c>
       <c r="B61" t="s">
-        <v>1545</v>
-      </c>
-      <c r="C61" t="s">
+        <v>1556</v>
+      </c>
+      <c r="C61"/>
+      <c r="D61" t="s">
+        <v>1531</v>
+      </c>
+      <c r="E61" t="s">
         <v>1278</v>
       </c>
-      <c r="D61"/>
-      <c r="E61" t="s">
+      <c r="F61"/>
+      <c r="G61" t="s">
         <v>1411</v>
       </c>
-      <c r="F61" t="s">
+      <c r="H61" t="s">
         <v>1278</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>1153</v>
       </c>
       <c r="B62" t="s">
         <v>1284</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62"/>
+      <c r="D62" t="s">
         <v>1284</v>
       </c>
-      <c r="D62"/>
       <c r="E62" t="s">
         <v>1284</v>
       </c>
-      <c r="F62" t="s">
+      <c r="F62"/>
+      <c r="G62" t="s">
         <v>1284</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H62" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>1154</v>
       </c>
-      <c r="B63" s="96" t="s">
+      <c r="B63" t="s">
         <v>1155</v>
       </c>
-      <c r="C63" s="96" t="s">
+      <c r="C63"/>
+      <c r="D63" s="96" t="s">
         <v>1155</v>
       </c>
-      <c r="D63"/>
-      <c r="E63" t="s">
+      <c r="E63" s="96" t="s">
+        <v>1155</v>
+      </c>
+      <c r="F63"/>
+      <c r="G63" t="s">
         <v>1363</v>
       </c>
-      <c r="F63" t="s">
+      <c r="H63" t="s">
         <v>1155</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>1156</v>
       </c>
-      <c r="B64" s="96" t="s">
+      <c r="B64" t="s">
         <v>1155</v>
       </c>
-      <c r="C64" s="96" t="s">
+      <c r="C64"/>
+      <c r="D64" s="96" t="s">
         <v>1155</v>
       </c>
-      <c r="D64"/>
-      <c r="E64" t="s">
+      <c r="E64" s="96" t="s">
+        <v>1155</v>
+      </c>
+      <c r="F64"/>
+      <c r="G64" t="s">
         <v>1363</v>
       </c>
-      <c r="F64" t="s">
+      <c r="H64" t="s">
         <v>1155</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>1159</v>
       </c>
       <c r="B65" t="s">
-        <v>1530</v>
-      </c>
-      <c r="C65" t="s">
-        <v>1470</v>
-      </c>
-      <c r="D65"/>
+        <v>1560</v>
+      </c>
+      <c r="C65"/>
+      <c r="D65" t="s">
+        <v>1517</v>
+      </c>
       <c r="E65" t="s">
+        <v>1468</v>
+      </c>
+      <c r="F65"/>
+      <c r="G65" t="s">
         <v>1364</v>
       </c>
-      <c r="F65" t="s">
+      <c r="H65" t="s">
         <v>1157</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>1196</v>
       </c>
       <c r="B66"/>
       <c r="C66"/>
       <c r="D66"/>
-      <c r="E66" t="s">
+      <c r="E66"/>
+      <c r="F66"/>
+      <c r="G66" t="s">
         <v>1391</v>
       </c>
-      <c r="F66" t="s">
+      <c r="H66" t="s">
         <v>1260</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>1199</v>
       </c>
       <c r="B67" t="s">
-        <v>1539</v>
-      </c>
-      <c r="C67" t="s">
-        <v>1479</v>
-      </c>
-      <c r="D67"/>
+        <v>1571</v>
+      </c>
+      <c r="C67"/>
+      <c r="D67" t="s">
+        <v>1526</v>
+      </c>
       <c r="E67" t="s">
+        <v>1476</v>
+      </c>
+      <c r="F67"/>
+      <c r="G67" t="s">
         <v>1393</v>
       </c>
-      <c r="F67" t="s">
+      <c r="H67" t="s">
         <v>1257</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>1200</v>
       </c>
       <c r="B68" t="s">
-        <v>1538</v>
-      </c>
-      <c r="C68" t="s">
-        <v>1477</v>
-      </c>
-      <c r="D68"/>
+        <v>1564</v>
+      </c>
+      <c r="C68"/>
+      <c r="D68" t="s">
+        <v>1525</v>
+      </c>
       <c r="E68" t="s">
+        <v>1474</v>
+      </c>
+      <c r="F68"/>
+      <c r="G68" t="s">
         <v>1392</v>
       </c>
-      <c r="F68" t="s">
+      <c r="H68" t="s">
         <v>1272</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>1201</v>
       </c>
       <c r="B69" t="s">
+        <v>1466</v>
+      </c>
+      <c r="C69"/>
+      <c r="D69" t="s">
         <v>1460</v>
       </c>
-      <c r="C69" t="s">
+      <c r="E69" t="s">
         <v>1460</v>
       </c>
-      <c r="D69"/>
-      <c r="E69" t="s">
+      <c r="F69"/>
+      <c r="G69" t="s">
         <v>1354</v>
       </c>
-      <c r="F69" t="s">
+      <c r="H69" t="s">
         <v>1259</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>1246</v>
       </c>
       <c r="B70" t="s">
         <v>1288</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70"/>
+      <c r="D70" t="s">
         <v>1288</v>
       </c>
-      <c r="D70"/>
       <c r="E70" t="s">
         <v>1288</v>
       </c>
-      <c r="F70" t="s">
+      <c r="F70"/>
+      <c r="G70" t="s">
         <v>1288</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H70" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>1247</v>
       </c>
-      <c r="B71" t="s">
-        <v>1541</v>
+      <c r="B71" s="48" t="s">
+        <v>1564</v>
       </c>
       <c r="C71"/>
-      <c r="D71"/>
-      <c r="E71" t="s">
+      <c r="D71" t="s">
+        <v>1527</v>
+      </c>
+      <c r="E71"/>
+      <c r="F71"/>
+      <c r="G71" t="s">
         <v>1412</v>
       </c>
-      <c r="F71" t="s">
+      <c r="H71" t="s">
         <v>1248</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>1249</v>
       </c>
       <c r="B72" t="s">
-        <v>1468</v>
+        <v>1466</v>
       </c>
       <c r="C72"/>
-      <c r="D72"/>
-      <c r="E72" t="s">
+      <c r="D72" t="s">
+        <v>1466</v>
+      </c>
+      <c r="E72"/>
+      <c r="F72"/>
+      <c r="G72" t="s">
         <v>1409</v>
       </c>
-      <c r="F72" t="s">
+      <c r="H72" t="s">
         <v>1107</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>1253</v>
       </c>
       <c r="B73" t="s">
-        <v>1542</v>
-      </c>
-      <c r="C73" t="s">
-        <v>1482</v>
-      </c>
-      <c r="D73"/>
+        <v>1566</v>
+      </c>
+      <c r="C73"/>
+      <c r="D73" t="s">
+        <v>1528</v>
+      </c>
       <c r="E73" t="s">
+        <v>1479</v>
+      </c>
+      <c r="F73"/>
+      <c r="G73" t="s">
         <v>1413</v>
       </c>
-      <c r="F73" t="s">
+      <c r="H73" t="s">
         <v>1279</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>1254</v>
       </c>
       <c r="B74" t="s">
-        <v>1468</v>
-      </c>
-      <c r="C74" t="s">
-        <v>1481</v>
-      </c>
-      <c r="D74"/>
+        <v>1464</v>
+      </c>
+      <c r="C74"/>
+      <c r="D74" t="s">
+        <v>1466</v>
+      </c>
       <c r="E74" t="s">
+        <v>1478</v>
+      </c>
+      <c r="F74"/>
+      <c r="G74" t="s">
         <v>1409</v>
       </c>
-      <c r="F74" t="s">
+      <c r="H74" t="s">
         <v>1277</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>1256</v>
       </c>
       <c r="B75" t="s">
-        <v>1543</v>
-      </c>
-      <c r="C75" t="s">
-        <v>1483</v>
-      </c>
-      <c r="D75"/>
+        <v>1577</v>
+      </c>
+      <c r="C75"/>
+      <c r="D75" t="s">
+        <v>1529</v>
+      </c>
       <c r="E75" t="s">
+        <v>1480</v>
+      </c>
+      <c r="F75"/>
+      <c r="G75" t="s">
         <v>1414</v>
       </c>
-      <c r="F75" t="s">
+      <c r="H75" t="s">
         <v>1280</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>1261</v>
       </c>
@@ -8725,187 +9082,261 @@
       <c r="C76"/>
       <c r="D76"/>
       <c r="E76"/>
-      <c r="F76" t="s">
+      <c r="F76"/>
+      <c r="G76"/>
+      <c r="H76" t="s">
         <v>1262</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="19" t="s">
         <v>1264</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="19" t="s">
         <v>1265</v>
       </c>
-      <c r="F78"/>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H78"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="19" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="19" t="s">
         <v>1267</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="19" t="s">
         <v>1268</v>
       </c>
-      <c r="G81" t="s">
+      <c r="I81" t="s">
         <v>1107</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="19" t="s">
         <v>1269</v>
       </c>
-      <c r="G82" t="s">
+      <c r="I82" t="s">
         <v>1248</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>1273</v>
       </c>
       <c r="B83" t="s">
-        <v>1546</v>
-      </c>
-      <c r="C83" t="s">
-        <v>1478</v>
-      </c>
-      <c r="D83"/>
+        <v>1565</v>
+      </c>
+      <c r="C83"/>
+      <c r="D83" t="s">
+        <v>1532</v>
+      </c>
       <c r="E83" t="s">
+        <v>1475</v>
+      </c>
+      <c r="F83"/>
+      <c r="G83" t="s">
         <v>1408</v>
       </c>
-      <c r="F83" t="s">
+      <c r="H83" t="s">
         <v>1255</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>1274</v>
       </c>
       <c r="B84" t="s">
-        <v>1481</v>
-      </c>
-      <c r="C84" t="s">
+        <v>1460</v>
+      </c>
+      <c r="C84"/>
+      <c r="D84" t="s">
+        <v>1478</v>
+      </c>
+      <c r="E84" t="s">
         <v>1464</v>
       </c>
-      <c r="D84"/>
-      <c r="E84" t="s">
+      <c r="F84"/>
+      <c r="G84" t="s">
         <v>1406</v>
       </c>
-      <c r="F84" t="s">
+      <c r="H84" t="s">
         <v>1107</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>1275</v>
       </c>
       <c r="B85" t="s">
-        <v>1547</v>
-      </c>
-      <c r="C85" t="s">
-        <v>1480</v>
-      </c>
-      <c r="D85"/>
+        <v>1574</v>
+      </c>
+      <c r="C85"/>
+      <c r="D85" t="s">
+        <v>1533</v>
+      </c>
       <c r="E85" t="s">
+        <v>1477</v>
+      </c>
+      <c r="F85"/>
+      <c r="G85" t="s">
         <v>1407</v>
       </c>
-      <c r="F85" t="s">
+      <c r="H85" t="s">
         <v>1276</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>1285</v>
       </c>
       <c r="B86" t="s">
-        <v>1534</v>
-      </c>
-      <c r="C86" t="s">
+        <v>1521</v>
+      </c>
+      <c r="C86"/>
+      <c r="D86" t="s">
+        <v>1521</v>
+      </c>
+      <c r="E86" t="s">
         <v>1278</v>
       </c>
-      <c r="D86"/>
-      <c r="E86" t="s">
+      <c r="F86"/>
+      <c r="G86" t="s">
         <v>1399</v>
       </c>
-      <c r="F86" t="s">
+      <c r="H86" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>1289</v>
       </c>
       <c r="B87" t="s">
-        <v>1535</v>
-      </c>
-      <c r="C87" t="s">
-        <v>1488</v>
-      </c>
-      <c r="D87"/>
+        <v>1584</v>
+      </c>
+      <c r="C87"/>
+      <c r="D87" t="s">
+        <v>1522</v>
+      </c>
       <c r="E87" t="s">
+        <v>1485</v>
+      </c>
+      <c r="F87"/>
+      <c r="G87" t="s">
         <v>1400</v>
       </c>
-      <c r="F87" t="s">
+      <c r="H87" t="s">
         <v>1290</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>1291</v>
       </c>
       <c r="B88" t="s">
-        <v>1536</v>
-      </c>
-      <c r="C88" t="s">
+        <v>1523</v>
+      </c>
+      <c r="C88"/>
+      <c r="D88" t="s">
+        <v>1523</v>
+      </c>
+      <c r="E88" t="s">
         <v>1278</v>
       </c>
-      <c r="D88"/>
-      <c r="E88" t="s">
+      <c r="F88"/>
+      <c r="G88" t="s">
         <v>1401</v>
       </c>
-      <c r="F88" t="s">
+      <c r="H88" t="s">
         <v>1292</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>1323</v>
       </c>
       <c r="B89" t="s">
         <v>510</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C89"/>
+      <c r="D89" t="s">
         <v>510</v>
       </c>
-      <c r="D89"/>
       <c r="E89" t="s">
         <v>510</v>
       </c>
-      <c r="F89" t="s">
+      <c r="F89"/>
+      <c r="G89" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H89" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="19" t="s">
         <v>1334</v>
       </c>
-      <c r="E90" t="s">
+      <c r="G90" t="s">
         <v>1341</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>1511</v>
+        <v>1507</v>
       </c>
       <c r="B91" t="s">
-        <v>1512</v>
+        <v>1546</v>
+      </c>
+      <c r="C91"/>
+      <c r="D91" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>1567</v>
+      </c>
+      <c r="B92" t="s">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>1569</v>
+      </c>
+      <c r="B93" t="s">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B94" t="s">
+        <v>1573</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>1575</v>
+      </c>
+      <c r="B95" t="s">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>1588</v>
+      </c>
+      <c r="B96" t="s">
+        <v>1589</v>
       </c>
     </row>
   </sheetData>
@@ -11004,7 +11435,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11095,7 +11526,7 @@
         <v>1402</v>
       </c>
       <c r="D6" s="92" t="s">
-        <v>1495</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -11140,7 +11571,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11198,7 +11629,7 @@
         <v>250</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -11243,7 +11674,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11507,7 +11938,7 @@
   <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11640,16 +12071,16 @@
         <v>2001</v>
       </c>
       <c r="C6" s="49" t="s">
-        <v>1495</v>
+        <v>1489</v>
       </c>
       <c r="D6" s="49" t="s">
-        <v>1495</v>
+        <v>1489</v>
       </c>
       <c r="E6" t="s">
-        <v>1466</v>
+        <v>1559</v>
       </c>
       <c r="F6" t="s">
-        <v>1467</v>
+        <v>1558</v>
       </c>
     </row>
   </sheetData>
@@ -11821,10 +12252,10 @@
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11835,7 +12266,7 @@
     <col min="4" max="16384" style="19" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="31" t="s">
         <v>4</v>
       </c>
@@ -11855,15 +12286,15 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="F2" s="48" t="s">
-        <v>1460</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>0</v>
       </c>
@@ -11883,12 +12314,12 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>970</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>205</v>
       </c>
@@ -11908,13 +12339,19 @@
         <v>510</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
         <v>1251</v>
       </c>
-      <c r="F6" s="19" t="s">
-        <v>1538</v>
-      </c>
+      <c r="F6" s="48" t="s">
+        <v>1564</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I10" s="48"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13983,8 +14420,8 @@
   </sheetPr>
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14024,8 +14461,8 @@
       <c r="E2">
         <v>202522371</v>
       </c>
-      <c r="F2" s="48" t="s">
-        <v>1481</v>
+      <c r="F2">
+        <v>200120271</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -14080,8 +14517,8 @@
       <c r="E6">
         <v>2025401646</v>
       </c>
-      <c r="F6" s="19" t="s">
-        <v>1546</v>
+      <c r="F6" s="48" t="s">
+        <v>1565</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -14162,7 +14599,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C7" sqref="A7:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14191,7 +14628,7 @@
         <v>1409</v>
       </c>
       <c r="C2" s="48" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -14228,8 +14665,8 @@
       <c r="B6" s="19" t="s">
         <v>1413</v>
       </c>
-      <c r="C6" s="19" t="s">
-        <v>1542</v>
+      <c r="C6" s="48" t="s">
+        <v>1566</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -14237,6 +14674,9 @@
         <v>1252</v>
       </c>
       <c r="B7" s="19" t="s">
+        <v>257</v>
+      </c>
+      <c r="C7" s="19" t="s">
         <v>257</v>
       </c>
     </row>
@@ -14737,7 +15177,7 @@
         <v>1394</v>
       </c>
       <c r="C5" s="84" t="s">
-        <v>1495</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -14816,7 +15256,7 @@
         <v>1394</v>
       </c>
       <c r="C3" s="84" t="s">
-        <v>1495</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -14914,7 +15354,7 @@
         <v>1394</v>
       </c>
       <c r="C6" s="48" t="s">
-        <v>1495</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -14957,10 +15397,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14971,7 +15411,7 @@
     <col min="4" max="4" customWidth="true" style="1" width="33.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>4</v>
       </c>
@@ -14982,7 +15422,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
@@ -14993,7 +15433,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>54</v>
       </c>
@@ -15004,7 +15444,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>5</v>
       </c>
@@ -15015,7 +15455,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>7</v>
       </c>
@@ -15026,7 +15466,7 @@
         <v>1422</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>975</v>
       </c>
@@ -15037,7 +15477,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>56</v>
       </c>
@@ -15048,7 +15488,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>57</v>
       </c>
@@ -15059,7 +15499,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>19</v>
       </c>
@@ -15070,7 +15510,7 @@
         <v>1424</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>53</v>
       </c>
@@ -15081,7 +15521,7 @@
         <v>1425</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>18</v>
       </c>
@@ -15092,7 +15532,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>17</v>
       </c>
@@ -15103,7 +15543,7 @@
         <v>1426</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>9</v>
       </c>
@@ -15116,8 +15556,11 @@
       <c r="D13" s="4" t="s">
         <v>1427</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E13" s="4" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>58</v>
       </c>
@@ -15130,15 +15573,18 @@
       <c r="D14" s="21" t="s">
         <v>1428</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" s="21" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B15" s="6"/>
       <c r="D15" s="6"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>11</v>
       </c>
@@ -15320,7 +15766,7 @@
         <v>916</v>
       </c>
       <c r="B9" s="48" t="s">
-        <v>1496</v>
+        <v>1492</v>
       </c>
       <c r="C9" s="48" t="s">
         <v>1342</v>
@@ -15334,7 +15780,7 @@
         <v>918</v>
       </c>
       <c r="B10" s="48" t="s">
-        <v>1497</v>
+        <v>1493</v>
       </c>
       <c r="C10" s="48" t="s">
         <v>1343</v>
@@ -15552,10 +15998,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>1500</v>
+        <v>1496</v>
       </c>
       <c r="B29" t="s">
-        <v>1503</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -15563,20 +16009,20 @@
         <v>1206</v>
       </c>
       <c r="B30" t="s">
-        <v>1504</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>1497</v>
+      </c>
+      <c r="B31" t="s">
         <v>1501</v>
-      </c>
-      <c r="B31" t="s">
-        <v>1505</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>1502</v>
+        <v>1498</v>
       </c>
       <c r="B32" t="s">
         <v>509</v>
@@ -16350,7 +16796,7 @@
         <v>266</v>
       </c>
       <c r="G4" t="s">
-        <v>1485</v>
+        <v>1482</v>
       </c>
       <c r="H4" s="48" t="s">
         <v>961</v>
@@ -16363,7 +16809,7 @@
         <v>266</v>
       </c>
       <c r="M4" t="s">
-        <v>1486</v>
+        <v>1483</v>
       </c>
       <c r="N4" s="48" t="s">
         <v>962</v>
@@ -16603,7 +17049,88 @@
         <v>1461</v>
       </c>
       <c r="B5" t="s">
-        <v>1548</v>
+        <v>1578</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1579</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1013</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1580</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1581</v>
+      </c>
+      <c r="G5" t="s">
+        <v>1582</v>
+      </c>
+      <c r="H5" t="s">
+        <v>1583</v>
+      </c>
+      <c r="I5" t="s">
+        <v>1580</v>
+      </c>
+      <c r="J5" t="s">
+        <v>266</v>
+      </c>
+      <c r="K5" t="s">
+        <v>1482</v>
+      </c>
+      <c r="L5" t="s">
+        <v>1231</v>
+      </c>
+      <c r="M5" t="s">
+        <v>1232</v>
+      </c>
+      <c r="N5" t="s">
+        <v>1233</v>
+      </c>
+      <c r="O5" t="s">
+        <v>1424</v>
+      </c>
+      <c r="P5" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>1121</v>
+      </c>
+      <c r="R5" t="s">
+        <v>1234</v>
+      </c>
+      <c r="S5" t="s">
+        <v>1583</v>
+      </c>
+      <c r="T5" t="s">
+        <v>1580</v>
+      </c>
+      <c r="U5" t="s">
+        <v>266</v>
+      </c>
+      <c r="V5" t="s">
+        <v>1483</v>
+      </c>
+      <c r="W5" t="s">
+        <v>1235</v>
+      </c>
+      <c r="X5" t="s">
+        <v>1232</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>1233</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>1424</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>1234</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>1121</v>
       </c>
     </row>
   </sheetData>
@@ -16700,7 +17227,7 @@
   <dimension ref="A1:AP5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16978,7 +17505,7 @@
     </row>
     <row r="4" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>2001</v>
+        <v>201</v>
       </c>
       <c r="C4" t="s">
         <v>1454</v>
@@ -17019,13 +17546,13 @@
     </row>
     <row r="5" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>2011</v>
+        <v>2001</v>
       </c>
       <c r="C5" t="s">
-        <v>1522</v>
+        <v>1509</v>
       </c>
       <c r="D5" t="s">
-        <v>1525</v>
+        <v>1512</v>
       </c>
       <c r="E5">
         <v>6</v>
@@ -17034,10 +17561,10 @@
         <v>1000</v>
       </c>
       <c r="G5" t="s">
-        <v>1523</v>
+        <v>1510</v>
       </c>
       <c r="H5" t="s">
-        <v>1526</v>
+        <v>1513</v>
       </c>
       <c r="I5">
         <v>25</v>
@@ -17046,10 +17573,10 @@
         <v>500</v>
       </c>
       <c r="K5" t="s">
-        <v>1524</v>
+        <v>1511</v>
       </c>
       <c r="L5" t="s">
-        <v>1527</v>
+        <v>1514</v>
       </c>
       <c r="M5">
         <v>10</v>
@@ -17739,7 +18266,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17812,8 +18339,8 @@
       <c r="A4" s="48" t="s">
         <v>1461</v>
       </c>
-      <c r="K4" s="98" t="s">
-        <v>1476</v>
+      <c r="K4">
+        <v>20019933</v>
       </c>
     </row>
   </sheetData>
@@ -18452,10 +18979,10 @@
         <v>1173</v>
       </c>
       <c r="D5" t="s">
-        <v>1513</v>
+        <v>1547</v>
       </c>
       <c r="E5" t="s">
-        <v>1514</v>
+        <v>1548</v>
       </c>
       <c r="F5" t="s">
         <v>1116</v>
@@ -18464,13 +18991,13 @@
         <v>1118</v>
       </c>
       <c r="H5" t="s">
-        <v>1515</v>
+        <v>1549</v>
       </c>
       <c r="I5" t="s">
         <v>1121</v>
       </c>
       <c r="J5" t="s">
-        <v>1516</v>
+        <v>1550</v>
       </c>
       <c r="K5" t="s">
         <v>1463</v>
@@ -18479,10 +19006,10 @@
         <v>1178</v>
       </c>
       <c r="M5" t="s">
-        <v>1517</v>
+        <v>1551</v>
       </c>
       <c r="N5" t="s">
-        <v>1518</v>
+        <v>1552</v>
       </c>
       <c r="O5" t="s">
         <v>1116</v>
@@ -18491,19 +19018,19 @@
         <v>1118</v>
       </c>
       <c r="Q5" t="s">
-        <v>1519</v>
+        <v>1553</v>
       </c>
       <c r="R5" t="s">
         <v>1121</v>
       </c>
       <c r="S5" t="s">
-        <v>1520</v>
+        <v>1554</v>
       </c>
       <c r="T5" t="s">
         <v>201</v>
       </c>
       <c r="U5" t="s">
-        <v>1521</v>
+        <v>1555</v>
       </c>
       <c r="V5" t="s">
         <v>1118</v>
@@ -18567,6 +19094,165 @@
 </file>
 
 <file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="23.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="28.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="6" max="7" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="21.7109375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A1" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>1585</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="F1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>1122</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1" t="s">
+        <v>114</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="K1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L1" s="19" t="s">
+        <v>1128</v>
+      </c>
+      <c r="M1" t="s">
+        <v>117</v>
+      </c>
+      <c r="N1" t="s">
+        <v>118</v>
+      </c>
+      <c r="O1" t="s">
+        <v>190</v>
+      </c>
+      <c r="P1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>1185</v>
+      </c>
+      <c r="R1" t="s">
+        <v>121</v>
+      </c>
+      <c r="S1" t="s">
+        <v>122</v>
+      </c>
+      <c r="T1" t="s">
+        <v>191</v>
+      </c>
+      <c r="U1" t="s">
+        <v>78</v>
+      </c>
+      <c r="V1" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2001</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1478</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1513</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1178</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1234</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1155</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1155</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1118</v>
+      </c>
+      <c r="I2" t="s">
+        <v>1118</v>
+      </c>
+      <c r="J2" t="s">
+        <v>1118</v>
+      </c>
+      <c r="K2" t="s">
+        <v>1118</v>
+      </c>
+      <c r="L2" t="s">
+        <v>1118</v>
+      </c>
+      <c r="M2" t="s">
+        <v>1118</v>
+      </c>
+      <c r="N2" t="s">
+        <v>1118</v>
+      </c>
+      <c r="O2" t="s">
+        <v>1118</v>
+      </c>
+      <c r="P2" t="s">
+        <v>1118</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>1118</v>
+      </c>
+      <c r="R2" t="s">
+        <v>1118</v>
+      </c>
+      <c r="S2" t="s">
+        <v>1118</v>
+      </c>
+      <c r="T2" t="s">
+        <v>1118</v>
+      </c>
+      <c r="U2" t="s">
+        <v>1118</v>
+      </c>
+      <c r="V2" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
@@ -18710,7 +19396,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFC00000"/>

--- a/WppRegpack/TestResource/Regression/DS_MLY_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Regression/DS_MLY_REGRESSION.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GlobalTestAutomation2\GlobalTestSuiteAutomation\WppRegpack\TestResource\Regression\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GlobalTestSuite\branches\bau_environment\WppRegpack\TestResource\Regression\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77B31749-FE85-4688-82F6-9463C8B1C2B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="67" activeTab="70"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Server Details" sheetId="1" r:id="rId1"/>
@@ -96,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3013" uniqueCount="1590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3156" uniqueCount="1634">
   <si>
     <t>Description</t>
   </si>
@@ -4461,9 +4462,6 @@
     <t>Global Regerssion</t>
   </si>
   <si>
-    <t>APAC - MYS - 2001-Financeplus Malaysia</t>
-  </si>
-  <si>
     <t>1099050-02</t>
   </si>
   <si>
@@ -4744,33 +4742,6 @@
     <t>GlobalVendor 18April2021 18:56:58</t>
   </si>
   <si>
-    <t>175.64</t>
-  </si>
-  <si>
-    <t>1,053.84</t>
-  </si>
-  <si>
-    <t>63.23</t>
-  </si>
-  <si>
-    <t>1117.07</t>
-  </si>
-  <si>
-    <t>87.82</t>
-  </si>
-  <si>
-    <t>2,195.50</t>
-  </si>
-  <si>
-    <t>131.73</t>
-  </si>
-  <si>
-    <t>2327.23</t>
-  </si>
-  <si>
-    <t>7,201.24</t>
-  </si>
-  <si>
     <t>C:\GlobalTestAutomation2\GlobalTestSuiteAutomation\WppRegPack\MPLReports\Critical_Regression\Malaysia\2001\Print Job Order Confirmation-1.pdf</t>
   </si>
   <si>
@@ -4843,40 +4814,206 @@
     <t>Financeplus Malaysia (2001)</t>
   </si>
   <si>
-    <t>4/19/2021</t>
-  </si>
-  <si>
-    <t>4/1/2021</t>
-  </si>
-  <si>
-    <t>4/30/2021</t>
-  </si>
-  <si>
-    <t>2001607335</t>
-  </si>
-  <si>
     <t>2001512726</t>
   </si>
   <si>
     <t>JobNumber</t>
   </si>
   <si>
-    <t>1753101755</t>
-  </si>
-  <si>
-    <t>3rd Party Resource</t>
-  </si>
-  <si>
     <t>PurchaseOrderMPL</t>
   </si>
   <si>
     <t>C:\GlobalTestAutomation2\GlobalTestSuiteAutomation\WppRegPack\MPLReports\Critical_Regression\Malaysia\2001\P_PurchaseOrder-4.pdf</t>
+  </si>
+  <si>
+    <t>APAC - MYS - 2001 - Financeplus Malaysia</t>
+  </si>
+  <si>
+    <t>111101</t>
+  </si>
+  <si>
+    <t>2001_AutoClient 13July2021 15:46:18</t>
+  </si>
+  <si>
+    <t>111101001</t>
+  </si>
+  <si>
+    <t>AutoGlobalBrand 13July2021 15:46:18</t>
+  </si>
+  <si>
+    <t>AutoGlobalProduct 13July2021 15:46:18</t>
+  </si>
+  <si>
+    <t>111101001001</t>
+  </si>
+  <si>
+    <t>Branch Name</t>
+  </si>
+  <si>
+    <t>127600</t>
+  </si>
+  <si>
+    <t>173.71</t>
+  </si>
+  <si>
+    <t>1,042.26</t>
+  </si>
+  <si>
+    <t>62.54</t>
+  </si>
+  <si>
+    <t>1104.8</t>
+  </si>
+  <si>
+    <t>86.86</t>
+  </si>
+  <si>
+    <t>2,171.50</t>
+  </si>
+  <si>
+    <t>130.29</t>
+  </si>
+  <si>
+    <t>2301.79</t>
+  </si>
+  <si>
+    <t>7,122.31</t>
+  </si>
+  <si>
+    <t>200118894</t>
+  </si>
+  <si>
+    <t>13-07-2021</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>2001607810</t>
+  </si>
+  <si>
+    <t>200120277</t>
+  </si>
+  <si>
+    <t>200120278</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>Timesheet Job No</t>
+  </si>
+  <si>
+    <t>Timesheet Hours</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>2001701783</t>
+  </si>
+  <si>
+    <t>Expense Description</t>
+  </si>
+  <si>
+    <t>Expenses 13July2021 22:39:49</t>
+  </si>
+  <si>
+    <t>200110968</t>
+  </si>
+  <si>
+    <t>200118900</t>
+  </si>
+  <si>
+    <t>13-08-2021</t>
+  </si>
+  <si>
+    <t>C:\GlobalTestSuite\branches\bau_environment\WppRegPack\MPLReports\Critical_Regression\Malaysia\2001\PaymentSelection-2.pdf</t>
+  </si>
+  <si>
+    <t>C:\GlobalTestSuite\branches\bau_environment\WppRegPack\MPLReports\Critical_Regression\Malaysia\2001\P_PurchaseOrder-1.pdf</t>
+  </si>
+  <si>
+    <t>C:\GlobalTestSuite\branches\bau_environment\WppRegPack\MPLReports\Critical_Regression\Malaysia\2001\Print Invoice Editing-8.pdf</t>
+  </si>
+  <si>
+    <t>C:\GlobalTestSuite\branches\bau_environment\WppRegPack\MPLReports\Critical_Regression\Malaysia\2001\Print Job Invoice-1.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2001401678
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2001401678
+</t>
+  </si>
+  <si>
+    <t>2001451072</t>
+  </si>
+  <si>
+    <t>200118903</t>
+  </si>
+  <si>
+    <t>2001401678</t>
+  </si>
+  <si>
+    <t>2001401677</t>
+  </si>
+  <si>
+    <t>200120275</t>
+  </si>
+  <si>
+    <t>200120279</t>
+  </si>
+  <si>
+    <t>Spot bonus</t>
+  </si>
+  <si>
+    <t>260.57</t>
+  </si>
+  <si>
+    <t>3,908.55</t>
+  </si>
+  <si>
+    <t>234.51</t>
+  </si>
+  <si>
+    <t>4143.06</t>
+  </si>
+  <si>
+    <t>C:\GlobalTestSuite\branches\bau_environment\WppRegPack\MPLReports\Critical_Regression\Malaysia\2001\Print Job Quote-8.pdf</t>
+  </si>
+  <si>
+    <t>C:\GlobalTestSuite\branches\bau_environment\WppRegPack\MPLReports\Critical_Regression\Malaysia\2001\Print Job Order Confirmation-2.pdf</t>
+  </si>
+  <si>
+    <t>C:\GlobalTestSuite\branches\bau_environment\WppRegPack\MPLReports\Critical_Regression\Malaysia\2001\Print Invoice Editing-9.pdf</t>
+  </si>
+  <si>
+    <t>C:\GlobalTestSuite\branches\bau_environment\WppRegPack\MPLReports\Critical_Regression\Malaysia\2001\Print Job Invoice-2.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2001401679
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2001401679
+</t>
+  </si>
+  <si>
+    <t>2001451073</t>
+  </si>
+  <si>
+    <t>200118904</t>
+  </si>
+  <si>
+    <t>2001401679</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -5155,7 +5292,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -5341,6 +5478,9 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5622,7 +5762,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
@@ -5705,13 +5845,13 @@
         <v>989</v>
       </c>
       <c r="C5" t="s">
-        <v>1453</v>
+        <v>1574</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -5719,7 +5859,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
@@ -5928,14 +6068,14 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="A1:AH4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6159,7 +6299,7 @@
         <v>990</v>
       </c>
       <c r="E4" t="s">
-        <v>1511</v>
+        <v>1509</v>
       </c>
       <c r="F4" t="s">
         <v>510</v>
@@ -6175,14 +6315,14 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6231,7 +6371,7 @@
         <v>46</v>
       </c>
       <c r="E3" s="48">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -6248,7 +6388,7 @@
         <v>1108</v>
       </c>
       <c r="E4" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -6493,7 +6633,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
@@ -6529,7 +6669,7 @@
         <v>1144</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -6570,10 +6710,10 @@
         <v>27</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -6595,7 +6735,7 @@
         <v>1145</v>
       </c>
       <c r="C8" s="90" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -6705,7 +6845,7 @@
         <v>186</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -6716,7 +6856,7 @@
         <v>1143</v>
       </c>
       <c r="C19" s="46" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -6747,8 +6887,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B8" r:id="rId1"/>
-    <hyperlink ref="C8" r:id="rId2" display="2025_AutomationEmpy@gmail.com"/>
+    <hyperlink ref="B8" r:id="rId1" xr:uid="{00000000-0004-0000-0C00-000000000000}"/>
+    <hyperlink ref="C8" r:id="rId2" display="2025_AutomationEmpy@gmail.com" xr:uid="{00000000-0004-0000-0C00-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -6756,7 +6896,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
@@ -6799,7 +6939,7 @@
         <v>1281</v>
       </c>
       <c r="D2" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -6839,7 +6979,7 @@
         <v>1069</v>
       </c>
       <c r="D5" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -6861,13 +7001,13 @@
         <v>45</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -6875,13 +7015,13 @@
         <v>46</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -6905,7 +7045,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
@@ -6929,7 +7069,7 @@
         <v>1063</v>
       </c>
       <c r="C1" s="48" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -6940,7 +7080,7 @@
         <v>1144</v>
       </c>
       <c r="C2" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -6973,7 +7113,7 @@
         <v>1063</v>
       </c>
       <c r="C5" s="48" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -6995,7 +7135,7 @@
         <v>1338</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -7017,7 +7157,7 @@
         <v>1144</v>
       </c>
       <c r="C9" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -7127,7 +7267,7 @@
         <v>186</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -7138,7 +7278,7 @@
         <v>1143</v>
       </c>
       <c r="C20" s="46" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -7182,7 +7322,7 @@
         <v>1338</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -7193,7 +7333,7 @@
         <v>1339</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -7204,13 +7344,13 @@
         <v>1146</v>
       </c>
       <c r="C26" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B9" r:id="rId1" display="1203_TestEmployeeAutomation@gmail.com"/>
-    <hyperlink ref="C9" r:id="rId2" display="1203_TestEmployeeAutomation@gmail.com"/>
+    <hyperlink ref="B9" r:id="rId1" display="1203_TestEmployeeAutomation@gmail.com" xr:uid="{00000000-0004-0000-0E00-000000000000}"/>
+    <hyperlink ref="C9" r:id="rId2" display="1203_TestEmployeeAutomation@gmail.com" xr:uid="{00000000-0004-0000-0E00-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -7218,7 +7358,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
@@ -7280,7 +7420,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
@@ -7346,7 +7486,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
@@ -7393,7 +7533,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
@@ -7704,46 +7844,48 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:FE95"/>
+  <dimension ref="A1:FF99"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="B71" sqref="B71:B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="7" customWidth="true" style="19" width="39.7109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="19" width="27.85546875" collapsed="true"/>
-    <col min="9" max="161" customWidth="true" style="19" width="32.0" collapsed="true"/>
-    <col min="162" max="16384" style="19" width="9.140625" collapsed="true"/>
+    <col min="1" max="8" customWidth="true" style="19" width="39.7109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="19" width="27.85546875" collapsed="true"/>
+    <col min="10" max="162" customWidth="true" style="19" width="32.0" collapsed="true"/>
+    <col min="163" max="16384" style="19" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:162" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>175</v>
       </c>
       <c r="B1" s="10">
         <v>2001</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10">
+      <c r="C1" s="10">
         <v>2001</v>
       </c>
+      <c r="D1" s="10"/>
       <c r="E1" s="10">
+        <v>2001</v>
+      </c>
+      <c r="F1" s="10">
         <v>2011</v>
       </c>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10">
+      <c r="G1" s="10"/>
+      <c r="H1" s="10">
         <v>2025</v>
       </c>
-      <c r="H1" s="10">
+      <c r="I1" s="10">
         <v>20234</v>
       </c>
-      <c r="I1" s="10"/>
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
       <c r="L1" s="10"/>
@@ -7896,454 +8038,509 @@
       <c r="FC1" s="10"/>
       <c r="FD1" s="10"/>
       <c r="FE1" s="10"/>
-    </row>
-    <row r="2" spans="1:161" x14ac:dyDescent="0.25">
+      <c r="FF1" s="10"/>
+    </row>
+    <row r="2" spans="1:162" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>180</v>
       </c>
       <c r="B2" t="s">
-        <v>1466</v>
+        <v>1619</v>
       </c>
       <c r="C2" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="D2" t="s">
-        <v>1478</v>
+        <v>1465</v>
       </c>
       <c r="E2" t="s">
-        <v>1460</v>
+        <v>1477</v>
       </c>
       <c r="F2" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="G2" t="s">
+        <v>1459</v>
+      </c>
+      <c r="H2" t="s">
         <v>1409</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>1277</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>1107</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>1259</v>
       </c>
     </row>
-    <row r="3" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:162" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="B3" t="s">
-        <v>1538</v>
-      </c>
-      <c r="C3" s="48" t="s">
-        <v>1478</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1524</v>
-      </c>
-      <c r="F3" t="s">
-        <v>1464</v>
+      <c r="C3" t="s">
+        <v>1537</v>
+      </c>
+      <c r="D3" s="48" t="s">
+        <v>1477</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1523</v>
       </c>
       <c r="G3" t="s">
+        <v>1463</v>
+      </c>
+      <c r="H3" t="s">
         <v>1340</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>1148</v>
       </c>
     </row>
-    <row r="4" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:162" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>183</v>
       </c>
       <c r="B4" t="s">
-        <v>1563</v>
-      </c>
-      <c r="D4" t="s">
-        <v>1520</v>
+        <v>1602</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1553</v>
       </c>
       <c r="E4" t="s">
-        <v>1473</v>
-      </c>
-      <c r="F4" s="48" t="s">
-        <v>1466</v>
-      </c>
-      <c r="G4" t="s">
+        <v>1519</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1472</v>
+      </c>
+      <c r="G4" s="48" t="s">
+        <v>1465</v>
+      </c>
+      <c r="H4" t="s">
         <v>1367</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>1150</v>
       </c>
     </row>
-    <row r="5" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:162" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>199</v>
       </c>
       <c r="B5" t="s">
-        <v>1557</v>
-      </c>
-      <c r="D5" t="s">
-        <v>1515</v>
+        <v>1605</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1547</v>
       </c>
       <c r="E5" t="s">
-        <v>1467</v>
-      </c>
-      <c r="F5">
+        <v>1514</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1466</v>
+      </c>
+      <c r="G5">
         <v>200120274</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>1360</v>
       </c>
-      <c r="H5" s="19" t="s">
+      <c r="I5" s="19" t="s">
         <v>1140</v>
       </c>
     </row>
-    <row r="6" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:162" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
         <v>710</v>
       </c>
       <c r="B6" t="s">
-        <v>1560</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>1517</v>
+        <v>1606</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1550</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>1468</v>
-      </c>
-      <c r="G6" t="s">
+        <v>1516</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>1467</v>
+      </c>
+      <c r="H6" t="s">
         <v>1364</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>1157</v>
       </c>
     </row>
-    <row r="7" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:162" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
         <v>711</v>
       </c>
       <c r="B7" t="s">
-        <v>1559</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>1516</v>
+        <v>1549</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1549</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>1469</v>
-      </c>
-      <c r="G7" t="s">
+        <v>1515</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>1468</v>
+      </c>
+      <c r="H7" t="s">
         <v>1361</v>
-      </c>
-      <c r="H7" t="s">
-        <v>1152</v>
       </c>
       <c r="I7" t="s">
         <v>1152</v>
       </c>
-    </row>
-    <row r="8" spans="1:161" x14ac:dyDescent="0.25">
+      <c r="J7" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="8" spans="1:162" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
         <v>1020</v>
       </c>
       <c r="B8" t="s">
         <v>1432</v>
       </c>
-      <c r="D8" t="s">
+      <c r="C8" t="s">
         <v>1432</v>
       </c>
       <c r="E8" t="s">
         <v>1432</v>
       </c>
-      <c r="G8" t="s">
-        <v>1141</v>
+      <c r="F8" t="s">
+        <v>1432</v>
       </c>
       <c r="H8" t="s">
         <v>1141</v>
       </c>
-    </row>
-    <row r="9" spans="1:161" x14ac:dyDescent="0.25">
+      <c r="I8" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:162" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
         <v>1021</v>
       </c>
       <c r="B9" t="s">
         <v>1444</v>
       </c>
-      <c r="D9" t="s">
+      <c r="C9" t="s">
         <v>1444</v>
       </c>
       <c r="E9" t="s">
         <v>1444</v>
       </c>
-      <c r="G9" t="s">
-        <v>995</v>
+      <c r="F9" t="s">
+        <v>1444</v>
       </c>
       <c r="H9" t="s">
         <v>995</v>
       </c>
-    </row>
-    <row r="10" spans="1:161" x14ac:dyDescent="0.25">
+      <c r="I9" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="10" spans="1:162" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
         <v>1022</v>
       </c>
       <c r="B10" t="s">
-        <v>1562</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>1519</v>
-      </c>
-      <c r="E10" t="s">
-        <v>1471</v>
-      </c>
-      <c r="G10" t="s">
+        <v>1598</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>1518</v>
+      </c>
+      <c r="F10" t="s">
+        <v>1470</v>
+      </c>
+      <c r="H10" t="s">
         <v>1366</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>1142</v>
       </c>
     </row>
-    <row r="11" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:162" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
         <v>1023</v>
       </c>
     </row>
-    <row r="12" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:162" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
         <v>1024</v>
       </c>
     </row>
-    <row r="13" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:162" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
         <v>970</v>
       </c>
       <c r="B13" s="49" t="s">
-        <v>1540</v>
-      </c>
-      <c r="C13" s="49"/>
-      <c r="D13" s="19" t="s">
-        <v>1494</v>
-      </c>
+        <v>1575</v>
+      </c>
+      <c r="C13" s="49" t="s">
+        <v>1539</v>
+      </c>
+      <c r="D13" s="49"/>
       <c r="E13" s="19" t="s">
+        <v>1493</v>
+      </c>
+      <c r="F13" s="19" t="s">
         <v>1434</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>1346</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>1316</v>
       </c>
     </row>
-    <row r="14" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:162" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
         <v>1025</v>
       </c>
-      <c r="B14" s="19" t="s">
-        <v>1539</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>1495</v>
+      <c r="B14" s="49" t="s">
+        <v>1576</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>1538</v>
       </c>
       <c r="E14" s="19" t="s">
+        <v>1494</v>
+      </c>
+      <c r="F14" s="19" t="s">
         <v>1433</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>1347</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>1317</v>
       </c>
     </row>
-    <row r="15" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:162" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
         <v>971</v>
       </c>
       <c r="B15" s="49" t="s">
-        <v>1541</v>
-      </c>
-      <c r="C15" s="49"/>
-      <c r="D15" s="19" t="s">
-        <v>1502</v>
-      </c>
+        <v>1577</v>
+      </c>
+      <c r="C15" s="49" t="s">
+        <v>1540</v>
+      </c>
+      <c r="D15" s="49"/>
       <c r="E15" s="19" t="s">
+        <v>1501</v>
+      </c>
+      <c r="F15" s="19" t="s">
         <v>1435</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>1348</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>1318</v>
       </c>
     </row>
-    <row r="16" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:162" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
         <v>1026</v>
       </c>
-      <c r="B16" s="19" t="s">
-        <v>1543</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>1503</v>
+      <c r="B16" s="49" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>1542</v>
       </c>
       <c r="E16" s="19" t="s">
+        <v>1502</v>
+      </c>
+      <c r="F16" s="19" t="s">
         <v>1436</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>1349</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>1319</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
         <v>972</v>
       </c>
       <c r="B17" s="49" t="s">
-        <v>1542</v>
-      </c>
-      <c r="C17" s="49"/>
-      <c r="D17" s="19" t="s">
-        <v>1504</v>
-      </c>
+        <v>1580</v>
+      </c>
+      <c r="C17" s="49" t="s">
+        <v>1541</v>
+      </c>
+      <c r="D17" s="49"/>
       <c r="E17" s="19" t="s">
+        <v>1503</v>
+      </c>
+      <c r="F17" s="19" t="s">
         <v>1437</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>1350</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>1320</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="s">
         <v>1027</v>
       </c>
-      <c r="B18" s="19" t="s">
-        <v>1544</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>1505</v>
+      <c r="B18" s="49" t="s">
+        <v>1579</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>1543</v>
       </c>
       <c r="E18" s="19" t="s">
+        <v>1504</v>
+      </c>
+      <c r="F18" s="19" t="s">
         <v>1438</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>1351</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>1321</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
         <v>1028</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="19" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="19" t="s">
         <v>187</v>
       </c>
       <c r="B21" t="s">
-        <v>1545</v>
-      </c>
-      <c r="C21"/>
-      <c r="D21" t="s">
-        <v>1506</v>
-      </c>
+        <v>1582</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1544</v>
+      </c>
+      <c r="D21"/>
       <c r="E21" t="s">
+        <v>1505</v>
+      </c>
+      <c r="F21" t="s">
         <v>1439</v>
       </c>
-      <c r="F21"/>
-      <c r="G21" t="s">
+      <c r="G21"/>
+      <c r="H21" t="s">
         <v>1352</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>1322</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="19" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="19" t="s">
         <v>1031</v>
       </c>
       <c r="B23" t="s">
-        <v>1578</v>
-      </c>
-      <c r="D23" t="s">
-        <v>1534</v>
+        <v>1592</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1568</v>
       </c>
       <c r="E23" t="s">
-        <v>1484</v>
-      </c>
-      <c r="G23" t="s">
+        <v>1533</v>
+      </c>
+      <c r="F23" t="s">
+        <v>1483</v>
+      </c>
+      <c r="H23" t="s">
         <v>1395</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>1229</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>1149</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="19" t="s">
         <v>1032</v>
       </c>
       <c r="B25" t="s">
-        <v>1478</v>
-      </c>
-      <c r="C25"/>
-      <c r="D25" t="s">
-        <v>1478</v>
-      </c>
+        <v>1619</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D25"/>
       <c r="E25" t="s">
-        <v>1478</v>
-      </c>
-      <c r="F25"/>
-      <c r="G25" t="s">
+        <v>1477</v>
+      </c>
+      <c r="F25" t="s">
+        <v>1477</v>
+      </c>
+      <c r="G25"/>
+      <c r="H25" t="s">
         <v>1409</v>
       </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
         <v>1277</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="19" t="s">
         <v>1033</v>
       </c>
       <c r="B26" t="s">
         <v>201</v>
       </c>
-      <c r="C26"/>
-      <c r="D26" t="s">
+      <c r="C26" t="s">
         <v>201</v>
       </c>
+      <c r="D26"/>
       <c r="E26" t="s">
         <v>201</v>
       </c>
-      <c r="F26"/>
-      <c r="G26" t="s">
+      <c r="F26" t="s">
         <v>201</v>
       </c>
+      <c r="G26"/>
       <c r="H26" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I26" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>1034</v>
       </c>
@@ -8353,52 +8550,59 @@
       <c r="E27"/>
       <c r="F27"/>
       <c r="G27"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H27"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>1035</v>
       </c>
       <c r="B28" t="s">
-        <v>1561</v>
-      </c>
-      <c r="C28"/>
-      <c r="D28" s="48" t="s">
-        <v>1518</v>
-      </c>
+        <v>1607</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1551</v>
+      </c>
+      <c r="D28"/>
       <c r="E28" s="48" t="s">
-        <v>1470</v>
-      </c>
-      <c r="F28"/>
-      <c r="G28" t="s">
+        <v>1517</v>
+      </c>
+      <c r="F28" s="48" t="s">
+        <v>1469</v>
+      </c>
+      <c r="G28"/>
+      <c r="H28" t="s">
         <v>1365</v>
       </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
         <v>1158</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>1036</v>
       </c>
       <c r="B29" t="s">
         <v>1427</v>
       </c>
-      <c r="C29"/>
-      <c r="D29" t="s">
+      <c r="C29" t="s">
         <v>1427</v>
       </c>
+      <c r="D29"/>
       <c r="E29" t="s">
         <v>1427</v>
       </c>
-      <c r="F29"/>
-      <c r="G29" t="s">
+      <c r="F29" t="s">
+        <v>1427</v>
+      </c>
+      <c r="G29"/>
+      <c r="H29" t="s">
         <v>1404</v>
       </c>
-      <c r="H29" t="s">
+      <c r="I29" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>958</v>
       </c>
@@ -8408,8 +8612,9 @@
       <c r="E30"/>
       <c r="F30"/>
       <c r="G30"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H30"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>1037</v>
       </c>
@@ -8419,8 +8624,9 @@
       <c r="E31"/>
       <c r="F31"/>
       <c r="G31"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H31"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>1038</v>
       </c>
@@ -8430,8 +8636,9 @@
       <c r="E32"/>
       <c r="F32"/>
       <c r="G32"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H32"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>1039</v>
       </c>
@@ -8441,8 +8648,9 @@
       <c r="E33"/>
       <c r="F33"/>
       <c r="G33"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H33"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>1040</v>
       </c>
@@ -8452,8 +8660,9 @@
       <c r="E34"/>
       <c r="F34"/>
       <c r="G34"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H34"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>1041</v>
       </c>
@@ -8463,8 +8672,9 @@
       <c r="E35"/>
       <c r="F35"/>
       <c r="G35"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H35"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>1042</v>
       </c>
@@ -8474,8 +8684,9 @@
       <c r="E36"/>
       <c r="F36"/>
       <c r="G36"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H36"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>1043</v>
       </c>
@@ -8485,8 +8696,9 @@
       <c r="E37"/>
       <c r="F37"/>
       <c r="G37"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H37"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>1044</v>
       </c>
@@ -8496,8 +8708,9 @@
       <c r="E38"/>
       <c r="F38"/>
       <c r="G38"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H38"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>1045</v>
       </c>
@@ -8507,8 +8720,9 @@
       <c r="E39"/>
       <c r="F39"/>
       <c r="G39"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H39"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>1046</v>
       </c>
@@ -8518,59 +8732,63 @@
       <c r="E40"/>
       <c r="F40"/>
       <c r="G40"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H40"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="19" t="s">
         <v>1047</v>
       </c>
-      <c r="G41" s="19" t="s">
+      <c r="H41" s="19" t="s">
         <v>1354</v>
       </c>
-      <c r="H41" s="19" t="s">
+      <c r="I41" s="19" t="s">
         <v>1277</v>
-      </c>
-      <c r="I41" t="s">
-        <v>1107</v>
       </c>
       <c r="J41" t="s">
         <v>1107</v>
       </c>
       <c r="K41" t="s">
+        <v>1107</v>
+      </c>
+      <c r="L41" t="s">
         <v>1263</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="19" t="s">
         <v>1197</v>
       </c>
-      <c r="G42" s="19" t="s">
+      <c r="H42" s="19" t="s">
         <v>1392</v>
       </c>
-      <c r="H42" s="19" t="s">
+      <c r="I42" s="19" t="s">
         <v>1279</v>
       </c>
-      <c r="I42" s="19" t="s">
+      <c r="J42" s="19" t="s">
         <v>1198</v>
       </c>
-      <c r="J42" s="19" t="s">
+      <c r="K42" s="19" t="s">
         <v>1255</v>
       </c>
-      <c r="K42" t="s">
+      <c r="L42" t="s">
         <v>1259</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>1048</v>
       </c>
-      <c r="B43"/>
+      <c r="B43" t="s">
+        <v>1630</v>
+      </c>
       <c r="C43"/>
       <c r="D43"/>
       <c r="E43"/>
       <c r="F43"/>
       <c r="G43"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H43"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>1049</v>
       </c>
@@ -8580,38 +8798,39 @@
       <c r="E44"/>
       <c r="F44"/>
       <c r="G44"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H44"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="19" t="s">
         <v>1050</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="19" t="s">
         <v>1051</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="19" t="s">
         <v>1052</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="19" t="s">
         <v>1053</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="19" t="s">
         <v>1054</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="19" t="s">
         <v>1055</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>1056</v>
       </c>
@@ -8621,8 +8840,9 @@
       <c r="E51"/>
       <c r="F51"/>
       <c r="G51"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H51"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>1057</v>
       </c>
@@ -8632,8 +8852,9 @@
       <c r="E52"/>
       <c r="F52"/>
       <c r="G52"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H52"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>1058</v>
       </c>
@@ -8643,8 +8864,9 @@
       <c r="E53"/>
       <c r="F53"/>
       <c r="G53"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H53"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>1059</v>
       </c>
@@ -8654,8 +8876,9 @@
       <c r="E54"/>
       <c r="F54"/>
       <c r="G54"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H54"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>1060</v>
       </c>
@@ -8665,8 +8888,9 @@
       <c r="E55"/>
       <c r="F55"/>
       <c r="G55"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H55"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>1061</v>
       </c>
@@ -8676,8 +8900,9 @@
       <c r="E56"/>
       <c r="F56"/>
       <c r="G56"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H56"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>1062</v>
       </c>
@@ -8687,656 +8912,767 @@
       <c r="E57"/>
       <c r="F57"/>
       <c r="G57"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H57"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>248</v>
       </c>
       <c r="B58" t="s">
-        <v>1481</v>
-      </c>
-      <c r="C58"/>
-      <c r="D58" t="s">
-        <v>1481</v>
-      </c>
+        <v>1480</v>
+      </c>
+      <c r="C58" t="s">
+        <v>1480</v>
+      </c>
+      <c r="D58"/>
       <c r="E58" t="s">
-        <v>1481</v>
-      </c>
-      <c r="F58"/>
-      <c r="G58" t="s">
+        <v>1480</v>
+      </c>
+      <c r="F58" t="s">
+        <v>1480</v>
+      </c>
+      <c r="G58"/>
+      <c r="H58" t="s">
         <v>1403</v>
       </c>
-      <c r="H58" t="s">
+      <c r="I58" t="s">
         <v>1151</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>1072</v>
       </c>
       <c r="B59" t="s">
         <v>286</v>
       </c>
-      <c r="C59"/>
-      <c r="D59" t="s">
+      <c r="C59" t="s">
         <v>286</v>
       </c>
+      <c r="D59"/>
       <c r="E59" t="s">
         <v>286</v>
       </c>
-      <c r="F59"/>
-      <c r="G59" t="s">
+      <c r="F59" t="s">
         <v>286</v>
       </c>
+      <c r="G59"/>
       <c r="H59" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I59" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>1131</v>
       </c>
       <c r="B60" t="s">
+        <v>1625</v>
+      </c>
+      <c r="C60" t="s">
         <v>1278</v>
       </c>
-      <c r="C60"/>
-      <c r="D60" t="s">
-        <v>1530</v>
-      </c>
+      <c r="D60"/>
       <c r="E60" t="s">
+        <v>1529</v>
+      </c>
+      <c r="F60" t="s">
         <v>1278</v>
       </c>
-      <c r="F60"/>
-      <c r="G60" t="s">
+      <c r="G60"/>
+      <c r="H60" t="s">
         <v>1410</v>
       </c>
-      <c r="H60" t="s">
+      <c r="I60" t="s">
         <v>1278</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>1132</v>
       </c>
       <c r="B61" t="s">
-        <v>1556</v>
-      </c>
-      <c r="C61"/>
-      <c r="D61" t="s">
-        <v>1531</v>
-      </c>
+        <v>1626</v>
+      </c>
+      <c r="C61" t="s">
+        <v>1546</v>
+      </c>
+      <c r="D61"/>
       <c r="E61" t="s">
+        <v>1530</v>
+      </c>
+      <c r="F61" t="s">
         <v>1278</v>
       </c>
-      <c r="F61"/>
-      <c r="G61" t="s">
+      <c r="G61"/>
+      <c r="H61" t="s">
         <v>1411</v>
       </c>
-      <c r="H61" t="s">
+      <c r="I61" t="s">
         <v>1278</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>1153</v>
       </c>
       <c r="B62" t="s">
         <v>1284</v>
       </c>
-      <c r="C62"/>
-      <c r="D62" t="s">
+      <c r="C62" t="s">
         <v>1284</v>
       </c>
+      <c r="D62"/>
       <c r="E62" t="s">
         <v>1284</v>
       </c>
-      <c r="F62"/>
-      <c r="G62" t="s">
+      <c r="F62" t="s">
         <v>1284</v>
       </c>
+      <c r="G62"/>
       <c r="H62" t="s">
         <v>1284</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I62" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>1154</v>
       </c>
       <c r="B63" t="s">
         <v>1155</v>
       </c>
-      <c r="C63"/>
-      <c r="D63" s="96" t="s">
+      <c r="C63" t="s">
         <v>1155</v>
       </c>
+      <c r="D63"/>
       <c r="E63" s="96" t="s">
         <v>1155</v>
       </c>
-      <c r="F63"/>
-      <c r="G63" t="s">
+      <c r="F63" s="96" t="s">
+        <v>1155</v>
+      </c>
+      <c r="G63"/>
+      <c r="H63" t="s">
         <v>1363</v>
       </c>
-      <c r="H63" t="s">
+      <c r="I63" t="s">
         <v>1155</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>1156</v>
       </c>
       <c r="B64" t="s">
         <v>1155</v>
       </c>
-      <c r="C64"/>
-      <c r="D64" s="96" t="s">
+      <c r="C64" t="s">
         <v>1155</v>
       </c>
+      <c r="D64"/>
       <c r="E64" s="96" t="s">
         <v>1155</v>
       </c>
-      <c r="F64"/>
-      <c r="G64" t="s">
+      <c r="F64" s="96" t="s">
+        <v>1155</v>
+      </c>
+      <c r="G64"/>
+      <c r="H64" t="s">
         <v>1363</v>
       </c>
-      <c r="H64" t="s">
+      <c r="I64" t="s">
         <v>1155</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>1159</v>
       </c>
       <c r="B65" t="s">
-        <v>1560</v>
-      </c>
-      <c r="C65"/>
-      <c r="D65" t="s">
-        <v>1517</v>
-      </c>
+        <v>1606</v>
+      </c>
+      <c r="C65" t="s">
+        <v>1550</v>
+      </c>
+      <c r="D65"/>
       <c r="E65" t="s">
-        <v>1468</v>
-      </c>
-      <c r="F65"/>
-      <c r="G65" t="s">
+        <v>1516</v>
+      </c>
+      <c r="F65" t="s">
+        <v>1467</v>
+      </c>
+      <c r="G65"/>
+      <c r="H65" t="s">
         <v>1364</v>
       </c>
-      <c r="H65" t="s">
+      <c r="I65" t="s">
         <v>1157</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>1196</v>
       </c>
-      <c r="B66"/>
+      <c r="B66" t="s">
+        <v>1627</v>
+      </c>
       <c r="C66"/>
       <c r="D66"/>
       <c r="E66"/>
       <c r="F66"/>
-      <c r="G66" t="s">
+      <c r="G66"/>
+      <c r="H66" t="s">
         <v>1391</v>
       </c>
-      <c r="H66" t="s">
+      <c r="I66" t="s">
         <v>1260</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>1199</v>
       </c>
       <c r="B67" t="s">
-        <v>1571</v>
-      </c>
-      <c r="C67"/>
-      <c r="D67" t="s">
-        <v>1526</v>
-      </c>
+        <v>1615</v>
+      </c>
+      <c r="C67" t="s">
+        <v>1561</v>
+      </c>
+      <c r="D67"/>
       <c r="E67" t="s">
-        <v>1476</v>
-      </c>
-      <c r="F67"/>
-      <c r="G67" t="s">
+        <v>1525</v>
+      </c>
+      <c r="F67" t="s">
+        <v>1475</v>
+      </c>
+      <c r="G67"/>
+      <c r="H67" t="s">
         <v>1393</v>
       </c>
-      <c r="H67" t="s">
+      <c r="I67" t="s">
         <v>1257</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>1200</v>
       </c>
       <c r="B68" t="s">
-        <v>1564</v>
-      </c>
-      <c r="C68"/>
-      <c r="D68" t="s">
-        <v>1525</v>
-      </c>
+        <v>1616</v>
+      </c>
+      <c r="C68" t="s">
+        <v>1554</v>
+      </c>
+      <c r="D68"/>
       <c r="E68" t="s">
-        <v>1474</v>
-      </c>
-      <c r="F68"/>
-      <c r="G68" t="s">
+        <v>1524</v>
+      </c>
+      <c r="F68" t="s">
+        <v>1473</v>
+      </c>
+      <c r="G68"/>
+      <c r="H68" t="s">
         <v>1392</v>
       </c>
-      <c r="H68" t="s">
+      <c r="I68" t="s">
         <v>1272</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>1201</v>
       </c>
       <c r="B69" t="s">
-        <v>1466</v>
-      </c>
-      <c r="C69"/>
-      <c r="D69" t="s">
-        <v>1460</v>
-      </c>
+        <v>1596</v>
+      </c>
+      <c r="C69" t="s">
+        <v>1465</v>
+      </c>
+      <c r="D69"/>
       <c r="E69" t="s">
-        <v>1460</v>
-      </c>
-      <c r="F69"/>
-      <c r="G69" t="s">
+        <v>1459</v>
+      </c>
+      <c r="F69" t="s">
+        <v>1459</v>
+      </c>
+      <c r="G69"/>
+      <c r="H69" t="s">
         <v>1354</v>
       </c>
-      <c r="H69" t="s">
+      <c r="I69" t="s">
         <v>1259</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>1246</v>
       </c>
       <c r="B70" t="s">
         <v>1288</v>
       </c>
-      <c r="C70"/>
-      <c r="D70" t="s">
+      <c r="C70" t="s">
         <v>1288</v>
       </c>
+      <c r="D70"/>
       <c r="E70" t="s">
         <v>1288</v>
       </c>
-      <c r="F70"/>
-      <c r="G70" t="s">
+      <c r="F70" t="s">
         <v>1288</v>
       </c>
+      <c r="G70"/>
       <c r="H70" t="s">
         <v>1288</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I70" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>1247</v>
       </c>
-      <c r="B71" s="48" t="s">
-        <v>1564</v>
-      </c>
-      <c r="C71"/>
-      <c r="D71" t="s">
-        <v>1527</v>
-      </c>
-      <c r="E71"/>
+      <c r="B71" t="s">
+        <v>1629</v>
+      </c>
+      <c r="C71" s="48" t="s">
+        <v>1554</v>
+      </c>
+      <c r="D71"/>
+      <c r="E71" t="s">
+        <v>1526</v>
+      </c>
       <c r="F71"/>
-      <c r="G71" t="s">
+      <c r="G71"/>
+      <c r="H71" t="s">
         <v>1412</v>
       </c>
-      <c r="H71" t="s">
+      <c r="I71" t="s">
         <v>1248</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>1249</v>
       </c>
       <c r="B72" t="s">
-        <v>1466</v>
-      </c>
-      <c r="C72"/>
-      <c r="D72" t="s">
-        <v>1466</v>
-      </c>
-      <c r="E72"/>
+        <v>1619</v>
+      </c>
+      <c r="C72" t="s">
+        <v>1465</v>
+      </c>
+      <c r="D72"/>
+      <c r="E72" t="s">
+        <v>1465</v>
+      </c>
       <c r="F72"/>
-      <c r="G72" t="s">
+      <c r="G72"/>
+      <c r="H72" t="s">
         <v>1409</v>
       </c>
-      <c r="H72" t="s">
+      <c r="I72" t="s">
         <v>1107</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>1253</v>
       </c>
       <c r="B73" t="s">
-        <v>1566</v>
-      </c>
-      <c r="C73"/>
-      <c r="D73" t="s">
-        <v>1528</v>
-      </c>
+        <v>1633</v>
+      </c>
+      <c r="C73" t="s">
+        <v>1556</v>
+      </c>
+      <c r="D73"/>
       <c r="E73" t="s">
-        <v>1479</v>
-      </c>
-      <c r="F73"/>
-      <c r="G73" t="s">
+        <v>1527</v>
+      </c>
+      <c r="F73" t="s">
+        <v>1478</v>
+      </c>
+      <c r="G73"/>
+      <c r="H73" t="s">
         <v>1413</v>
       </c>
-      <c r="H73" t="s">
+      <c r="I73" t="s">
         <v>1279</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>1254</v>
       </c>
       <c r="B74" t="s">
-        <v>1464</v>
-      </c>
-      <c r="C74"/>
-      <c r="D74" t="s">
-        <v>1466</v>
-      </c>
+        <v>1619</v>
+      </c>
+      <c r="C74" t="s">
+        <v>1463</v>
+      </c>
+      <c r="D74"/>
       <c r="E74" t="s">
-        <v>1478</v>
-      </c>
-      <c r="F74"/>
-      <c r="G74" t="s">
+        <v>1465</v>
+      </c>
+      <c r="F74" t="s">
+        <v>1477</v>
+      </c>
+      <c r="G74"/>
+      <c r="H74" t="s">
         <v>1409</v>
       </c>
-      <c r="H74" t="s">
+      <c r="I74" t="s">
         <v>1277</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>1256</v>
       </c>
       <c r="B75" t="s">
-        <v>1577</v>
-      </c>
-      <c r="C75"/>
-      <c r="D75" t="s">
-        <v>1529</v>
-      </c>
+        <v>1632</v>
+      </c>
+      <c r="C75" t="s">
+        <v>1567</v>
+      </c>
+      <c r="D75"/>
       <c r="E75" t="s">
-        <v>1480</v>
-      </c>
-      <c r="F75"/>
-      <c r="G75" t="s">
+        <v>1528</v>
+      </c>
+      <c r="F75" t="s">
+        <v>1479</v>
+      </c>
+      <c r="G75"/>
+      <c r="H75" t="s">
         <v>1414</v>
       </c>
-      <c r="H75" t="s">
+      <c r="I75" t="s">
         <v>1280</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>1261</v>
       </c>
-      <c r="B76"/>
+      <c r="B76" t="s">
+        <v>1628</v>
+      </c>
       <c r="C76"/>
       <c r="D76"/>
       <c r="E76"/>
       <c r="F76"/>
       <c r="G76"/>
-      <c r="H76" t="s">
+      <c r="H76"/>
+      <c r="I76" t="s">
         <v>1262</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="19" t="s">
         <v>1264</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="19" t="s">
         <v>1265</v>
       </c>
-      <c r="H78"/>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I78"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="19" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="19" t="s">
         <v>1267</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="19" t="s">
         <v>1268</v>
       </c>
-      <c r="I81" t="s">
+      <c r="J81" t="s">
         <v>1107</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="19" t="s">
         <v>1269</v>
       </c>
-      <c r="I82" t="s">
+      <c r="J82" t="s">
         <v>1248</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>1273</v>
       </c>
       <c r="B83" t="s">
-        <v>1565</v>
-      </c>
-      <c r="C83"/>
-      <c r="D83" t="s">
-        <v>1532</v>
-      </c>
+        <v>1617</v>
+      </c>
+      <c r="C83" t="s">
+        <v>1555</v>
+      </c>
+      <c r="D83"/>
       <c r="E83" t="s">
-        <v>1475</v>
-      </c>
-      <c r="F83"/>
-      <c r="G83" t="s">
+        <v>1531</v>
+      </c>
+      <c r="F83" t="s">
+        <v>1474</v>
+      </c>
+      <c r="G83"/>
+      <c r="H83" t="s">
         <v>1408</v>
       </c>
-      <c r="H83" t="s">
+      <c r="I83" t="s">
         <v>1255</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>1274</v>
       </c>
       <c r="B84" t="s">
-        <v>1460</v>
-      </c>
-      <c r="C84"/>
-      <c r="D84" t="s">
-        <v>1478</v>
-      </c>
+        <v>1618</v>
+      </c>
+      <c r="C84" t="s">
+        <v>1459</v>
+      </c>
+      <c r="D84"/>
       <c r="E84" t="s">
-        <v>1464</v>
-      </c>
-      <c r="F84"/>
-      <c r="G84" t="s">
+        <v>1477</v>
+      </c>
+      <c r="F84" t="s">
+        <v>1463</v>
+      </c>
+      <c r="G84"/>
+      <c r="H84" t="s">
         <v>1406</v>
       </c>
-      <c r="H84" t="s">
+      <c r="I84" t="s">
         <v>1107</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>1275</v>
       </c>
-      <c r="B85" t="s">
-        <v>1574</v>
-      </c>
-      <c r="C85"/>
-      <c r="D85" t="s">
-        <v>1533</v>
-      </c>
+      <c r="B85"/>
+      <c r="C85" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D85"/>
       <c r="E85" t="s">
-        <v>1477</v>
-      </c>
-      <c r="F85"/>
-      <c r="G85" t="s">
+        <v>1532</v>
+      </c>
+      <c r="F85" t="s">
+        <v>1476</v>
+      </c>
+      <c r="G85"/>
+      <c r="H85" t="s">
         <v>1407</v>
       </c>
-      <c r="H85" t="s">
+      <c r="I85" t="s">
         <v>1276</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>1285</v>
       </c>
       <c r="B86" t="s">
-        <v>1521</v>
-      </c>
-      <c r="C86"/>
-      <c r="D86" t="s">
-        <v>1521</v>
-      </c>
+        <v>1608</v>
+      </c>
+      <c r="C86" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D86"/>
       <c r="E86" t="s">
+        <v>1520</v>
+      </c>
+      <c r="F86" t="s">
         <v>1278</v>
       </c>
-      <c r="F86"/>
-      <c r="G86" t="s">
+      <c r="G86"/>
+      <c r="H86" t="s">
         <v>1399</v>
       </c>
-      <c r="H86" t="s">
+      <c r="I86" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>1289</v>
       </c>
-      <c r="B87" t="s">
-        <v>1584</v>
-      </c>
-      <c r="C87"/>
-      <c r="D87" t="s">
-        <v>1522</v>
-      </c>
+      <c r="B87"/>
+      <c r="C87" t="s">
+        <v>1570</v>
+      </c>
+      <c r="D87"/>
       <c r="E87" t="s">
-        <v>1485</v>
-      </c>
-      <c r="F87"/>
-      <c r="G87" t="s">
+        <v>1521</v>
+      </c>
+      <c r="F87" t="s">
+        <v>1484</v>
+      </c>
+      <c r="G87"/>
+      <c r="H87" t="s">
         <v>1400</v>
       </c>
-      <c r="H87" t="s">
+      <c r="I87" t="s">
         <v>1290</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>1291</v>
       </c>
-      <c r="B88" t="s">
-        <v>1523</v>
-      </c>
-      <c r="C88"/>
-      <c r="D88" t="s">
-        <v>1523</v>
-      </c>
+      <c r="B88"/>
+      <c r="C88" t="s">
+        <v>1522</v>
+      </c>
+      <c r="D88"/>
       <c r="E88" t="s">
+        <v>1522</v>
+      </c>
+      <c r="F88" t="s">
         <v>1278</v>
       </c>
-      <c r="F88"/>
-      <c r="G88" t="s">
+      <c r="G88"/>
+      <c r="H88" t="s">
         <v>1401</v>
       </c>
-      <c r="H88" t="s">
+      <c r="I88" t="s">
         <v>1292</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>1323</v>
       </c>
       <c r="B89" t="s">
         <v>510</v>
       </c>
-      <c r="C89"/>
-      <c r="D89" t="s">
+      <c r="C89" t="s">
         <v>510</v>
       </c>
+      <c r="D89"/>
       <c r="E89" t="s">
         <v>510</v>
       </c>
-      <c r="F89"/>
-      <c r="G89" t="s">
+      <c r="F89" t="s">
         <v>510</v>
       </c>
+      <c r="G89"/>
       <c r="H89" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I89" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="19" t="s">
         <v>1334</v>
       </c>
-      <c r="G90" t="s">
+      <c r="H90" t="s">
         <v>1341</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
+        <v>1506</v>
+      </c>
+      <c r="B91"/>
+      <c r="C91" t="s">
+        <v>1545</v>
+      </c>
+      <c r="D91"/>
+      <c r="E91" t="s">
         <v>1507</v>
       </c>
-      <c r="B91" t="s">
-        <v>1546</v>
-      </c>
-      <c r="C91"/>
-      <c r="D91" t="s">
-        <v>1508</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>1567</v>
+        <v>1557</v>
       </c>
       <c r="B92" t="s">
-        <v>1568</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1614</v>
+      </c>
+      <c r="C92" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>1569</v>
+        <v>1559</v>
       </c>
       <c r="B93" t="s">
-        <v>1570</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1560</v>
+      </c>
+      <c r="C93" t="s">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B94"/>
+      <c r="C94" t="s">
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>1565</v>
+      </c>
+      <c r="B95" t="s">
+        <v>1631</v>
+      </c>
+      <c r="C95" t="s">
+        <v>1566</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
         <v>1572</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B96" t="s">
+        <v>1609</v>
+      </c>
+      <c r="C96" t="s">
         <v>1573</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>1575</v>
-      </c>
-      <c r="B95" t="s">
-        <v>1576</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="s">
-        <v>1588</v>
-      </c>
-      <c r="B96" t="s">
-        <v>1589</v>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>1599</v>
+      </c>
+      <c r="B97" t="s">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>1600</v>
+      </c>
+      <c r="B98" t="s">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>1603</v>
+      </c>
+      <c r="B99" t="s">
+        <v>1604</v>
       </c>
     </row>
   </sheetData>
@@ -9346,7 +9682,7 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
@@ -9408,7 +9744,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="48" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="D5" t="s">
         <v>201</v>
@@ -9421,7 +9757,7 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
@@ -9464,7 +9800,7 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
@@ -9519,7 +9855,7 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
@@ -9555,7 +9891,7 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
@@ -9618,7 +9954,7 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
@@ -9669,7 +10005,7 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
@@ -9896,7 +10232,7 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
@@ -10118,7 +10454,7 @@
         <v>2001</v>
       </c>
       <c r="D6" s="91" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
     </row>
   </sheetData>
@@ -10128,7 +10464,7 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
@@ -10189,7 +10525,7 @@
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
@@ -10246,7 +10582,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
@@ -11428,7 +11764,7 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
@@ -11526,7 +11862,7 @@
         <v>1402</v>
       </c>
       <c r="D6" s="92" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -11564,7 +11900,7 @@
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
@@ -11667,7 +12003,7 @@
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
@@ -11772,7 +12108,7 @@
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
@@ -11843,7 +12179,7 @@
 </file>
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2100-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
@@ -11931,7 +12267,7 @@
 </file>
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2200-000000000000}">
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
@@ -12071,16 +12407,16 @@
         <v>2001</v>
       </c>
       <c r="C6" s="49" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="D6" s="49" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="E6" t="s">
-        <v>1559</v>
+        <v>1549</v>
       </c>
       <c r="F6" t="s">
-        <v>1558</v>
+        <v>1548</v>
       </c>
     </row>
   </sheetData>
@@ -12090,7 +12426,7 @@
 </file>
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2300-000000000000}">
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
@@ -12143,7 +12479,7 @@
 </file>
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2400-000000000000}">
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
@@ -12181,7 +12517,7 @@
 </file>
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2500-000000000000}">
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
@@ -12248,14 +12584,14 @@
 </file>
 
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2600-000000000000}">
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12263,7 +12599,9 @@
     <col min="1" max="1" bestFit="true" customWidth="true" style="19" width="11.7109375" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" style="19" width="24.42578125" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" style="19" width="7.0" collapsed="true"/>
-    <col min="4" max="16384" style="19" width="9.140625" collapsed="true"/>
+    <col min="4" max="5" style="19" width="9.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="19" width="14.42578125" collapsed="true"/>
+    <col min="7" max="16384" style="19" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -12283,15 +12621,15 @@
         <v>1063</v>
       </c>
       <c r="F1" s="19" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="F2" t="s">
-        <v>1466</v>
+      <c r="F2">
+        <v>200120277</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -12311,7 +12649,7 @@
         <v>1270</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>1270</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -12343,8 +12681,8 @@
       <c r="A6" s="19" t="s">
         <v>1251</v>
       </c>
-      <c r="F6" s="48" t="s">
-        <v>1564</v>
+      <c r="F6" s="98">
+        <v>2001401678</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -12360,7 +12698,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
@@ -14414,7 +14752,7 @@
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2700-000000000000}">
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
@@ -14430,8 +14768,10 @@
     <col min="2" max="2" bestFit="true" customWidth="true" style="19" width="24.42578125" collapsed="true"/>
     <col min="3" max="4" style="19" width="9.140625" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" style="19" width="11.0" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="19" width="10.0" collapsed="true"/>
-    <col min="7" max="16384" style="19" width="9.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="19" width="16.5703125" collapsed="true"/>
+    <col min="7" max="10" style="19" width="9.140625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="19" width="12.140625" collapsed="true"/>
+    <col min="12" max="16384" style="19" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -14451,7 +14791,7 @@
         <v>1063</v>
       </c>
       <c r="F1" s="19" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -14462,7 +14802,7 @@
         <v>202522371</v>
       </c>
       <c r="F2">
-        <v>200120271</v>
+        <v>200120275</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -14510,15 +14850,15 @@
         <v>510</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
         <v>1251</v>
       </c>
       <c r="E6">
         <v>2025401646</v>
       </c>
-      <c r="F6" s="48" t="s">
-        <v>1565</v>
+      <c r="F6" s="98">
+        <v>2001401677</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -14536,7 +14876,7 @@
 </file>
 
 <file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2800-000000000000}">
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
@@ -14567,7 +14907,7 @@
         <v>1063</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -14592,14 +14932,14 @@
 </file>
 
 <file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2900-000000000000}">
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="A7:C8"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14617,7 +14957,7 @@
         <v>1063</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -14627,9 +14967,7 @@
       <c r="B2" s="19" t="s">
         <v>1409</v>
       </c>
-      <c r="C2" s="48" t="s">
-        <v>1464</v>
-      </c>
+      <c r="C2" s="48"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
@@ -14665,9 +15003,7 @@
       <c r="B6" s="19" t="s">
         <v>1413</v>
       </c>
-      <c r="C6" s="48" t="s">
-        <v>1566</v>
-      </c>
+      <c r="C6" s="48"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
@@ -14692,7 +15028,7 @@
 </file>
 
 <file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2A00-000000000000}">
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
@@ -14789,7 +15125,7 @@
 </file>
 
 <file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2B00-000000000000}">
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
@@ -14869,7 +15205,7 @@
 </file>
 
 <file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2C00-000000000000}">
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
@@ -14940,7 +15276,7 @@
 </file>
 
 <file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2D00-000000000000}">
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
@@ -15126,7 +15462,7 @@
 </file>
 
 <file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2E00-000000000000}">
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -15177,7 +15513,7 @@
         <v>1394</v>
       </c>
       <c r="C5" s="84" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -15219,7 +15555,7 @@
 </file>
 
 <file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2F00-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -15256,7 +15592,7 @@
         <v>1394</v>
       </c>
       <c r="C3" s="84" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -15299,7 +15635,7 @@
 </file>
 
 <file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3000-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -15354,7 +15690,7 @@
         <v>1394</v>
       </c>
       <c r="C6" s="48" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -15393,7 +15729,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
@@ -15631,7 +15967,7 @@
 </file>
 
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3100-000000000000}">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
@@ -15766,7 +16102,7 @@
         <v>916</v>
       </c>
       <c r="B9" s="48" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="C9" s="48" t="s">
         <v>1342</v>
@@ -15780,7 +16116,7 @@
         <v>918</v>
       </c>
       <c r="B10" s="48" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="C10" s="48" t="s">
         <v>1343</v>
@@ -15998,10 +16334,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="B29" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -16009,20 +16345,20 @@
         <v>1206</v>
       </c>
       <c r="B30" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="B31" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="B32" t="s">
         <v>509</v>
@@ -16035,11 +16371,11 @@
 </file>
 
 <file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3200-000000000000}">
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16226,51 +16562,51 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>1089</v>
+        <v>1581</v>
       </c>
       <c r="B17" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="C17" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="B18" t="s">
-        <v>1086</v>
+        <v>1090</v>
       </c>
       <c r="C18" t="s">
-        <v>1086</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>1092</v>
-      </c>
-      <c r="B19" s="48" t="s">
-        <v>1093</v>
-      </c>
-      <c r="C19" s="48" t="s">
-        <v>1093</v>
+        <v>1091</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1086</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>1094</v>
-      </c>
-      <c r="B20" t="s">
-        <v>1086</v>
-      </c>
-      <c r="C20" t="s">
-        <v>1086</v>
+        <v>1092</v>
+      </c>
+      <c r="B20" s="48" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C20" s="48" t="s">
+        <v>1093</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="B21" t="s">
         <v>1086</v>
@@ -16281,85 +16617,96 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>204</v>
+        <v>1095</v>
       </c>
       <c r="B22" t="s">
-        <v>915</v>
+        <v>1086</v>
       </c>
       <c r="C22" t="s">
-        <v>915</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>1096</v>
+        <v>204</v>
       </c>
       <c r="B23" t="s">
-        <v>931</v>
+        <v>915</v>
       </c>
       <c r="C23" t="s">
-        <v>931</v>
+        <v>915</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="B24" t="s">
-        <v>1086</v>
+        <v>931</v>
       </c>
       <c r="C24" t="s">
-        <v>1086</v>
+        <v>931</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="B25" t="s">
-        <v>1099</v>
+        <v>1086</v>
       </c>
       <c r="C25" t="s">
-        <v>1099</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="B26" t="s">
-        <v>1284</v>
+        <v>1099</v>
       </c>
       <c r="C26" t="s">
-        <v>1284</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>1101</v>
-      </c>
-      <c r="B27">
-        <v>3000</v>
-      </c>
-      <c r="C27">
-        <v>3000</v>
+        <v>1100</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1284</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1284</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B28">
+        <v>3000</v>
+      </c>
+      <c r="C28">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>1102</v>
       </c>
-      <c r="B28">
+      <c r="B29">
         <v>300000</v>
       </c>
-      <c r="C28">
+      <c r="C29">
         <v>300000</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1"/>
-    <hyperlink ref="B4" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId1" xr:uid="{00000000-0004-0000-3200-000000000000}"/>
+    <hyperlink ref="B4" r:id="rId2" xr:uid="{00000000-0004-0000-3200-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -16367,7 +16714,7 @@
 </file>
 
 <file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3300-000000000000}">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
@@ -16441,7 +16788,7 @@
 </file>
 
 <file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3400-000000000000}">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
@@ -16527,7 +16874,7 @@
 </file>
 
 <file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3500-000000000000}">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
@@ -16571,7 +16918,7 @@
 </file>
 
 <file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3600-000000000000}">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
@@ -16628,7 +16975,7 @@
 </file>
 
 <file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3700-000000000000}">
   <sheetPr>
     <tabColor theme="3" tint="0.39997558519241921"/>
   </sheetPr>
@@ -16796,7 +17143,7 @@
         <v>266</v>
       </c>
       <c r="G4" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="H4" s="48" t="s">
         <v>961</v>
@@ -16809,7 +17156,7 @@
         <v>266</v>
       </c>
       <c r="M4" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="N4" s="48" t="s">
         <v>962</v>
@@ -16825,7 +17172,7 @@
 </file>
 
 <file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3800-000000000000}">
   <dimension ref="A1:AC5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -17046,37 +17393,37 @@
     <row r="4" spans="1:29" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="B5" t="s">
-        <v>1578</v>
+        <v>1592</v>
       </c>
       <c r="C5" t="s">
-        <v>1579</v>
+        <v>1569</v>
       </c>
       <c r="D5" t="s">
         <v>1013</v>
       </c>
       <c r="E5" t="s">
-        <v>1580</v>
+        <v>1593</v>
       </c>
       <c r="F5" t="s">
-        <v>1581</v>
+        <v>1594</v>
       </c>
       <c r="G5" t="s">
-        <v>1582</v>
+        <v>712</v>
       </c>
       <c r="H5" t="s">
-        <v>1583</v>
+        <v>1595</v>
       </c>
       <c r="I5" t="s">
-        <v>1580</v>
+        <v>1593</v>
       </c>
       <c r="J5" t="s">
         <v>266</v>
       </c>
       <c r="K5" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="L5" t="s">
         <v>1231</v>
@@ -17100,16 +17447,16 @@
         <v>1234</v>
       </c>
       <c r="S5" t="s">
-        <v>1583</v>
+        <v>1595</v>
       </c>
       <c r="T5" t="s">
-        <v>1580</v>
+        <v>1593</v>
       </c>
       <c r="U5" t="s">
         <v>266</v>
       </c>
       <c r="V5" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="W5" t="s">
         <v>1235</v>
@@ -17140,7 +17487,7 @@
 </file>
 
 <file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3900-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -17174,7 +17521,7 @@
 </file>
 
 <file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3A00-000000000000}">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
@@ -17220,14 +17567,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="A1:AP5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17505,13 +17852,13 @@
     </row>
     <row r="4" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>201</v>
+        <v>2001</v>
       </c>
       <c r="C4" t="s">
+        <v>1453</v>
+      </c>
+      <c r="D4" t="s">
         <v>1454</v>
-      </c>
-      <c r="D4" t="s">
-        <v>1455</v>
       </c>
       <c r="E4">
         <v>6</v>
@@ -17520,10 +17867,10 @@
         <v>1000</v>
       </c>
       <c r="G4" t="s">
+        <v>1455</v>
+      </c>
+      <c r="H4" t="s">
         <v>1456</v>
-      </c>
-      <c r="H4" t="s">
-        <v>1457</v>
       </c>
       <c r="I4">
         <v>25</v>
@@ -17532,10 +17879,10 @@
         <v>500</v>
       </c>
       <c r="K4" t="s">
+        <v>1457</v>
+      </c>
+      <c r="L4" t="s">
         <v>1458</v>
-      </c>
-      <c r="L4" t="s">
-        <v>1459</v>
       </c>
       <c r="M4">
         <v>15</v>
@@ -17546,13 +17893,13 @@
     </row>
     <row r="5" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>2001</v>
+        <v>201</v>
       </c>
       <c r="C5" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="D5" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="E5">
         <v>6</v>
@@ -17561,10 +17908,10 @@
         <v>1000</v>
       </c>
       <c r="G5" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="H5" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="I5">
         <v>25</v>
@@ -17573,10 +17920,10 @@
         <v>500</v>
       </c>
       <c r="K5" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="L5" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="M5">
         <v>10</v>
@@ -17592,7 +17939,7 @@
 </file>
 
 <file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3B00-000000000000}">
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -17685,7 +18032,7 @@
 </file>
 
 <file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3C00-000000000000}">
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -17815,7 +18162,7 @@
 </file>
 
 <file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3D00-000000000000}">
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -17912,7 +18259,7 @@
 </file>
 
 <file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3E00-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -17948,7 +18295,7 @@
 </file>
 
 <file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3F00-000000000000}">
   <dimension ref="A1:AX2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -18171,7 +18518,7 @@
 </file>
 
 <file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4000-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -18212,7 +18559,7 @@
 </file>
 
 <file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4100-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -18262,7 +18609,7 @@
 </file>
 
 <file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4200-000000000000}">
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -18337,7 +18684,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="48" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="K4">
         <v>20019933</v>
@@ -18350,7 +18697,7 @@
 </file>
 
 <file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4300-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -18418,11 +18765,12 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4400-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
@@ -18749,7 +19097,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
@@ -18765,7 +19113,7 @@
 </file>
 
 <file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4500-000000000000}">
   <dimension ref="A1:AM5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -18970,19 +19318,19 @@
     </row>
     <row r="5" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>1460</v>
+      </c>
+      <c r="B5" t="s">
         <v>1461</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1462</v>
       </c>
       <c r="C5" t="s">
         <v>1173</v>
       </c>
       <c r="D5" t="s">
-        <v>1547</v>
+        <v>1583</v>
       </c>
       <c r="E5" t="s">
-        <v>1548</v>
+        <v>1584</v>
       </c>
       <c r="F5" t="s">
         <v>1116</v>
@@ -18991,25 +19339,25 @@
         <v>1118</v>
       </c>
       <c r="H5" t="s">
-        <v>1549</v>
+        <v>1585</v>
       </c>
       <c r="I5" t="s">
         <v>1121</v>
       </c>
       <c r="J5" t="s">
-        <v>1550</v>
+        <v>1586</v>
       </c>
       <c r="K5" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="L5" t="s">
         <v>1178</v>
       </c>
       <c r="M5" t="s">
-        <v>1551</v>
+        <v>1587</v>
       </c>
       <c r="N5" t="s">
-        <v>1552</v>
+        <v>1588</v>
       </c>
       <c r="O5" t="s">
         <v>1116</v>
@@ -19018,19 +19366,19 @@
         <v>1118</v>
       </c>
       <c r="Q5" t="s">
-        <v>1553</v>
+        <v>1589</v>
       </c>
       <c r="R5" t="s">
         <v>1121</v>
       </c>
       <c r="S5" t="s">
-        <v>1554</v>
+        <v>1590</v>
       </c>
       <c r="T5" t="s">
         <v>201</v>
       </c>
       <c r="U5" t="s">
-        <v>1555</v>
+        <v>1591</v>
       </c>
       <c r="V5" t="s">
         <v>1118</v>
@@ -19094,10 +19442,10 @@
 </file>
 
 <file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4600-000000000000}">
   <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -19116,7 +19464,7 @@
         <v>208</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>1585</v>
+        <v>1571</v>
       </c>
       <c r="C1" s="19" t="s">
         <v>109</v>
@@ -19184,10 +19532,10 @@
         <v>2001</v>
       </c>
       <c r="B2" t="s">
-        <v>1478</v>
+        <v>1597</v>
       </c>
       <c r="C2" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="D2" t="s">
         <v>1178</v>
@@ -19249,11 +19597,12 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4700-000000000000}">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
@@ -19397,7 +19746,7 @@
 </file>
 
 <file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4800-000000000000}">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
@@ -19541,7 +19890,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
@@ -19557,7 +19906,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>

--- a/WppRegpack/TestResource/Regression/DS_MLY_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Regression/DS_MLY_REGRESSION.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
-  <workbookPr/>
-  <mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GlobalTestSuite\branches\bau_environment\WppRegpack\TestResource\Regression\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GlobalTestSuiteAutomation\WppRegpack\TestResource\Regression\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77B31749-FE85-4688-82F6-9463C8B1C2B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="70" activeTab="71"/>
   </bookViews>
   <sheets>
     <sheet name="Server Details" sheetId="1" r:id="rId1"/>
@@ -84,12 +83,15 @@
     <sheet name="InvoiceMPL" sheetId="59" r:id="rId69"/>
     <sheet name="QuoteMPL" sheetId="60" r:id="rId70"/>
     <sheet name="PurchaseOrderMPL" sheetId="75" r:id="rId71"/>
-    <sheet name="Agency Users" sheetId="11" r:id="rId72"/>
-    <sheet name="SSC Users" sheetId="12" r:id="rId73"/>
+    <sheet name="TrailBalanceDetailReport" sheetId="76" r:id="rId72"/>
+    <sheet name="ProfitAndLossReport" sheetId="77" r:id="rId73"/>
+    <sheet name="BalanceSheetReport" sheetId="78" r:id="rId74"/>
+    <sheet name="Agency Users" sheetId="11" r:id="rId75"/>
+    <sheet name="SSC Users" sheetId="12" r:id="rId76"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -97,7 +99,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3156" uniqueCount="1634">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3068" uniqueCount="1630">
   <si>
     <t>Description</t>
   </si>
@@ -4934,20 +4936,6 @@
     <t>C:\GlobalTestSuite\branches\bau_environment\WppRegPack\MPLReports\Critical_Regression\Malaysia\2001\P_PurchaseOrder-1.pdf</t>
   </si>
   <si>
-    <t>C:\GlobalTestSuite\branches\bau_environment\WppRegPack\MPLReports\Critical_Regression\Malaysia\2001\Print Invoice Editing-8.pdf</t>
-  </si>
-  <si>
-    <t>C:\GlobalTestSuite\branches\bau_environment\WppRegPack\MPLReports\Critical_Regression\Malaysia\2001\Print Job Invoice-1.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2001401678
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2001401678
-</t>
-  </si>
-  <si>
     <t>2001451072</t>
   </si>
   <si>
@@ -4964,21 +4952,6 @@
   </si>
   <si>
     <t>200120279</t>
-  </si>
-  <si>
-    <t>Spot bonus</t>
-  </si>
-  <si>
-    <t>260.57</t>
-  </si>
-  <si>
-    <t>3,908.55</t>
-  </si>
-  <si>
-    <t>234.51</t>
-  </si>
-  <si>
-    <t>4143.06</t>
   </si>
   <si>
     <t>C:\GlobalTestSuite\branches\bau_environment\WppRegPack\MPLReports\Critical_Regression\Malaysia\2001\Print Job Quote-8.pdf</t>
@@ -5008,13 +4981,27 @@
   </si>
   <si>
     <t>2001401679</t>
+  </si>
+  <si>
+    <t>PeriodFrom</t>
+  </si>
+  <si>
+    <t>2020-06</t>
+  </si>
+  <si>
+    <t>PeriodTo</t>
+  </si>
+  <si>
+    <t>2021-01</t>
+  </si>
+  <si>
+    <t>2021-07</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -5762,7 +5749,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
@@ -5774,8 +5761,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="2" max="9" bestFit="true" customWidth="true" width="40.7109375" collapsed="true"/>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="9" width="40.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5850,8 +5837,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -5859,7 +5846,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
@@ -5871,10 +5858,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="38" width="30.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="38" width="33.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="43.0" collapsed="true"/>
-    <col min="4" max="16384" style="19" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="30.140625" style="38" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.5703125" style="38" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="43" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="19" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -6068,7 +6055,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
@@ -6080,28 +6067,28 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="22.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="14.5703125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="22.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.5703125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.5703125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
@@ -6315,7 +6302,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
@@ -6327,10 +6314,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="19" width="19.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="1" max="1" width="21" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -6633,7 +6620,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
@@ -6645,9 +6632,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="19" width="31.0" collapsed="true"/>
-    <col min="2" max="3" bestFit="true" customWidth="true" style="19" width="51.0" collapsed="true"/>
-    <col min="4" max="16384" style="19" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="31" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="51" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="19" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6887,8 +6874,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B8" r:id="rId1" xr:uid="{00000000-0004-0000-0C00-000000000000}"/>
-    <hyperlink ref="C8" r:id="rId2" display="2025_AutomationEmpy@gmail.com" xr:uid="{00000000-0004-0000-0C00-000001000000}"/>
+    <hyperlink ref="B8" r:id="rId1"/>
+    <hyperlink ref="C8" r:id="rId2" display="2025_AutomationEmpy@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -6896,7 +6883,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
@@ -6908,10 +6895,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="19" width="24.140625" collapsed="true"/>
-    <col min="2" max="3" customWidth="true" style="19" width="23.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="19" width="28.7109375" collapsed="true"/>
-    <col min="5" max="16384" style="19" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="24.140625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="23.140625" style="19" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="28.7109375" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="16384" width="9.140625" style="19" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7045,7 +7032,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
@@ -7057,8 +7044,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="37.5703125" collapsed="true"/>
-    <col min="2" max="3" customWidth="true" width="52.28515625" collapsed="true"/>
+    <col min="1" max="1" width="37.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="52.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -7349,8 +7336,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B9" r:id="rId1" display="1203_TestEmployeeAutomation@gmail.com" xr:uid="{00000000-0004-0000-0E00-000000000000}"/>
-    <hyperlink ref="C9" r:id="rId2" display="1203_TestEmployeeAutomation@gmail.com" xr:uid="{00000000-0004-0000-0E00-000001000000}"/>
+    <hyperlink ref="B9" r:id="rId1" display="1203_TestEmployeeAutomation@gmail.com"/>
+    <hyperlink ref="C9" r:id="rId2" display="1203_TestEmployeeAutomation@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -7358,7 +7345,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
@@ -7370,8 +7357,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="19" width="31.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="19" width="60.140625" collapsed="true"/>
+    <col min="1" max="1" width="31" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="60.140625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7420,7 +7407,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
@@ -7432,7 +7419,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="26.28515625" collapsed="true"/>
+    <col min="2" max="2" width="26.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7486,7 +7473,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
@@ -7498,8 +7485,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="24.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="41.28515625" collapsed="true"/>
+    <col min="1" max="1" width="24" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="41.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7533,7 +7520,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
@@ -7545,9 +7532,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:62" x14ac:dyDescent="0.25">
@@ -7844,7 +7831,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
@@ -7856,10 +7843,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="8" customWidth="true" style="19" width="39.7109375" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="19" width="27.85546875" collapsed="true"/>
-    <col min="10" max="162" customWidth="true" style="19" width="32.0" collapsed="true"/>
-    <col min="163" max="16384" style="19" width="9.140625" collapsed="true"/>
+    <col min="1" max="8" width="39.7109375" style="19" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="27.85546875" style="19" customWidth="1" collapsed="1"/>
+    <col min="10" max="162" width="32" style="19" customWidth="1" collapsed="1"/>
+    <col min="163" max="16384" width="9.140625" style="19" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:162" x14ac:dyDescent="0.25">
@@ -8045,7 +8032,7 @@
         <v>180</v>
       </c>
       <c r="B2" t="s">
-        <v>1619</v>
+        <v>1615</v>
       </c>
       <c r="C2" t="s">
         <v>1465</v>
@@ -8495,7 +8482,7 @@
         <v>1032</v>
       </c>
       <c r="B25" t="s">
-        <v>1619</v>
+        <v>1615</v>
       </c>
       <c r="C25" t="s">
         <v>1477</v>
@@ -8779,7 +8766,7 @@
         <v>1048</v>
       </c>
       <c r="B43" t="s">
-        <v>1630</v>
+        <v>1621</v>
       </c>
       <c r="C43"/>
       <c r="D43"/>
@@ -8969,7 +8956,7 @@
         <v>1131</v>
       </c>
       <c r="B60" t="s">
-        <v>1625</v>
+        <v>1616</v>
       </c>
       <c r="C60" t="s">
         <v>1278</v>
@@ -8994,7 +8981,7 @@
         <v>1132</v>
       </c>
       <c r="B61" t="s">
-        <v>1626</v>
+        <v>1617</v>
       </c>
       <c r="C61" t="s">
         <v>1546</v>
@@ -9119,7 +9106,7 @@
         <v>1196</v>
       </c>
       <c r="B66" t="s">
-        <v>1627</v>
+        <v>1618</v>
       </c>
       <c r="C66"/>
       <c r="D66"/>
@@ -9138,7 +9125,7 @@
         <v>1199</v>
       </c>
       <c r="B67" t="s">
-        <v>1615</v>
+        <v>1611</v>
       </c>
       <c r="C67" t="s">
         <v>1561</v>
@@ -9163,7 +9150,7 @@
         <v>1200</v>
       </c>
       <c r="B68" t="s">
-        <v>1616</v>
+        <v>1612</v>
       </c>
       <c r="C68" t="s">
         <v>1554</v>
@@ -9238,7 +9225,7 @@
         <v>1247</v>
       </c>
       <c r="B71" t="s">
-        <v>1629</v>
+        <v>1620</v>
       </c>
       <c r="C71" s="48" t="s">
         <v>1554</v>
@@ -9261,7 +9248,7 @@
         <v>1249</v>
       </c>
       <c r="B72" t="s">
-        <v>1619</v>
+        <v>1615</v>
       </c>
       <c r="C72" t="s">
         <v>1465</v>
@@ -9284,7 +9271,7 @@
         <v>1253</v>
       </c>
       <c r="B73" t="s">
-        <v>1633</v>
+        <v>1624</v>
       </c>
       <c r="C73" t="s">
         <v>1556</v>
@@ -9309,7 +9296,7 @@
         <v>1254</v>
       </c>
       <c r="B74" t="s">
-        <v>1619</v>
+        <v>1615</v>
       </c>
       <c r="C74" t="s">
         <v>1463</v>
@@ -9334,7 +9321,7 @@
         <v>1256</v>
       </c>
       <c r="B75" t="s">
-        <v>1632</v>
+        <v>1623</v>
       </c>
       <c r="C75" t="s">
         <v>1567</v>
@@ -9359,7 +9346,7 @@
         <v>1261</v>
       </c>
       <c r="B76" t="s">
-        <v>1628</v>
+        <v>1619</v>
       </c>
       <c r="C76"/>
       <c r="D76"/>
@@ -9413,7 +9400,7 @@
         <v>1273</v>
       </c>
       <c r="B83" t="s">
-        <v>1617</v>
+        <v>1613</v>
       </c>
       <c r="C83" t="s">
         <v>1555</v>
@@ -9438,7 +9425,7 @@
         <v>1274</v>
       </c>
       <c r="B84" t="s">
-        <v>1618</v>
+        <v>1614</v>
       </c>
       <c r="C84" t="s">
         <v>1459</v>
@@ -9603,7 +9590,7 @@
         <v>1557</v>
       </c>
       <c r="B92" t="s">
-        <v>1614</v>
+        <v>1610</v>
       </c>
       <c r="C92" t="s">
         <v>1558</v>
@@ -9634,7 +9621,7 @@
         <v>1565</v>
       </c>
       <c r="B95" t="s">
-        <v>1631</v>
+        <v>1622</v>
       </c>
       <c r="C95" t="s">
         <v>1566</v>
@@ -9682,7 +9669,7 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
@@ -9694,8 +9681,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -9757,7 +9744,7 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
@@ -9769,8 +9756,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="45.5703125" collapsed="true"/>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="45.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -9800,7 +9787,7 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
@@ -9812,8 +9799,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="3" max="4" bestFit="true" customWidth="true" width="29.140625" collapsed="true"/>
+    <col min="1" max="2" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="29.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -9855,7 +9842,7 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
@@ -9867,8 +9854,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="32.140625" collapsed="true"/>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -9891,7 +9878,7 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
@@ -9903,8 +9890,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -9954,7 +9941,7 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
@@ -9966,8 +9953,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -10005,7 +9992,7 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
@@ -10017,48 +10004,48 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="37" max="37" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="38" max="38" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="39" max="39" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="40" max="40" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="41" max="41" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="42" max="42" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="40" max="40" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="42" max="42" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="43" max="43" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:43" x14ac:dyDescent="0.25">
@@ -10232,7 +10219,7 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
@@ -10244,40 +10231,40 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="19" width="15.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="22.85546875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="2" max="2" width="15.42578125" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="22.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:44" x14ac:dyDescent="0.25">
@@ -10464,7 +10451,7 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
@@ -10476,8 +10463,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -10525,7 +10512,7 @@
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
@@ -10537,8 +10524,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -10582,7 +10569,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
@@ -10594,7 +10581,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="19" width="12.0" collapsed="true"/>
+    <col min="2" max="2" width="12" style="19" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -11764,7 +11751,7 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
@@ -11776,9 +11763,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="24.7109375" collapsed="true"/>
-    <col min="3" max="4" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="24" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -11900,7 +11887,7 @@
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
@@ -11912,10 +11899,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="19" width="21.140625" collapsed="true"/>
-    <col min="2" max="3" bestFit="true" customWidth="true" style="19" width="22.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="19" width="12.42578125" collapsed="true"/>
-    <col min="5" max="16384" style="19" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="21.140625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="22.5703125" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.42578125" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="16384" width="9.140625" style="19" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -12003,7 +11990,7 @@
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
@@ -12015,10 +12002,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="20.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12108,7 +12095,7 @@
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
@@ -12120,8 +12107,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -12179,7 +12166,7 @@
 </file>
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
@@ -12191,9 +12178,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="20.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -12267,7 +12254,7 @@
 </file>
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
@@ -12279,12 +12266,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="7" max="15" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="1" max="2" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="15" width="16.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -12426,7 +12413,7 @@
 </file>
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
@@ -12438,7 +12425,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -12479,7 +12466,7 @@
 </file>
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
@@ -12491,7 +12478,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -12517,7 +12504,7 @@
 </file>
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
@@ -12529,8 +12516,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="21.42578125" collapsed="true"/>
+    <col min="1" max="1" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="21.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -12584,7 +12571,7 @@
 </file>
 
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
@@ -12596,12 +12583,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="19" width="11.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="19" width="24.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="19" width="7.0" collapsed="true"/>
-    <col min="4" max="5" style="19" width="9.140625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="19" width="14.42578125" collapsed="true"/>
-    <col min="7" max="16384" style="19" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="11.7109375" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.42578125" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="7" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="5" width="9.140625" style="19" collapsed="1"/>
+    <col min="6" max="6" width="14.42578125" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="16384" width="9.140625" style="19" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -12698,7 +12685,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
@@ -12710,7 +12697,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="37.5703125" collapsed="true"/>
+    <col min="1" max="1" width="37.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -14752,7 +14739,7 @@
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
@@ -14764,14 +14751,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="19" width="20.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="19" width="24.42578125" collapsed="true"/>
-    <col min="3" max="4" style="19" width="9.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="19" width="11.0" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="19" width="16.5703125" collapsed="true"/>
-    <col min="7" max="10" style="19" width="9.140625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="19" width="12.140625" collapsed="true"/>
-    <col min="12" max="16384" style="19" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="20.42578125" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.42578125" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="9.140625" style="19" collapsed="1"/>
+    <col min="5" max="5" width="11" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="16.5703125" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="10" width="9.140625" style="19" collapsed="1"/>
+    <col min="11" max="11" width="12.140625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="16384" width="9.140625" style="19" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -14876,7 +14863,7 @@
 </file>
 
 <file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
@@ -14888,9 +14875,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="19" width="15.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="19" width="27.5703125" collapsed="true"/>
-    <col min="3" max="16384" style="19" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="15.28515625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.5703125" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" style="19" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -14932,7 +14919,7 @@
 </file>
 
 <file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
@@ -14944,9 +14931,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="19" width="20.42578125" collapsed="true"/>
-    <col min="2" max="3" bestFit="true" customWidth="true" style="19" width="15.7109375" collapsed="true"/>
-    <col min="4" max="16384" style="19" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="20.42578125" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="15.7109375" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="19" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -15028,7 +15015,7 @@
 </file>
 
 <file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
@@ -15040,12 +15027,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="23.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15125,7 +15112,7 @@
 </file>
 
 <file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
@@ -15137,9 +15124,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="19" width="14.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="19" width="15.28515625" collapsed="true"/>
-    <col min="3" max="16384" style="19" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="14.28515625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.28515625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" style="19" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -15205,7 +15192,7 @@
 </file>
 
 <file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
@@ -15217,8 +15204,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -15276,7 +15263,7 @@
 </file>
 
 <file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
@@ -15288,11 +15275,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="24.85546875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="24.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:44" x14ac:dyDescent="0.25">
@@ -15462,7 +15449,7 @@
 </file>
 
 <file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -15471,8 +15458,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="2" max="3" bestFit="true" customWidth="true" width="32.5703125" collapsed="true"/>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="32.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -15555,7 +15542,7 @@
 </file>
 
 <file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -15564,8 +15551,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="2" max="3" bestFit="true" customWidth="true" width="32.5703125" collapsed="true"/>
+    <col min="1" max="1" width="21" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="32.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -15635,7 +15622,7 @@
 </file>
 
 <file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -15644,8 +15631,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="24.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="1" max="1" width="24.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -15729,7 +15716,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
@@ -15741,10 +15728,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="35.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="33.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="26.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="33.5703125" collapsed="true"/>
+    <col min="1" max="1" width="35.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="26" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="33.5703125" style="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -15967,7 +15954,7 @@
 </file>
 
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
@@ -15979,10 +15966,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="30.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="28.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="35.0" collapsed="true"/>
+    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="28.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="35" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -16371,7 +16358,7 @@
 </file>
 
 <file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -16380,8 +16367,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="24.85546875" collapsed="true"/>
-    <col min="2" max="3" bestFit="true" customWidth="true" width="35.0" collapsed="true"/>
+    <col min="1" max="1" width="24.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="35" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -16705,8 +16692,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1" xr:uid="{00000000-0004-0000-3200-000000000000}"/>
-    <hyperlink ref="B4" r:id="rId2" xr:uid="{00000000-0004-0000-3200-000001000000}"/>
+    <hyperlink ref="C4" r:id="rId1"/>
+    <hyperlink ref="B4" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -16714,7 +16701,7 @@
 </file>
 
 <file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
@@ -16726,7 +16713,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -16788,7 +16775,7 @@
 </file>
 
 <file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
@@ -16800,8 +16787,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="28.7109375" collapsed="true"/>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="28.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -16874,7 +16861,7 @@
 </file>
 
 <file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
@@ -16886,8 +16873,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="19" width="14.140625" collapsed="true"/>
-    <col min="2" max="16384" style="19" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="14.140625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="16384" width="9.140625" style="19" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -16918,7 +16905,7 @@
 </file>
 
 <file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
@@ -16930,9 +16917,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="19" width="14.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="19" width="10.0" collapsed="true"/>
-    <col min="3" max="16384" style="19" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="14.140625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" style="19" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -16975,7 +16962,7 @@
 </file>
 
 <file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3" tint="0.39997558519241921"/>
   </sheetPr>
@@ -16987,15 +16974,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="15.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
@@ -17172,7 +17159,7 @@
 </file>
 
 <file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -17487,7 +17474,7 @@
 </file>
 
 <file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -17521,7 +17508,7 @@
 </file>
 
 <file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
@@ -17533,9 +17520,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="83" width="18.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="83" width="35.0" collapsed="true"/>
-    <col min="3" max="16384" style="83" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="18" style="83" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35" style="83" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" style="83" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -17567,51 +17554,51 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="A1:AP5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="23.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="37" max="37" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="39" max="39" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="40" max="40" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="41" max="41" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="23.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="40" max="40" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:42" x14ac:dyDescent="0.25">
@@ -17939,7 +17926,7 @@
 </file>
 
 <file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -17948,17 +17935,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="22.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="20.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="16.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="17.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="20.42578125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="17.140625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="15.28515625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="15.140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="20.42578125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="17.140625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="13.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -18032,7 +18019,7 @@
 </file>
 
 <file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -18041,20 +18028,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="23.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="21.42578125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="23.140625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="21.42578125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="23.140625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="18.85546875" collapsed="true"/>
-    <col min="14" max="14" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="23.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="21.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="21.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="18.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="9.140625" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
@@ -18162,7 +18149,7 @@
 </file>
 
 <file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -18171,9 +18158,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="19" width="11.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="19" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18259,7 +18246,7 @@
 </file>
 
 <file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -18268,8 +18255,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="19" width="11.0" collapsed="true"/>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11" style="19" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -18295,7 +18282,7 @@
 </file>
 
 <file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AX2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -18304,41 +18291,41 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="38" max="38" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="39" max="39" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="40" max="40" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="44" max="44" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="45" max="45" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="48" max="48" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="49" max="49" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="50" max="50" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="40" max="40" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="43" max="43" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="44" max="44" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="45" max="45" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="47" max="47" width="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="48" max="48" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="49" max="49" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="50" max="50" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:42" x14ac:dyDescent="0.25">
@@ -18518,7 +18505,7 @@
 </file>
 
 <file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -18527,8 +18514,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="19" width="11.0" collapsed="true"/>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11" style="19" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -18559,7 +18546,7 @@
 </file>
 
 <file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -18568,8 +18555,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="17.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="19" width="11.0" collapsed="true"/>
+    <col min="1" max="1" width="17" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11" style="19" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -18609,7 +18596,7 @@
 </file>
 
 <file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -18618,8 +18605,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -18697,7 +18684,7 @@
 </file>
 
 <file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -18706,13 +18693,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="5" max="5" width="9.140625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
-    <col min="7" max="16384" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" collapsed="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="9.140625" collapsed="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="16384" width="9.140625" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -18770,7 +18757,7 @@
 </file>
 
 <file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
@@ -19097,7 +19084,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
@@ -19113,7 +19100,7 @@
 </file>
 
 <file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -19442,7 +19429,7 @@
 </file>
 
 <file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -19451,12 +19438,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="23.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="28.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.42578125" collapsed="true"/>
-    <col min="6" max="7" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="2" max="2" width="23.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="28.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="6" max="7" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="21.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
@@ -19602,7 +19589,187 @@
 </file>
 
 <file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2">
+        <v>1707</v>
+      </c>
+      <c r="C1" s="2">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1707</v>
+      </c>
+      <c r="C2" s="4">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>1625</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>1626</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>1627</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>1626</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>1629</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2">
+        <v>1707</v>
+      </c>
+      <c r="C1" s="2">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1707</v>
+      </c>
+      <c r="C2" s="4">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>1625</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>1626</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>1627</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>1626</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>1629</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2">
+        <v>1707</v>
+      </c>
+      <c r="C1" s="2">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1707</v>
+      </c>
+      <c r="C2" s="4">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>1625</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>1626</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>1627</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>1626</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>1629</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
@@ -19614,8 +19781,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="21.42578125" collapsed="true"/>
-    <col min="2" max="3" customWidth="true" width="24.5703125" collapsed="true"/>
+    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="24.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -19745,8 +19912,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4800-000000000000}">
+<file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
@@ -19758,9 +19925,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="36.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="24.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="36.5703125" collapsed="true"/>
+    <col min="1" max="1" width="36.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="36.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19890,7 +20057,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
@@ -19906,7 +20073,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
